--- a/misc/Testing Scripts/QA/TestCaseResults.xlsx
+++ b/misc/Testing Scripts/QA/TestCaseResults.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\CAMDDevelopment\Tickets\EASEY-94 QA Test Case Scripting\CaseResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\CAMDDevelopment\easey-db-scripts\misc\Testing Scripts\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC34352-DF62-4A7C-BE01-626113BECAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57293870-0167-4A78-A821-4797FEC5DB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{673C86AF-EEEE-433C-9A6E-BD69DDCD2237}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{673C86AF-EEEE-433C-9A6E-BD69DDCD2237}"/>
   </bookViews>
   <sheets>
     <sheet name="Linearity Cases" sheetId="1" r:id="rId1"/>
     <sheet name="RATA Cases" sheetId="2" r:id="rId2"/>
+    <sheet name="Fuel-Flow To Load Test Cases" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5782" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6018" uniqueCount="831">
   <si>
     <t>ORIS 3 (Barry) Location 5</t>
   </si>
@@ -2371,6 +2372,165 @@
   </si>
   <si>
     <t>QAT "MDC-F33C839459EE443ABBE35920852434DD" "TGOSQL12SV-AD19AE8813B0455CAE544E0F2AA0102F"</t>
+  </si>
+  <si>
+    <t>ORIS 56249 (NCEMC Anson Plant) Location ES1-A</t>
+  </si>
+  <si>
+    <t>FF2LTST</t>
+  </si>
+  <si>
+    <t>FF2L-Q32021-01A-1</t>
+  </si>
+  <si>
+    <t>01A (CO2)</t>
+  </si>
+  <si>
+    <t>FF2LTST-1-B</t>
+  </si>
+  <si>
+    <t>According to the monitoring system record, the monitoring system for this fuel flow-to-load test was not a fuel flow system.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-F3ED630C7DE34EFA8BB22A34B636F88B" "NC-PORTERK-2C6905A0FC1245B8BC2358A8262E71F8"</t>
+  </si>
+  <si>
+    <t>FF2LTST-2-C</t>
+  </si>
+  <si>
+    <t>ORIS 56249 (NCEMC Anson Plant) Location ES1-B</t>
+  </si>
+  <si>
+    <t>FF2L-Q12019-02A-2</t>
+  </si>
+  <si>
+    <t>02A (GAS)</t>
+  </si>
+  <si>
+    <t>FF2LTST-11-A</t>
+  </si>
+  <si>
+    <t>You did not provide TestResultCode, which is required for this test.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-9D275D287FBF42CAAECBECA1A097558D" "NC-PORTERK-6D401A983DDA4D919F2B6EC67DB6E651"</t>
+  </si>
+  <si>
+    <t>FF2L-Q12020-02A-2</t>
+  </si>
+  <si>
+    <t>FF2LTST-7-A</t>
+  </si>
+  <si>
+    <t>The value -1 in the field NumberOfHoursExcludedCofiring for this test is not within the range of valid values.  This value must be greater than or equal to zero.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-9D275D287FBF42CAAECBECA1A097558D" "NC-PORTERK-0BAEAEC0BC024BF0B46489F9EB39D613"</t>
+  </si>
+  <si>
+    <t>FF2L-Q12021-02A-2</t>
+  </si>
+  <si>
+    <t>FF2LTST-5-E</t>
+  </si>
+  <si>
+    <t>The TestResultCode of the fuel flow-to-load test indicates a failing test, but the AverageDifference indicates a passing test.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-9D275D287FBF42CAAECBECA1A097558D" "NC-PORTERK-2E18521EDF874146996237F7184208FC"</t>
+  </si>
+  <si>
+    <t>FF2LTST-6-C</t>
+  </si>
+  <si>
+    <t>The NumberOfHoursUsed was less than 168 which is the minimum required to complete the quarterly fuel flow-to-load test.</t>
+  </si>
+  <si>
+    <t>FF2L-Q22019-02A-2</t>
+  </si>
+  <si>
+    <t>FF2LTST-10-A</t>
+  </si>
+  <si>
+    <t>QAT "MDC-9D275D287FBF42CAAECBECA1A097558D" "NC-PORTERK-D1D6E2A3226449298D5F78B51BC674EF"</t>
+  </si>
+  <si>
+    <t>FF2L-Q22020-02A-2</t>
+  </si>
+  <si>
+    <t>FF2LTST-4-B</t>
+  </si>
+  <si>
+    <t>The TestBasisCode is inconsistent with the data submitted in the associated fuel flow-to-load baseline data.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-9D275D287FBF42CAAECBECA1A097558D" "NC-PORTERK-E06718BEF23B45F7BB7163593FF55571"</t>
+  </si>
+  <si>
+    <t>FF2L-Q22021-02A-2</t>
+  </si>
+  <si>
+    <t>FF2LTST-3-A</t>
+  </si>
+  <si>
+    <t>You did not provide TestBasisCode, which is required for this test.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-9D275D287FBF42CAAECBECA1A097558D" "NC-PORTERK-9EBE9F31F97A40B4A550E6ADFC3BB93E"</t>
+  </si>
+  <si>
+    <t>FF2L-Q32019-02A-2</t>
+  </si>
+  <si>
+    <t>FF2LTST-9-A</t>
+  </si>
+  <si>
+    <t>The value -1 in the field NumberOfHoursExcludedLowRange for this test is not within the range of valid values.  This value must be greater than or equal to zero.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-9D275D287FBF42CAAECBECA1A097558D" "NC-PORTERK-15CC64B2F83B450D88C2ED86BB1CD36C"</t>
+  </si>
+  <si>
+    <t>FF2L-Q32021-02A-2</t>
+  </si>
+  <si>
+    <t>QAT "MDC-9D275D287FBF42CAAECBECA1A097558D" "NC-PORTERK-FDA53799F10F4AAFA43AF220712AFBF8"</t>
+  </si>
+  <si>
+    <t>FF2L-Q42018-02A-2</t>
+  </si>
+  <si>
+    <t>FF2LTST-12-A</t>
+  </si>
+  <si>
+    <t>The total number of hours used in the fuel flow-to-load or GHR analysis and the number of hours excluded exceed the total number of hours in the quarter.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-9D275D287FBF42CAAECBECA1A097558D" "NC-PORTERK-68AAAFBB42A1472BA590A2A55FB26855"</t>
+  </si>
+  <si>
+    <t>FF2L-Q42019-02A-2</t>
+  </si>
+  <si>
+    <t>FF2LTST-8-A</t>
+  </si>
+  <si>
+    <t>The value -1 in the field NumberOfHoursExcludedRamping for this test is not within the range of valid values.  This value must be greater than or equal to zero.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-9D275D287FBF42CAAECBECA1A097558D" "NC-PORTERK-F106F030CEEF492EA479A9DEC6DB5028"</t>
+  </si>
+  <si>
+    <t>FF2L-Q42020-02A-2</t>
+  </si>
+  <si>
+    <t>FF2LTST-6-A</t>
+  </si>
+  <si>
+    <t>The value -1 in the field NumberOfHoursUsed for this test is not within the range of valid values.  This value must be greater than or equal to zero.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-9D275D287FBF42CAAECBECA1A097558D" "NC-PORTERK-A137227A737345E6BA99604C9FC5E3B8"</t>
   </si>
 </sst>
 </file>
@@ -2455,7 +2615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2490,11 +2650,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="40">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2624,39 +2865,59 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}" name="Table1" displayName="Table1" ref="A1:J68" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}" name="Table1" displayName="Table1" ref="A1:J68" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A1:J68" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{4711296A-1683-4D59-9390-9C88803AA68A}" name="Location" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{46A8668E-BFD8-4CE9-8D48-A23DE00E437E}" name="Test Type" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{B7C72E78-CAF2-41A0-B7AC-096EC362072F}" name="Test Number" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{91E3C101-E9B0-405F-84B0-E044FE40F81E}" name="Test Date-Time" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{D57E3F37-9AD6-40C2-8ACB-5192B0E03191}" name="Sys/Comp Info" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{9415854F-BF69-421C-939D-DB4180DF22DE}" name="Severity" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{5AD12D48-C5A2-4105-B479-271121D42D3E}" name="EASEY Result Code" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{FBEFE9F9-E17E-4E0B-8743-7AE06BE9B114}" name="Fired" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{FCE78312-8A7D-4561-B4CC-F676E43829AF}" name="EASEY Result" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{AA4E3A53-68A9-4DF8-87BC-70FB236A6CED}" name="Notes" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{4711296A-1683-4D59-9390-9C88803AA68A}" name="Location" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{46A8668E-BFD8-4CE9-8D48-A23DE00E437E}" name="Test Type" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{B7C72E78-CAF2-41A0-B7AC-096EC362072F}" name="Test Number" dataDxfId="35"/>
+    <tableColumn id="10" xr3:uid="{91E3C101-E9B0-405F-84B0-E044FE40F81E}" name="Test Date-Time" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{D57E3F37-9AD6-40C2-8ACB-5192B0E03191}" name="Sys/Comp Info" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{9415854F-BF69-421C-939D-DB4180DF22DE}" name="Severity" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{5AD12D48-C5A2-4105-B479-271121D42D3E}" name="EASEY Result Code" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{FBEFE9F9-E17E-4E0B-8743-7AE06BE9B114}" name="Fired" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{FCE78312-8A7D-4561-B4CC-F676E43829AF}" name="EASEY Result" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{AA4E3A53-68A9-4DF8-87BC-70FB236A6CED}" name="Notes" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}" name="Table2" displayName="Table2" ref="A1:K581" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}" name="Table2" displayName="Table2" ref="A1:K581" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26">
   <autoFilter ref="A1:K581" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{2F62CB62-9049-497E-ADC7-F9F96C31FD57}" name="Location" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{4B11ACA0-FDC6-44CA-8A6F-3F08C4CFA5F1}" name="Test Type" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{C41F1DAE-8DC9-48E1-917C-258A6C1E96C9}" name="Test Number" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{EC0CA150-1F20-45D9-9C39-AFA9123777F4}" name="Test Date-Time" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{33FF74A1-9DCC-4D3A-B0C5-64E9380F879C}" name="Sys/Comp Info" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{22A99E8A-A5B5-4CBC-B53D-C1D9D2C5AE1B}" name="Severity" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{029739E6-4C78-4E2E-A09D-8C3FA73D2041}" name="EASEY Result Code" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{5D0E993C-1382-48E9-AA45-BE7DC3BA96AF}" name="Fired" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{F1CFA0F6-70F7-4594-B088-F1D73717D454}" name="EASEY Result" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{40B0439D-9986-4626-9FF3-B32AE7B5EA33}" name="Notes" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{FF29FE95-83D5-44D1-A98E-E38DE83D7BC7}" name="Command Line Parameters" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{2F62CB62-9049-497E-ADC7-F9F96C31FD57}" name="Location" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{4B11ACA0-FDC6-44CA-8A6F-3F08C4CFA5F1}" name="Test Type" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{C41F1DAE-8DC9-48E1-917C-258A6C1E96C9}" name="Test Number" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{EC0CA150-1F20-45D9-9C39-AFA9123777F4}" name="Test Date-Time" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{33FF74A1-9DCC-4D3A-B0C5-64E9380F879C}" name="Sys/Comp Info" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{22A99E8A-A5B5-4CBC-B53D-C1D9D2C5AE1B}" name="Severity" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{029739E6-4C78-4E2E-A09D-8C3FA73D2041}" name="EASEY Result Code" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{5D0E993C-1382-48E9-AA45-BE7DC3BA96AF}" name="Fired" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{F1CFA0F6-70F7-4594-B088-F1D73717D454}" name="EASEY Result" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{40B0439D-9986-4626-9FF3-B32AE7B5EA33}" name="Notes" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{FF29FE95-83D5-44D1-A98E-E38DE83D7BC7}" name="Command Line Parameters" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0CC4DB58-871D-4311-83EC-9DB6A2F24D3C}" name="Table3" displayName="Table3" ref="A1:K26" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowBorderDxfId="13">
+  <autoFilter ref="A1:K26" xr:uid="{0CC4DB58-871D-4311-83EC-9DB6A2F24D3C}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{FD39BA7F-4A73-45B6-8492-9C47A87EAF80}" name="Location" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{6BD18705-A907-480B-9613-FD6A89008B95}" name="Test Type" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{171EC70D-BD2B-4679-9E2F-B7A72F41A5BC}" name="Test Number" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{54392DF7-D2E8-406A-BF46-C94A6AF058B7}" name="Test Date-Time" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{BEE30332-3FC4-42CC-9E0A-10D6FD8CE7DB}" name="Sys/Comp Info" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{4D56506A-EEFD-4953-B5C2-BFBFB1100C42}" name="Severity" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{F7744816-5978-4331-B8B7-FBAEA071B23C}" name="EASEY Result Code" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{5A8FF3A4-DEAC-4772-A7B5-657662710593}" name="Fired" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{B72C4A8D-A7B2-492D-AAF3-C53B34CC6D68}" name="EASEY Result" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{3BD58939-520E-4EF9-ACA2-F4F2053AAB3E}" name="Notes" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{81440B9B-FEDA-4EF7-8E5F-058F42001F39}" name="Command Line Parameters" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4972,11 +5233,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF247E8-4CEE-4E4C-AA1C-A5F6418303B4}">
   <dimension ref="A1:K581"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4990,7 +5251,7 @@
     <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="64.5703125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="56.28515625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="41.28515625" style="5" customWidth="1"/>
     <col min="11" max="11" width="104.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -23611,4 +23872,798 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF78B613-4599-4AFD-8861-A9AE5B1FBB5E}">
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="2" customWidth="1"/>
+    <col min="9" max="10" width="61.5703125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="98.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/misc/Testing Scripts/QA/TestCaseResults.xlsx
+++ b/misc/Testing Scripts/QA/TestCaseResults.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\CAMDDevelopment\easey-db-scripts\misc\Testing Scripts\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57293870-0167-4A78-A821-4797FEC5DB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A844C02D-C64B-4A87-8900-596E9E342505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{673C86AF-EEEE-433C-9A6E-BD69DDCD2237}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{673C86AF-EEEE-433C-9A6E-BD69DDCD2237}"/>
   </bookViews>
   <sheets>
     <sheet name="Linearity Cases" sheetId="1" r:id="rId1"/>
     <sheet name="RATA Cases" sheetId="2" r:id="rId2"/>
-    <sheet name="Fuel-Flow To Load Test Cases" sheetId="3" r:id="rId3"/>
+    <sheet name="FuelFlow To Load Test Cases" sheetId="3" r:id="rId3"/>
+    <sheet name="FuelFlow To Load Baseline Cases" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6018" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6416" uniqueCount="922">
   <si>
     <t>ORIS 3 (Barry) Location 5</t>
   </si>
@@ -2531,6 +2532,279 @@
   </si>
   <si>
     <t>QAT "MDC-9D275D287FBF42CAAECBECA1A097558D" "NC-PORTERK-A137227A737345E6BA99604C9FC5E3B8"</t>
+  </si>
+  <si>
+    <t>FF2LBAS</t>
+  </si>
+  <si>
+    <t>FF2B-Q32021-01A-1</t>
+  </si>
+  <si>
+    <t>FF2LBAS-1-B</t>
+  </si>
+  <si>
+    <t>According to the monitoring system record, the monitoring system for this fuel flow-to-load baseline data record was not a fuel flow system.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-F3ED630C7DE34EFA8BB22A34B636F88B" "NC-PORTERK-BDDB557D060C41B8969061D494D92A5C"</t>
+  </si>
+  <si>
+    <t>FF2LBAS-2-C</t>
+  </si>
+  <si>
+    <t>FF2B-Q32016-02A-2</t>
+  </si>
+  <si>
+    <t>FF2LBAS-3-A</t>
+  </si>
+  <si>
+    <t>You did not provide AccuracyTestNumber, which is required for this test.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-9D275D287FBF42CAAECBECA1A097558D" "NC-PORTERK-DADB116D7B074BBAB722F6842F5ADA6B"</t>
+  </si>
+  <si>
+    <t>FF2B-Q32021-02A-2</t>
+  </si>
+  <si>
+    <t>QAT "MDC-9D275D287FBF42CAAECBECA1A097558D" "NC-PORTERK-1C3822E0E2124707BB31B767BC51B2C3"</t>
+  </si>
+  <si>
+    <t>ORIS 56249 (NCEMC Anson Plant) Location ES2-A</t>
+  </si>
+  <si>
+    <t>FF2B-Q32016-03A-5</t>
+  </si>
+  <si>
+    <t>03A (GAS)</t>
+  </si>
+  <si>
+    <t>FF2LBAS-14-B</t>
+  </si>
+  <si>
+    <t>The number of hours excluded in the baseline data collection period exceeds the number of available clock hours in the period.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-59DA9CEF8EFF42C1B0AE839A5EC7CE35" "NC-PORTERK-C72C82072C444CC79E2F57B6124ED59C"</t>
+  </si>
+  <si>
+    <t>FF2LBAS-5-A</t>
+  </si>
+  <si>
+    <t>The baseline period exceeds the 4 quarters allowed for the collection of fuel flow-to-load baseline data.</t>
+  </si>
+  <si>
+    <t>FF2B-Q32021-03A-5</t>
+  </si>
+  <si>
+    <t>FF2LBAS-4-A</t>
+  </si>
+  <si>
+    <t>You reported both a Fuel flow-to-load ratio and a GHR value.  Since only one methodology can be used, this record is invalid.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-59DA9CEF8EFF42C1B0AE839A5EC7CE35" "NC-PORTERK-129B38F099274B80A7053461D8763BA9"</t>
+  </si>
+  <si>
+    <t>ORIS 56249 (NCEMC Anson Plant) Location ES2-B</t>
+  </si>
+  <si>
+    <t>FF2B-Q32016-04A-6</t>
+  </si>
+  <si>
+    <t>04A (GAS)</t>
+  </si>
+  <si>
+    <t>FF2LBAS-7-A</t>
+  </si>
+  <si>
+    <t>You did not provide AverageLoad, which is required for this test.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-F163EC790F8540589B19A3DA0E8BF3B0" "NC-PORTERK-B224AD762EDB46118555F0DFE79DFFF2"</t>
+  </si>
+  <si>
+    <t>FF2B-Q32021-04A-6</t>
+  </si>
+  <si>
+    <t>FF2LBAS-6-B</t>
+  </si>
+  <si>
+    <t>The test identified by the PEITestNumber in the fuel flow-to-load baseline data cannot be found.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-F163EC790F8540589B19A3DA0E8BF3B0" "NC-PORTERK-AD7CCF5164084E51AC978D4899FFB061"</t>
+  </si>
+  <si>
+    <t>ORIS 56249 (NCEMC Anson Plant) Location ES3-A</t>
+  </si>
+  <si>
+    <t>FF2B-Q32021-05A-9</t>
+  </si>
+  <si>
+    <t>05A (GAS)</t>
+  </si>
+  <si>
+    <t>FF2LBAS-8-A</t>
+  </si>
+  <si>
+    <t>You defined an invalid AverageHourlyHeatInputRate for this test.  This value must be greater than zero and less than 20,000.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-88DF03257BEB4259A84C621191CD3E90" "NC-PORTERK-F18881D9C17B4853A1310E83776B98F6"</t>
+  </si>
+  <si>
+    <t>FF2LBAS-16-A</t>
+  </si>
+  <si>
+    <t>You did not provide GHRUnitsOfMeasureCode, which is required for this test.</t>
+  </si>
+  <si>
+    <t>FF2LBAS-18-A</t>
+  </si>
+  <si>
+    <t>You did not provide BaselineGHR, which is required for this test.</t>
+  </si>
+  <si>
+    <t>ORIS 56249 (NCEMC Anson Plant) Location ES3-B</t>
+  </si>
+  <si>
+    <t>FF2B-Q32021-06A-10</t>
+  </si>
+  <si>
+    <t>06A (GAS)</t>
+  </si>
+  <si>
+    <t>FF2LBAS-9-B</t>
+  </si>
+  <si>
+    <t>The AverageHourlyHeatInputRate for the baseline period exceeds the maximum heat input capacity for the unit or for all units linked to the pipe.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-9CAF43DE147D4B728E55A78C7CD13A6B" "NC-PORTERK-549BA80F41EB4783BD70FA9DE2B4F81A"</t>
+  </si>
+  <si>
+    <t>ORIS 56249 (NCEMC Anson Plant) Location ES4-A</t>
+  </si>
+  <si>
+    <t>FF2B-Q32021-07A-13</t>
+  </si>
+  <si>
+    <t>07A (GAS)</t>
+  </si>
+  <si>
+    <t>FF2LBAS-10-A</t>
+  </si>
+  <si>
+    <t>You defined an invalid AverageFuelFlowRate for this test.  This value must be greater than zero and less than 20,000.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-881AA62E471C4F6D86B1C9CF15F9224C" "NC-PORTERK-ADBD6ABAB40542D9B1961F0DF8730411"</t>
+  </si>
+  <si>
+    <t>ORIS 56249 (NCEMC Anson Plant) Location ES4-B</t>
+  </si>
+  <si>
+    <t>FF2B-Q32021-08A-14</t>
+  </si>
+  <si>
+    <t>08A (GAS)</t>
+  </si>
+  <si>
+    <t>QAT "MDC-9B42B3CE6D7D4F95BD48D5B8413C0FF3" "NC-PORTERK-7F4B3EA6893A42D895ACD7B80D3BDAE3"</t>
+  </si>
+  <si>
+    <t>FF2LBAS-11-A</t>
+  </si>
+  <si>
+    <t>According to the Accuracy Test (and PEI) associated with the fuel flow-to-load baseline data, the begin date and hour of the baseline data collection period is prior to the date when the accuracy test (and PEI) were completed or the flowmeter was reinstalled.</t>
+  </si>
+  <si>
+    <t>ORIS 56249 (NCEMC Anson Plant) Location ES5-A</t>
+  </si>
+  <si>
+    <t>FF2B-Q32021-09A-17</t>
+  </si>
+  <si>
+    <t>09A (GAS)</t>
+  </si>
+  <si>
+    <t>FF2LBAS-12-A</t>
+  </si>
+  <si>
+    <t>QAT "MDC-72022806AF864AA0BFB5F772EEAE433D" "NC-PORTERK-5DDDEFAB27104DFFA5277B0E38998B18"</t>
+  </si>
+  <si>
+    <t>ORIS 56249 (NCEMC Anson Plant) Location ES5-B</t>
+  </si>
+  <si>
+    <t>FF2B-Q32016-10A-18</t>
+  </si>
+  <si>
+    <t>10A (GAS)</t>
+  </si>
+  <si>
+    <t>FF2LBAS-14-A</t>
+  </si>
+  <si>
+    <t>QAT "MDC-6C8FC79314A94DE6973CE3CE0ED87F64" "NC-PORTERK-7D05BA490C0F4F12BD9C5A40EC1EA5DE"</t>
+  </si>
+  <si>
+    <t>FF2B-Q32021-10A-18</t>
+  </si>
+  <si>
+    <t>FF2LBAS-13-A</t>
+  </si>
+  <si>
+    <t>QAT "MDC-6C8FC79314A94DE6973CE3CE0ED87F64" "NC-PORTERK-DBC1D8DD91F24F82BEE575A32487143E"</t>
+  </si>
+  <si>
+    <t>ORIS 56249 (NCEMC Anson Plant) Location ES6-A</t>
+  </si>
+  <si>
+    <t>FF2B-Q32016-11A-21</t>
+  </si>
+  <si>
+    <t>11A (GAS)</t>
+  </si>
+  <si>
+    <t>QAT "MDC-C00BECCBFFBF4447A2AD4F5C0AD78D3E" "NC-PORTERK-A6CBBF6E5D704B58B44C02B4B0479131"</t>
+  </si>
+  <si>
+    <t>FF2B-Q32021-11A-21</t>
+  </si>
+  <si>
+    <t>FF2LBAS-15-A</t>
+  </si>
+  <si>
+    <t>You did not provide FuelFlowToLoadUOMCode, which is required for this test.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-C00BECCBFFBF4447A2AD4F5C0AD78D3E" "NC-PORTERK-2BE5688CCFFE4D9FA679FAA5E8E058EC"</t>
+  </si>
+  <si>
+    <t>ORIS 56249 (NCEMC Anson Plant) Location ES6-B</t>
+  </si>
+  <si>
+    <t>FF2B-Q32016-12A-22</t>
+  </si>
+  <si>
+    <t>12A (GAS)</t>
+  </si>
+  <si>
+    <t>QAT "MDC-F29B1E823FF24AD490BBFEE45079B809" "NC-PORTERK-068C3936ABD442EF84D1CF8999AD9E38"</t>
+  </si>
+  <si>
+    <t>FF2B-Q32021-12A-22</t>
+  </si>
+  <si>
+    <t>FF2LBAS-17-B</t>
+  </si>
+  <si>
+    <t>You defined an invalid BaselineFuelFlowToLoadRatio for this test.  This value must be greater than zero and less than 20,000.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-F29B1E823FF24AD490BBFEE45079B809" "NC-PORTERK-C2BA677FE85D4E89B017D1D0CEAD1809"</t>
   </si>
 </sst>
 </file>
@@ -2615,7 +2889,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2650,26 +2924,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="54">
     <dxf>
       <font>
         <b/>
@@ -2706,6 +2965,21 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2722,6 +2996,49 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2865,59 +3182,79 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}" name="Table1" displayName="Table1" ref="A1:J68" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}" name="Table1" displayName="Table1" ref="A1:J68" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="A1:J68" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{4711296A-1683-4D59-9390-9C88803AA68A}" name="Location" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{46A8668E-BFD8-4CE9-8D48-A23DE00E437E}" name="Test Type" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{B7C72E78-CAF2-41A0-B7AC-096EC362072F}" name="Test Number" dataDxfId="35"/>
-    <tableColumn id="10" xr3:uid="{91E3C101-E9B0-405F-84B0-E044FE40F81E}" name="Test Date-Time" dataDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{D57E3F37-9AD6-40C2-8ACB-5192B0E03191}" name="Sys/Comp Info" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{9415854F-BF69-421C-939D-DB4180DF22DE}" name="Severity" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{5AD12D48-C5A2-4105-B479-271121D42D3E}" name="EASEY Result Code" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{FBEFE9F9-E17E-4E0B-8743-7AE06BE9B114}" name="Fired" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{FCE78312-8A7D-4561-B4CC-F676E43829AF}" name="EASEY Result" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{AA4E3A53-68A9-4DF8-87BC-70FB236A6CED}" name="Notes" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{4711296A-1683-4D59-9390-9C88803AA68A}" name="Location" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{46A8668E-BFD8-4CE9-8D48-A23DE00E437E}" name="Test Type" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{B7C72E78-CAF2-41A0-B7AC-096EC362072F}" name="Test Number" dataDxfId="49"/>
+    <tableColumn id="10" xr3:uid="{91E3C101-E9B0-405F-84B0-E044FE40F81E}" name="Test Date-Time" dataDxfId="48"/>
+    <tableColumn id="9" xr3:uid="{D57E3F37-9AD6-40C2-8ACB-5192B0E03191}" name="Sys/Comp Info" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{9415854F-BF69-421C-939D-DB4180DF22DE}" name="Severity" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{5AD12D48-C5A2-4105-B479-271121D42D3E}" name="EASEY Result Code" dataDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{FBEFE9F9-E17E-4E0B-8743-7AE06BE9B114}" name="Fired" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{FCE78312-8A7D-4561-B4CC-F676E43829AF}" name="EASEY Result" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{AA4E3A53-68A9-4DF8-87BC-70FB236A6CED}" name="Notes" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}" name="Table2" displayName="Table2" ref="A1:K581" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}" name="Table2" displayName="Table2" ref="A1:K581" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40">
   <autoFilter ref="A1:K581" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{2F62CB62-9049-497E-ADC7-F9F96C31FD57}" name="Location" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{4B11ACA0-FDC6-44CA-8A6F-3F08C4CFA5F1}" name="Test Type" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{C41F1DAE-8DC9-48E1-917C-258A6C1E96C9}" name="Test Number" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{EC0CA150-1F20-45D9-9C39-AFA9123777F4}" name="Test Date-Time" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{33FF74A1-9DCC-4D3A-B0C5-64E9380F879C}" name="Sys/Comp Info" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{22A99E8A-A5B5-4CBC-B53D-C1D9D2C5AE1B}" name="Severity" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{029739E6-4C78-4E2E-A09D-8C3FA73D2041}" name="EASEY Result Code" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{5D0E993C-1382-48E9-AA45-BE7DC3BA96AF}" name="Fired" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{F1CFA0F6-70F7-4594-B088-F1D73717D454}" name="EASEY Result" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{40B0439D-9986-4626-9FF3-B32AE7B5EA33}" name="Notes" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{FF29FE95-83D5-44D1-A98E-E38DE83D7BC7}" name="Command Line Parameters" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{2F62CB62-9049-497E-ADC7-F9F96C31FD57}" name="Location" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{4B11ACA0-FDC6-44CA-8A6F-3F08C4CFA5F1}" name="Test Type" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{C41F1DAE-8DC9-48E1-917C-258A6C1E96C9}" name="Test Number" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{EC0CA150-1F20-45D9-9C39-AFA9123777F4}" name="Test Date-Time" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{33FF74A1-9DCC-4D3A-B0C5-64E9380F879C}" name="Sys/Comp Info" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{22A99E8A-A5B5-4CBC-B53D-C1D9D2C5AE1B}" name="Severity" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{029739E6-4C78-4E2E-A09D-8C3FA73D2041}" name="EASEY Result Code" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{5D0E993C-1382-48E9-AA45-BE7DC3BA96AF}" name="Fired" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{F1CFA0F6-70F7-4594-B088-F1D73717D454}" name="EASEY Result" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{40B0439D-9986-4626-9FF3-B32AE7B5EA33}" name="Notes" dataDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{FF29FE95-83D5-44D1-A98E-E38DE83D7BC7}" name="Command Line Parameters" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0CC4DB58-871D-4311-83EC-9DB6A2F24D3C}" name="Table3" displayName="Table3" ref="A1:K26" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0CC4DB58-871D-4311-83EC-9DB6A2F24D3C}" name="Table3" displayName="Table3" ref="A1:K26" totalsRowShown="0" headerRowDxfId="0" dataDxfId="26" headerRowBorderDxfId="27">
   <autoFilter ref="A1:K26" xr:uid="{0CC4DB58-871D-4311-83EC-9DB6A2F24D3C}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{FD39BA7F-4A73-45B6-8492-9C47A87EAF80}" name="Location" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{6BD18705-A907-480B-9613-FD6A89008B95}" name="Test Type" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{171EC70D-BD2B-4679-9E2F-B7A72F41A5BC}" name="Test Number" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{54392DF7-D2E8-406A-BF46-C94A6AF058B7}" name="Test Date-Time" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{BEE30332-3FC4-42CC-9E0A-10D6FD8CE7DB}" name="Sys/Comp Info" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{4D56506A-EEFD-4953-B5C2-BFBFB1100C42}" name="Severity" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{F7744816-5978-4331-B8B7-FBAEA071B23C}" name="EASEY Result Code" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{5A8FF3A4-DEAC-4772-A7B5-657662710593}" name="Fired" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{B72C4A8D-A7B2-492D-AAF3-C53B34CC6D68}" name="EASEY Result" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{3BD58939-520E-4EF9-ACA2-F4F2053AAB3E}" name="Notes" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{81440B9B-FEDA-4EF7-8E5F-058F42001F39}" name="Command Line Parameters" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{FD39BA7F-4A73-45B6-8492-9C47A87EAF80}" name="Location" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{6BD18705-A907-480B-9613-FD6A89008B95}" name="Test Type" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{171EC70D-BD2B-4679-9E2F-B7A72F41A5BC}" name="Test Number" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{54392DF7-D2E8-406A-BF46-C94A6AF058B7}" name="Test Date-Time" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{BEE30332-3FC4-42CC-9E0A-10D6FD8CE7DB}" name="Sys/Comp Info" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{4D56506A-EEFD-4953-B5C2-BFBFB1100C42}" name="Severity" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{F7744816-5978-4331-B8B7-FBAEA071B23C}" name="EASEY Result Code" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{5A8FF3A4-DEAC-4772-A7B5-657662710593}" name="Fired" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{B72C4A8D-A7B2-492D-AAF3-C53B34CC6D68}" name="EASEY Result" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{3BD58939-520E-4EF9-ACA2-F4F2053AAB3E}" name="Notes" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{81440B9B-FEDA-4EF7-8E5F-058F42001F39}" name="Command Line Parameters" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C4E4C8FF-D2BC-4023-A7E2-4F0FE1340DDB}" name="Table4" displayName="Table4" ref="A1:K44" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" headerRowBorderDxfId="14">
+  <autoFilter ref="A1:K44" xr:uid="{C4E4C8FF-D2BC-4023-A7E2-4F0FE1340DDB}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{25672079-CDA0-4D8B-8CF3-D545B2ACD419}" name="Location" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{5279C203-946F-4765-ABB9-8C81921C2DC3}" name="Test Type" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{11DE1298-C62C-4C4B-9989-25AA10EF10C0}" name="Test Number" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{2A458B2D-9FF3-4418-9FD6-DF0766209CB5}" name="Test Date-Time" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{60E36B10-857E-4482-B035-790F74DBDB33}" name="Sys/Comp Info" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{2E26423A-D6BE-4410-8F61-F74A3CED15B8}" name="Severity" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{20497C37-19CA-4417-AC58-9CBBEB217149}" name="EASEY Result Code" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{B51DBED3-688D-4748-9F71-406904878E83}" name="Fired" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{55BF46DF-A688-44E7-9212-0315C9101E05}" name="EASEY Result" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{A4FC5CC8-E769-426F-AEEE-D8BDE3AAE1AB}" name="Notes" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{E7F09088-0589-40C2-8067-9D1FE0896663}" name="Command Line Parameters" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -23878,11 +24215,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF78B613-4599-4AFD-8861-A9AE5B1FBB5E}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23900,11 +24237,803 @@
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7A12ED-21A8-440D-BCEA-B358D4E41F2C}">
+  <dimension ref="A1:K44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="54.42578125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="41.28515625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="98.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>88</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -23916,13 +25045,13 @@
       <c r="E1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="8" t="s">
         <v>90</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="8" t="s">
         <v>94</v>
       </c>
       <c r="I1" s="9" t="s">
@@ -23940,10 +25069,10 @@
         <v>778</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>779</v>
+        <v>831</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>781</v>
@@ -23952,16 +25081,16 @@
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>782</v>
+        <v>833</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>783</v>
+        <v>834</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>784</v>
+        <v>835</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -23969,10 +25098,10 @@
         <v>778</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>779</v>
+        <v>831</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>781</v>
@@ -23981,7 +25110,7 @@
         <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>785</v>
+        <v>836</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>94</v>
@@ -23990,7 +25119,7 @@
         <v>16</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>784</v>
+        <v>835</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -23998,10 +25127,10 @@
         <v>786</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>779</v>
+        <v>831</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>787</v>
+        <v>837</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>788</v>
@@ -24010,16 +25139,16 @@
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>789</v>
+        <v>838</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>790</v>
+        <v>839</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>791</v>
+        <v>840</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -24027,10 +25156,10 @@
         <v>786</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>779</v>
+        <v>831</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>787</v>
+        <v>837</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>788</v>
@@ -24039,7 +25168,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>785</v>
+        <v>836</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>94</v>
@@ -24048,7 +25177,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>791</v>
+        <v>840</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -24056,396 +25185,396 @@
         <v>786</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>779</v>
+        <v>831</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>792</v>
+        <v>841</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>788</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>793</v>
+        <v>836</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>794</v>
+        <v>16</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>795</v>
+        <v>842</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>786</v>
+        <v>843</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>779</v>
+        <v>831</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>792</v>
+        <v>844</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>788</v>
+        <v>845</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>785</v>
+        <v>846</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>16</v>
+        <v>847</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>795</v>
+        <v>848</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>786</v>
+        <v>843</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>779</v>
+        <v>831</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>796</v>
+        <v>844</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>788</v>
+        <v>845</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>797</v>
+        <v>849</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>798</v>
+        <v>850</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>799</v>
+        <v>848</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>786</v>
+        <v>843</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>779</v>
+        <v>831</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>796</v>
+        <v>844</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>788</v>
+        <v>845</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>800</v>
+        <v>836</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>801</v>
+        <v>16</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>799</v>
+        <v>848</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>786</v>
+        <v>843</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>779</v>
+        <v>831</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>796</v>
+        <v>851</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>788</v>
+        <v>845</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>785</v>
+        <v>852</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>16</v>
+        <v>853</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>799</v>
+        <v>854</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>786</v>
+        <v>843</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>779</v>
+        <v>831</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>802</v>
+        <v>851</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>788</v>
+        <v>845</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>803</v>
+        <v>836</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>804</v>
+        <v>854</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>786</v>
+        <v>855</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>779</v>
+        <v>831</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>802</v>
+        <v>856</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>788</v>
+        <v>857</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>785</v>
+        <v>858</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>16</v>
+        <v>859</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>804</v>
+        <v>860</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>786</v>
+        <v>855</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>779</v>
+        <v>831</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>805</v>
+        <v>856</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>788</v>
+        <v>857</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>806</v>
+        <v>836</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>807</v>
+        <v>16</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>808</v>
+        <v>860</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>786</v>
+        <v>855</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>779</v>
+        <v>831</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>805</v>
+        <v>861</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>788</v>
+        <v>857</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>785</v>
+        <v>862</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>16</v>
+        <v>863</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>808</v>
+        <v>864</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>786</v>
+        <v>855</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>779</v>
+        <v>831</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>809</v>
+        <v>861</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>788</v>
+        <v>857</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>810</v>
+        <v>836</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>811</v>
+        <v>16</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>812</v>
+        <v>864</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>786</v>
+        <v>865</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>779</v>
+        <v>831</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>809</v>
+        <v>866</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>788</v>
+        <v>867</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>800</v>
+        <v>868</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>801</v>
+        <v>869</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>812</v>
+        <v>870</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>786</v>
+        <v>865</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>779</v>
+        <v>831</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>809</v>
+        <v>866</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>788</v>
+        <v>867</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>785</v>
+        <v>871</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>16</v>
+        <v>872</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>812</v>
+        <v>870</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>786</v>
+        <v>865</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>779</v>
+        <v>831</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>813</v>
+        <v>866</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>788</v>
+        <v>867</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>814</v>
+        <v>873</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>815</v>
+        <v>874</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>816</v>
+        <v>870</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>786</v>
+        <v>865</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>779</v>
+        <v>831</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>813</v>
+        <v>866</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>788</v>
+        <v>867</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>785</v>
+        <v>836</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>94</v>
@@ -24454,210 +25583,732 @@
         <v>16</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>816</v>
+        <v>870</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>786</v>
+        <v>875</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>779</v>
+        <v>831</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>817</v>
+        <v>876</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>788</v>
+        <v>877</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>785</v>
+        <v>878</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>16</v>
+        <v>879</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>818</v>
+        <v>880</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>786</v>
+        <v>875</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>779</v>
+        <v>831</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>819</v>
+        <v>876</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>788</v>
+        <v>877</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>820</v>
+        <v>871</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>821</v>
+        <v>872</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>822</v>
+        <v>880</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>786</v>
+        <v>875</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>779</v>
+        <v>831</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>819</v>
+        <v>876</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>788</v>
+        <v>877</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>785</v>
+        <v>873</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>16</v>
+        <v>874</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>822</v>
+        <v>880</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>786</v>
+        <v>875</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>779</v>
+        <v>831</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>823</v>
+        <v>876</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>788</v>
+        <v>877</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>824</v>
+        <v>836</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>825</v>
+        <v>16</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>826</v>
+        <v>880</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>786</v>
+        <v>881</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>779</v>
+        <v>831</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>823</v>
+        <v>882</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>788</v>
+        <v>883</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>785</v>
+        <v>884</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>16</v>
+        <v>885</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>826</v>
+        <v>886</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>786</v>
+        <v>881</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>779</v>
+        <v>831</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>827</v>
+        <v>882</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>788</v>
+        <v>883</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>828</v>
+        <v>836</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>829</v>
+        <v>16</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>830</v>
+        <v>886</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>786</v>
+        <v>887</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>779</v>
+        <v>831</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>827</v>
+        <v>888</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>788</v>
+        <v>889</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>785</v>
+        <v>891</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I26" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>830</v>
+      <c r="K27" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>920</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>921</v>
       </c>
     </row>
   </sheetData>

--- a/misc/Testing Scripts/QA/TestCaseResults.xlsx
+++ b/misc/Testing Scripts/QA/TestCaseResults.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\CAMDDevelopment\easey-db-scripts\misc\Testing Scripts\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A844C02D-C64B-4A87-8900-596E9E342505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DB776D-2C43-4427-AB9D-1A32F58C08F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{673C86AF-EEEE-433C-9A6E-BD69DDCD2237}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{673C86AF-EEEE-433C-9A6E-BD69DDCD2237}"/>
   </bookViews>
   <sheets>
-    <sheet name="Linearity Cases" sheetId="1" r:id="rId1"/>
-    <sheet name="RATA Cases" sheetId="2" r:id="rId2"/>
-    <sheet name="FuelFlow To Load Test Cases" sheetId="3" r:id="rId3"/>
-    <sheet name="FuelFlow To Load Baseline Cases" sheetId="4" r:id="rId4"/>
+    <sheet name="FuelFlow To Load Baseline Cases" sheetId="4" r:id="rId1"/>
+    <sheet name="FuelFlow To Load Test Cases" sheetId="3" r:id="rId2"/>
+    <sheet name="Linearity Cases" sheetId="1" r:id="rId3"/>
+    <sheet name="RATA Cases" sheetId="2" r:id="rId4"/>
+    <sheet name="Unit Default Test" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6416" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7147" uniqueCount="1024">
   <si>
     <t>ORIS 3 (Barry) Location 5</t>
   </si>
@@ -2805,6 +2806,312 @@
   </si>
   <si>
     <t>QAT "MDC-F29B1E823FF24AD490BBFEE45079B809" "NC-PORTERK-C2BA677FE85D4E89B017D1D0CEAD1809"</t>
+  </si>
+  <si>
+    <t>ORIS 47 (Colbert) Location CCT1</t>
+  </si>
+  <si>
+    <t>UNITDEF</t>
+  </si>
+  <si>
+    <t>LME_DSL_2Q2018</t>
+  </si>
+  <si>
+    <t>UNITDEF-4-A</t>
+  </si>
+  <si>
+    <t>QAT "MDC-543309AB0D4C441EB147C1CDB4953774" "NOTSET-1E7BF099EA1D4083B93C7E2978059892"</t>
+  </si>
+  <si>
+    <t>UNITDEF-6-C</t>
+  </si>
+  <si>
+    <t>LME_PNG_2Q2018</t>
+  </si>
+  <si>
+    <t>UNITDEF-5-B</t>
+  </si>
+  <si>
+    <t>The value -1.000 in the field NOxDefaultRate for this test is not within the range of valid values.  This value must be greater than or equal to zero.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-543309AB0D4C441EB147C1CDB4953774" "NOTSET-22199A4311F74AD3B194FAAB4B00E6F0"</t>
+  </si>
+  <si>
+    <t>ORIS 47 (Colbert) Location CCT2</t>
+  </si>
+  <si>
+    <t>UNITDEF-8-C</t>
+  </si>
+  <si>
+    <t>You reported a value in NumberOfUnitsInGroup for this test, but you did not report a GroupID.  This field only applies to a test that is conducted for a group of identical units.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-97B373B8EC1245EB986354DCC390693D" "NOTSET-6BB1BDA0F5D741FC80AEB9904DAFB774"</t>
+  </si>
+  <si>
+    <t>UNITDEF-9-C</t>
+  </si>
+  <si>
+    <t>You reported a value in NumberOfTestsForGroup for this test, but you did not report a GroupID.  This field only applies to a test that is conducted for a group of identical units.</t>
+  </si>
+  <si>
+    <t>UNITDEF-26-B</t>
+  </si>
+  <si>
+    <t>The unit-and-fuel specific NOx emission rate reported in the Monitor Default record in your monitoring plan does not correspond to the default NOx emission rate recalculated from the run values in this test.</t>
+  </si>
+  <si>
+    <t>UNITDEF-10-A</t>
+  </si>
+  <si>
+    <t>You reported a test Begin Date, Hour, and Minute that is not the same as the BeginDate, Hour, and Minute of the first run in the test.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-97B373B8EC1245EB986354DCC390693D" "NOTSET-21EABE3135DD4EEAAB98B6C678FAEBC2"</t>
+  </si>
+  <si>
+    <t>UNITDEF-GAS-2012</t>
+  </si>
+  <si>
+    <t>QAT "MDC-97B373B8EC1245EB986354DCC390693D" "22BXS71-AFD49503F1CE4AEFAE1C4AF44BC00EF8"</t>
+  </si>
+  <si>
+    <t>PGVP-10-F</t>
+  </si>
+  <si>
+    <t>You did not report a required PGVP balance component.  A single balance component is required when reporting other individual gas components.</t>
+  </si>
+  <si>
+    <t>TEST-7-A</t>
+  </si>
+  <si>
+    <t>You reported EndDate, EndHour, and EndMinute which is prior to or equal to BeginDate, BeginHour, and BeginMinute for this test.</t>
+  </si>
+  <si>
+    <t>UNITDEF-11-A</t>
+  </si>
+  <si>
+    <t>You reported a test EndDate, Hour, and Minute that is not the same as the  EndDate, Hour, and Minute of the last run in the test.</t>
+  </si>
+  <si>
+    <t>UNITDEF-OIL-2012</t>
+  </si>
+  <si>
+    <t>QAT "MDC-97B373B8EC1245EB986354DCC390693D" "22BXS71-BCD5EB3276594732920D5DD4608758E5"</t>
+  </si>
+  <si>
+    <t>UNITDEF-13-A</t>
+  </si>
+  <si>
+    <t>One or more runs in this test have overlapping run times.</t>
+  </si>
+  <si>
+    <t>ORIS 47 (Colbert) Location CCT4</t>
+  </si>
+  <si>
+    <t>QAT "MDC-672E61C5587542AD826B817C96997CC9" "CHV-LGIANN-1DE3CD6352CF4238A6B7A1C78FD89C77"</t>
+  </si>
+  <si>
+    <t>UNITDEF-14-A</t>
+  </si>
+  <si>
+    <t>The test was conducted at the same time as another Unit Default test with the same FuelCode and OperatingConditionCode.</t>
+  </si>
+  <si>
+    <t>UNITDEF-24-A</t>
+  </si>
+  <si>
+    <t>You have not reported a RunUsedIndicator of 1 in any runs of this test, which indicate the runs used to calculate the default NOx emissions rate.</t>
+  </si>
+  <si>
+    <t>AETB-10-A</t>
+  </si>
+  <si>
+    <t>You did not report any valid Air Emission Testing records for this test.  This information is required by the Air Emission Testing reporting rule.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-672E61C5587542AD826B817C96997CC9" "NOTSET-12F6DD4451F14931AD679D3A55EF604A"</t>
+  </si>
+  <si>
+    <t>UNITDEF-15-A</t>
+  </si>
+  <si>
+    <t>The Unit Default test contains fewer than three run records for OperatingLevelForRun 1.  A minimum of three runs are required at each operating level.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-672E61C5587542AD826B817C96997CC9" "NOTSET-4B321986853C4927BD9FBFB2C762DB3F"</t>
+  </si>
+  <si>
+    <t>UNITDEF-23-A</t>
+  </si>
+  <si>
+    <t>The Unit Default test contains fewer than three run records for OperatingLevelForRun 2.  A minimum of three runs are required at each operating level.</t>
+  </si>
+  <si>
+    <t>UNITDEF-24-B</t>
+  </si>
+  <si>
+    <t>You have reported a RunUsedIndicator in runs for more than one operating level of this test.  The default NOx emissions rate should only be calculated from the runs of one operating level.</t>
+  </si>
+  <si>
+    <t>ORIS 47 (Colbert) Location CCT5</t>
+  </si>
+  <si>
+    <t>EPA-UNITDEF-8001</t>
+  </si>
+  <si>
+    <t>QAT "MDC-882384FA083A4AC1999E8B426E31224E" "EPA-3E55BA23BA2B4B60B3FE3AC4ACAFBE2E"</t>
+  </si>
+  <si>
+    <t>The Unit Default test contains fewer than three run records for OperatingLevelForRun -1.  A minimum of three runs are required at each operating level.</t>
+  </si>
+  <si>
+    <t>UNITDEF-16-B</t>
+  </si>
+  <si>
+    <t>The value -1 in the field OperatingLevelForRun for Operating Level -1 Run Number 1 is not within the range of valid values from 1 to 99.</t>
+  </si>
+  <si>
+    <t>UNITDEF-22-A</t>
+  </si>
+  <si>
+    <t>There are missing or non-sequential OperatingLevelForRun and RunNumbers in this test.  Run numbers must begin with 1 and be consecutive within the entire test or within each operating level.  The lowest OperatingLevelForRun must be equal to 1.</t>
+  </si>
+  <si>
+    <t>UNITDEF-4-B</t>
+  </si>
+  <si>
+    <t>You did not provide TestReasonCode for this test.  This information will be required for ECMPS submissions.</t>
+  </si>
+  <si>
+    <t>EPA-UNITDEF-8002</t>
+  </si>
+  <si>
+    <t>UNITDEF-17-A</t>
+  </si>
+  <si>
+    <t>The BeginDate, BeginHour, and/or BeginMinute for Operating Level 1 Run Number 2 is invalid.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-882384FA083A4AC1999E8B426E31224E" "EPA-4C3B478D04F24538B5288E1CD425A4E8"</t>
+  </si>
+  <si>
+    <t>UNITDEF-27-B</t>
+  </si>
+  <si>
+    <t>You have not included in your monitoring plan a default record for ParameterCode NOXR, DefaultPurposeCode LM, DefaultSourceCode TEST, FuelCode DSL, OperatingConditionCode P to report the unit-and-fuel-specific NOx emission rate for use during peak load hours that was determined by this test.</t>
+  </si>
+  <si>
+    <t>UNITDEF-26-A</t>
+  </si>
+  <si>
+    <t>For the current test, you have not included in your monitoring plan a default record for ParameterCode NOXR, DefaultPurposeCode LM, DefaultSourceCode TEST, FuelCode DSL with the appropriate OperatingConditionCode to report the unit-and-fuel-specific NOx emission rate that was active at the time of the test. As a reminder, fuel-and-unit-specific NOx emission rates from historical testing may not be used longer than five years after the Appendix E testing was conducted.</t>
+  </si>
+  <si>
+    <t>EPA-UNITDEF-8003</t>
+  </si>
+  <si>
+    <t>UNITDEF-18-A</t>
+  </si>
+  <si>
+    <t>The EndDate, EndHour, and/or EndMinute for Operating Level 1 Run Number 3 are invalid.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-882384FA083A4AC1999E8B426E31224E" "EPA-3E4B9A21200A446B8197C2C030BF2714"</t>
+  </si>
+  <si>
+    <t>EPA-UNITDEF-8004</t>
+  </si>
+  <si>
+    <t>UNITDEF-19-B</t>
+  </si>
+  <si>
+    <t>The value -1 in the field ResponseTime for Operating Level 1 Run Number 1 is not within the range of valid values from 0 to 800.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-882384FA083A4AC1999E8B426E31224E" "EPA-D166723B833640B783DFFE9CD22782CA"</t>
+  </si>
+  <si>
+    <t>QAT "MDC-882384FA083A4AC1999E8B426E31224E" "22BXS71-A209A3F7E31B425B8A86E235D2278B7A"</t>
+  </si>
+  <si>
+    <t>UNITDEF-21-A</t>
+  </si>
+  <si>
+    <t>You did not provide ReferenceValue, which is required for Operating Level 1 Run Number 1.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-882384FA083A4AC1999E8B426E31224E" "22BXS71-39E84F48BC8E4DE1A547931738F27778"</t>
+  </si>
+  <si>
+    <t>UNITDEF-20-B</t>
+  </si>
+  <si>
+    <t>You defined an invalid RunNumber for Operating Level 1 Run Number -1.  This value must be greater than zero and less than 20,000.</t>
+  </si>
+  <si>
+    <t>UNITDEF-24-C</t>
+  </si>
+  <si>
+    <t>Some runs for OperatingLevelForRun 1 of this test have RunUsedIndicators equal to 1 indicating that the run was used to calculate the default NOx emissions rate, but other runs for this operating level do not have RunUsedIndicators equal to 1.  The default NOx emissions rate must be calculated from all the runs of one operating level.</t>
+  </si>
+  <si>
+    <t>ORIS 47 (Colbert) Location CCT6</t>
+  </si>
+  <si>
+    <t>UNITDEF-25-A</t>
+  </si>
+  <si>
+    <t>The DefaultNOxRate reported for the test is not equal to the emissions rate recalculated from the run records.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-4F678D297BA548759B040372B68D5F49" "EPA-4EF877932345449D992115E6E82E7058"</t>
+  </si>
+  <si>
+    <t>ORIS 47 (Colbert) Location CCT7</t>
+  </si>
+  <si>
+    <t>QAT "MDC-5B6DA3C59F99415E965C54317AE0257C" "EPA-7F604E2387CA4D1E997CA830305C23CB"</t>
+  </si>
+  <si>
+    <t>ORIS 47 (Colbert) Location CCT8</t>
+  </si>
+  <si>
+    <t>QAT "MDC-EFCADAD0F835495C95B43F3720E7E008" "22BXS71-2FC53FBC318F45B3BE3FABCBFE4FC533"</t>
+  </si>
+  <si>
+    <t>QAT "MDC-EFCADAD0F835495C95B43F3720E7E008" "22BXS71-E1EDC1601C6C4A099C3E366C18F2759D"</t>
+  </si>
+  <si>
+    <t>ORIS 2292 (Sarpy County Station) Location 1</t>
+  </si>
+  <si>
+    <t>UNITDEF-12-A</t>
+  </si>
+  <si>
+    <t>You have reported this unit default test to determine a unit-and-fuel specific NOX default for LME, but you do not have an active NOXM LME methodology record in your monitoring plan.</t>
+  </si>
+  <si>
+    <t>QAT "AA59647-0125444F24564B55918CF8399D08AFBC" "CHV-LGIANN-FD4139380242460BB6F110BBA275F7D9"</t>
+  </si>
+  <si>
+    <t>PGVP-3-E</t>
+  </si>
+  <si>
+    <t>You have reported a VendorIdentifier for Cylinder Identifier ALM041367 of a vendor who is no longer participating in the Protocol Gas Verification Program.</t>
+  </si>
+  <si>
+    <t>You have reported a VendorIdentifier for Cylinder Identifier AAL21525 of a vendor who is no longer participating in the Protocol Gas Verification Program.</t>
+  </si>
+  <si>
+    <t>PGVP-4-C</t>
+  </si>
+  <si>
+    <t>You reported an ExpirationDate for the cylinder that is prior to the date of the test for Cylinder Identifier ALM041367.</t>
+  </si>
+  <si>
+    <t>You reported an ExpirationDate for the cylinder that is prior to the date of the test for Cylinder Identifier AAL21525.</t>
   </si>
 </sst>
 </file>
@@ -2928,7 +3235,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="68">
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2965,21 +3275,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2989,16 +3284,26 @@
       <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3051,6 +3356,87 @@
         <bottom style="thick">
           <color theme="0"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -3182,79 +3568,99 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}" name="Table1" displayName="Table1" ref="A1:J68" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
-  <autoFilter ref="A1:J68" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{4711296A-1683-4D59-9390-9C88803AA68A}" name="Location" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{46A8668E-BFD8-4CE9-8D48-A23DE00E437E}" name="Test Type" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{B7C72E78-CAF2-41A0-B7AC-096EC362072F}" name="Test Number" dataDxfId="49"/>
-    <tableColumn id="10" xr3:uid="{91E3C101-E9B0-405F-84B0-E044FE40F81E}" name="Test Date-Time" dataDxfId="48"/>
-    <tableColumn id="9" xr3:uid="{D57E3F37-9AD6-40C2-8ACB-5192B0E03191}" name="Sys/Comp Info" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{9415854F-BF69-421C-939D-DB4180DF22DE}" name="Severity" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{5AD12D48-C5A2-4105-B479-271121D42D3E}" name="EASEY Result Code" dataDxfId="45"/>
-    <tableColumn id="8" xr3:uid="{FBEFE9F9-E17E-4E0B-8743-7AE06BE9B114}" name="Fired" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{FCE78312-8A7D-4561-B4CC-F676E43829AF}" name="EASEY Result" dataDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{AA4E3A53-68A9-4DF8-87BC-70FB236A6CED}" name="Notes" dataDxfId="42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C4E4C8FF-D2BC-4023-A7E2-4F0FE1340DDB}" name="Table4" displayName="Table4" ref="A1:K44" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26">
+  <autoFilter ref="A1:K44" xr:uid="{C4E4C8FF-D2BC-4023-A7E2-4F0FE1340DDB}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{25672079-CDA0-4D8B-8CF3-D545B2ACD419}" name="Location" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{5279C203-946F-4765-ABB9-8C81921C2DC3}" name="Test Type" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{11DE1298-C62C-4C4B-9989-25AA10EF10C0}" name="Test Number" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{2A458B2D-9FF3-4418-9FD6-DF0766209CB5}" name="Test Date-Time" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{60E36B10-857E-4482-B035-790F74DBDB33}" name="Sys/Comp Info" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{2E26423A-D6BE-4410-8F61-F74A3CED15B8}" name="Severity" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{20497C37-19CA-4417-AC58-9CBBEB217149}" name="EASEY Result Code" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{B51DBED3-688D-4748-9F71-406904878E83}" name="Fired" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{55BF46DF-A688-44E7-9212-0315C9101E05}" name="EASEY Result" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{A4FC5CC8-E769-426F-AEEE-D8BDE3AAE1AB}" name="Notes" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{E7F09088-0589-40C2-8067-9D1FE0896663}" name="Command Line Parameters" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}" name="Table2" displayName="Table2" ref="A1:K581" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40">
-  <autoFilter ref="A1:K581" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0CC4DB58-871D-4311-83EC-9DB6A2F24D3C}" name="Table3" displayName="Table3" ref="A1:K26" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40">
+  <autoFilter ref="A1:K26" xr:uid="{0CC4DB58-871D-4311-83EC-9DB6A2F24D3C}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{2F62CB62-9049-497E-ADC7-F9F96C31FD57}" name="Location" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{4B11ACA0-FDC6-44CA-8A6F-3F08C4CFA5F1}" name="Test Type" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{C41F1DAE-8DC9-48E1-917C-258A6C1E96C9}" name="Test Number" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{EC0CA150-1F20-45D9-9C39-AFA9123777F4}" name="Test Date-Time" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{33FF74A1-9DCC-4D3A-B0C5-64E9380F879C}" name="Sys/Comp Info" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{22A99E8A-A5B5-4CBC-B53D-C1D9D2C5AE1B}" name="Severity" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{029739E6-4C78-4E2E-A09D-8C3FA73D2041}" name="EASEY Result Code" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{5D0E993C-1382-48E9-AA45-BE7DC3BA96AF}" name="Fired" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{F1CFA0F6-70F7-4594-B088-F1D73717D454}" name="EASEY Result" dataDxfId="30"/>
-    <tableColumn id="10" xr3:uid="{40B0439D-9986-4626-9FF3-B32AE7B5EA33}" name="Notes" dataDxfId="29"/>
-    <tableColumn id="11" xr3:uid="{FF29FE95-83D5-44D1-A98E-E38DE83D7BC7}" name="Command Line Parameters" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{FD39BA7F-4A73-45B6-8492-9C47A87EAF80}" name="Location" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{6BD18705-A907-480B-9613-FD6A89008B95}" name="Test Type" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{171EC70D-BD2B-4679-9E2F-B7A72F41A5BC}" name="Test Number" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{54392DF7-D2E8-406A-BF46-C94A6AF058B7}" name="Test Date-Time" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{BEE30332-3FC4-42CC-9E0A-10D6FD8CE7DB}" name="Sys/Comp Info" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{4D56506A-EEFD-4953-B5C2-BFBFB1100C42}" name="Severity" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{F7744816-5978-4331-B8B7-FBAEA071B23C}" name="EASEY Result Code" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{5A8FF3A4-DEAC-4772-A7B5-657662710593}" name="Fired" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{B72C4A8D-A7B2-492D-AAF3-C53B34CC6D68}" name="EASEY Result" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{3BD58939-520E-4EF9-ACA2-F4F2053AAB3E}" name="Notes" dataDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{81440B9B-FEDA-4EF7-8E5F-058F42001F39}" name="Command Line Parameters" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0CC4DB58-871D-4311-83EC-9DB6A2F24D3C}" name="Table3" displayName="Table3" ref="A1:K26" totalsRowShown="0" headerRowDxfId="0" dataDxfId="26" headerRowBorderDxfId="27">
-  <autoFilter ref="A1:K26" xr:uid="{0CC4DB58-871D-4311-83EC-9DB6A2F24D3C}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{FD39BA7F-4A73-45B6-8492-9C47A87EAF80}" name="Location" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{6BD18705-A907-480B-9613-FD6A89008B95}" name="Test Type" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{171EC70D-BD2B-4679-9E2F-B7A72F41A5BC}" name="Test Number" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{54392DF7-D2E8-406A-BF46-C94A6AF058B7}" name="Test Date-Time" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{BEE30332-3FC4-42CC-9E0A-10D6FD8CE7DB}" name="Sys/Comp Info" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{4D56506A-EEFD-4953-B5C2-BFBFB1100C42}" name="Severity" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{F7744816-5978-4331-B8B7-FBAEA071B23C}" name="EASEY Result Code" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{5A8FF3A4-DEAC-4772-A7B5-657662710593}" name="Fired" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{B72C4A8D-A7B2-492D-AAF3-C53B34CC6D68}" name="EASEY Result" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{3BD58939-520E-4EF9-ACA2-F4F2053AAB3E}" name="Notes" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{81440B9B-FEDA-4EF7-8E5F-058F42001F39}" name="Command Line Parameters" dataDxfId="15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}" name="Table1" displayName="Table1" ref="A1:J68" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
+  <autoFilter ref="A1:J68" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{4711296A-1683-4D59-9390-9C88803AA68A}" name="Location" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{46A8668E-BFD8-4CE9-8D48-A23DE00E437E}" name="Test Type" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{B7C72E78-CAF2-41A0-B7AC-096EC362072F}" name="Test Number" dataDxfId="63"/>
+    <tableColumn id="10" xr3:uid="{91E3C101-E9B0-405F-84B0-E044FE40F81E}" name="Test Date-Time" dataDxfId="62"/>
+    <tableColumn id="9" xr3:uid="{D57E3F37-9AD6-40C2-8ACB-5192B0E03191}" name="Sys/Comp Info" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{9415854F-BF69-421C-939D-DB4180DF22DE}" name="Severity" dataDxfId="60"/>
+    <tableColumn id="5" xr3:uid="{5AD12D48-C5A2-4105-B479-271121D42D3E}" name="EASEY Result Code" dataDxfId="59"/>
+    <tableColumn id="8" xr3:uid="{FBEFE9F9-E17E-4E0B-8743-7AE06BE9B114}" name="Fired" dataDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{FCE78312-8A7D-4561-B4CC-F676E43829AF}" name="EASEY Result" dataDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{AA4E3A53-68A9-4DF8-87BC-70FB236A6CED}" name="Notes" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C4E4C8FF-D2BC-4023-A7E2-4F0FE1340DDB}" name="Table4" displayName="Table4" ref="A1:K44" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" headerRowBorderDxfId="14">
-  <autoFilter ref="A1:K44" xr:uid="{C4E4C8FF-D2BC-4023-A7E2-4F0FE1340DDB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}" name="Table2" displayName="Table2" ref="A1:K581" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54">
+  <autoFilter ref="A1:K581" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{25672079-CDA0-4D8B-8CF3-D545B2ACD419}" name="Location" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{5279C203-946F-4765-ABB9-8C81921C2DC3}" name="Test Type" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{11DE1298-C62C-4C4B-9989-25AA10EF10C0}" name="Test Number" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{2A458B2D-9FF3-4418-9FD6-DF0766209CB5}" name="Test Date-Time" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{60E36B10-857E-4482-B035-790F74DBDB33}" name="Sys/Comp Info" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{2E26423A-D6BE-4410-8F61-F74A3CED15B8}" name="Severity" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{20497C37-19CA-4417-AC58-9CBBEB217149}" name="EASEY Result Code" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{B51DBED3-688D-4748-9F71-406904878E83}" name="Fired" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{55BF46DF-A688-44E7-9212-0315C9101E05}" name="EASEY Result" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{A4FC5CC8-E769-426F-AEEE-D8BDE3AAE1AB}" name="Notes" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{E7F09088-0589-40C2-8067-9D1FE0896663}" name="Command Line Parameters" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{2F62CB62-9049-497E-ADC7-F9F96C31FD57}" name="Location" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{4B11ACA0-FDC6-44CA-8A6F-3F08C4CFA5F1}" name="Test Type" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{C41F1DAE-8DC9-48E1-917C-258A6C1E96C9}" name="Test Number" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{EC0CA150-1F20-45D9-9C39-AFA9123777F4}" name="Test Date-Time" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{33FF74A1-9DCC-4D3A-B0C5-64E9380F879C}" name="Sys/Comp Info" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{22A99E8A-A5B5-4CBC-B53D-C1D9D2C5AE1B}" name="Severity" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{029739E6-4C78-4E2E-A09D-8C3FA73D2041}" name="EASEY Result Code" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{5D0E993C-1382-48E9-AA45-BE7DC3BA96AF}" name="Fired" dataDxfId="45"/>
+    <tableColumn id="9" xr3:uid="{F1CFA0F6-70F7-4594-B088-F1D73717D454}" name="EASEY Result" dataDxfId="44"/>
+    <tableColumn id="10" xr3:uid="{40B0439D-9986-4626-9FF3-B32AE7B5EA33}" name="Notes" dataDxfId="43"/>
+    <tableColumn id="11" xr3:uid="{FF29FE95-83D5-44D1-A98E-E38DE83D7BC7}" name="Command Line Parameters" dataDxfId="42"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{72A5AA74-4364-4117-8778-356FF8C70282}" name="Table5" displayName="Table5" ref="A1:K91" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="13">
+  <autoFilter ref="A1:K91" xr:uid="{72A5AA74-4364-4117-8778-356FF8C70282}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{B5B471E1-992B-4560-9AE9-3A0B01F9D400}" name="Location" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{1012AED6-A79C-434D-9EFD-BC07FE87995E}" name="Test Type" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{B5631442-9C30-47B5-9E8F-98D77DB400BF}" name="Test Number" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{960A60B0-A29E-44B1-B36A-03ABF8C9387B}" name="Test Date-Time" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{33F281F6-219B-4E02-9434-6B6D946A98E0}" name="Sys/Comp Info" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{E798D1DA-91F4-4F85-BC08-C953E40455E6}" name="Severity" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{D1264FDF-B29D-4FEE-92C2-AB98523233CD}" name="EASEY Result Code" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{C745552B-9704-4998-BE61-D3A91601E678}" name="Fired" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{C834180C-E3EF-4150-9616-ACEC523C5385}" name="EASEY Result" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{3ABD6028-9668-4A63-AEC5-1740A232405E}" name="Notes" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{9F9E58E8-A77F-4D89-A441-47366556DBC4}" name="Command Line Parameters" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3556,6 +3962,2114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7A12ED-21A8-440D-BCEA-B358D4E41F2C}">
+  <dimension ref="A1:K44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="54.42578125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="41.28515625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="98.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>920</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF78B613-4599-4AFD-8861-A9AE5B1FBB5E}">
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="2" customWidth="1"/>
+    <col min="9" max="10" width="61.5703125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="98.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C84253-C1F3-40A8-BCD6-786B60222E9D}">
   <dimension ref="A1:J68"/>
   <sheetViews>
@@ -5566,7 +8080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF247E8-4CEE-4E4C-AA1C-A5F6418303B4}">
   <dimension ref="A1:K581"/>
   <sheetViews>
@@ -24211,821 +26725,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF78B613-4599-4AFD-8861-A9AE5B1FBB5E}">
-  <dimension ref="A1:K26"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB95806-BA08-44E5-BECF-767BC3A79B45}">
+  <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="2" customWidth="1"/>
-    <col min="9" max="10" width="61.5703125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="98.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>783</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>790</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>794</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>801</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>811</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>801</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>815</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>821</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>825</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>829</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>830</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7A12ED-21A8-440D-BCEA-B358D4E41F2C}">
-  <dimension ref="A1:K44"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="54.42578125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="41.28515625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="98.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="67.42578125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="44.28515625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="98.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -25066,51 +26789,51 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>778</v>
+        <v>922</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>831</v>
+        <v>923</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>781</v>
+        <v>924</v>
+      </c>
+      <c r="D2" s="6">
+        <v>43221.408333333333</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>833</v>
+        <v>925</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>834</v>
+        <v>77</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>778</v>
+        <v>922</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>831</v>
+        <v>923</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>781</v>
+        <v>924</v>
+      </c>
+      <c r="D3" s="6">
+        <v>43221.408333333333</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>836</v>
+        <v>927</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>94</v>
@@ -25119,56 +26842,56 @@
         <v>16</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>786</v>
+        <v>922</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>831</v>
+        <v>923</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>788</v>
+        <v>928</v>
+      </c>
+      <c r="D4" s="6">
+        <v>43221.563194444447</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>838</v>
+        <v>929</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>839</v>
+        <v>930</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>786</v>
+        <v>922</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>831</v>
+        <v>923</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>788</v>
+        <v>928</v>
+      </c>
+      <c r="D5" s="6">
+        <v>43221.563194444447</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>836</v>
+        <v>927</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>94</v>
@@ -25177,114 +26900,114 @@
         <v>16</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>786</v>
+        <v>932</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>831</v>
+        <v>923</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>788</v>
+        <v>924</v>
+      </c>
+      <c r="D6" s="6">
+        <v>43223.397222222222</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>836</v>
+        <v>933</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>16</v>
+        <v>934</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>843</v>
+        <v>932</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>831</v>
+        <v>923</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>845</v>
+        <v>924</v>
+      </c>
+      <c r="D7" s="6">
+        <v>43223.397222222222</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>846</v>
+        <v>936</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>847</v>
+        <v>937</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>843</v>
+        <v>932</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>831</v>
+        <v>923</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>845</v>
+        <v>924</v>
+      </c>
+      <c r="D8" s="6">
+        <v>43223.397222222222</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>849</v>
+        <v>938</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>850</v>
+        <v>939</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>843</v>
+        <v>932</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>831</v>
+        <v>923</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>845</v>
+        <v>924</v>
+      </c>
+      <c r="D9" s="6">
+        <v>43223.397222222222</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>836</v>
+        <v>927</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>94</v>
@@ -25293,56 +27016,56 @@
         <v>16</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>843</v>
+        <v>932</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>831</v>
+        <v>923</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>845</v>
+        <v>928</v>
+      </c>
+      <c r="D10" s="6">
+        <v>43223.54791666667</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>852</v>
+        <v>940</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>853</v>
+        <v>941</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>843</v>
+        <v>932</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>831</v>
+        <v>923</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>845</v>
+        <v>928</v>
+      </c>
+      <c r="D11" s="6">
+        <v>43223.54791666667</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>836</v>
+        <v>927</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>94</v>
@@ -25351,230 +27074,230 @@
         <v>16</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>855</v>
+        <v>932</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>831</v>
+        <v>923</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>857</v>
+        <v>943</v>
+      </c>
+      <c r="D12" s="6">
+        <v>40877.45208333333</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>858</v>
+        <v>101</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>859</v>
+        <v>102</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>855</v>
+        <v>932</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>831</v>
+        <v>923</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>857</v>
+        <v>943</v>
+      </c>
+      <c r="D13" s="6">
+        <v>40877.45208333333</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>836</v>
+        <v>945</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>16</v>
+        <v>946</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>855</v>
+        <v>932</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>831</v>
+        <v>923</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>857</v>
+        <v>943</v>
+      </c>
+      <c r="D14" s="6">
+        <v>40877.45208333333</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>862</v>
+        <v>945</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>863</v>
+        <v>946</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>855</v>
+        <v>932</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>831</v>
+        <v>923</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>857</v>
+        <v>943</v>
+      </c>
+      <c r="D15" s="6">
+        <v>40877.45208333333</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>836</v>
+        <v>945</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>16</v>
+        <v>946</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>865</v>
+        <v>932</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>831</v>
+        <v>923</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>867</v>
+        <v>943</v>
+      </c>
+      <c r="D16" s="6">
+        <v>40877.45208333333</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>868</v>
+        <v>945</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>869</v>
+        <v>946</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>865</v>
+        <v>932</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>831</v>
+        <v>923</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>867</v>
+        <v>943</v>
+      </c>
+      <c r="D17" s="6">
+        <v>40877.45208333333</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>871</v>
+        <v>947</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>872</v>
+        <v>948</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>865</v>
+        <v>932</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>831</v>
+        <v>923</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>867</v>
+        <v>943</v>
+      </c>
+      <c r="D18" s="6">
+        <v>40877.45208333333</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>873</v>
+        <v>949</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>874</v>
+        <v>950</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>865</v>
+        <v>932</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>831</v>
+        <v>923</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>867</v>
+        <v>943</v>
+      </c>
+      <c r="D19" s="6">
+        <v>40877.45208333333</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>836</v>
+        <v>927</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>94</v>
@@ -25583,375 +27306,375 @@
         <v>16</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>875</v>
+        <v>932</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>831</v>
+        <v>923</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>877</v>
+        <v>951</v>
+      </c>
+      <c r="D20" s="6">
+        <v>41243.612500000003</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>878</v>
+        <v>101</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>879</v>
+        <v>102</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>875</v>
+        <v>932</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>831</v>
+        <v>923</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>877</v>
+        <v>951</v>
+      </c>
+      <c r="D21" s="6">
+        <v>41243.612500000003</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>871</v>
+        <v>945</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>872</v>
+        <v>946</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>875</v>
+        <v>932</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>831</v>
+        <v>923</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>877</v>
+        <v>951</v>
+      </c>
+      <c r="D22" s="6">
+        <v>41243.612500000003</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>873</v>
+        <v>945</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>874</v>
+        <v>946</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>875</v>
+        <v>932</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>831</v>
+        <v>923</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>877</v>
+        <v>951</v>
+      </c>
+      <c r="D23" s="6">
+        <v>41243.612500000003</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>836</v>
+        <v>945</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>16</v>
+        <v>946</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>881</v>
+        <v>932</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>831</v>
+        <v>923</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>883</v>
+        <v>951</v>
+      </c>
+      <c r="D24" s="6">
+        <v>41243.612500000003</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>884</v>
+        <v>945</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>885</v>
+        <v>946</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>886</v>
+        <v>952</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>881</v>
+        <v>932</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>831</v>
+        <v>923</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>883</v>
+        <v>951</v>
+      </c>
+      <c r="D25" s="6">
+        <v>41243.612500000003</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D26" s="6">
+        <v>41243.612500000003</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I25" s="5" t="s">
+      <c r="G26" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="F26" s="2" t="s">
+      <c r="K26" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="6">
+        <v>43222.395833333336</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="6">
+        <v>43222.395833333336</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>958</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="6">
+        <v>43222.395833333336</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>960</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="6">
+        <v>43222.395833333336</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>892</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>794</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>836</v>
+        <v>961</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>16</v>
+        <v>962</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>898</v>
+        <v>955</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>831</v>
+        <v>923</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>900</v>
+        <v>924</v>
+      </c>
+      <c r="D31" s="6">
+        <v>43222.400694444441</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>901</v>
+        <v>957</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>815</v>
+        <v>958</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>898</v>
+        <v>955</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>831</v>
+        <v>923</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>900</v>
+        <v>924</v>
+      </c>
+      <c r="D32" s="6">
+        <v>43222.400694444441</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>836</v>
+        <v>927</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>94</v>
@@ -25960,288 +27683,288 @@
         <v>16</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>898</v>
+        <v>955</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>831</v>
+        <v>923</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>900</v>
+        <v>928</v>
+      </c>
+      <c r="D33" s="6">
+        <v>43222.556250000001</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>904</v>
+        <v>964</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>825</v>
+        <v>965</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>898</v>
+        <v>955</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>831</v>
+        <v>923</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>900</v>
+        <v>928</v>
+      </c>
+      <c r="D34" s="6">
+        <v>43222.556250000001</v>
       </c>
       <c r="F34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>968</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="D35" s="6">
+        <v>43222.556250000001</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="D36" s="6">
+        <v>43222.556250000001</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I34" s="5" t="s">
+      <c r="G36" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I36" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>872</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>874</v>
-      </c>
       <c r="K36" s="1" t="s">
-        <v>909</v>
+        <v>966</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>906</v>
+        <v>971</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>831</v>
+        <v>923</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>908</v>
+        <v>972</v>
+      </c>
+      <c r="D37" s="6">
+        <v>37672.668749999997</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>836</v>
+        <v>953</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>16</v>
+        <v>954</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>906</v>
+        <v>971</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>831</v>
+        <v>923</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>908</v>
+        <v>972</v>
+      </c>
+      <c r="D38" s="6">
+        <v>37672.668749999997</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>911</v>
+        <v>964</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>912</v>
+        <v>974</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>906</v>
+        <v>971</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>831</v>
+        <v>923</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>908</v>
+        <v>972</v>
+      </c>
+      <c r="D39" s="6">
+        <v>37672.668749999997</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>836</v>
+        <v>975</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>16</v>
+        <v>976</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>914</v>
+        <v>971</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>831</v>
+        <v>923</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>916</v>
+        <v>972</v>
+      </c>
+      <c r="D40" s="6">
+        <v>37672.668749999997</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>871</v>
+        <v>977</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>872</v>
+        <v>978</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>914</v>
+        <v>971</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>831</v>
+        <v>923</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>916</v>
+        <v>972</v>
+      </c>
+      <c r="D41" s="6">
+        <v>37672.668749999997</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>873</v>
+        <v>979</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>874</v>
+        <v>980</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>914</v>
+        <v>971</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>831</v>
+        <v>923</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>916</v>
+        <v>972</v>
+      </c>
+      <c r="D42" s="6">
+        <v>37672.668749999997</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>836</v>
+        <v>927</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>94</v>
@@ -26250,65 +27973,1428 @@
         <v>16</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>914</v>
+        <v>971</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>831</v>
+        <v>923</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>916</v>
+        <v>981</v>
+      </c>
+      <c r="D43" s="6">
+        <v>37673.29791666667</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>919</v>
+        <v>982</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>920</v>
+        <v>983</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>914</v>
+        <v>971</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>831</v>
+        <v>923</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>916</v>
+        <v>981</v>
+      </c>
+      <c r="D44" s="6">
+        <v>37673.29791666667</v>
       </c>
       <c r="F44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="D45" s="6">
+        <v>37673.29791666667</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="D46" s="6">
+        <v>37673.29791666667</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I44" s="5" t="s">
+      <c r="G46" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I46" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K44" s="1" t="s">
-        <v>921</v>
+      <c r="K46" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="D47" s="6">
+        <v>37673.29791666667</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D48" s="6">
+        <v>39479.422222222223</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D49" s="6">
+        <v>39479.422222222223</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="D50" s="6">
+        <v>39479.550694444442</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="D51" s="6">
+        <v>39479.550694444442</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D52" s="6">
+        <v>41242.461805555555</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D53" s="6">
+        <v>41242.461805555555</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D54" s="6">
+        <v>41242.461805555555</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D55" s="6">
+        <v>41242.461805555555</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D56" s="6">
+        <v>41242.461805555555</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D57" s="6">
+        <v>41242.461805555555</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D58" s="6">
+        <v>41242.461805555555</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D59" s="6">
+        <v>41242.699305555558</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D60" s="6">
+        <v>41242.699305555558</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D61" s="6">
+        <v>41242.699305555558</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D62" s="6">
+        <v>41242.699305555558</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D63" s="6">
+        <v>41242.699305555558</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D64" s="6">
+        <v>41242.699305555558</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D65" s="6">
+        <v>41242.699305555558</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D66" s="6">
+        <v>41242.699305555558</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D67" s="6">
+        <v>41242.699305555558</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D68" s="6">
+        <v>41242.699305555558</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D69" s="6">
+        <v>39478.422222222223</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D70" s="6">
+        <v>39478.422222222223</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D71" s="6">
+        <v>44232.399305555555</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D72" s="6">
+        <v>44232.399305555555</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>962</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D73" s="6">
+        <v>44232.399305555555</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D74" s="6">
+        <v>41241.458333333336</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D75" s="6">
+        <v>41241.458333333336</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D76" s="6">
+        <v>41241.458333333336</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D77" s="6">
+        <v>41241.458333333336</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D78" s="6">
+        <v>41241.458333333336</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D79" s="6">
+        <v>41241.458333333336</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D80" s="6">
+        <v>41241.621527777781</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D81" s="6">
+        <v>41241.621527777781</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D82" s="6">
+        <v>41241.621527777781</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D83" s="6">
+        <v>41241.621527777781</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D84" s="6">
+        <v>41241.621527777781</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D85" s="6">
+        <v>41241.621527777781</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D86" s="6">
+        <v>43953.400694444441</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D87" s="6">
+        <v>43953.400694444441</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D88" s="6">
+        <v>43953.400694444441</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D89" s="6">
+        <v>43953.400694444441</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D90" s="6">
+        <v>43953.400694444441</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D91" s="6">
+        <v>43953.400694444441</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>1017</v>
       </c>
     </row>
   </sheetData>

--- a/misc/Testing Scripts/QA/TestCaseResults.xlsx
+++ b/misc/Testing Scripts/QA/TestCaseResults.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\CAMDDevelopment\easey-db-scripts\misc\Testing Scripts\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD76C33F-52D2-44FA-9A72-73D1ED1F53EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797BF758-7CAD-4A54-A995-FE6A56C6FB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{673C86AF-EEEE-433C-9A6E-BD69DDCD2237}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{673C86AF-EEEE-433C-9A6E-BD69DDCD2237}"/>
   </bookViews>
   <sheets>
     <sheet name="APPE" sheetId="6" r:id="rId1"/>
-    <sheet name="FF2LBAS" sheetId="4" r:id="rId2"/>
-    <sheet name="FF2LTST" sheetId="3" r:id="rId3"/>
-    <sheet name="LINE" sheetId="1" r:id="rId4"/>
-    <sheet name="RATA" sheetId="2" r:id="rId5"/>
-    <sheet name="UNITDEF" sheetId="5" r:id="rId6"/>
+    <sheet name="F2LCHK" sheetId="7" r:id="rId2"/>
+    <sheet name="FF2LBAS" sheetId="4" r:id="rId3"/>
+    <sheet name="FF2LTST" sheetId="3" r:id="rId4"/>
+    <sheet name="LINE" sheetId="1" r:id="rId5"/>
+    <sheet name="RATA" sheetId="2" r:id="rId6"/>
+    <sheet name="UNITDEF" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10016" uniqueCount="1298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10315" uniqueCount="1367">
   <si>
     <t>ORIS 3 (Barry) Location 5</t>
   </si>
@@ -3939,6 +3940,213 @@
   </si>
   <si>
     <t>You defined an invalid OilDensity for Operating Level 1 Run Number 1 Oil System ID 100.  This value must be greater than zero and less than 20,000.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-D4C88AC0994340F2AB7E9E0DB1EF8FCB" "PC49096-4BA9ED868B7443D3A2FD95BE53CECBA9"</t>
+  </si>
+  <si>
+    <t>ORIS 130 (Cross) Location 1</t>
+  </si>
+  <si>
+    <t>F2LCHK</t>
+  </si>
+  <si>
+    <t>400-43</t>
+  </si>
+  <si>
+    <t>004 (FLOW)</t>
+  </si>
+  <si>
+    <t>F2LCHK-17-F</t>
+  </si>
+  <si>
+    <t>The TestResultCode is equal to "FAILED", but the AvgAbsolutePercentDiff indicates that the test passed the applicable standard based on the RATA load level reported in the flow to load reference record and the use of bias adjusted or non-adjusted values.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-3B23A43070D74F53AA2DAD83ABFC190C" "MCCANX2FNC-0031EAFF04C74604A6AA1352D9F7372F"</t>
+  </si>
+  <si>
+    <t>F2LCHK-14-C</t>
+  </si>
+  <si>
+    <t>400-44</t>
+  </si>
+  <si>
+    <t>F2LCHK-16-A</t>
+  </si>
+  <si>
+    <t>You did not provide AvgAbsolutePercentDiff, which is required for this test.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-3B23A43070D74F53AA2DAD83ABFC190C" "MCCANX2FNC-22058B21D90E44AFA6B8C60ECC80D81C"</t>
+  </si>
+  <si>
+    <t>400-46</t>
+  </si>
+  <si>
+    <t>F2LCHK-15-A</t>
+  </si>
+  <si>
+    <t>You reported a TestBasisCode of H in the flow-to-load check, but the software could not find a prior flow-to-load reference data record based on the same criterion.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-3B23A43070D74F53AA2DAD83ABFC190C" "MCCANX2FNC-73546CFACBBB45EBBF3423734D7800F8"</t>
+  </si>
+  <si>
+    <t>400-48</t>
+  </si>
+  <si>
+    <t>QAT "MDC-3B23A43070D74F53AA2DAD83ABFC190C" "MCCANX2FNC-C8E5A297AC964497879CACF295A51D66"</t>
+  </si>
+  <si>
+    <t>400-50</t>
+  </si>
+  <si>
+    <t>F2LCHK-13-A</t>
+  </si>
+  <si>
+    <t>The total number of hours used in the flow-to-load or GHR analysis plus the number of hours excluded exceed the total number of hours in the quarter.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-3B23A43070D74F53AA2DAD83ABFC190C" "MCA2F23LHK-7A00ED0D78114F288A2384AFE3C5F061"</t>
+  </si>
+  <si>
+    <t>400-53</t>
+  </si>
+  <si>
+    <t>F2LCHK-12-A</t>
+  </si>
+  <si>
+    <t>The value -1 in the field NumberOfHoursExcMainBypass for this test is not within the range of valid values.  This value must be greater than or equal to zero.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-3B23A43070D74F53AA2DAD83ABFC190C" "MCA2F23LHK-0A7E507D37E244C6B84674DCCCF9BC60"</t>
+  </si>
+  <si>
+    <t>400-54</t>
+  </si>
+  <si>
+    <t>F2LCHK-11-A</t>
+  </si>
+  <si>
+    <t>The value -1 in the field NumberOfHoursExcludedTest for this test is not within the range of valid values.  This value must be greater than or equal to zero.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-3B23A43070D74F53AA2DAD83ABFC190C" "MCA2F23LHK-A2EDD6C0EAFF43899BC9E788314D4644"</t>
+  </si>
+  <si>
+    <t>400-56</t>
+  </si>
+  <si>
+    <t>F2LCHK-10-A</t>
+  </si>
+  <si>
+    <t>The value -1 in the field NumberOfHoursExcludedPreRATA for this test is not within the range of valid values.  This value must be greater than or equal to zero.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-3B23A43070D74F53AA2DAD83ABFC190C" "MCA2F23LHK-27A9CA0C00B04163A5F75590AAD34CF8"</t>
+  </si>
+  <si>
+    <t>400-58</t>
+  </si>
+  <si>
+    <t>F2LCHK-9-A</t>
+  </si>
+  <si>
+    <t>The value -1 in the field NumberOfHoursExcludedBypass for this test is not within the range of valid values.  This value must be greater than or equal to zero.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-3B23A43070D74F53AA2DAD83ABFC190C" "MCA2F23LHK-AB012341DD4245DE85D743F75F132C77"</t>
+  </si>
+  <si>
+    <t>400-61</t>
+  </si>
+  <si>
+    <t>F2LCHK-8-A</t>
+  </si>
+  <si>
+    <t>QAT "MDC-3B23A43070D74F53AA2DAD83ABFC190C" "MCA2F23LHK-F818787E16594A7595A19E4434042086"</t>
+  </si>
+  <si>
+    <t>400-63</t>
+  </si>
+  <si>
+    <t>F2LCHK-7-A</t>
+  </si>
+  <si>
+    <t>The value -1 in the field NumberOfHoursExcludedForFuel for this test is not within the range of valid values.  This value must be greater than or equal to zero.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-3B23A43070D74F53AA2DAD83ABFC190C" "MCA2F23LHK-B47E154E104E47A0B918AAFB616AFE8D"</t>
+  </si>
+  <si>
+    <t>400-64</t>
+  </si>
+  <si>
+    <t>F2LCHK-5-A</t>
+  </si>
+  <si>
+    <t>You did not provide BiasAdjustedIndicator, which is required for this test.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-3B23A43070D74F53AA2DAD83ABFC190C" "MCA2F23LHK-68E349F4307A4A1E9457B6EB6E69CAED"</t>
+  </si>
+  <si>
+    <t>400-67</t>
+  </si>
+  <si>
+    <t>F2LCHK-6-C</t>
+  </si>
+  <si>
+    <t>The NumberOfHours of quality assured flow data exceeds or equals 168 hours.  A Flow-to-load analysis or GHR analysis is required for the quarter.  Do not report a TestResultCode of 'EXC168H' or 'FEW168H' for this quarter.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-3B23A43070D74F53AA2DAD83ABFC190C" "MCA2F23LHK-552AFCE983B2490397CA65025AA6F604"</t>
+  </si>
+  <si>
+    <t>400-69</t>
+  </si>
+  <si>
+    <t>F2LCHK-4-A</t>
+  </si>
+  <si>
+    <t>QAT "MDC-3B23A43070D74F53AA2DAD83ABFC190C" "MCA2F23LHK-41C1C2E05845410E9D8A1A7678AFE45E"</t>
+  </si>
+  <si>
+    <t>400-70</t>
+  </si>
+  <si>
+    <t>F2LCHK-3-A</t>
+  </si>
+  <si>
+    <t>You did not provide OperatingLevelCode, which is required for this test.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-3B23A43070D74F53AA2DAD83ABFC190C" "MCA2F23LHK-6304A9493A2A40F29C9293C14D82D674"</t>
+  </si>
+  <si>
+    <t>400-72</t>
+  </si>
+  <si>
+    <t>F2LCHK-2-A</t>
+  </si>
+  <si>
+    <t>QAT "MDC-3B23A43070D74F53AA2DAD83ABFC190C" "MCA2F23LHK-A7455776CE9B4FF587A1032DDC11068F"</t>
+  </si>
+  <si>
+    <t>ORIS 2442 (Four Corners Steam Elec Station) Location 4</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>F43 (CO2)</t>
+  </si>
+  <si>
+    <t>F2LCHK-1-B</t>
+  </si>
+  <si>
+    <t>According to the monitoring system record, the monitoring system in this flow-to-load check was not a flow system.</t>
   </si>
 </sst>
 </file>
@@ -4023,7 +4231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4058,20 +4266,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="82">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="96">
     <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -4114,10 +4319,19 @@
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4126,11 +4340,11 @@
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4460,6 +4674,85 @@
     <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4474,26 +4767,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6E75B64B-AA6D-476A-8302-BF96D5E7E810}" name="Table6" displayName="Table6" ref="A1:K319" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6E75B64B-AA6D-476A-8302-BF96D5E7E810}" name="Table6" displayName="Table6" ref="A1:K319" totalsRowShown="0" headerRowDxfId="95" dataDxfId="93" headerRowBorderDxfId="94">
   <autoFilter ref="A1:K319" xr:uid="{6E75B64B-AA6D-476A-8302-BF96D5E7E810}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{DABC54ED-3C28-4B3B-8594-CAA471D265D5}" name="Location" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{F8AEE93E-FDE2-46D7-B1A7-244178C2F820}" name="Test Type" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{8C6E04D8-89F2-453E-9922-8A0AF53CB692}" name="Test Number" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{2B43C86D-8143-4360-87FC-99396C0E304F}" name="Test Date-Time" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{E75FB52D-EC10-43F0-8D77-68CDEA14235D}" name="Sys/Comp Info" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{E6D41DD1-2DAC-4262-AA16-1D46CE14D100}" name="Severity" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{E4B7FCA0-0453-4D46-AF2D-5FCB94154788}" name="EASEY Result Code" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{1C5C127B-0EC6-40C8-9F7F-CDFFB95E2B9C}" name="Fired" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{E4D52144-8081-4E9C-9216-F2B3E7D99696}" name="EASEY Result" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{1B8F57B6-0961-4DCE-A9BB-77E44380F12A}" name="Notes" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{8C749E78-19F9-4D93-A1EC-56160203A547}" name="Command Line Parameters" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{DABC54ED-3C28-4B3B-8594-CAA471D265D5}" name="Location" dataDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{F8AEE93E-FDE2-46D7-B1A7-244178C2F820}" name="Test Type" dataDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{8C6E04D8-89F2-453E-9922-8A0AF53CB692}" name="Test Number" dataDxfId="90"/>
+    <tableColumn id="4" xr3:uid="{2B43C86D-8143-4360-87FC-99396C0E304F}" name="Test Date-Time" dataDxfId="89"/>
+    <tableColumn id="5" xr3:uid="{E75FB52D-EC10-43F0-8D77-68CDEA14235D}" name="Sys/Comp Info" dataDxfId="88"/>
+    <tableColumn id="6" xr3:uid="{E6D41DD1-2DAC-4262-AA16-1D46CE14D100}" name="Severity" dataDxfId="87"/>
+    <tableColumn id="7" xr3:uid="{E4B7FCA0-0453-4D46-AF2D-5FCB94154788}" name="EASEY Result Code" dataDxfId="86"/>
+    <tableColumn id="8" xr3:uid="{1C5C127B-0EC6-40C8-9F7F-CDFFB95E2B9C}" name="Fired" dataDxfId="85"/>
+    <tableColumn id="9" xr3:uid="{E4D52144-8081-4E9C-9216-F2B3E7D99696}" name="EASEY Result" dataDxfId="84"/>
+    <tableColumn id="10" xr3:uid="{1B8F57B6-0961-4DCE-A9BB-77E44380F12A}" name="Notes" dataDxfId="83"/>
+    <tableColumn id="11" xr3:uid="{8C749E78-19F9-4D93-A1EC-56160203A547}" name="Command Line Parameters" dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{643FA4C3-7226-4FC1-A77A-D6CF46B7DE06}" name="Table7" displayName="Table7" ref="A1:K33" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="13">
+  <autoFilter ref="A1:K33" xr:uid="{643FA4C3-7226-4FC1-A77A-D6CF46B7DE06}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{6A1DC097-B550-4298-811F-BB553C8A78B7}" name="Location" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{B0B911C5-C9AF-4D6B-9A8E-E4524ABB1455}" name="Test Type" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{7C46186D-C3D8-4F3A-A359-DBEC33D11A32}" name="Test Number" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{B77DADA4-D1C0-49A5-8941-BF36C2738914}" name="Test Date-Time" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{94D2842C-7497-4826-BFDF-64C1F4930DC7}" name="Sys/Comp Info" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{18E0026A-3AB3-4471-BB8D-F86CD1FCACB2}" name="Severity" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{64F844FE-3B1B-48BD-BFA3-F73DD8F6BAE7}" name="EASEY Result Code" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{0A777F6A-C367-4D68-80DC-BE82994A6C9C}" name="Fired" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{58E8A6A7-2EB9-4636-98D8-915BAA276364}" name="EASEY Result" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{8E16DEBD-9C74-43B0-A1EC-12CF584BC57D}" name="Notes" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{7AE3F542-B6CD-45CB-99F0-47DDE95004F7}" name="Command Line Parameters" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C4E4C8FF-D2BC-4023-A7E2-4F0FE1340DDB}" name="Table4" displayName="Table4" ref="A1:K44" totalsRowShown="0" headerRowDxfId="81" dataDxfId="79" headerRowBorderDxfId="80">
   <autoFilter ref="A1:K44" xr:uid="{C4E4C8FF-D2BC-4023-A7E2-4F0FE1340DDB}"/>
   <tableColumns count="11">
@@ -4513,7 +4826,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0CC4DB58-871D-4311-83EC-9DB6A2F24D3C}" name="Table3" displayName="Table3" ref="A1:K26" totalsRowShown="0" headerRowDxfId="67" dataDxfId="65" headerRowBorderDxfId="66">
   <autoFilter ref="A1:K26" xr:uid="{0CC4DB58-871D-4311-83EC-9DB6A2F24D3C}"/>
   <tableColumns count="11">
@@ -4533,7 +4846,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}" name="Table1" displayName="Table1" ref="A1:J68" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="A1:J68" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}"/>
   <tableColumns count="10">
@@ -4552,7 +4865,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}" name="Table2" displayName="Table2" ref="A1:K581" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40">
   <autoFilter ref="A1:K581" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}"/>
   <tableColumns count="11">
@@ -4572,7 +4885,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{72A5AA74-4364-4117-8778-356FF8C70282}" name="Table5" displayName="Table5" ref="A1:K91" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26">
   <autoFilter ref="A1:K91" xr:uid="{72A5AA74-4364-4117-8778-356FF8C70282}"/>
   <tableColumns count="11">
@@ -4891,7 +5204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8AB6CEE-1A2D-4EDD-BF79-DABF10AD8F60}">
   <dimension ref="A1:K319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
+    <sheetView topLeftCell="A299" workbookViewId="0">
       <selection activeCell="H305" sqref="H305"/>
     </sheetView>
   </sheetViews>
@@ -15119,6 +15432,1006 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1178DED-FAC2-4896-ADA7-BAB067290A3E}">
+  <dimension ref="A1:K33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="83.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="33.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="98.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>1304</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>1309</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>1313</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>1319</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>1327</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>1331</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>1335</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>1342</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>1346</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>1350</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>1357</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>1366</v>
+      </c>
+      <c r="J32" s="5"/>
+      <c r="K32" s="1" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="J33" s="5"/>
+      <c r="K33" s="1" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7A12ED-21A8-440D-BCEA-B358D4E41F2C}">
   <dimension ref="A1:K44"/>
   <sheetViews>
@@ -15844,7 +17157,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>881</v>
       </c>
@@ -15873,7 +17186,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>887</v>
       </c>
@@ -15902,7 +17215,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>887</v>
       </c>
@@ -15931,7 +17244,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>887</v>
       </c>
@@ -15960,7 +17273,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>893</v>
       </c>
@@ -15989,7 +17302,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>893</v>
       </c>
@@ -16018,7 +17331,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>898</v>
       </c>
@@ -16047,7 +17360,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>898</v>
       </c>
@@ -16076,7 +17389,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>898</v>
       </c>
@@ -16105,7 +17418,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>898</v>
       </c>
@@ -16134,7 +17447,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>906</v>
       </c>
@@ -16163,7 +17476,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>906</v>
       </c>
@@ -16192,7 +17505,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>906</v>
       </c>
@@ -16221,7 +17534,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>906</v>
       </c>
@@ -16250,7 +17563,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>906</v>
       </c>
@@ -16432,7 +17745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF78B613-4599-4AFD-8861-A9AE5B1FBB5E}">
   <dimension ref="A1:K26"/>
   <sheetViews>
@@ -17226,7 +18539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C84253-C1F3-40A8-BCD6-786B60222E9D}">
   <dimension ref="A1:J68"/>
   <sheetViews>
@@ -19237,7 +20550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF247E8-4CEE-4E4C-AA1C-A5F6418303B4}">
   <dimension ref="A1:K581"/>
   <sheetViews>
@@ -37882,7 +39195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB95806-BA08-44E5-BECF-767BC3A79B45}">
   <dimension ref="A1:K91"/>
   <sheetViews>

--- a/misc/Testing Scripts/QA/TestCaseResults.xlsx
+++ b/misc/Testing Scripts/QA/TestCaseResults.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\CAMDDevelopment\easey-db-scripts\misc\Testing Scripts\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797BF758-7CAD-4A54-A995-FE6A56C6FB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F05E813-8E85-4D50-A778-A43E4C5615D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{673C86AF-EEEE-433C-9A6E-BD69DDCD2237}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{673C86AF-EEEE-433C-9A6E-BD69DDCD2237}"/>
   </bookViews>
   <sheets>
     <sheet name="APPE" sheetId="6" r:id="rId1"/>
     <sheet name="F2LCHK" sheetId="7" r:id="rId2"/>
-    <sheet name="FF2LBAS" sheetId="4" r:id="rId3"/>
-    <sheet name="FF2LTST" sheetId="3" r:id="rId4"/>
-    <sheet name="LINE" sheetId="1" r:id="rId5"/>
-    <sheet name="RATA" sheetId="2" r:id="rId6"/>
-    <sheet name="UNITDEF" sheetId="5" r:id="rId7"/>
+    <sheet name="F2LREF" sheetId="8" r:id="rId3"/>
+    <sheet name="FF2LBAS" sheetId="4" r:id="rId4"/>
+    <sheet name="FF2LTST" sheetId="3" r:id="rId5"/>
+    <sheet name="LINE" sheetId="1" r:id="rId6"/>
+    <sheet name="RATA" sheetId="2" r:id="rId7"/>
+    <sheet name="UNITDEF" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10315" uniqueCount="1367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10569" uniqueCount="1419">
   <si>
     <t>ORIS 3 (Barry) Location 5</t>
   </si>
@@ -4147,13 +4148,169 @@
   </si>
   <si>
     <t>According to the monitoring system record, the monitoring system in this flow-to-load check was not a flow system.</t>
+  </si>
+  <si>
+    <t>F2LREF</t>
+  </si>
+  <si>
+    <t>400-32</t>
+  </si>
+  <si>
+    <t>F2LREF-2-D</t>
+  </si>
+  <si>
+    <t>Another Certification Test record with this test number has already been submitted for this location.  If this is a different test, you must assign it a unique test number.   If you wish to edit the existing test, you should import or download the test.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-3B23A43070D74F53AA2DAD83ABFC190C" "MCCANX2FNC-2FB566F1BACA4A188DD3791B0DD165DA"</t>
+  </si>
+  <si>
+    <t>F2LREF-13-A</t>
+  </si>
+  <si>
+    <t>You defined an invalid ReferenceGrossHeatRate for this test.  This value must be greater than zero and less than 20,000.</t>
+  </si>
+  <si>
+    <t>400-36</t>
+  </si>
+  <si>
+    <t>F2LREF-11-A</t>
+  </si>
+  <si>
+    <t>You did not provide AverageGrossUnitLoad, which is required for this test.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-3B23A43070D74F53AA2DAD83ABFC190C" "MCCANX2FNC-51802DAB23C54B86A90276CF664A2225"</t>
+  </si>
+  <si>
+    <t>F2LREF-2-C</t>
+  </si>
+  <si>
+    <t>400-38</t>
+  </si>
+  <si>
+    <t>F2LREF-12-A</t>
+  </si>
+  <si>
+    <t>You defined an invalid ReferenceFlowLoadRatio for this test.  This value must be greater than zero and less than 20,000.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-3B23A43070D74F53AA2DAD83ABFC190C" "MCCANX2FNC-B92A6FE61C614E31B40ACCF8C75FA092"</t>
+  </si>
+  <si>
+    <t>F2LREF-8-B</t>
+  </si>
+  <si>
+    <t>The reference RATA was performed at different time from the end time reported in the flow-to-load reference data.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-3B23A43070D74F53AA2DAD83ABFC190C" "MCCANX2FNC-4E5BF3CD209C475ABDE479609ED7D73C"</t>
+  </si>
+  <si>
+    <t>400-45</t>
+  </si>
+  <si>
+    <t>F2LREF-10-A</t>
+  </si>
+  <si>
+    <t>You did not provide AverageReferenceMethodFlow, which is required for this test.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-3B23A43070D74F53AA2DAD83ABFC190C" "MCCANX2FNC-D29F19F75A74438FBAA76B1D8A930364"</t>
+  </si>
+  <si>
+    <t>400-52</t>
+  </si>
+  <si>
+    <t>F2LREF-6-B</t>
+  </si>
+  <si>
+    <t>You reported a value of "1" as the CalcSeparateReferenceIndicator, but this is value is only appropriate for a multiple stack.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-3B23A43070D74F53AA2DAD83ABFC190C" "MCA2F23LHK-CC8627FD01594CE482B5AD750A1CD844"</t>
+  </si>
+  <si>
+    <t>F2LREF-7-A</t>
+  </si>
+  <si>
+    <t>You reported an AverageHourlyHeatInputRate but did not determine the ReferenceGrossHeatRate value.  The hourly heat input rate is only needed if you use the GHR methodology.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-3B23A43070D74F53AA2DAD83ABFC190C" "MCA2F23LHK-9C9E8019A3044880AFBBA14EA7BC1E6E"</t>
+  </si>
+  <si>
+    <t>F2LREF-4-D</t>
+  </si>
+  <si>
+    <t>The OperatingLevelCode is not designated as a normal load level in the active MonitorLoad record.  Flow-to-load reference data must be based on the RATA for the normal operating level.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-3B23A43070D74F53AA2DAD83ABFC190C" "MCA2F23LHK-07ECA534ED4A4B50B94DE487FC072024"</t>
+  </si>
+  <si>
+    <t>400-65</t>
+  </si>
+  <si>
+    <t>QAT "MDC-3B23A43070D74F53AA2DAD83ABFC190C" "MCA2F23LHK-DF48DF5F54BF446C9CAD7F05FE295EA8"</t>
+  </si>
+  <si>
+    <t>F2LREF-5-C</t>
+  </si>
+  <si>
+    <t>You reported a ReferenceGrossHeatRate value but did not provide the AverageHourlyHeatInputRate.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-3B23A43070D74F53AA2DAD83ABFC190C" "MCA2F23LHK-11917B3E59334C99BD7F0ECECA2040EB"</t>
+  </si>
+  <si>
+    <t>400-71</t>
+  </si>
+  <si>
+    <t>F2LREF-3-A</t>
+  </si>
+  <si>
+    <t>You did not provide RATATestNumber, which is required for this test.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-3B23A43070D74F53AA2DAD83ABFC190C" "MCA2F23LHK-9ADD34F690504B2DB0EF6261EBC28476"</t>
+  </si>
+  <si>
+    <t>QAT "MDC-3B23A43070D74F53AA2DAD83ABFC190C" "CHV-SABER-F0098559523641328B59D538A1354863"</t>
+  </si>
+  <si>
+    <t>F43-Q2-2021-1</t>
+  </si>
+  <si>
+    <t>F2LREF-1-B</t>
+  </si>
+  <si>
+    <t>According to the monitoring system record, the Flow-to-load reference data was not for a flow system.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-D4C88AC0994340F2AB7E9E0DB1EF8FCB" "PC49096-389AF24B880A4839B7D1041D3B973F5E"</t>
+  </si>
+  <si>
+    <t>The RATA for Operating Level L contains fewer than nine RATA run records with a run status of "RUNUSED".  A minimum of nine runs are required for each complete operating level test.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-3B23A43070D74F53AA2DAD83ABFC190C" "CHV-SABER-88B0B970AC8848CD92FCCA64032108E6"</t>
+  </si>
+  <si>
+    <t>F2LREF-9-A</t>
+  </si>
+  <si>
+    <t>The AverageGrossUnitLoad and AverageReferenceMethodFlow could not be recalculated because of invalid data in the reported reference RATA(s).</t>
+  </si>
+  <si>
+    <t>ADMNOVR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4165,6 +4322,12 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4231,7 +4394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4272,11 +4435,93 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="96">
+  <dxfs count="109">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -4767,139 +5012,159 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6E75B64B-AA6D-476A-8302-BF96D5E7E810}" name="Table6" displayName="Table6" ref="A1:K319" totalsRowShown="0" headerRowDxfId="95" dataDxfId="93" headerRowBorderDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6E75B64B-AA6D-476A-8302-BF96D5E7E810}" name="Table6" displayName="Table6" ref="A1:K319" totalsRowShown="0" headerRowDxfId="108" dataDxfId="106" headerRowBorderDxfId="107">
   <autoFilter ref="A1:K319" xr:uid="{6E75B64B-AA6D-476A-8302-BF96D5E7E810}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{DABC54ED-3C28-4B3B-8594-CAA471D265D5}" name="Location" dataDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{F8AEE93E-FDE2-46D7-B1A7-244178C2F820}" name="Test Type" dataDxfId="91"/>
-    <tableColumn id="3" xr3:uid="{8C6E04D8-89F2-453E-9922-8A0AF53CB692}" name="Test Number" dataDxfId="90"/>
-    <tableColumn id="4" xr3:uid="{2B43C86D-8143-4360-87FC-99396C0E304F}" name="Test Date-Time" dataDxfId="89"/>
-    <tableColumn id="5" xr3:uid="{E75FB52D-EC10-43F0-8D77-68CDEA14235D}" name="Sys/Comp Info" dataDxfId="88"/>
-    <tableColumn id="6" xr3:uid="{E6D41DD1-2DAC-4262-AA16-1D46CE14D100}" name="Severity" dataDxfId="87"/>
-    <tableColumn id="7" xr3:uid="{E4B7FCA0-0453-4D46-AF2D-5FCB94154788}" name="EASEY Result Code" dataDxfId="86"/>
-    <tableColumn id="8" xr3:uid="{1C5C127B-0EC6-40C8-9F7F-CDFFB95E2B9C}" name="Fired" dataDxfId="85"/>
-    <tableColumn id="9" xr3:uid="{E4D52144-8081-4E9C-9216-F2B3E7D99696}" name="EASEY Result" dataDxfId="84"/>
-    <tableColumn id="10" xr3:uid="{1B8F57B6-0961-4DCE-A9BB-77E44380F12A}" name="Notes" dataDxfId="83"/>
-    <tableColumn id="11" xr3:uid="{8C749E78-19F9-4D93-A1EC-56160203A547}" name="Command Line Parameters" dataDxfId="82"/>
+    <tableColumn id="1" xr3:uid="{DABC54ED-3C28-4B3B-8594-CAA471D265D5}" name="Location" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{F8AEE93E-FDE2-46D7-B1A7-244178C2F820}" name="Test Type" dataDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{8C6E04D8-89F2-453E-9922-8A0AF53CB692}" name="Test Number" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{2B43C86D-8143-4360-87FC-99396C0E304F}" name="Test Date-Time" dataDxfId="102"/>
+    <tableColumn id="5" xr3:uid="{E75FB52D-EC10-43F0-8D77-68CDEA14235D}" name="Sys/Comp Info" dataDxfId="101"/>
+    <tableColumn id="6" xr3:uid="{E6D41DD1-2DAC-4262-AA16-1D46CE14D100}" name="Severity" dataDxfId="100"/>
+    <tableColumn id="7" xr3:uid="{E4B7FCA0-0453-4D46-AF2D-5FCB94154788}" name="EASEY Result Code" dataDxfId="99"/>
+    <tableColumn id="8" xr3:uid="{1C5C127B-0EC6-40C8-9F7F-CDFFB95E2B9C}" name="Fired" dataDxfId="98"/>
+    <tableColumn id="9" xr3:uid="{E4D52144-8081-4E9C-9216-F2B3E7D99696}" name="EASEY Result" dataDxfId="97"/>
+    <tableColumn id="10" xr3:uid="{1B8F57B6-0961-4DCE-A9BB-77E44380F12A}" name="Notes" dataDxfId="96"/>
+    <tableColumn id="11" xr3:uid="{8C749E78-19F9-4D93-A1EC-56160203A547}" name="Command Line Parameters" dataDxfId="95"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{643FA4C3-7226-4FC1-A77A-D6CF46B7DE06}" name="Table7" displayName="Table7" ref="A1:K33" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{643FA4C3-7226-4FC1-A77A-D6CF46B7DE06}" name="Table7" displayName="Table7" ref="A1:K33" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="26">
   <autoFilter ref="A1:K33" xr:uid="{643FA4C3-7226-4FC1-A77A-D6CF46B7DE06}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{6A1DC097-B550-4298-811F-BB553C8A78B7}" name="Location" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{B0B911C5-C9AF-4D6B-9A8E-E4524ABB1455}" name="Test Type" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{7C46186D-C3D8-4F3A-A359-DBEC33D11A32}" name="Test Number" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{B77DADA4-D1C0-49A5-8941-BF36C2738914}" name="Test Date-Time" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{94D2842C-7497-4826-BFDF-64C1F4930DC7}" name="Sys/Comp Info" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{18E0026A-3AB3-4471-BB8D-F86CD1FCACB2}" name="Severity" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{64F844FE-3B1B-48BD-BFA3-F73DD8F6BAE7}" name="EASEY Result Code" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{0A777F6A-C367-4D68-80DC-BE82994A6C9C}" name="Fired" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{58E8A6A7-2EB9-4636-98D8-915BAA276364}" name="EASEY Result" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{8E16DEBD-9C74-43B0-A1EC-12CF584BC57D}" name="Notes" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{7AE3F542-B6CD-45CB-99F0-47DDE95004F7}" name="Command Line Parameters" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{6A1DC097-B550-4298-811F-BB553C8A78B7}" name="Location" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{B0B911C5-C9AF-4D6B-9A8E-E4524ABB1455}" name="Test Type" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{7C46186D-C3D8-4F3A-A359-DBEC33D11A32}" name="Test Number" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{B77DADA4-D1C0-49A5-8941-BF36C2738914}" name="Test Date-Time" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{94D2842C-7497-4826-BFDF-64C1F4930DC7}" name="Sys/Comp Info" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{18E0026A-3AB3-4471-BB8D-F86CD1FCACB2}" name="Severity" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{64F844FE-3B1B-48BD-BFA3-F73DD8F6BAE7}" name="EASEY Result Code" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{0A777F6A-C367-4D68-80DC-BE82994A6C9C}" name="Fired" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{58E8A6A7-2EB9-4636-98D8-915BAA276364}" name="EASEY Result" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{8E16DEBD-9C74-43B0-A1EC-12CF584BC57D}" name="Notes" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{7AE3F542-B6CD-45CB-99F0-47DDE95004F7}" name="Command Line Parameters" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C4E4C8FF-D2BC-4023-A7E2-4F0FE1340DDB}" name="Table4" displayName="Table4" ref="A1:K44" totalsRowShown="0" headerRowDxfId="81" dataDxfId="79" headerRowBorderDxfId="80">
-  <autoFilter ref="A1:K44" xr:uid="{C4E4C8FF-D2BC-4023-A7E2-4F0FE1340DDB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E4484FF7-4E72-42BE-B673-2211F40DBEC5}" name="Table8" displayName="Table8" ref="A1:K28" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="12">
+  <autoFilter ref="A1:K28" xr:uid="{E4484FF7-4E72-42BE-B673-2211F40DBEC5}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{25672079-CDA0-4D8B-8CF3-D545B2ACD419}" name="Location" dataDxfId="78"/>
-    <tableColumn id="2" xr3:uid="{5279C203-946F-4765-ABB9-8C81921C2DC3}" name="Test Type" dataDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{11DE1298-C62C-4C4B-9989-25AA10EF10C0}" name="Test Number" dataDxfId="76"/>
-    <tableColumn id="4" xr3:uid="{2A458B2D-9FF3-4418-9FD6-DF0766209CB5}" name="Test Date-Time" dataDxfId="75"/>
-    <tableColumn id="5" xr3:uid="{60E36B10-857E-4482-B035-790F74DBDB33}" name="Sys/Comp Info" dataDxfId="74"/>
-    <tableColumn id="6" xr3:uid="{2E26423A-D6BE-4410-8F61-F74A3CED15B8}" name="Severity" dataDxfId="73"/>
-    <tableColumn id="7" xr3:uid="{20497C37-19CA-4417-AC58-9CBBEB217149}" name="EASEY Result Code" dataDxfId="72"/>
-    <tableColumn id="8" xr3:uid="{B51DBED3-688D-4748-9F71-406904878E83}" name="Fired" dataDxfId="71"/>
-    <tableColumn id="9" xr3:uid="{55BF46DF-A688-44E7-9212-0315C9101E05}" name="EASEY Result" dataDxfId="70"/>
-    <tableColumn id="10" xr3:uid="{A4FC5CC8-E769-426F-AEEE-D8BDE3AAE1AB}" name="Notes" dataDxfId="69"/>
-    <tableColumn id="11" xr3:uid="{E7F09088-0589-40C2-8067-9D1FE0896663}" name="Command Line Parameters" dataDxfId="68"/>
+    <tableColumn id="1" xr3:uid="{BCDEC250-D556-489B-A8C0-F3C0B749EE85}" name="Location" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{27845E29-DF76-4FC1-8B99-E6D05BC504AB}" name="Test Type" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{88E8B5E9-3A4F-487A-A1FD-2F8825130F6C}" name="Test Number" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{96597CE9-7403-4439-ACB1-4DB48A5AE831}" name="Test Date-Time" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{67D38623-BE59-4D0E-966A-D900405266E4}" name="Sys/Comp Info" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{4480DA93-63BE-46D7-9C44-A62CF4C30DB9}" name="Severity" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{4DE029FD-1894-4C16-A49E-7205888520D7}" name="EASEY Result Code" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{38E45A86-E2E8-436C-83B0-1DC52A25A389}" name="Fired" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{D0FCA1F1-B5E4-4F39-8570-3FDAAFD8C655}" name="EASEY Result" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{8FFB2F06-8DA3-4256-9B20-894A86F3CAB1}" name="Notes" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{0A82F04A-4DC9-465C-ACBF-8A9107DE5BF9}" name="Command Line Parameters" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0CC4DB58-871D-4311-83EC-9DB6A2F24D3C}" name="Table3" displayName="Table3" ref="A1:K26" totalsRowShown="0" headerRowDxfId="67" dataDxfId="65" headerRowBorderDxfId="66">
-  <autoFilter ref="A1:K26" xr:uid="{0CC4DB58-871D-4311-83EC-9DB6A2F24D3C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C4E4C8FF-D2BC-4023-A7E2-4F0FE1340DDB}" name="Table4" displayName="Table4" ref="A1:K44" totalsRowShown="0" headerRowDxfId="94" dataDxfId="92" headerRowBorderDxfId="93">
+  <autoFilter ref="A1:K44" xr:uid="{C4E4C8FF-D2BC-4023-A7E2-4F0FE1340DDB}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{FD39BA7F-4A73-45B6-8492-9C47A87EAF80}" name="Location" dataDxfId="64"/>
-    <tableColumn id="2" xr3:uid="{6BD18705-A907-480B-9613-FD6A89008B95}" name="Test Type" dataDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{171EC70D-BD2B-4679-9E2F-B7A72F41A5BC}" name="Test Number" dataDxfId="62"/>
-    <tableColumn id="4" xr3:uid="{54392DF7-D2E8-406A-BF46-C94A6AF058B7}" name="Test Date-Time" dataDxfId="61"/>
-    <tableColumn id="5" xr3:uid="{BEE30332-3FC4-42CC-9E0A-10D6FD8CE7DB}" name="Sys/Comp Info" dataDxfId="60"/>
-    <tableColumn id="6" xr3:uid="{4D56506A-EEFD-4953-B5C2-BFBFB1100C42}" name="Severity" dataDxfId="59"/>
-    <tableColumn id="7" xr3:uid="{F7744816-5978-4331-B8B7-FBAEA071B23C}" name="EASEY Result Code" dataDxfId="58"/>
-    <tableColumn id="8" xr3:uid="{5A8FF3A4-DEAC-4772-A7B5-657662710593}" name="Fired" dataDxfId="57"/>
-    <tableColumn id="9" xr3:uid="{B72C4A8D-A7B2-492D-AAF3-C53B34CC6D68}" name="EASEY Result" dataDxfId="56"/>
-    <tableColumn id="10" xr3:uid="{3BD58939-520E-4EF9-ACA2-F4F2053AAB3E}" name="Notes" dataDxfId="55"/>
-    <tableColumn id="11" xr3:uid="{81440B9B-FEDA-4EF7-8E5F-058F42001F39}" name="Command Line Parameters" dataDxfId="54"/>
+    <tableColumn id="1" xr3:uid="{25672079-CDA0-4D8B-8CF3-D545B2ACD419}" name="Location" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{5279C203-946F-4765-ABB9-8C81921C2DC3}" name="Test Type" dataDxfId="90"/>
+    <tableColumn id="3" xr3:uid="{11DE1298-C62C-4C4B-9989-25AA10EF10C0}" name="Test Number" dataDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{2A458B2D-9FF3-4418-9FD6-DF0766209CB5}" name="Test Date-Time" dataDxfId="88"/>
+    <tableColumn id="5" xr3:uid="{60E36B10-857E-4482-B035-790F74DBDB33}" name="Sys/Comp Info" dataDxfId="87"/>
+    <tableColumn id="6" xr3:uid="{2E26423A-D6BE-4410-8F61-F74A3CED15B8}" name="Severity" dataDxfId="86"/>
+    <tableColumn id="7" xr3:uid="{20497C37-19CA-4417-AC58-9CBBEB217149}" name="EASEY Result Code" dataDxfId="85"/>
+    <tableColumn id="8" xr3:uid="{B51DBED3-688D-4748-9F71-406904878E83}" name="Fired" dataDxfId="84"/>
+    <tableColumn id="9" xr3:uid="{55BF46DF-A688-44E7-9212-0315C9101E05}" name="EASEY Result" dataDxfId="83"/>
+    <tableColumn id="10" xr3:uid="{A4FC5CC8-E769-426F-AEEE-D8BDE3AAE1AB}" name="Notes" dataDxfId="82"/>
+    <tableColumn id="11" xr3:uid="{E7F09088-0589-40C2-8067-9D1FE0896663}" name="Command Line Parameters" dataDxfId="81"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}" name="Table1" displayName="Table1" ref="A1:J68" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
-  <autoFilter ref="A1:J68" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{4711296A-1683-4D59-9390-9C88803AA68A}" name="Location" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{46A8668E-BFD8-4CE9-8D48-A23DE00E437E}" name="Test Type" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{B7C72E78-CAF2-41A0-B7AC-096EC362072F}" name="Test Number" dataDxfId="49"/>
-    <tableColumn id="10" xr3:uid="{91E3C101-E9B0-405F-84B0-E044FE40F81E}" name="Test Date-Time" dataDxfId="48"/>
-    <tableColumn id="9" xr3:uid="{D57E3F37-9AD6-40C2-8ACB-5192B0E03191}" name="Sys/Comp Info" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{9415854F-BF69-421C-939D-DB4180DF22DE}" name="Severity" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{5AD12D48-C5A2-4105-B479-271121D42D3E}" name="EASEY Result Code" dataDxfId="45"/>
-    <tableColumn id="8" xr3:uid="{FBEFE9F9-E17E-4E0B-8743-7AE06BE9B114}" name="Fired" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{FCE78312-8A7D-4561-B4CC-F676E43829AF}" name="EASEY Result" dataDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{AA4E3A53-68A9-4DF8-87BC-70FB236A6CED}" name="Notes" dataDxfId="42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0CC4DB58-871D-4311-83EC-9DB6A2F24D3C}" name="Table3" displayName="Table3" ref="A1:K26" totalsRowShown="0" headerRowDxfId="80" dataDxfId="78" headerRowBorderDxfId="79">
+  <autoFilter ref="A1:K26" xr:uid="{0CC4DB58-871D-4311-83EC-9DB6A2F24D3C}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{FD39BA7F-4A73-45B6-8492-9C47A87EAF80}" name="Location" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{6BD18705-A907-480B-9613-FD6A89008B95}" name="Test Type" dataDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{171EC70D-BD2B-4679-9E2F-B7A72F41A5BC}" name="Test Number" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{54392DF7-D2E8-406A-BF46-C94A6AF058B7}" name="Test Date-Time" dataDxfId="74"/>
+    <tableColumn id="5" xr3:uid="{BEE30332-3FC4-42CC-9E0A-10D6FD8CE7DB}" name="Sys/Comp Info" dataDxfId="73"/>
+    <tableColumn id="6" xr3:uid="{4D56506A-EEFD-4953-B5C2-BFBFB1100C42}" name="Severity" dataDxfId="72"/>
+    <tableColumn id="7" xr3:uid="{F7744816-5978-4331-B8B7-FBAEA071B23C}" name="EASEY Result Code" dataDxfId="71"/>
+    <tableColumn id="8" xr3:uid="{5A8FF3A4-DEAC-4772-A7B5-657662710593}" name="Fired" dataDxfId="70"/>
+    <tableColumn id="9" xr3:uid="{B72C4A8D-A7B2-492D-AAF3-C53B34CC6D68}" name="EASEY Result" dataDxfId="69"/>
+    <tableColumn id="10" xr3:uid="{3BD58939-520E-4EF9-ACA2-F4F2053AAB3E}" name="Notes" dataDxfId="68"/>
+    <tableColumn id="11" xr3:uid="{81440B9B-FEDA-4EF7-8E5F-058F42001F39}" name="Command Line Parameters" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}" name="Table2" displayName="Table2" ref="A1:K581" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40">
-  <autoFilter ref="A1:K581" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{2F62CB62-9049-497E-ADC7-F9F96C31FD57}" name="Location" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{4B11ACA0-FDC6-44CA-8A6F-3F08C4CFA5F1}" name="Test Type" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{C41F1DAE-8DC9-48E1-917C-258A6C1E96C9}" name="Test Number" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{EC0CA150-1F20-45D9-9C39-AFA9123777F4}" name="Test Date-Time" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{33FF74A1-9DCC-4D3A-B0C5-64E9380F879C}" name="Sys/Comp Info" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{22A99E8A-A5B5-4CBC-B53D-C1D9D2C5AE1B}" name="Severity" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{029739E6-4C78-4E2E-A09D-8C3FA73D2041}" name="EASEY Result Code" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{5D0E993C-1382-48E9-AA45-BE7DC3BA96AF}" name="Fired" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{F1CFA0F6-70F7-4594-B088-F1D73717D454}" name="EASEY Result" dataDxfId="30"/>
-    <tableColumn id="10" xr3:uid="{40B0439D-9986-4626-9FF3-B32AE7B5EA33}" name="Notes" dataDxfId="29"/>
-    <tableColumn id="11" xr3:uid="{FF29FE95-83D5-44D1-A98E-E38DE83D7BC7}" name="Command Line Parameters" dataDxfId="28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}" name="Table1" displayName="Table1" ref="A1:J68" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
+  <autoFilter ref="A1:J68" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{4711296A-1683-4D59-9390-9C88803AA68A}" name="Location" dataDxfId="64"/>
+    <tableColumn id="2" xr3:uid="{46A8668E-BFD8-4CE9-8D48-A23DE00E437E}" name="Test Type" dataDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{B7C72E78-CAF2-41A0-B7AC-096EC362072F}" name="Test Number" dataDxfId="62"/>
+    <tableColumn id="10" xr3:uid="{91E3C101-E9B0-405F-84B0-E044FE40F81E}" name="Test Date-Time" dataDxfId="61"/>
+    <tableColumn id="9" xr3:uid="{D57E3F37-9AD6-40C2-8ACB-5192B0E03191}" name="Sys/Comp Info" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{9415854F-BF69-421C-939D-DB4180DF22DE}" name="Severity" dataDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{5AD12D48-C5A2-4105-B479-271121D42D3E}" name="EASEY Result Code" dataDxfId="58"/>
+    <tableColumn id="8" xr3:uid="{FBEFE9F9-E17E-4E0B-8743-7AE06BE9B114}" name="Fired" dataDxfId="57"/>
+    <tableColumn id="6" xr3:uid="{FCE78312-8A7D-4561-B4CC-F676E43829AF}" name="EASEY Result" dataDxfId="56"/>
+    <tableColumn id="7" xr3:uid="{AA4E3A53-68A9-4DF8-87BC-70FB236A6CED}" name="Notes" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{72A5AA74-4364-4117-8778-356FF8C70282}" name="Table5" displayName="Table5" ref="A1:K91" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}" name="Table2" displayName="Table2" ref="A1:K581" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53">
+  <autoFilter ref="A1:K581" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{2F62CB62-9049-497E-ADC7-F9F96C31FD57}" name="Location" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{4B11ACA0-FDC6-44CA-8A6F-3F08C4CFA5F1}" name="Test Type" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{C41F1DAE-8DC9-48E1-917C-258A6C1E96C9}" name="Test Number" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{EC0CA150-1F20-45D9-9C39-AFA9123777F4}" name="Test Date-Time" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{33FF74A1-9DCC-4D3A-B0C5-64E9380F879C}" name="Sys/Comp Info" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{22A99E8A-A5B5-4CBC-B53D-C1D9D2C5AE1B}" name="Severity" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{029739E6-4C78-4E2E-A09D-8C3FA73D2041}" name="EASEY Result Code" dataDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{5D0E993C-1382-48E9-AA45-BE7DC3BA96AF}" name="Fired" dataDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{F1CFA0F6-70F7-4594-B088-F1D73717D454}" name="EASEY Result" dataDxfId="43"/>
+    <tableColumn id="10" xr3:uid="{40B0439D-9986-4626-9FF3-B32AE7B5EA33}" name="Notes" dataDxfId="42"/>
+    <tableColumn id="11" xr3:uid="{FF29FE95-83D5-44D1-A98E-E38DE83D7BC7}" name="Command Line Parameters" dataDxfId="41"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{72A5AA74-4364-4117-8778-356FF8C70282}" name="Table5" displayName="Table5" ref="A1:K91" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39">
   <autoFilter ref="A1:K91" xr:uid="{72A5AA74-4364-4117-8778-356FF8C70282}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{B5B471E1-992B-4560-9AE9-3A0B01F9D400}" name="Location" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{1012AED6-A79C-434D-9EFD-BC07FE87995E}" name="Test Type" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{B5631442-9C30-47B5-9E8F-98D77DB400BF}" name="Test Number" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{960A60B0-A29E-44B1-B36A-03ABF8C9387B}" name="Test Date-Time" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{33F281F6-219B-4E02-9434-6B6D946A98E0}" name="Sys/Comp Info" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{E798D1DA-91F4-4F85-BC08-C953E40455E6}" name="Severity" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{D1264FDF-B29D-4FEE-92C2-AB98523233CD}" name="EASEY Result Code" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{C745552B-9704-4998-BE61-D3A91601E678}" name="Fired" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{C834180C-E3EF-4150-9616-ACEC523C5385}" name="EASEY Result" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{3ABD6028-9668-4A63-AEC5-1740A232405E}" name="Notes" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{9F9E58E8-A77F-4D89-A441-47366556DBC4}" name="Command Line Parameters" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{B5B471E1-992B-4560-9AE9-3A0B01F9D400}" name="Location" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{1012AED6-A79C-434D-9EFD-BC07FE87995E}" name="Test Type" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{B5631442-9C30-47B5-9E8F-98D77DB400BF}" name="Test Number" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{960A60B0-A29E-44B1-B36A-03ABF8C9387B}" name="Test Date-Time" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{33F281F6-219B-4E02-9434-6B6D946A98E0}" name="Sys/Comp Info" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{E798D1DA-91F4-4F85-BC08-C953E40455E6}" name="Severity" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{D1264FDF-B29D-4FEE-92C2-AB98523233CD}" name="EASEY Result Code" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{C745552B-9704-4998-BE61-D3A91601E678}" name="Fired" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{C834180C-E3EF-4150-9616-ACEC523C5385}" name="EASEY Result" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{3ABD6028-9668-4A63-AEC5-1740A232405E}" name="Notes" dataDxfId="28"/>
+    <tableColumn id="11" xr3:uid="{9F9E58E8-A77F-4D89-A441-47366556DBC4}" name="Command Line Parameters" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15435,8 +15700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1178DED-FAC2-4896-ADA7-BAB067290A3E}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
@@ -16432,6 +16697,941 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284F8D0C-E6B8-46E4-BE14-B585B6CD2EA0}">
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="74.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="53" style="5" customWidth="1"/>
+    <col min="11" max="11" width="100.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D2" s="6">
+        <v>42411.477083333331</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>1370</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D3" s="6">
+        <v>42411.477083333331</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>1373</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D4" s="6">
+        <v>42740.288194444445</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>1376</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D5" s="6">
+        <v>42740.288194444445</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D6" s="6">
+        <v>42739.6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>1381</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D7" s="6">
+        <v>42739.6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D8" s="6">
+        <v>43186.368055555555</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>1384</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D9" s="6">
+        <v>43186.368055555555</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D10" s="6">
+        <v>43185.624305555553</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>1388</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D11" s="6">
+        <v>43185.624305555553</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D12" s="6">
+        <v>43495.42291666667</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>1392</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D13" s="6">
+        <v>43495.42291666667</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D14" s="6">
+        <v>43493.613888888889</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>1395</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D15" s="6">
+        <v>43493.613888888889</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D16" s="6">
+        <v>44015.586805555555</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>1398</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D17" s="6">
+        <v>44015.586805555555</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D18" s="6">
+        <v>44015.35833333333</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>1370</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D19" s="6">
+        <v>44015.35833333333</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>1403</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D20" s="6">
+        <v>44315.677083333336</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D21" s="6">
+        <v>44314.429166666669</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>1407</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D22" s="6">
+        <v>44314.429166666669</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="6">
+        <v>43191.665972222225</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>1417</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="6">
+        <v>43192.326388888891</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="6">
+        <v>43192.326388888891</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>1414</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D26" s="6">
+        <v>44368.693055555559</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>1412</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D27" s="6">
+        <v>44368.693055555559</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D28" s="6">
+        <v>44368.693055555559</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7A12ED-21A8-440D-BCEA-B358D4E41F2C}">
   <dimension ref="A1:K44"/>
   <sheetViews>
@@ -17745,7 +18945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF78B613-4599-4AFD-8861-A9AE5B1FBB5E}">
   <dimension ref="A1:K26"/>
   <sheetViews>
@@ -18539,7 +19739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C84253-C1F3-40A8-BCD6-786B60222E9D}">
   <dimension ref="A1:J68"/>
   <sheetViews>
@@ -20550,7 +21750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF247E8-4CEE-4E4C-AA1C-A5F6418303B4}">
   <dimension ref="A1:K581"/>
   <sheetViews>
@@ -39195,7 +40395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB95806-BA08-44E5-BECF-767BC3A79B45}">
   <dimension ref="A1:K91"/>
   <sheetViews>

--- a/misc/Testing Scripts/QA/TestCaseResults.xlsx
+++ b/misc/Testing Scripts/QA/TestCaseResults.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\CAMDDevelopment\easey-db-scripts\misc\Testing Scripts\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F05E813-8E85-4D50-A778-A43E4C5615D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634895A3-66C5-4B55-A2DC-AEA47FD41396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{673C86AF-EEEE-433C-9A6E-BD69DDCD2237}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{673C86AF-EEEE-433C-9A6E-BD69DDCD2237}"/>
   </bookViews>
   <sheets>
-    <sheet name="APPE" sheetId="6" r:id="rId1"/>
-    <sheet name="F2LCHK" sheetId="7" r:id="rId2"/>
-    <sheet name="F2LREF" sheetId="8" r:id="rId3"/>
-    <sheet name="FF2LBAS" sheetId="4" r:id="rId4"/>
-    <sheet name="FF2LTST" sheetId="3" r:id="rId5"/>
-    <sheet name="LINE" sheetId="1" r:id="rId6"/>
-    <sheet name="RATA" sheetId="2" r:id="rId7"/>
-    <sheet name="UNITDEF" sheetId="5" r:id="rId8"/>
+    <sheet name="7DAY" sheetId="9" r:id="rId1"/>
+    <sheet name="APPE" sheetId="6" r:id="rId2"/>
+    <sheet name="F2LCHK" sheetId="7" r:id="rId3"/>
+    <sheet name="F2LREF" sheetId="8" r:id="rId4"/>
+    <sheet name="FF2LBAS" sheetId="4" r:id="rId5"/>
+    <sheet name="FF2LTST" sheetId="3" r:id="rId6"/>
+    <sheet name="LINE" sheetId="1" r:id="rId7"/>
+    <sheet name="RATA" sheetId="2" r:id="rId8"/>
+    <sheet name="UNITDEF" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10569" uniqueCount="1419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11212" uniqueCount="1578">
   <si>
     <t>ORIS 3 (Barry) Location 5</t>
   </si>
@@ -4304,6 +4305,483 @@
   </si>
   <si>
     <t>ADMNOVR</t>
+  </si>
+  <si>
+    <t>ORIS 991 (IPL - Eagle Valley Generating Station) Location GT1</t>
+  </si>
+  <si>
+    <t>7DAY</t>
+  </si>
+  <si>
+    <t>C01-1</t>
+  </si>
+  <si>
+    <t>C01 (NOX)</t>
+  </si>
+  <si>
+    <t>SEVNDAY-5-C</t>
+  </si>
+  <si>
+    <t>QAT "PAULDESKTO-AB29DAB24FE34773AEB328AE656A6517" "PAULDESKTO-F936E680AA2B4D4EB9760065D0EE8A0B"</t>
+  </si>
+  <si>
+    <t>C02-1</t>
+  </si>
+  <si>
+    <t>C02 (DL)</t>
+  </si>
+  <si>
+    <t>SEVNDAY-2-B</t>
+  </si>
+  <si>
+    <t>The ComponentTypeCode in the monitoring plan is DL.  This type of component does not require a calibration test.</t>
+  </si>
+  <si>
+    <t>QAT "PAULDESKTO-AB29DAB24FE34773AEB328AE656A6517" "PAULDESKTO-BD1A439323D8411FA73717C72F1612CA"</t>
+  </si>
+  <si>
+    <t>ORIS 991 (IPL - Eagle Valley Generating Station) Location GT2</t>
+  </si>
+  <si>
+    <t>C21-1</t>
+  </si>
+  <si>
+    <t>C21 (NOX)</t>
+  </si>
+  <si>
+    <t>SEVNDAY-3-A</t>
+  </si>
+  <si>
+    <t>QAT "PAULDESKTO-BEB3B664F7564ABA9A2FDB391B30F821" "PAULDESKTO-A22AE094DAF94B7E8E77158B2C0E1C9F"</t>
+  </si>
+  <si>
+    <t>C22-1</t>
+  </si>
+  <si>
+    <t>C22 (O2)</t>
+  </si>
+  <si>
+    <t>SEVNDAY-4-A</t>
+  </si>
+  <si>
+    <t>The TestResultCode indicates that the test was aborted.  CalibrationInjection records for this test will not be evaluated.  If the test was aborted for a reason not related to monitor performance, you should not report the test.</t>
+  </si>
+  <si>
+    <t>QAT "PAULDESKTO-BEB3B664F7564ABA9A2FDB391B30F821" "PAULDESKTO-F01FF52ED9C1425A99D2FD9B2AADA603"</t>
+  </si>
+  <si>
+    <t>ORIS 50292 (Bethpage Energy Center) Location GT1</t>
+  </si>
+  <si>
+    <t>7DAY-Q22015-012-1</t>
+  </si>
+  <si>
+    <t>012 (NOX)</t>
+  </si>
+  <si>
+    <t>QAT "MDC-A72D9F4120CB42959C52B10CCB02CD55" "DT3272ZV1-E60006B9EB9842DAB0CB2EB0EFF4D180"</t>
+  </si>
+  <si>
+    <t>7DAY-Q22015-013-3</t>
+  </si>
+  <si>
+    <t>013 (NOX)</t>
+  </si>
+  <si>
+    <t>SEVNDAY-6-A</t>
+  </si>
+  <si>
+    <t>The zero injection date, hour, and/or minute for Zero Injection Date 5/20/2015 is invalid.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-A72D9F4120CB42959C52B10CCB02CD55" "DT3272ZV1-479038334D6942D18E93B1B8DE3EB822"</t>
+  </si>
+  <si>
+    <t>7DAY-Q22015-031-2</t>
+  </si>
+  <si>
+    <t>031 (CO2)</t>
+  </si>
+  <si>
+    <t>SEVNDAY-7-B</t>
+  </si>
+  <si>
+    <t>The ZeroInjectionDate was not equal to the UpscaleInjectionDate for Zero Injection Date 5/20/2015.  The zero-level and upscale injections reported in the same record must be performed on the same day.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-A72D9F4120CB42959C52B10CCB02CD55" "DT3272ZV1-087B5F6CF08E441F8A28A0AEE0DEC9EB"</t>
+  </si>
+  <si>
+    <t>7DAY-Q22015-032-2</t>
+  </si>
+  <si>
+    <t>032 (CO2)</t>
+  </si>
+  <si>
+    <t>SEVNDAY-8-A</t>
+  </si>
+  <si>
+    <t>You did not provide ZeroCalibrationError, which is required for Zero Injection Date 5/20/2015.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-A72D9F4120CB42959C52B10CCB02CD55" "DT3272ZV1-64512A44FDE84E1A99FFA6EF97506A07"</t>
+  </si>
+  <si>
+    <t>ORIS 50292 (Bethpage Energy Center) Location GT2</t>
+  </si>
+  <si>
+    <t>7DAY-Q22015-012-3</t>
+  </si>
+  <si>
+    <t>SEVNDAY-9-B</t>
+  </si>
+  <si>
+    <t>The value -1.00 in the field UpscaleCalibrationError for Zero Injection Date 5/20/2015 is not within the range of valid values.  This value must be greater than or equal to zero.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-02B24E1727D2437A93812805D7934CC0" "DT3272ZV1-0A56CEF615BB42BDB87E83EB5275639F"</t>
+  </si>
+  <si>
+    <t>7DAY-Q22015-013-4</t>
+  </si>
+  <si>
+    <t>SEVNDAY-10-A</t>
+  </si>
+  <si>
+    <t>You did not provide UpscaleGasLevelCode, which is required for Zero Injection Date 5/20/2015.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-02B24E1727D2437A93812805D7934CC0" "DT3272ZV1-A11FFEFCB3FC4B8D8C6E78744BE2EDE8"</t>
+  </si>
+  <si>
+    <t>SEVNDAY-16-A</t>
+  </si>
+  <si>
+    <t>The software could not evaluate the Upscale injection calculations reported for Zero Injection Date 5/20/2015, because of the errors listed above.</t>
+  </si>
+  <si>
+    <t>7DAY-Q22015-031-4</t>
+  </si>
+  <si>
+    <t>SEVNDAY-12-A</t>
+  </si>
+  <si>
+    <t>You did not provide UpscaleMeasuredValue, which is required for Zero Injection Date 5/20/2015.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-02B24E1727D2437A93812805D7934CC0" "DT3272ZV1-CCB64E01672D4FFB9AB18045653E659F"</t>
+  </si>
+  <si>
+    <t>7DAY-Q22015-032-4</t>
+  </si>
+  <si>
+    <t>SEVNDAY-13-B</t>
+  </si>
+  <si>
+    <t>The value -1.000 in the field ZeroReferenceValue for Zero Injection Date 5/20/2015 is not within the range of valid values.  This value must be greater than or equal to zero.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-02B24E1727D2437A93812805D7934CC0" "DT3272ZV1-EE45A8D72DA042E1974022017936531B"</t>
+  </si>
+  <si>
+    <t>SEVNDAY-15-A</t>
+  </si>
+  <si>
+    <t>The software could not evaluate the Zero injection calculations reported for Zero Injection Date 5/20/2015, because of the errors listed above.</t>
+  </si>
+  <si>
+    <t>7DAY-Q42015-013-1</t>
+  </si>
+  <si>
+    <t>SEVNDAY-11-A</t>
+  </si>
+  <si>
+    <t>You did not provide ZeroMeasuredValue, which is required for Zero Injection Date 11/9/2015.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-02B24E1727D2437A93812805D7934CC0" "DT3272ZV1-6AB38E772172454B8CB693020277A24F"</t>
+  </si>
+  <si>
+    <t>The software could not evaluate the Zero injection calculations reported for Zero Injection Date 11/9/2015, because of the errors listed above.</t>
+  </si>
+  <si>
+    <t>7DAY-Q42015-032-2</t>
+  </si>
+  <si>
+    <t>SEVNDAY-14-A</t>
+  </si>
+  <si>
+    <t>You did not provide UpscaleReferenceValue, which is required for Zero Injection Date 11/9/2015.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-02B24E1727D2437A93812805D7934CC0" "DT3272ZV1-1AFDBDE589FE42A9AD2FA3D97D9D734A"</t>
+  </si>
+  <si>
+    <t>The software could not evaluate the Upscale injection calculations reported for Zero Injection Date 11/9/2015, because of the errors listed above.</t>
+  </si>
+  <si>
+    <t>7DAY-Q42015-213-1</t>
+  </si>
+  <si>
+    <t>213 (NOX)</t>
+  </si>
+  <si>
+    <t>SEVNDAY-17-F</t>
+  </si>
+  <si>
+    <t>The Zero Calibration Error reported for Zero Injection Date 11/9/2015 is inconsistent with the recalculated calibration error for the gas injection or reference signal.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-02B24E1727D2437A93812805D7934CC0" "DT3272ZV1-9475F6FB507D4E869C3915D3AE9BBD10"</t>
+  </si>
+  <si>
+    <t>7DAY-Q42015-232-2</t>
+  </si>
+  <si>
+    <t>232 (CO2)</t>
+  </si>
+  <si>
+    <t>SEVNDAY-18-C</t>
+  </si>
+  <si>
+    <t>You reported a value of "1" as the Upscale APS Indicator for Zero Injection Date 11/9/2015, but you must use the standard performance specification criteria for CO2 and O2 components.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-02B24E1727D2437A93812805D7934CC0" "DT3272ZV1-745C7CD20939495FB5B03FE0958FDCBB"</t>
+  </si>
+  <si>
+    <t>ORIS 50292 (Bethpage Energy Center) Location GT3</t>
+  </si>
+  <si>
+    <t>21Q2-NOXH-7DAY</t>
+  </si>
+  <si>
+    <t>310 (NOX)</t>
+  </si>
+  <si>
+    <t>SEVNDAY-20-A</t>
+  </si>
+  <si>
+    <t>You reported a Test End Date, Hour, and Minute that is not the same as the Injection Date, Hour, and Minute of the last injection in the 7 day calibration test.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-2A4BD8E2E84D48709192EC978C09719D" "LT34SHJM2-8661EEECB30D4E5DA52257264B286AC9"</t>
+  </si>
+  <si>
+    <t>SEVNDAY-21-A</t>
+  </si>
+  <si>
+    <t>The test contains fewer than seven calibration injection records.</t>
+  </si>
+  <si>
+    <t>21Q2-NOXL-7DAY</t>
+  </si>
+  <si>
+    <t>QAT "MDC-2A4BD8E2E84D48709192EC978C09719D" "LT34SHJM2-777BB6450ACB4E4B8D7687BBBD55886A"</t>
+  </si>
+  <si>
+    <t>21Q2-O2-7DAY</t>
+  </si>
+  <si>
+    <t>320 (O2)</t>
+  </si>
+  <si>
+    <t>SEVNDAY-22-A</t>
+  </si>
+  <si>
+    <t>You have reported more than one value as the UpscaleGasLevelCode in the calibration injection records.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-2A4BD8E2E84D48709192EC978C09719D" "LT34SHJM2-CCFB53FF9C7043DEA439B887FF9C3523"</t>
+  </si>
+  <si>
+    <t>7DAY-Q12018-105-1</t>
+  </si>
+  <si>
+    <t>105 (O2)</t>
+  </si>
+  <si>
+    <t>SEVNDAY-19-A</t>
+  </si>
+  <si>
+    <t>You reported a test Begin Date, Hour, and Minute that is not the same as the Injection Date, Hour, and Minute of the first injection in the 7-day calibration test.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-2A4BD8E2E84D48709192EC978C09719D" "LT34SHJM2-09FEF0F5B2A3445A9DDB26D466F826B4"</t>
+  </si>
+  <si>
+    <t>ORIS 50292 (Bethpage Energy Center) Location GT4</t>
+  </si>
+  <si>
+    <t>7DAY-Q22018-206-1</t>
+  </si>
+  <si>
+    <t>206 (NOX)</t>
+  </si>
+  <si>
+    <t>The Zero Calibration Error reported for Zero Injection Date 5/4/2018 is inconsistent with the recalculated calibration error for the gas injection or reference signal.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-5135A4CCD59347F0B5EA4262E78D79C8" "LT5CGR7H2-7E701C2F48BD40378F7C888E9AE658B6"</t>
+  </si>
+  <si>
+    <t>SEVNDAY-23-A</t>
+  </si>
+  <si>
+    <t>The reference values are not consistent with the calibration gas/signal levels reported.  The reference values of zero-level gas injections or signals must be less than those of upscale gas injections.</t>
+  </si>
+  <si>
+    <t>SEVNDAY-24-A</t>
+  </si>
+  <si>
+    <t>The tag value of at least one Zero level reference signal or calibration gas for this test is 88.0%, which does not meet the performance specifications of 40 CFR Part 75.  The concentration of the zero reference signal or calibration gas must be less than or equal to 20.0% of the span value.  The test is invalid.</t>
+  </si>
+  <si>
+    <t>7DAY-Q32020-207-13</t>
+  </si>
+  <si>
+    <t>207 (NOX)</t>
+  </si>
+  <si>
+    <t>SEVNDAY-18-F</t>
+  </si>
+  <si>
+    <t>The Upscale Calibration Error reported for Zero Injection Date 6/25/2020 is inconsistent with the recalculated calibration error for the gas injection or reference signal.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-5135A4CCD59347F0B5EA4262E78D79C8" "LT34SHJM2-100F5EEA51E54F47B6811F9CA35E562C"</t>
+  </si>
+  <si>
+    <t>SEVNDAY-27-D</t>
+  </si>
+  <si>
+    <t>You have reported a 7-day calibration test, but the recalculated results indicate a failing test.</t>
+  </si>
+  <si>
+    <t>SEVNDAY-25-E</t>
+  </si>
+  <si>
+    <t>The tag value of at least one High level reference calibration gas for this test is 104.0%, which does not meet the applicable performance specifications.  The concentration of the high reference calibration gas must be between 80.0% and 100.0% of the span value.  The test is invalid.</t>
+  </si>
+  <si>
+    <t>7DAY-Q32020-208-5</t>
+  </si>
+  <si>
+    <t>208 (O2)</t>
+  </si>
+  <si>
+    <t>The ZeroInjectionDate was not equal to the UpscaleInjectionDate for Zero Injection Date 6/25/2020.  The zero-level and upscale injections reported in the same record must be performed on the same day.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-5135A4CCD59347F0B5EA4262E78D79C8" "LT34SHJM2-7B00492C69CF48C98577F3BAF8163768"</t>
+  </si>
+  <si>
+    <t>SEVNDAY-26-A</t>
+  </si>
+  <si>
+    <t>This test contains at least two zero-level calibration gas injections or reference signals that were performed on the same day.</t>
+  </si>
+  <si>
+    <t>ORIS 55382 (Thomas A. Smith Energy Facility) Location CCCT1</t>
+  </si>
+  <si>
+    <t>112 (NOX)</t>
+  </si>
+  <si>
+    <t>SEVNDAY-31-B</t>
+  </si>
+  <si>
+    <t>You reported an OnlineOfflineIndicator for Zero Injection Date 5/16/2021 that indicates that the unit was offline, but 7-day calibration test injections must be performed when the unit is online.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-3F03FCD6E1C14103B3D6A1EBA54B84C9" "4B23Z91-HQ-D832656FC58243F9A8A20876FC6E9D88"</t>
+  </si>
+  <si>
+    <t>122 (O2)</t>
+  </si>
+  <si>
+    <t>SEVNDAY-33-A</t>
+  </si>
+  <si>
+    <t>You did not provide UpscaleAPSIndicator, which is required for Zero Injection Date 5/16/2021.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-3F03FCD6E1C14103B3D6A1EBA54B84C9" "4B23Z91-HQ-FF50BBE9C7164535B303E05BEF729A7E"</t>
+  </si>
+  <si>
+    <t>121 (O2)</t>
+  </si>
+  <si>
+    <t>SEVNDAY-32-A</t>
+  </si>
+  <si>
+    <t>You did not provide ZeroAPSIndicator, which is required for Zero Injection Date 6/12/2019.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-3F03FCD6E1C14103B3D6A1EBA54B84C9" "4B23Z91-HQ-65FEBA4862D14F9C9603775114D428BC"</t>
+  </si>
+  <si>
+    <t>ORIS 55382 (Thomas A. Smith Energy Facility) Location CCCT2</t>
+  </si>
+  <si>
+    <t>212 (NOX)</t>
+  </si>
+  <si>
+    <t>QAT "MDC-8ADB7E2796C84D2BA4847FC023F83907" "4B23Z91-HQ-C65F1D235F8647D0815D62282ABAFA41"</t>
+  </si>
+  <si>
+    <t>222 (O2)</t>
+  </si>
+  <si>
+    <t>QAT "MDC-8ADB7E2796C84D2BA4847FC023F83907" "4B23Z91-HQ-283907853EE94C17BCAC80AC4AD8141A"</t>
+  </si>
+  <si>
+    <t>221 (O2)</t>
+  </si>
+  <si>
+    <t>QAT "MDC-8ADB7E2796C84D2BA4847FC023F83907" "4B23Z91-HQ-1897C5F2034A4190A8E01D21DB1F5E67"</t>
+  </si>
+  <si>
+    <t>ORIS 55382 (Thomas A. Smith Energy Facility) Location CCCT3</t>
+  </si>
+  <si>
+    <t>321 (O2)</t>
+  </si>
+  <si>
+    <t>QAT "MDC-7C8BA01B673F46818B57F43A9480448E" "4B23Z91-HQ-98C9940B282E4DE9851DED584CF5E5B1"</t>
+  </si>
+  <si>
+    <t>312 (NOX)</t>
+  </si>
+  <si>
+    <t>QAT "MDC-7C8BA01B673F46818B57F43A9480448E" "4B23Z91-HQ-35DAB2FE023442CCB33587E7E17D7A9B"</t>
+  </si>
+  <si>
+    <t>322 (O2)</t>
+  </si>
+  <si>
+    <t>QAT "MDC-7C8BA01B673F46818B57F43A9480448E" "4B23Z91-HQ-36576A9D530E40BDAD2C3E46DFEABEFF"</t>
+  </si>
+  <si>
+    <t>ORIS 55382 (Thomas A. Smith Energy Facility) Location CCCT4</t>
+  </si>
+  <si>
+    <t>421 (O2)</t>
+  </si>
+  <si>
+    <t>QAT "MDC-69BF85C161FD4B6494B0C754FE3AD58E" "4B23Z91-HQ-05751ECB766D4E53A52833C7F44C8463"</t>
+  </si>
+  <si>
+    <t>412 (NOX)</t>
+  </si>
+  <si>
+    <t>QAT "MDC-69BF85C161FD4B6494B0C754FE3AD58E" "4B23Z91-HQ-E080D34722E649AA8BEF697BD11E3C17"</t>
+  </si>
+  <si>
+    <t>422 (O2)</t>
+  </si>
+  <si>
+    <t>QAT "MDC-69BF85C161FD4B6494B0C754FE3AD58E" "4B23Z91-HQ-A2B0B8B4625A4DA390EC103AF60AD155"</t>
   </si>
 </sst>
 </file>
@@ -4445,82 +4923,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="109">
+  <dxfs count="123">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color theme="0"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4564,19 +4975,10 @@
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4585,11 +4987,11 @@
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4920,6 +5322,161 @@
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -5012,159 +5569,179 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6E75B64B-AA6D-476A-8302-BF96D5E7E810}" name="Table6" displayName="Table6" ref="A1:K319" totalsRowShown="0" headerRowDxfId="108" dataDxfId="106" headerRowBorderDxfId="107">
-  <autoFilter ref="A1:K319" xr:uid="{6E75B64B-AA6D-476A-8302-BF96D5E7E810}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5C910FE5-874B-4017-B841-F60367D6DBDE}" name="Table9" displayName="Table9" ref="A1:K73" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowBorderDxfId="13">
+  <autoFilter ref="A1:K73" xr:uid="{5C910FE5-874B-4017-B841-F60367D6DBDE}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{DABC54ED-3C28-4B3B-8594-CAA471D265D5}" name="Location" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{F8AEE93E-FDE2-46D7-B1A7-244178C2F820}" name="Test Type" dataDxfId="104"/>
-    <tableColumn id="3" xr3:uid="{8C6E04D8-89F2-453E-9922-8A0AF53CB692}" name="Test Number" dataDxfId="103"/>
-    <tableColumn id="4" xr3:uid="{2B43C86D-8143-4360-87FC-99396C0E304F}" name="Test Date-Time" dataDxfId="102"/>
-    <tableColumn id="5" xr3:uid="{E75FB52D-EC10-43F0-8D77-68CDEA14235D}" name="Sys/Comp Info" dataDxfId="101"/>
-    <tableColumn id="6" xr3:uid="{E6D41DD1-2DAC-4262-AA16-1D46CE14D100}" name="Severity" dataDxfId="100"/>
-    <tableColumn id="7" xr3:uid="{E4B7FCA0-0453-4D46-AF2D-5FCB94154788}" name="EASEY Result Code" dataDxfId="99"/>
-    <tableColumn id="8" xr3:uid="{1C5C127B-0EC6-40C8-9F7F-CDFFB95E2B9C}" name="Fired" dataDxfId="98"/>
-    <tableColumn id="9" xr3:uid="{E4D52144-8081-4E9C-9216-F2B3E7D99696}" name="EASEY Result" dataDxfId="97"/>
-    <tableColumn id="10" xr3:uid="{1B8F57B6-0961-4DCE-A9BB-77E44380F12A}" name="Notes" dataDxfId="96"/>
-    <tableColumn id="11" xr3:uid="{8C749E78-19F9-4D93-A1EC-56160203A547}" name="Command Line Parameters" dataDxfId="95"/>
+    <tableColumn id="1" xr3:uid="{8279D829-3000-4C82-8018-0E78EB4E52ED}" name="Location" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{8C3F4264-2BDD-4183-9522-C40A313B4494}" name="Test Type" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{B0DE5395-DC16-46BB-BC57-85CF8494EEC8}" name="Test Number" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{AFAA091C-FD51-4F17-B61A-9B63F7F60549}" name="Test Date-Time" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{9510359E-2D55-43AD-8BD2-3BEAD6C916CF}" name="Sys/Comp Info" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{AECAE78C-1669-4150-9D54-CF24FB46FB2C}" name="Severity" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{60F04430-453C-4689-B258-ECBB97164B62}" name="EASEY Result Code" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{48BBCC17-5C80-41DD-9F75-59C2F34B310D}" name="Fired" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{B8B66FF4-909C-4ADC-8A89-2420561A8BC8}" name="EASEY Result" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{502F8369-E6BA-4168-9FB1-BDCCFE48BA95}" name="Notes" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{1BA34216-1816-4C5B-91A2-0F623ECC08A9}" name="Command Line Parameters" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{643FA4C3-7226-4FC1-A77A-D6CF46B7DE06}" name="Table7" displayName="Table7" ref="A1:K33" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="26">
-  <autoFilter ref="A1:K33" xr:uid="{643FA4C3-7226-4FC1-A77A-D6CF46B7DE06}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6E75B64B-AA6D-476A-8302-BF96D5E7E810}" name="Table6" displayName="Table6" ref="A1:K319" totalsRowShown="0" headerRowDxfId="122" dataDxfId="120" headerRowBorderDxfId="121">
+  <autoFilter ref="A1:K319" xr:uid="{6E75B64B-AA6D-476A-8302-BF96D5E7E810}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{6A1DC097-B550-4298-811F-BB553C8A78B7}" name="Location" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{B0B911C5-C9AF-4D6B-9A8E-E4524ABB1455}" name="Test Type" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{7C46186D-C3D8-4F3A-A359-DBEC33D11A32}" name="Test Number" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{B77DADA4-D1C0-49A5-8941-BF36C2738914}" name="Test Date-Time" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{94D2842C-7497-4826-BFDF-64C1F4930DC7}" name="Sys/Comp Info" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{18E0026A-3AB3-4471-BB8D-F86CD1FCACB2}" name="Severity" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{64F844FE-3B1B-48BD-BFA3-F73DD8F6BAE7}" name="EASEY Result Code" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{0A777F6A-C367-4D68-80DC-BE82994A6C9C}" name="Fired" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{58E8A6A7-2EB9-4636-98D8-915BAA276364}" name="EASEY Result" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{8E16DEBD-9C74-43B0-A1EC-12CF584BC57D}" name="Notes" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{7AE3F542-B6CD-45CB-99F0-47DDE95004F7}" name="Command Line Parameters" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{DABC54ED-3C28-4B3B-8594-CAA471D265D5}" name="Location" dataDxfId="119"/>
+    <tableColumn id="2" xr3:uid="{F8AEE93E-FDE2-46D7-B1A7-244178C2F820}" name="Test Type" dataDxfId="118"/>
+    <tableColumn id="3" xr3:uid="{8C6E04D8-89F2-453E-9922-8A0AF53CB692}" name="Test Number" dataDxfId="117"/>
+    <tableColumn id="4" xr3:uid="{2B43C86D-8143-4360-87FC-99396C0E304F}" name="Test Date-Time" dataDxfId="116"/>
+    <tableColumn id="5" xr3:uid="{E75FB52D-EC10-43F0-8D77-68CDEA14235D}" name="Sys/Comp Info" dataDxfId="115"/>
+    <tableColumn id="6" xr3:uid="{E6D41DD1-2DAC-4262-AA16-1D46CE14D100}" name="Severity" dataDxfId="114"/>
+    <tableColumn id="7" xr3:uid="{E4B7FCA0-0453-4D46-AF2D-5FCB94154788}" name="EASEY Result Code" dataDxfId="113"/>
+    <tableColumn id="8" xr3:uid="{1C5C127B-0EC6-40C8-9F7F-CDFFB95E2B9C}" name="Fired" dataDxfId="112"/>
+    <tableColumn id="9" xr3:uid="{E4D52144-8081-4E9C-9216-F2B3E7D99696}" name="EASEY Result" dataDxfId="111"/>
+    <tableColumn id="10" xr3:uid="{1B8F57B6-0961-4DCE-A9BB-77E44380F12A}" name="Notes" dataDxfId="110"/>
+    <tableColumn id="11" xr3:uid="{8C749E78-19F9-4D93-A1EC-56160203A547}" name="Command Line Parameters" dataDxfId="109"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E4484FF7-4E72-42BE-B673-2211F40DBEC5}" name="Table8" displayName="Table8" ref="A1:K28" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="12">
-  <autoFilter ref="A1:K28" xr:uid="{E4484FF7-4E72-42BE-B673-2211F40DBEC5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{643FA4C3-7226-4FC1-A77A-D6CF46B7DE06}" name="Table7" displayName="Table7" ref="A1:K33" totalsRowShown="0" headerRowDxfId="108" dataDxfId="106" headerRowBorderDxfId="107">
+  <autoFilter ref="A1:K33" xr:uid="{643FA4C3-7226-4FC1-A77A-D6CF46B7DE06}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{BCDEC250-D556-489B-A8C0-F3C0B749EE85}" name="Location" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{27845E29-DF76-4FC1-8B99-E6D05BC504AB}" name="Test Type" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{88E8B5E9-3A4F-487A-A1FD-2F8825130F6C}" name="Test Number" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{96597CE9-7403-4439-ACB1-4DB48A5AE831}" name="Test Date-Time" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{67D38623-BE59-4D0E-966A-D900405266E4}" name="Sys/Comp Info" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{4480DA93-63BE-46D7-9C44-A62CF4C30DB9}" name="Severity" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{4DE029FD-1894-4C16-A49E-7205888520D7}" name="EASEY Result Code" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{38E45A86-E2E8-436C-83B0-1DC52A25A389}" name="Fired" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{D0FCA1F1-B5E4-4F39-8570-3FDAAFD8C655}" name="EASEY Result" dataDxfId="0"/>
-    <tableColumn id="10" xr3:uid="{8FFB2F06-8DA3-4256-9B20-894A86F3CAB1}" name="Notes" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{0A82F04A-4DC9-465C-ACBF-8A9107DE5BF9}" name="Command Line Parameters" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{6A1DC097-B550-4298-811F-BB553C8A78B7}" name="Location" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{B0B911C5-C9AF-4D6B-9A8E-E4524ABB1455}" name="Test Type" dataDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{7C46186D-C3D8-4F3A-A359-DBEC33D11A32}" name="Test Number" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{B77DADA4-D1C0-49A5-8941-BF36C2738914}" name="Test Date-Time" dataDxfId="102"/>
+    <tableColumn id="5" xr3:uid="{94D2842C-7497-4826-BFDF-64C1F4930DC7}" name="Sys/Comp Info" dataDxfId="101"/>
+    <tableColumn id="6" xr3:uid="{18E0026A-3AB3-4471-BB8D-F86CD1FCACB2}" name="Severity" dataDxfId="100"/>
+    <tableColumn id="7" xr3:uid="{64F844FE-3B1B-48BD-BFA3-F73DD8F6BAE7}" name="EASEY Result Code" dataDxfId="99"/>
+    <tableColumn id="8" xr3:uid="{0A777F6A-C367-4D68-80DC-BE82994A6C9C}" name="Fired" dataDxfId="98"/>
+    <tableColumn id="9" xr3:uid="{58E8A6A7-2EB9-4636-98D8-915BAA276364}" name="EASEY Result" dataDxfId="97"/>
+    <tableColumn id="10" xr3:uid="{8E16DEBD-9C74-43B0-A1EC-12CF584BC57D}" name="Notes" dataDxfId="96"/>
+    <tableColumn id="11" xr3:uid="{7AE3F542-B6CD-45CB-99F0-47DDE95004F7}" name="Command Line Parameters" dataDxfId="95"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C4E4C8FF-D2BC-4023-A7E2-4F0FE1340DDB}" name="Table4" displayName="Table4" ref="A1:K44" totalsRowShown="0" headerRowDxfId="94" dataDxfId="92" headerRowBorderDxfId="93">
-  <autoFilter ref="A1:K44" xr:uid="{C4E4C8FF-D2BC-4023-A7E2-4F0FE1340DDB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E4484FF7-4E72-42BE-B673-2211F40DBEC5}" name="Table8" displayName="Table8" ref="A1:K28" totalsRowShown="0" headerRowDxfId="94" headerRowBorderDxfId="93">
+  <autoFilter ref="A1:K28" xr:uid="{E4484FF7-4E72-42BE-B673-2211F40DBEC5}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{25672079-CDA0-4D8B-8CF3-D545B2ACD419}" name="Location" dataDxfId="91"/>
-    <tableColumn id="2" xr3:uid="{5279C203-946F-4765-ABB9-8C81921C2DC3}" name="Test Type" dataDxfId="90"/>
-    <tableColumn id="3" xr3:uid="{11DE1298-C62C-4C4B-9989-25AA10EF10C0}" name="Test Number" dataDxfId="89"/>
-    <tableColumn id="4" xr3:uid="{2A458B2D-9FF3-4418-9FD6-DF0766209CB5}" name="Test Date-Time" dataDxfId="88"/>
-    <tableColumn id="5" xr3:uid="{60E36B10-857E-4482-B035-790F74DBDB33}" name="Sys/Comp Info" dataDxfId="87"/>
-    <tableColumn id="6" xr3:uid="{2E26423A-D6BE-4410-8F61-F74A3CED15B8}" name="Severity" dataDxfId="86"/>
-    <tableColumn id="7" xr3:uid="{20497C37-19CA-4417-AC58-9CBBEB217149}" name="EASEY Result Code" dataDxfId="85"/>
-    <tableColumn id="8" xr3:uid="{B51DBED3-688D-4748-9F71-406904878E83}" name="Fired" dataDxfId="84"/>
-    <tableColumn id="9" xr3:uid="{55BF46DF-A688-44E7-9212-0315C9101E05}" name="EASEY Result" dataDxfId="83"/>
-    <tableColumn id="10" xr3:uid="{A4FC5CC8-E769-426F-AEEE-D8BDE3AAE1AB}" name="Notes" dataDxfId="82"/>
-    <tableColumn id="11" xr3:uid="{E7F09088-0589-40C2-8067-9D1FE0896663}" name="Command Line Parameters" dataDxfId="81"/>
+    <tableColumn id="1" xr3:uid="{BCDEC250-D556-489B-A8C0-F3C0B749EE85}" name="Location" dataDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{27845E29-DF76-4FC1-8B99-E6D05BC504AB}" name="Test Type" dataDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{88E8B5E9-3A4F-487A-A1FD-2F8825130F6C}" name="Test Number" dataDxfId="90"/>
+    <tableColumn id="4" xr3:uid="{96597CE9-7403-4439-ACB1-4DB48A5AE831}" name="Test Date-Time" dataDxfId="89"/>
+    <tableColumn id="5" xr3:uid="{67D38623-BE59-4D0E-966A-D900405266E4}" name="Sys/Comp Info" dataDxfId="88"/>
+    <tableColumn id="6" xr3:uid="{4480DA93-63BE-46D7-9C44-A62CF4C30DB9}" name="Severity" dataDxfId="87"/>
+    <tableColumn id="7" xr3:uid="{4DE029FD-1894-4C16-A49E-7205888520D7}" name="EASEY Result Code" dataDxfId="86"/>
+    <tableColumn id="8" xr3:uid="{38E45A86-E2E8-436C-83B0-1DC52A25A389}" name="Fired" dataDxfId="85"/>
+    <tableColumn id="9" xr3:uid="{D0FCA1F1-B5E4-4F39-8570-3FDAAFD8C655}" name="EASEY Result" dataDxfId="84"/>
+    <tableColumn id="10" xr3:uid="{8FFB2F06-8DA3-4256-9B20-894A86F3CAB1}" name="Notes" dataDxfId="83"/>
+    <tableColumn id="11" xr3:uid="{0A82F04A-4DC9-465C-ACBF-8A9107DE5BF9}" name="Command Line Parameters" dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0CC4DB58-871D-4311-83EC-9DB6A2F24D3C}" name="Table3" displayName="Table3" ref="A1:K26" totalsRowShown="0" headerRowDxfId="80" dataDxfId="78" headerRowBorderDxfId="79">
-  <autoFilter ref="A1:K26" xr:uid="{0CC4DB58-871D-4311-83EC-9DB6A2F24D3C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C4E4C8FF-D2BC-4023-A7E2-4F0FE1340DDB}" name="Table4" displayName="Table4" ref="A1:K44" totalsRowShown="0" headerRowDxfId="81" dataDxfId="79" headerRowBorderDxfId="80">
+  <autoFilter ref="A1:K44" xr:uid="{C4E4C8FF-D2BC-4023-A7E2-4F0FE1340DDB}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{FD39BA7F-4A73-45B6-8492-9C47A87EAF80}" name="Location" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{6BD18705-A907-480B-9613-FD6A89008B95}" name="Test Type" dataDxfId="76"/>
-    <tableColumn id="3" xr3:uid="{171EC70D-BD2B-4679-9E2F-B7A72F41A5BC}" name="Test Number" dataDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{54392DF7-D2E8-406A-BF46-C94A6AF058B7}" name="Test Date-Time" dataDxfId="74"/>
-    <tableColumn id="5" xr3:uid="{BEE30332-3FC4-42CC-9E0A-10D6FD8CE7DB}" name="Sys/Comp Info" dataDxfId="73"/>
-    <tableColumn id="6" xr3:uid="{4D56506A-EEFD-4953-B5C2-BFBFB1100C42}" name="Severity" dataDxfId="72"/>
-    <tableColumn id="7" xr3:uid="{F7744816-5978-4331-B8B7-FBAEA071B23C}" name="EASEY Result Code" dataDxfId="71"/>
-    <tableColumn id="8" xr3:uid="{5A8FF3A4-DEAC-4772-A7B5-657662710593}" name="Fired" dataDxfId="70"/>
-    <tableColumn id="9" xr3:uid="{B72C4A8D-A7B2-492D-AAF3-C53B34CC6D68}" name="EASEY Result" dataDxfId="69"/>
-    <tableColumn id="10" xr3:uid="{3BD58939-520E-4EF9-ACA2-F4F2053AAB3E}" name="Notes" dataDxfId="68"/>
-    <tableColumn id="11" xr3:uid="{81440B9B-FEDA-4EF7-8E5F-058F42001F39}" name="Command Line Parameters" dataDxfId="67"/>
+    <tableColumn id="1" xr3:uid="{25672079-CDA0-4D8B-8CF3-D545B2ACD419}" name="Location" dataDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{5279C203-946F-4765-ABB9-8C81921C2DC3}" name="Test Type" dataDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{11DE1298-C62C-4C4B-9989-25AA10EF10C0}" name="Test Number" dataDxfId="76"/>
+    <tableColumn id="4" xr3:uid="{2A458B2D-9FF3-4418-9FD6-DF0766209CB5}" name="Test Date-Time" dataDxfId="75"/>
+    <tableColumn id="5" xr3:uid="{60E36B10-857E-4482-B035-790F74DBDB33}" name="Sys/Comp Info" dataDxfId="74"/>
+    <tableColumn id="6" xr3:uid="{2E26423A-D6BE-4410-8F61-F74A3CED15B8}" name="Severity" dataDxfId="73"/>
+    <tableColumn id="7" xr3:uid="{20497C37-19CA-4417-AC58-9CBBEB217149}" name="EASEY Result Code" dataDxfId="72"/>
+    <tableColumn id="8" xr3:uid="{B51DBED3-688D-4748-9F71-406904878E83}" name="Fired" dataDxfId="71"/>
+    <tableColumn id="9" xr3:uid="{55BF46DF-A688-44E7-9212-0315C9101E05}" name="EASEY Result" dataDxfId="70"/>
+    <tableColumn id="10" xr3:uid="{A4FC5CC8-E769-426F-AEEE-D8BDE3AAE1AB}" name="Notes" dataDxfId="69"/>
+    <tableColumn id="11" xr3:uid="{E7F09088-0589-40C2-8067-9D1FE0896663}" name="Command Line Parameters" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}" name="Table1" displayName="Table1" ref="A1:J68" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
-  <autoFilter ref="A1:J68" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{4711296A-1683-4D59-9390-9C88803AA68A}" name="Location" dataDxfId="64"/>
-    <tableColumn id="2" xr3:uid="{46A8668E-BFD8-4CE9-8D48-A23DE00E437E}" name="Test Type" dataDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{B7C72E78-CAF2-41A0-B7AC-096EC362072F}" name="Test Number" dataDxfId="62"/>
-    <tableColumn id="10" xr3:uid="{91E3C101-E9B0-405F-84B0-E044FE40F81E}" name="Test Date-Time" dataDxfId="61"/>
-    <tableColumn id="9" xr3:uid="{D57E3F37-9AD6-40C2-8ACB-5192B0E03191}" name="Sys/Comp Info" dataDxfId="60"/>
-    <tableColumn id="4" xr3:uid="{9415854F-BF69-421C-939D-DB4180DF22DE}" name="Severity" dataDxfId="59"/>
-    <tableColumn id="5" xr3:uid="{5AD12D48-C5A2-4105-B479-271121D42D3E}" name="EASEY Result Code" dataDxfId="58"/>
-    <tableColumn id="8" xr3:uid="{FBEFE9F9-E17E-4E0B-8743-7AE06BE9B114}" name="Fired" dataDxfId="57"/>
-    <tableColumn id="6" xr3:uid="{FCE78312-8A7D-4561-B4CC-F676E43829AF}" name="EASEY Result" dataDxfId="56"/>
-    <tableColumn id="7" xr3:uid="{AA4E3A53-68A9-4DF8-87BC-70FB236A6CED}" name="Notes" dataDxfId="55"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0CC4DB58-871D-4311-83EC-9DB6A2F24D3C}" name="Table3" displayName="Table3" ref="A1:K26" totalsRowShown="0" headerRowDxfId="67" dataDxfId="65" headerRowBorderDxfId="66">
+  <autoFilter ref="A1:K26" xr:uid="{0CC4DB58-871D-4311-83EC-9DB6A2F24D3C}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{FD39BA7F-4A73-45B6-8492-9C47A87EAF80}" name="Location" dataDxfId="64"/>
+    <tableColumn id="2" xr3:uid="{6BD18705-A907-480B-9613-FD6A89008B95}" name="Test Type" dataDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{171EC70D-BD2B-4679-9E2F-B7A72F41A5BC}" name="Test Number" dataDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{54392DF7-D2E8-406A-BF46-C94A6AF058B7}" name="Test Date-Time" dataDxfId="61"/>
+    <tableColumn id="5" xr3:uid="{BEE30332-3FC4-42CC-9E0A-10D6FD8CE7DB}" name="Sys/Comp Info" dataDxfId="60"/>
+    <tableColumn id="6" xr3:uid="{4D56506A-EEFD-4953-B5C2-BFBFB1100C42}" name="Severity" dataDxfId="59"/>
+    <tableColumn id="7" xr3:uid="{F7744816-5978-4331-B8B7-FBAEA071B23C}" name="EASEY Result Code" dataDxfId="58"/>
+    <tableColumn id="8" xr3:uid="{5A8FF3A4-DEAC-4772-A7B5-657662710593}" name="Fired" dataDxfId="57"/>
+    <tableColumn id="9" xr3:uid="{B72C4A8D-A7B2-492D-AAF3-C53B34CC6D68}" name="EASEY Result" dataDxfId="56"/>
+    <tableColumn id="10" xr3:uid="{3BD58939-520E-4EF9-ACA2-F4F2053AAB3E}" name="Notes" dataDxfId="55"/>
+    <tableColumn id="11" xr3:uid="{81440B9B-FEDA-4EF7-8E5F-058F42001F39}" name="Command Line Parameters" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}" name="Table2" displayName="Table2" ref="A1:K581" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53">
-  <autoFilter ref="A1:K581" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{2F62CB62-9049-497E-ADC7-F9F96C31FD57}" name="Location" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{4B11ACA0-FDC6-44CA-8A6F-3F08C4CFA5F1}" name="Test Type" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{C41F1DAE-8DC9-48E1-917C-258A6C1E96C9}" name="Test Number" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{EC0CA150-1F20-45D9-9C39-AFA9123777F4}" name="Test Date-Time" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{33FF74A1-9DCC-4D3A-B0C5-64E9380F879C}" name="Sys/Comp Info" dataDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{22A99E8A-A5B5-4CBC-B53D-C1D9D2C5AE1B}" name="Severity" dataDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{029739E6-4C78-4E2E-A09D-8C3FA73D2041}" name="EASEY Result Code" dataDxfId="45"/>
-    <tableColumn id="8" xr3:uid="{5D0E993C-1382-48E9-AA45-BE7DC3BA96AF}" name="Fired" dataDxfId="44"/>
-    <tableColumn id="9" xr3:uid="{F1CFA0F6-70F7-4594-B088-F1D73717D454}" name="EASEY Result" dataDxfId="43"/>
-    <tableColumn id="10" xr3:uid="{40B0439D-9986-4626-9FF3-B32AE7B5EA33}" name="Notes" dataDxfId="42"/>
-    <tableColumn id="11" xr3:uid="{FF29FE95-83D5-44D1-A98E-E38DE83D7BC7}" name="Command Line Parameters" dataDxfId="41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}" name="Table1" displayName="Table1" ref="A1:J68" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+  <autoFilter ref="A1:J68" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{4711296A-1683-4D59-9390-9C88803AA68A}" name="Location" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{46A8668E-BFD8-4CE9-8D48-A23DE00E437E}" name="Test Type" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{B7C72E78-CAF2-41A0-B7AC-096EC362072F}" name="Test Number" dataDxfId="49"/>
+    <tableColumn id="10" xr3:uid="{91E3C101-E9B0-405F-84B0-E044FE40F81E}" name="Test Date-Time" dataDxfId="48"/>
+    <tableColumn id="9" xr3:uid="{D57E3F37-9AD6-40C2-8ACB-5192B0E03191}" name="Sys/Comp Info" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{9415854F-BF69-421C-939D-DB4180DF22DE}" name="Severity" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{5AD12D48-C5A2-4105-B479-271121D42D3E}" name="EASEY Result Code" dataDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{FBEFE9F9-E17E-4E0B-8743-7AE06BE9B114}" name="Fired" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{FCE78312-8A7D-4561-B4CC-F676E43829AF}" name="EASEY Result" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{AA4E3A53-68A9-4DF8-87BC-70FB236A6CED}" name="Notes" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{72A5AA74-4364-4117-8778-356FF8C70282}" name="Table5" displayName="Table5" ref="A1:K91" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}" name="Table2" displayName="Table2" ref="A1:K581" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40">
+  <autoFilter ref="A1:K581" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{2F62CB62-9049-497E-ADC7-F9F96C31FD57}" name="Location" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{4B11ACA0-FDC6-44CA-8A6F-3F08C4CFA5F1}" name="Test Type" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{C41F1DAE-8DC9-48E1-917C-258A6C1E96C9}" name="Test Number" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{EC0CA150-1F20-45D9-9C39-AFA9123777F4}" name="Test Date-Time" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{33FF74A1-9DCC-4D3A-B0C5-64E9380F879C}" name="Sys/Comp Info" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{22A99E8A-A5B5-4CBC-B53D-C1D9D2C5AE1B}" name="Severity" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{029739E6-4C78-4E2E-A09D-8C3FA73D2041}" name="EASEY Result Code" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{5D0E993C-1382-48E9-AA45-BE7DC3BA96AF}" name="Fired" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{F1CFA0F6-70F7-4594-B088-F1D73717D454}" name="EASEY Result" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{40B0439D-9986-4626-9FF3-B32AE7B5EA33}" name="Notes" dataDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{FF29FE95-83D5-44D1-A98E-E38DE83D7BC7}" name="Command Line Parameters" dataDxfId="28"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{72A5AA74-4364-4117-8778-356FF8C70282}" name="Table5" displayName="Table5" ref="A1:K91" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26">
   <autoFilter ref="A1:K91" xr:uid="{72A5AA74-4364-4117-8778-356FF8C70282}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{B5B471E1-992B-4560-9AE9-3A0B01F9D400}" name="Location" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{1012AED6-A79C-434D-9EFD-BC07FE87995E}" name="Test Type" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{B5631442-9C30-47B5-9E8F-98D77DB400BF}" name="Test Number" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{960A60B0-A29E-44B1-B36A-03ABF8C9387B}" name="Test Date-Time" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{33F281F6-219B-4E02-9434-6B6D946A98E0}" name="Sys/Comp Info" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{E798D1DA-91F4-4F85-BC08-C953E40455E6}" name="Severity" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{D1264FDF-B29D-4FEE-92C2-AB98523233CD}" name="EASEY Result Code" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{C745552B-9704-4998-BE61-D3A91601E678}" name="Fired" dataDxfId="30"/>
-    <tableColumn id="9" xr3:uid="{C834180C-E3EF-4150-9616-ACEC523C5385}" name="EASEY Result" dataDxfId="29"/>
-    <tableColumn id="10" xr3:uid="{3ABD6028-9668-4A63-AEC5-1740A232405E}" name="Notes" dataDxfId="28"/>
-    <tableColumn id="11" xr3:uid="{9F9E58E8-A77F-4D89-A441-47366556DBC4}" name="Command Line Parameters" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{B5B471E1-992B-4560-9AE9-3A0B01F9D400}" name="Location" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{1012AED6-A79C-434D-9EFD-BC07FE87995E}" name="Test Type" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{B5631442-9C30-47B5-9E8F-98D77DB400BF}" name="Test Number" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{960A60B0-A29E-44B1-B36A-03ABF8C9387B}" name="Test Date-Time" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{33F281F6-219B-4E02-9434-6B6D946A98E0}" name="Sys/Comp Info" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{E798D1DA-91F4-4F85-BC08-C953E40455E6}" name="Severity" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{D1264FDF-B29D-4FEE-92C2-AB98523233CD}" name="EASEY Result Code" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{C745552B-9704-4998-BE61-D3A91601E678}" name="Fired" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{C834180C-E3EF-4150-9616-ACEC523C5385}" name="EASEY Result" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{3ABD6028-9668-4A63-AEC5-1740A232405E}" name="Notes" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{9F9E58E8-A77F-4D89-A441-47366556DBC4}" name="Command Line Parameters" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5466,6 +6043,2379 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5293276-9F89-4E13-BE1D-F189FF00C103}">
+  <dimension ref="A1:K73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D60" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H72" sqref="H72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="88.85546875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="105.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D2" s="6">
+        <v>43140.34097222222</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D3" s="6">
+        <v>43140.338888888888</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>1428</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D4" s="6">
+        <v>43140.338888888888</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D5" s="6">
+        <v>43140.34097222222</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D6" s="6">
+        <v>43140.34097222222</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D7" s="6">
+        <v>43140.338888888888</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>1438</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D8" s="6">
+        <v>43140.338888888888</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D9" s="6">
+        <v>42154.410416666666</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D10" s="6">
+        <v>42154.410416666666</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>1447</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D11" s="6">
+        <v>42154.410416666666</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D12" s="6">
+        <v>42154.410416666666</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>1452</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D13" s="6">
+        <v>42154.410416666666</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D14" s="6">
+        <v>42154.410416666666</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>1457</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D15" s="6">
+        <v>42154.410416666666</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D16" s="6">
+        <v>42150.052083333336</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>1462</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D17" s="6">
+        <v>42150.052083333336</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D18" s="6">
+        <v>42150.052083333336</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>1466</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D19" s="6">
+        <v>42150.052083333336</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D20" s="6">
+        <v>42150.052083333336</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>1469</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D21" s="6">
+        <v>42150.052083333336</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>1472</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D22" s="6">
+        <v>42150.052083333336</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D23" s="6">
+        <v>42150.052083333336</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>1469</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D24" s="6">
+        <v>42150.052083333336</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>1476</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D25" s="6">
+        <v>42150.052083333336</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D26" s="6">
+        <v>42150.052083333336</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>1479</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D27" s="6">
+        <v>42323.374305555553</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>1482</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D28" s="6">
+        <v>42323.374305555553</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D29" s="6">
+        <v>42323.374305555553</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>1484</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D30" s="6">
+        <v>42323.374305555553</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>1487</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D31" s="6">
+        <v>42323.374305555553</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D32" s="6">
+        <v>42323.374305555553</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>1489</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D33" s="6">
+        <v>42323.374305555553</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>1493</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D34" s="6">
+        <v>42323.374305555553</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D35" s="6">
+        <v>42323.374305555553</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>1498</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D36" s="6">
+        <v>42323.374305555553</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D37" s="6">
+        <v>44325.722916666666</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>1504</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D38" s="6">
+        <v>44325.722916666666</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>1507</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D39" s="6">
+        <v>44325.722916666666</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D40" s="6">
+        <v>44325.723611111112</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>1504</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D41" s="6">
+        <v>44325.723611111112</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D42" s="6">
+        <v>44325.722916666666</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>1513</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D43" s="6">
+        <v>44325.722916666666</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D44" s="6">
+        <v>43145.769444444442</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>1518</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D45" s="6">
+        <v>43145.769444444442</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D46" s="6">
+        <v>43269.351388888892</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>1523</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D47" s="6">
+        <v>43269.351388888892</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>1526</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D48" s="6">
+        <v>43269.351388888892</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>1528</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D49" s="6">
+        <v>43269.351388888892</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D50" s="6">
+        <v>44015.101388888892</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>1532</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D51" s="6">
+        <v>44015.101388888892</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>1535</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D52" s="6">
+        <v>44015.101388888892</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>1537</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D53" s="6">
+        <v>44015.101388888892</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D54" s="6">
+        <v>44015.099305555559</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>1540</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D55" s="6">
+        <v>44015.099305555559</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>1518</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D56" s="6">
+        <v>44015.099305555559</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>1542</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>1543</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D57" s="6">
+        <v>44015.099305555559</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C58" s="1">
+        <v>112</v>
+      </c>
+      <c r="D58" s="6">
+        <v>44338.388194444444</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>1547</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C59" s="1">
+        <v>112</v>
+      </c>
+      <c r="D59" s="6">
+        <v>44338.388194444444</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C60" s="1">
+        <v>112</v>
+      </c>
+      <c r="D60" s="6">
+        <v>44338.388194444444</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C61" s="1">
+        <v>122</v>
+      </c>
+      <c r="D61" s="6">
+        <v>44338.39166666667</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>1551</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C62" s="1">
+        <v>122</v>
+      </c>
+      <c r="D62" s="6">
+        <v>44338.39166666667</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C63" s="1">
+        <v>4</v>
+      </c>
+      <c r="D63" s="6">
+        <v>43634.341666666667</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>1555</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C64" s="1">
+        <v>4</v>
+      </c>
+      <c r="D64" s="6">
+        <v>43634.341666666667</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C65" s="1">
+        <v>212</v>
+      </c>
+      <c r="D65" s="6">
+        <v>44338.430555555555</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C66" s="1">
+        <v>222</v>
+      </c>
+      <c r="D66" s="6">
+        <v>44338.434027777781</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C67" s="1">
+        <v>5</v>
+      </c>
+      <c r="D67" s="6">
+        <v>43649.646527777775</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C68" s="1">
+        <v>2</v>
+      </c>
+      <c r="D68" s="6">
+        <v>43625.430555555555</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C69" s="1">
+        <v>312</v>
+      </c>
+      <c r="D69" s="6">
+        <v>44336.47152777778</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C70" s="1">
+        <v>322</v>
+      </c>
+      <c r="D70" s="6">
+        <v>44336.474999999999</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1</v>
+      </c>
+      <c r="D71" s="6">
+        <v>43628.472222222219</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C72" s="1">
+        <v>412</v>
+      </c>
+      <c r="D72" s="6">
+        <v>44333.513194444444</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C73" s="1">
+        <v>422</v>
+      </c>
+      <c r="D73" s="6">
+        <v>44333.51666666667</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8AB6CEE-1A2D-4EDD-BF79-DABF10AD8F60}">
   <dimension ref="A1:K319"/>
   <sheetViews>
@@ -15696,7 +18646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1178DED-FAC2-4896-ADA7-BAB067290A3E}">
   <dimension ref="A1:K33"/>
   <sheetViews>
@@ -16696,11 +19646,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284F8D0C-E6B8-46E4-BE14-B585B6CD2EA0}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -17631,7 +20581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7A12ED-21A8-440D-BCEA-B358D4E41F2C}">
   <dimension ref="A1:K44"/>
   <sheetViews>
@@ -18945,7 +21895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF78B613-4599-4AFD-8861-A9AE5B1FBB5E}">
   <dimension ref="A1:K26"/>
   <sheetViews>
@@ -19739,7 +22689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C84253-C1F3-40A8-BCD6-786B60222E9D}">
   <dimension ref="A1:J68"/>
   <sheetViews>
@@ -21750,7 +24700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF247E8-4CEE-4E4C-AA1C-A5F6418303B4}">
   <dimension ref="A1:K581"/>
   <sheetViews>
@@ -40395,7 +43345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB95806-BA08-44E5-BECF-767BC3A79B45}">
   <dimension ref="A1:K91"/>
   <sheetViews>

--- a/misc/Testing Scripts/QA/TestCaseResults.xlsx
+++ b/misc/Testing Scripts/QA/TestCaseResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\CAMDDevelopment\easey-db-scripts\misc\Testing Scripts\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634895A3-66C5-4B55-A2DC-AEA47FD41396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071A468F-3387-41F6-B8C0-C20427AFE81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{673C86AF-EEEE-433C-9A6E-BD69DDCD2237}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{673C86AF-EEEE-433C-9A6E-BD69DDCD2237}"/>
   </bookViews>
   <sheets>
     <sheet name="7DAY" sheetId="9" r:id="rId1"/>
@@ -20,8 +20,9 @@
     <sheet name="FF2LBAS" sheetId="4" r:id="rId5"/>
     <sheet name="FF2LTST" sheetId="3" r:id="rId6"/>
     <sheet name="LINE" sheetId="1" r:id="rId7"/>
-    <sheet name="RATA" sheetId="2" r:id="rId8"/>
-    <sheet name="UNITDEF" sheetId="5" r:id="rId9"/>
+    <sheet name="ONOFF" sheetId="10" r:id="rId8"/>
+    <sheet name="RATA" sheetId="2" r:id="rId9"/>
+    <sheet name="UNITDEF" sheetId="5" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11212" uniqueCount="1578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12015" uniqueCount="1743">
   <si>
     <t>ORIS 3 (Barry) Location 5</t>
   </si>
@@ -4782,6 +4783,501 @@
   </si>
   <si>
     <t>QAT "MDC-69BF85C161FD4B6494B0C754FE3AD58E" "4B23Z91-HQ-A2B0B8B4625A4DA390EC103AF60AD155"</t>
+  </si>
+  <si>
+    <t>ONOFF</t>
+  </si>
+  <si>
+    <t>GT1-3</t>
+  </si>
+  <si>
+    <t>C02 (BGFF)</t>
+  </si>
+  <si>
+    <t>ONOFF-1-B</t>
+  </si>
+  <si>
+    <t>The ComponentTypeCode in the monitoring plan is BGFF.  This type of component does not require an online offline calibration test.</t>
+  </si>
+  <si>
+    <t>QAT "PAULDESKTO-AB29DAB24FE34773AEB328AE656A6517" "PAULDESKTO-EF22666F3F2C4EF19AF68B73A36AC3E8"</t>
+  </si>
+  <si>
+    <t>TEST-9-A</t>
+  </si>
+  <si>
+    <t>You have not reported a valid monitoring plan span record that was active during the test.</t>
+  </si>
+  <si>
+    <t>ONOFF-23-C</t>
+  </si>
+  <si>
+    <t>ONOF-Q12017-013-2</t>
+  </si>
+  <si>
+    <t>ONOFF-3-A</t>
+  </si>
+  <si>
+    <t>QAT "MDC-A72D9F4120CB42959C52B10CCB02CD55" "DT3272ZV1-CD5F4FB007DA4890BA504DD6BBE480C1"</t>
+  </si>
+  <si>
+    <t>ONOF-Q12017-032-1</t>
+  </si>
+  <si>
+    <t>ONOFF-4-A</t>
+  </si>
+  <si>
+    <t>You did not provide UpscaleGasLevelCode, which is required for this test.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-A72D9F4120CB42959C52B10CCB02CD55" "DT3272ZV1-EE05D221F3DD4CBC9E6A7217BEF52979"</t>
+  </si>
+  <si>
+    <t>ONOFF-28-A</t>
+  </si>
+  <si>
+    <t>The software could not evaluate the online offline calibration test calculations reported for the offline upscale injection, because of the errors listed above.</t>
+  </si>
+  <si>
+    <t>ONOFF-30-A</t>
+  </si>
+  <si>
+    <t>The software could not evaluate the online offline calibration test calculations reported for the online upscale injection, because of the errors listed above.</t>
+  </si>
+  <si>
+    <t>ONOF-Q12017-213-4</t>
+  </si>
+  <si>
+    <t>ONOFF-5-A</t>
+  </si>
+  <si>
+    <t>The Offline Upscale injection Date and/or Hour is invalid.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-02B24E1727D2437A93812805D7934CC0" "DT3272ZV1-C5FFE124AEEE4592A8A9B84B91A19B00"</t>
+  </si>
+  <si>
+    <t>ONOFF-41-A</t>
+  </si>
+  <si>
+    <t>You did not provide OnlineZeroAPSIndicator, which is required for this test.</t>
+  </si>
+  <si>
+    <t>ONOF-Q12017-232-3</t>
+  </si>
+  <si>
+    <t>ONOFF-6-A</t>
+  </si>
+  <si>
+    <t>You did not provide OfflineUpscaleMeasuredValue, which is required for this test.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-02B24E1727D2437A93812805D7934CC0" "DT3272ZV1-86B83D624BC0471497BF33E0FC917803"</t>
+  </si>
+  <si>
+    <t>21Q2-NOXH-ONOFF</t>
+  </si>
+  <si>
+    <t>ONOFF-8-A</t>
+  </si>
+  <si>
+    <t>You did not provide OfflineUpscaleCalibrationError, which is required for this test.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-2A4BD8E2E84D48709192EC978C09719D" "LT34SHJM2-A0104D5CD26A444F83014F3BDE4D3F86"</t>
+  </si>
+  <si>
+    <t>21Q2-NOXL-ONOFF</t>
+  </si>
+  <si>
+    <t>ONOFF-7-B</t>
+  </si>
+  <si>
+    <t>You defined an invalid OfflineUpscaleReferenceValue for this test.  This value must be greater than zero and less than 20,000.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-2A4BD8E2E84D48709192EC978C09719D" "LT34SHJM2-AF260F31F96B40B6953204FE999D9A9A"</t>
+  </si>
+  <si>
+    <t>21Q2-O2-ONOFF</t>
+  </si>
+  <si>
+    <t>ONOFF-9-A</t>
+  </si>
+  <si>
+    <t>The Offline Zero injection Date and/or Hour is invalid.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-2A4BD8E2E84D48709192EC978C09719D" "LT34SHJM2-D7E1567B6A514FBBADF279D5821718E3"</t>
+  </si>
+  <si>
+    <t>ONOFF-35-C</t>
+  </si>
+  <si>
+    <t>You reported a value of "1" as the Online Zero APS Indicator for the test, but you must use the standard performance specification criteria for CO2 and O2 components.</t>
+  </si>
+  <si>
+    <t>ONOF-Q12018-101-1</t>
+  </si>
+  <si>
+    <t>101 (NOX)</t>
+  </si>
+  <si>
+    <t>ONOFF-10-A</t>
+  </si>
+  <si>
+    <t>You did not provide OfflineZeroMeasuredValue, which is required for this test.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-2A4BD8E2E84D48709192EC978C09719D" "LT34SHJM2-0A55A9F992B6488086DA0BF7160E6904"</t>
+  </si>
+  <si>
+    <t>ONOFF-29-A</t>
+  </si>
+  <si>
+    <t>The software could not evaluate the online offline calibration test calculations reported for the offline zero-level injection, because of the errors listed above.</t>
+  </si>
+  <si>
+    <t>ONOF-Q12018-105-1</t>
+  </si>
+  <si>
+    <t>ONOFF-11-A</t>
+  </si>
+  <si>
+    <t>You did not provide OfflineZeroReferenceValue, which is required for this test.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-2A4BD8E2E84D48709192EC978C09719D" "LT34SHJM2-00E92E8995D64F8DB804F053AA756846"</t>
+  </si>
+  <si>
+    <t>ONOF-Q42013-LK1-1</t>
+  </si>
+  <si>
+    <t>LK1 (O2)</t>
+  </si>
+  <si>
+    <t>ONOFF-12-B</t>
+  </si>
+  <si>
+    <t>The value -1.00 in the field OfflineZeroCalibrationError for this test is not within the range of valid values.  This value must be greater than or equal to zero.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-2A4BD8E2E84D48709192EC978C09719D" "DT3272ZV1-DAACF4B0A0914363A2A8E001576A8C0B"</t>
+  </si>
+  <si>
+    <t>ONOF-Q42018-206-8</t>
+  </si>
+  <si>
+    <t>ONOFF-13-A</t>
+  </si>
+  <si>
+    <t>The Online Upscale injection Date and/or Hour is invalid.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-5135A4CCD59347F0B5EA4262E78D79C8" "LT34SHJM2-32DCBED091B14423A695E6361B4B8C99"</t>
+  </si>
+  <si>
+    <t>111-H</t>
+  </si>
+  <si>
+    <t>111 (NOX)</t>
+  </si>
+  <si>
+    <t>ONOFF-19-A</t>
+  </si>
+  <si>
+    <t>You did not provide OnlineZeroReferenceValue, which is required for this test.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-3F03FCD6E1C14103B3D6A1EBA54B84C9" "4B23Z91-HQ-377050C0B78041C7983A5516CD62AAA7"</t>
+  </si>
+  <si>
+    <t>ONOFF-31-A</t>
+  </si>
+  <si>
+    <t>The software could not evaluate the online offline calibration test calculations reported for the online zero-level injection, because of the errors listed above.</t>
+  </si>
+  <si>
+    <t>111-L</t>
+  </si>
+  <si>
+    <t>ONOFF-18-A</t>
+  </si>
+  <si>
+    <t>You did not provide OnlineZeroMeasuredValue, which is required for this test.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-3F03FCD6E1C14103B3D6A1EBA54B84C9" "4B23Z91-HQ-9E47DCC03F3F4D7FB386B7278B9FEEBF"</t>
+  </si>
+  <si>
+    <t>112-H</t>
+  </si>
+  <si>
+    <t>ONOFF-15-A</t>
+  </si>
+  <si>
+    <t>You did not provide OnlineUpscaleReferenceValue, which is required for this test.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-3F03FCD6E1C14103B3D6A1EBA54B84C9" "4B23Z91-HQ-6E45C7393FA742A0816B2D962AF5130B"</t>
+  </si>
+  <si>
+    <t>112-L</t>
+  </si>
+  <si>
+    <t>ONOFF-16-B</t>
+  </si>
+  <si>
+    <t>The value -1.00 in the field OnlineUpscaleCalibrationError for this test is not within the range of valid values.  This value must be greater than or equal to zero.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-3F03FCD6E1C14103B3D6A1EBA54B84C9" "4B23Z91-HQ-5997B3E0C98F4C6298726BE4A4AD4B27"</t>
+  </si>
+  <si>
+    <t>120-H</t>
+  </si>
+  <si>
+    <t>120 (O2)</t>
+  </si>
+  <si>
+    <t>ONOFF-20-A</t>
+  </si>
+  <si>
+    <t>You did not provide OnlineZeroCalibrationError, which is required for this test.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-3F03FCD6E1C14103B3D6A1EBA54B84C9" "4B23Z91-HQ-C17C186069A24CBC8CF0EBB667A579D0"</t>
+  </si>
+  <si>
+    <t>121-H-O2</t>
+  </si>
+  <si>
+    <t>ONOFF-17-A</t>
+  </si>
+  <si>
+    <t>The Online Zero injection Date and/or Hour is invalid.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-3F03FCD6E1C14103B3D6A1EBA54B84C9" "4B23Z91-HQ-3BFA3429BF884C978B595125F9AEFDDB"</t>
+  </si>
+  <si>
+    <t>122-H</t>
+  </si>
+  <si>
+    <t>ONOFF-14-A</t>
+  </si>
+  <si>
+    <t>You did not provide OnlineUpscaleMeasuredValue, which is required for this test.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-3F03FCD6E1C14103B3D6A1EBA54B84C9" "4B23Z91-HQ-6CD4B881965C4879A8528EBE2A46F868"</t>
+  </si>
+  <si>
+    <t>211-H</t>
+  </si>
+  <si>
+    <t>211 (NOX)</t>
+  </si>
+  <si>
+    <t>ONOFF-34-F</t>
+  </si>
+  <si>
+    <t>The Online Upscale Calibration Error reported for the test is inconsistent with the recalculated calibration error for the gas injection or reference signal.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-8ADB7E2796C84D2BA4847FC023F83907" "4B23Z91-HQ-3D3134F6B0F2483494C56FE313B43995"</t>
+  </si>
+  <si>
+    <t>ONOFF-36-D</t>
+  </si>
+  <si>
+    <t>You have reported an online offline calibration demonstration, but the recalculated results indicate a failing test.</t>
+  </si>
+  <si>
+    <t>ONOFF-26-F</t>
+  </si>
+  <si>
+    <t>The tag value of at least one High level reference calibration gas for this test is 75%, which does not meet the applicable performance specifications.  The concentration of the 'high' reference calibration gas must be between 80.0% and 100.0% of the span value.</t>
+  </si>
+  <si>
+    <t>211-L</t>
+  </si>
+  <si>
+    <t>ONOFF-35-D</t>
+  </si>
+  <si>
+    <t>You did not report a value of "1" in the Online Zero APS Indicator for the test, although EPA applied the alternative performance specification to determine that the injection passed the applicable performance specification.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-8ADB7E2796C84D2BA4847FC023F83907" "4B23Z91-HQ-2C38763A499D4286A6DD0BC1A2E7178F"</t>
+  </si>
+  <si>
+    <t>ONOFF-27-A</t>
+  </si>
+  <si>
+    <t>The tag value of at least one Zero level reference signal or calibration gas for this test is 30%, which does not meet the performance specifications of 40 CFR Part 75.  The concentration of the zero reference signal or calibration gas must be less than or equal to 20.0% of the span value.  The test is invalid.</t>
+  </si>
+  <si>
+    <t>212-H</t>
+  </si>
+  <si>
+    <t>ONOFF-22-B</t>
+  </si>
+  <si>
+    <t>The injections for this test were not completed within a period of 26 clock hours.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-8ADB7E2796C84D2BA4847FC023F83907" "4B23Z91-HQ-AE34E56BF5AB425CBB28BB6A6AF83470"</t>
+  </si>
+  <si>
+    <t>212-L</t>
+  </si>
+  <si>
+    <t>QAT "MDC-8ADB7E2796C84D2BA4847FC023F83907" "4B23Z91-HQ-2591AC267384404F8A2CEDAC5F62DCD7"</t>
+  </si>
+  <si>
+    <t>220-H</t>
+  </si>
+  <si>
+    <t>220 (O2)</t>
+  </si>
+  <si>
+    <t>ONOFF-25-A</t>
+  </si>
+  <si>
+    <t>You reported a test EndDate and EndHour that is not the same as the date and hour of the last injection in the test.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-8ADB7E2796C84D2BA4847FC023F83907" "4B23Z91-HQ-A604DA3D19B543C2836435F4DB8162DB"</t>
+  </si>
+  <si>
+    <t>221-H-O2</t>
+  </si>
+  <si>
+    <t>ONOFF-24-A</t>
+  </si>
+  <si>
+    <t>You reported a test BeginDate and BeginHour that is not the same as the date and hour of the first injection in the test.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-8ADB7E2796C84D2BA4847FC023F83907" "4B23Z91-HQ-1B8DB020D2B34CBE884C2FCF8436A077"</t>
+  </si>
+  <si>
+    <t>222-H</t>
+  </si>
+  <si>
+    <t>ONOFF-21-A</t>
+  </si>
+  <si>
+    <t>The reference values are not consistent with the reported calibration gas levels.  The reference values of zero-level gas injections or reference signals must be less than those of upscale gas injections.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-8ADB7E2796C84D2BA4847FC023F83907" "4B23Z91-HQ-B9270081B85149DA831CAC5D5EFBBB3A"</t>
+  </si>
+  <si>
+    <t>ONOFF-35-E</t>
+  </si>
+  <si>
+    <t>The absolute difference reported as the Online Zero Calibration Error for the test is inconsistent with the recalculated absolute difference for the gas injection or reference signal.</t>
+  </si>
+  <si>
+    <t>The tag value of at least one Zero level reference signal or calibration gas for this test is 100%, which does not meet the performance specifications of 40 CFR Part 75.  The concentration of the zero reference signal or calibration gas must be less than or equal to 20.0% of the span value.  The test is invalid.</t>
+  </si>
+  <si>
+    <t>311-H</t>
+  </si>
+  <si>
+    <t>311 (NOX)</t>
+  </si>
+  <si>
+    <t>ONOFF-34-B</t>
+  </si>
+  <si>
+    <t>You reported a value of "1" as the Online Upscale APS Indicator for the test, but you must use the standard performance specification criteria for SO2 and NOX components when the instrument span is greater than or equal to 200.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-7C8BA01B673F46818B57F43A9480448E" "4B23Z91-HQ-42C0A20C01C5465486FA2263FDC6F717"</t>
+  </si>
+  <si>
+    <t>311-L</t>
+  </si>
+  <si>
+    <t>QAT "MDC-7C8BA01B673F46818B57F43A9480448E" "4B23Z91-HQ-DB6E5BB3806E498E98121F9299E524C5"</t>
+  </si>
+  <si>
+    <t>312-H</t>
+  </si>
+  <si>
+    <t>ONOFF-32-B</t>
+  </si>
+  <si>
+    <t>You reported a value of "1" as the Offline Upscale APS Indicator for the test, but you must use the standard performance specification criteria for SO2 and NOX components when the instrument span is greater than or equal to 200.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-7C8BA01B673F46818B57F43A9480448E" "4B23Z91-HQ-A4C233D2814041ECB00B75776CB861DA"</t>
+  </si>
+  <si>
+    <t>312-L</t>
+  </si>
+  <si>
+    <t>ONOFF-36-A</t>
+  </si>
+  <si>
+    <t>QAT "MDC-7C8BA01B673F46818B57F43A9480448E" "4B23Z91-HQ-B5E0761DF19F47739C38A53907D9C806"</t>
+  </si>
+  <si>
+    <t>320-H</t>
+  </si>
+  <si>
+    <t>QAT "MDC-7C8BA01B673F46818B57F43A9480448E" "4B23Z91-HQ-2AA3FE5DD52741F4BF44C8448E1EFD9D"</t>
+  </si>
+  <si>
+    <t>321-H-O2</t>
+  </si>
+  <si>
+    <t>ONOFF-33-C</t>
+  </si>
+  <si>
+    <t>You reported a value of "1" as the Offline Zero APS Indicator for the test, but you must use the standard performance specification criteria for CO2 and O2 components.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-7C8BA01B673F46818B57F43A9480448E" "4B23Z91-HQ-45530F36A9384AB3801E37A82C2E887C"</t>
+  </si>
+  <si>
+    <t>412-H</t>
+  </si>
+  <si>
+    <t>ONOFF-43-A</t>
+  </si>
+  <si>
+    <t>You did not provide OnlineUpscaleAPSIndicator, which is required for this test.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-69BF85C161FD4B6494B0C754FE3AD58E" "4B23Z91-HQ-64F5F9B6365F4E5C9B1A11E95D13E693"</t>
+  </si>
+  <si>
+    <t>412-L</t>
+  </si>
+  <si>
+    <t>ONOFF-42-A</t>
+  </si>
+  <si>
+    <t>You did not provide OfflineZeroAPSIndicator, which is required for this test.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-69BF85C161FD4B6494B0C754FE3AD58E" "4B23Z91-HQ-8C2FC331FD004D3D8FC9FCA54822D4CF"</t>
+  </si>
+  <si>
+    <t>422-H</t>
+  </si>
+  <si>
+    <t>ONOFF-44-A</t>
+  </si>
+  <si>
+    <t>You did not provide OfflineUpscaleAPSIndicator, which is required for this test.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-69BF85C161FD4B6494B0C754FE3AD58E" "4B23Z91-HQ-84859F6B509C470F861FAE2BBFC7B1ED"</t>
   </si>
 </sst>
 </file>
@@ -4923,15 +5419,24 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="123">
+  <dxfs count="137">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4981,17 +5486,7 @@
       <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -5555,6 +6050,85 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -5569,20 +6143,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5C910FE5-874B-4017-B841-F60367D6DBDE}" name="Table9" displayName="Table9" ref="A1:K73" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5C910FE5-874B-4017-B841-F60367D6DBDE}" name="Table9" displayName="Table9" ref="A1:K73" totalsRowShown="0" headerRowDxfId="136" dataDxfId="134" headerRowBorderDxfId="135">
   <autoFilter ref="A1:K73" xr:uid="{5C910FE5-874B-4017-B841-F60367D6DBDE}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{8279D829-3000-4C82-8018-0E78EB4E52ED}" name="Location" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{8C3F4264-2BDD-4183-9522-C40A313B4494}" name="Test Type" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{B0DE5395-DC16-46BB-BC57-85CF8494EEC8}" name="Test Number" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{AFAA091C-FD51-4F17-B61A-9B63F7F60549}" name="Test Date-Time" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{9510359E-2D55-43AD-8BD2-3BEAD6C916CF}" name="Sys/Comp Info" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{AECAE78C-1669-4150-9D54-CF24FB46FB2C}" name="Severity" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{60F04430-453C-4689-B258-ECBB97164B62}" name="EASEY Result Code" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{48BBCC17-5C80-41DD-9F75-59C2F34B310D}" name="Fired" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{B8B66FF4-909C-4ADC-8A89-2420561A8BC8}" name="EASEY Result" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{502F8369-E6BA-4168-9FB1-BDCCFE48BA95}" name="Notes" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{1BA34216-1816-4C5B-91A2-0F623ECC08A9}" name="Command Line Parameters" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{8279D829-3000-4C82-8018-0E78EB4E52ED}" name="Location" dataDxfId="133"/>
+    <tableColumn id="2" xr3:uid="{8C3F4264-2BDD-4183-9522-C40A313B4494}" name="Test Type" dataDxfId="132"/>
+    <tableColumn id="3" xr3:uid="{B0DE5395-DC16-46BB-BC57-85CF8494EEC8}" name="Test Number" dataDxfId="131"/>
+    <tableColumn id="4" xr3:uid="{AFAA091C-FD51-4F17-B61A-9B63F7F60549}" name="Test Date-Time" dataDxfId="130"/>
+    <tableColumn id="5" xr3:uid="{9510359E-2D55-43AD-8BD2-3BEAD6C916CF}" name="Sys/Comp Info" dataDxfId="129"/>
+    <tableColumn id="6" xr3:uid="{AECAE78C-1669-4150-9D54-CF24FB46FB2C}" name="Severity" dataDxfId="128"/>
+    <tableColumn id="7" xr3:uid="{60F04430-453C-4689-B258-ECBB97164B62}" name="EASEY Result Code" dataDxfId="127"/>
+    <tableColumn id="8" xr3:uid="{48BBCC17-5C80-41DD-9F75-59C2F34B310D}" name="Fired" dataDxfId="126"/>
+    <tableColumn id="9" xr3:uid="{B8B66FF4-909C-4ADC-8A89-2420561A8BC8}" name="EASEY Result" dataDxfId="125"/>
+    <tableColumn id="10" xr3:uid="{502F8369-E6BA-4168-9FB1-BDCCFE48BA95}" name="Notes" dataDxfId="124"/>
+    <tableColumn id="11" xr3:uid="{1BA34216-1816-4C5B-91A2-0F623ECC08A9}" name="Command Line Parameters" dataDxfId="123"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{72A5AA74-4364-4117-8778-356FF8C70282}" name="Table5" displayName="Table5" ref="A1:K91" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26">
+  <autoFilter ref="A1:K91" xr:uid="{72A5AA74-4364-4117-8778-356FF8C70282}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{B5B471E1-992B-4560-9AE9-3A0B01F9D400}" name="Location" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{1012AED6-A79C-434D-9EFD-BC07FE87995E}" name="Test Type" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{B5631442-9C30-47B5-9E8F-98D77DB400BF}" name="Test Number" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{960A60B0-A29E-44B1-B36A-03ABF8C9387B}" name="Test Date-Time" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{33F281F6-219B-4E02-9434-6B6D946A98E0}" name="Sys/Comp Info" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{E798D1DA-91F4-4F85-BC08-C953E40455E6}" name="Severity" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{D1264FDF-B29D-4FEE-92C2-AB98523233CD}" name="EASEY Result Code" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{C745552B-9704-4998-BE61-D3A91601E678}" name="Fired" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{C834180C-E3EF-4150-9616-ACEC523C5385}" name="EASEY Result" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{3ABD6028-9668-4A63-AEC5-1740A232405E}" name="Notes" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{9F9E58E8-A77F-4D89-A441-47366556DBC4}" name="Command Line Parameters" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5708,6 +6302,26 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4A33A717-7F36-46E9-B108-57CE91FC9965}" name="Table10" displayName="Table10" ref="A1:K89" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="13">
+  <autoFilter ref="A1:K89" xr:uid="{4A33A717-7F36-46E9-B108-57CE91FC9965}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{CDEE6302-915F-4B8B-8931-C82E789BFD68}" name="Location" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{82F96464-31C7-41F4-99E4-F836EB4804AE}" name="Test Type" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{9A3AD922-1B43-4401-9D08-A69565CBC240}" name="Test Number" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{153B2B1E-9F8A-40A0-9FC6-F154FA69A06D}" name="Test Date-Time" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{EB537EEB-DEA8-4166-A050-FFBFD68D1416}" name="Sys/Comp Info" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{E0692378-248B-472C-9ADE-6DC4C40CE31D}" name="Severity" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{D0B08289-03B0-4D7E-B475-69D81994C3D6}" name="EASEY Result Code" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{8A5BC497-E14C-4A60-9721-3754AC8FBB86}" name="Fired" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{D4027939-C285-4B69-8FE1-5C89204292B8}" name="EASEY Result" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{CAD9076A-ADA1-4DB7-B052-FB52970BED12}" name="Notes" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{F61AE4C4-8B02-46C3-94D5-1DAA82EE83BE}" name="Command Line Parameters" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}" name="Table2" displayName="Table2" ref="A1:K581" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40">
   <autoFilter ref="A1:K581" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}"/>
   <tableColumns count="11">
@@ -5722,26 +6336,6 @@
     <tableColumn id="9" xr3:uid="{F1CFA0F6-70F7-4594-B088-F1D73717D454}" name="EASEY Result" dataDxfId="30"/>
     <tableColumn id="10" xr3:uid="{40B0439D-9986-4626-9FF3-B32AE7B5EA33}" name="Notes" dataDxfId="29"/>
     <tableColumn id="11" xr3:uid="{FF29FE95-83D5-44D1-A98E-E38DE83D7BC7}" name="Command Line Parameters" dataDxfId="28"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{72A5AA74-4364-4117-8778-356FF8C70282}" name="Table5" displayName="Table5" ref="A1:K91" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26">
-  <autoFilter ref="A1:K91" xr:uid="{72A5AA74-4364-4117-8778-356FF8C70282}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{B5B471E1-992B-4560-9AE9-3A0B01F9D400}" name="Location" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{1012AED6-A79C-434D-9EFD-BC07FE87995E}" name="Test Type" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{B5631442-9C30-47B5-9E8F-98D77DB400BF}" name="Test Number" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{960A60B0-A29E-44B1-B36A-03ABF8C9387B}" name="Test Date-Time" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{33F281F6-219B-4E02-9434-6B6D946A98E0}" name="Sys/Comp Info" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{E798D1DA-91F4-4F85-BC08-C953E40455E6}" name="Severity" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{D1264FDF-B29D-4FEE-92C2-AB98523233CD}" name="EASEY Result Code" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{C745552B-9704-4998-BE61-D3A91601E678}" name="Fired" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{C834180C-E3EF-4150-9616-ACEC523C5385}" name="EASEY Result" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{3ABD6028-9668-4A63-AEC5-1740A232405E}" name="Notes" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{9F9E58E8-A77F-4D89-A441-47366556DBC4}" name="Command Line Parameters" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6046,7 +6640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5293276-9F89-4E13-BE1D-F189FF00C103}">
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -8405,6 +8999,2686 @@
       </c>
       <c r="K73" s="1" t="s">
         <v>1577</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB95806-BA08-44E5-BECF-767BC3A79B45}">
+  <dimension ref="A1:K91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H90" sqref="H90"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="67.42578125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="44.28515625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="98.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="D2" s="6">
+        <v>43221.408333333333</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="D3" s="6">
+        <v>43221.408333333333</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="D4" s="6">
+        <v>43221.563194444447</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>930</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="D5" s="6">
+        <v>43221.563194444447</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="D6" s="6">
+        <v>43223.397222222222</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="D7" s="6">
+        <v>43223.397222222222</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="D8" s="6">
+        <v>43223.397222222222</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>939</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="D9" s="6">
+        <v>43223.397222222222</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="D10" s="6">
+        <v>43223.54791666667</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="D11" s="6">
+        <v>43223.54791666667</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D12" s="6">
+        <v>40877.45208333333</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D13" s="6">
+        <v>40877.45208333333</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D14" s="6">
+        <v>40877.45208333333</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D15" s="6">
+        <v>40877.45208333333</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D16" s="6">
+        <v>40877.45208333333</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D17" s="6">
+        <v>40877.45208333333</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>948</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D18" s="6">
+        <v>40877.45208333333</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>950</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D19" s="6">
+        <v>40877.45208333333</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D20" s="6">
+        <v>41243.612500000003</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D21" s="6">
+        <v>41243.612500000003</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D22" s="6">
+        <v>41243.612500000003</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D23" s="6">
+        <v>41243.612500000003</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D24" s="6">
+        <v>41243.612500000003</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D25" s="6">
+        <v>41243.612500000003</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D26" s="6">
+        <v>41243.612500000003</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="6">
+        <v>43222.395833333336</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="6">
+        <v>43222.395833333336</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>958</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="6">
+        <v>43222.395833333336</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>960</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="6">
+        <v>43222.395833333336</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>962</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="D31" s="6">
+        <v>43222.400694444441</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>958</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="D32" s="6">
+        <v>43222.400694444441</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="D33" s="6">
+        <v>43222.556250000001</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>965</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="D34" s="6">
+        <v>43222.556250000001</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>968</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="D35" s="6">
+        <v>43222.556250000001</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="D36" s="6">
+        <v>43222.556250000001</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="D37" s="6">
+        <v>37672.668749999997</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="D38" s="6">
+        <v>37672.668749999997</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="D39" s="6">
+        <v>37672.668749999997</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="D40" s="6">
+        <v>37672.668749999997</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="D41" s="6">
+        <v>37672.668749999997</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="D42" s="6">
+        <v>37672.668749999997</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="D43" s="6">
+        <v>37673.29791666667</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="D44" s="6">
+        <v>37673.29791666667</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="D45" s="6">
+        <v>37673.29791666667</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="D46" s="6">
+        <v>37673.29791666667</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="D47" s="6">
+        <v>37673.29791666667</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D48" s="6">
+        <v>39479.422222222223</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D49" s="6">
+        <v>39479.422222222223</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="D50" s="6">
+        <v>39479.550694444442</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="D51" s="6">
+        <v>39479.550694444442</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D52" s="6">
+        <v>41242.461805555555</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D53" s="6">
+        <v>41242.461805555555</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D54" s="6">
+        <v>41242.461805555555</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D55" s="6">
+        <v>41242.461805555555</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D56" s="6">
+        <v>41242.461805555555</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D57" s="6">
+        <v>41242.461805555555</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D58" s="6">
+        <v>41242.461805555555</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D59" s="6">
+        <v>41242.699305555558</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D60" s="6">
+        <v>41242.699305555558</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D61" s="6">
+        <v>41242.699305555558</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D62" s="6">
+        <v>41242.699305555558</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D63" s="6">
+        <v>41242.699305555558</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D64" s="6">
+        <v>41242.699305555558</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D65" s="6">
+        <v>41242.699305555558</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D66" s="6">
+        <v>41242.699305555558</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D67" s="6">
+        <v>41242.699305555558</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D68" s="6">
+        <v>41242.699305555558</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D69" s="6">
+        <v>39478.422222222223</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D70" s="6">
+        <v>39478.422222222223</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D71" s="6">
+        <v>44232.399305555555</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D72" s="6">
+        <v>44232.399305555555</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>962</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D73" s="6">
+        <v>44232.399305555555</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D74" s="6">
+        <v>41241.458333333336</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D75" s="6">
+        <v>41241.458333333336</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D76" s="6">
+        <v>41241.458333333336</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D77" s="6">
+        <v>41241.458333333336</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D78" s="6">
+        <v>41241.458333333336</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D79" s="6">
+        <v>41241.458333333336</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D80" s="6">
+        <v>41241.621527777781</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D81" s="6">
+        <v>41241.621527777781</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D82" s="6">
+        <v>41241.621527777781</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D83" s="6">
+        <v>41241.621527777781</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D84" s="6">
+        <v>41241.621527777781</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D85" s="6">
+        <v>41241.621527777781</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D86" s="6">
+        <v>43953.400694444441</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D87" s="6">
+        <v>43953.400694444441</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D88" s="6">
+        <v>43953.400694444441</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D89" s="6">
+        <v>43953.400694444441</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D90" s="6">
+        <v>43953.400694444441</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D91" s="6">
+        <v>43953.400694444441</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>1017</v>
       </c>
     </row>
   </sheetData>
@@ -24701,6 +27975,2628 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC7BF0A-744E-4983-9D44-F2CA7F0BDAB9}">
+  <dimension ref="A1:K89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H35" sqref="H35:H89"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="65.28515625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="44.7109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="103.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>1582</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>1585</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>1592</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>1595</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>1597</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>1600</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>1603</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1605</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>1606</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>1595</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>1610</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>1614</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>1595</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>1618</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>1625</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>1628</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>1631</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>1628</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>1636</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>1639</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>1640</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>1645</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>1648</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>1651</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>1648</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>1655</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>1597</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>1659</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>1664</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>1668</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>1672</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>1597</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>1680</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>1682</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>1685</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>1688</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>1691</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>1698</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>1702</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>1706</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>1709</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>1710</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>1713</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>1714</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>1603</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>1720</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>1723</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>1727</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>1727</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>1733</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>1735</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>1737</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>1735</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>1740</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>1741</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF247E8-4CEE-4E4C-AA1C-A5F6418303B4}">
   <dimension ref="A1:K581"/>
   <sheetViews>
@@ -43343,2684 +49239,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB95806-BA08-44E5-BECF-767BC3A79B45}">
-  <dimension ref="A1:K91"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H90" sqref="H90"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="67.42578125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="44.28515625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="98.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="D2" s="6">
-        <v>43221.408333333333</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="D3" s="6">
-        <v>43221.408333333333</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="D4" s="6">
-        <v>43221.563194444447</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>930</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="D5" s="6">
-        <v>43221.563194444447</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="D6" s="6">
-        <v>43223.397222222222</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>933</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>934</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="D7" s="6">
-        <v>43223.397222222222</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>936</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>937</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="D8" s="6">
-        <v>43223.397222222222</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>939</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="D9" s="6">
-        <v>43223.397222222222</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="D10" s="6">
-        <v>43223.54791666667</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>940</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>941</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="D11" s="6">
-        <v>43223.54791666667</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="D12" s="6">
-        <v>40877.45208333333</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="D13" s="6">
-        <v>40877.45208333333</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="D14" s="6">
-        <v>40877.45208333333</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="D15" s="6">
-        <v>40877.45208333333</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="D16" s="6">
-        <v>40877.45208333333</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="D17" s="6">
-        <v>40877.45208333333</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>947</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>948</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="D18" s="6">
-        <v>40877.45208333333</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>949</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>950</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="D19" s="6">
-        <v>40877.45208333333</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="D20" s="6">
-        <v>41243.612500000003</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="D21" s="6">
-        <v>41243.612500000003</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="D22" s="6">
-        <v>41243.612500000003</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="D23" s="6">
-        <v>41243.612500000003</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="D24" s="6">
-        <v>41243.612500000003</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="D25" s="6">
-        <v>41243.612500000003</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>954</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="D26" s="6">
-        <v>41243.612500000003</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="6">
-        <v>43222.395833333336</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="6">
-        <v>43222.395833333336</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>958</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="6">
-        <v>43222.395833333336</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>959</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>960</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="6">
-        <v>43222.395833333336</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>962</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="D31" s="6">
-        <v>43222.400694444441</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>958</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="D32" s="6">
-        <v>43222.400694444441</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="D33" s="6">
-        <v>43222.556250000001</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>965</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="D34" s="6">
-        <v>43222.556250000001</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>967</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>968</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="D35" s="6">
-        <v>43222.556250000001</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>970</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="D36" s="6">
-        <v>43222.556250000001</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>972</v>
-      </c>
-      <c r="D37" s="6">
-        <v>37672.668749999997</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>954</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>972</v>
-      </c>
-      <c r="D38" s="6">
-        <v>37672.668749999997</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>974</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>972</v>
-      </c>
-      <c r="D39" s="6">
-        <v>37672.668749999997</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>975</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>976</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>972</v>
-      </c>
-      <c r="D40" s="6">
-        <v>37672.668749999997</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>977</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>978</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>972</v>
-      </c>
-      <c r="D41" s="6">
-        <v>37672.668749999997</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>979</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>980</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>972</v>
-      </c>
-      <c r="D42" s="6">
-        <v>37672.668749999997</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>981</v>
-      </c>
-      <c r="D43" s="6">
-        <v>37673.29791666667</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>982</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>983</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>981</v>
-      </c>
-      <c r="D44" s="6">
-        <v>37673.29791666667</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>985</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>986</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>981</v>
-      </c>
-      <c r="D45" s="6">
-        <v>37673.29791666667</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>979</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>980</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>981</v>
-      </c>
-      <c r="D46" s="6">
-        <v>37673.29791666667</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>981</v>
-      </c>
-      <c r="D47" s="6">
-        <v>37673.29791666667</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>987</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>988</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>989</v>
-      </c>
-      <c r="D48" s="6">
-        <v>39479.422222222223</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>990</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>991</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>989</v>
-      </c>
-      <c r="D49" s="6">
-        <v>39479.422222222223</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>993</v>
-      </c>
-      <c r="D50" s="6">
-        <v>39479.550694444442</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>994</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>995</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>993</v>
-      </c>
-      <c r="D51" s="6">
-        <v>39479.550694444442</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="D52" s="6">
-        <v>41242.461805555555</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="D53" s="6">
-        <v>41242.461805555555</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="D54" s="6">
-        <v>41242.461805555555</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="D55" s="6">
-        <v>41242.461805555555</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="D56" s="6">
-        <v>41242.461805555555</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="D57" s="6">
-        <v>41242.461805555555</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>999</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="D58" s="6">
-        <v>41242.461805555555</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="D59" s="6">
-        <v>41242.699305555558</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="D60" s="6">
-        <v>41242.699305555558</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="D61" s="6">
-        <v>41242.699305555558</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="D62" s="6">
-        <v>41242.699305555558</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="D63" s="6">
-        <v>41242.699305555558</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="D64" s="6">
-        <v>41242.699305555558</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>954</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="D65" s="6">
-        <v>41242.699305555558</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>1002</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="D66" s="6">
-        <v>41242.699305555558</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>977</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>978</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="D67" s="6">
-        <v>41242.699305555558</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>1004</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="D68" s="6">
-        <v>41242.699305555558</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>989</v>
-      </c>
-      <c r="D69" s="6">
-        <v>39478.422222222223</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>1006</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>1007</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>989</v>
-      </c>
-      <c r="D70" s="6">
-        <v>39478.422222222223</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I70" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>989</v>
-      </c>
-      <c r="D71" s="6">
-        <v>44232.399305555555</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>989</v>
-      </c>
-      <c r="D72" s="6">
-        <v>44232.399305555555</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>962</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>989</v>
-      </c>
-      <c r="D73" s="6">
-        <v>44232.399305555555</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="D74" s="6">
-        <v>41241.458333333336</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I74" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="D75" s="6">
-        <v>41241.458333333336</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="D76" s="6">
-        <v>41241.458333333336</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="D77" s="6">
-        <v>41241.458333333336</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I77" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="D78" s="6">
-        <v>41241.458333333336</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="D79" s="6">
-        <v>41241.458333333336</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I79" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="D80" s="6">
-        <v>41241.621527777781</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="D81" s="6">
-        <v>41241.621527777781</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I81" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="D82" s="6">
-        <v>41241.621527777781</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I82" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="D83" s="6">
-        <v>41241.621527777781</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I83" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="D84" s="6">
-        <v>41241.621527777781</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I84" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="D85" s="6">
-        <v>41241.621527777781</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I85" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D86" s="6">
-        <v>43953.400694444441</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>1015</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I86" s="5" t="s">
-        <v>1016</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D87" s="6">
-        <v>43953.400694444441</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>1018</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I87" s="5" t="s">
-        <v>1019</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D88" s="6">
-        <v>43953.400694444441</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>1018</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I88" s="5" t="s">
-        <v>1020</v>
-      </c>
-      <c r="K88" s="1" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D89" s="6">
-        <v>43953.400694444441</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I89" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D90" s="6">
-        <v>43953.400694444441</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I90" s="5" t="s">
-        <v>1023</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D91" s="6">
-        <v>43953.400694444441</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>987</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I91" s="5" t="s">
-        <v>988</v>
-      </c>
-      <c r="K91" s="1" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/misc/Testing Scripts/QA/TestCaseResults.xlsx
+++ b/misc/Testing Scripts/QA/TestCaseResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\CAMDDevelopment\easey-db-scripts\misc\Testing Scripts\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C3D3BB-7237-450D-A540-447D588F855E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC06F8E-57A7-44B4-AD57-EBF78501135A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{673C86AF-EEEE-433C-9A6E-BD69DDCD2237}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{673C86AF-EEEE-433C-9A6E-BD69DDCD2237}"/>
   </bookViews>
   <sheets>
     <sheet name="7DAY" sheetId="9" r:id="rId1"/>
@@ -20,10 +20,11 @@
     <sheet name="F2LREF" sheetId="8" r:id="rId5"/>
     <sheet name="FF2LBAS" sheetId="4" r:id="rId6"/>
     <sheet name="FF2LTST" sheetId="3" r:id="rId7"/>
-    <sheet name="LINE" sheetId="1" r:id="rId8"/>
-    <sheet name="ONOFF" sheetId="10" r:id="rId9"/>
-    <sheet name="RATA" sheetId="2" r:id="rId10"/>
-    <sheet name="UNITDEF" sheetId="5" r:id="rId11"/>
+    <sheet name="FFACCTT" sheetId="12" r:id="rId8"/>
+    <sheet name="LINE" sheetId="1" r:id="rId9"/>
+    <sheet name="ONOFF" sheetId="10" r:id="rId10"/>
+    <sheet name="RATA" sheetId="2" r:id="rId11"/>
+    <sheet name="UNITDEF" sheetId="5" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12369" uniqueCount="1813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12596" uniqueCount="1867">
   <si>
     <t>ORIS 3 (Barry) Location 5</t>
   </si>
@@ -5489,6 +5490,168 @@
   </si>
   <si>
     <t>QAT "PEL-L3G357-DB936F7379194FD9BE477F7CB720005B" "PEL-L3G357-3DC2D4E947C54F618BFADEFD19EFF422"</t>
+  </si>
+  <si>
+    <t>FFACCTT</t>
+  </si>
+  <si>
+    <t>U01G-030719</t>
+  </si>
+  <si>
+    <t>012 (H2O)</t>
+  </si>
+  <si>
+    <t>FFACCTT-1-B</t>
+  </si>
+  <si>
+    <t>The component type in the monitoring plan is H2O.  This type of component does not require a transmitter transducer test.  Only component types 'OFFM' or 'GFFM' may perform this type of test.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-A176443524F0445CA3FDB90DB059D5A5" "L3FY866-E212D5466F52403EBFED623AD464C3F8"</t>
+  </si>
+  <si>
+    <t>FFACCTT-4-C</t>
+  </si>
+  <si>
+    <t>U01G-051321</t>
+  </si>
+  <si>
+    <t>QAT "MDC-A176443524F0445CA3FDB90DB059D5A5" "L3FY866-4B7F0E5EB17D4F3DB274859796C195D2"</t>
+  </si>
+  <si>
+    <t>U02G-030719</t>
+  </si>
+  <si>
+    <t>022 (GFFM)</t>
+  </si>
+  <si>
+    <t>FFACCTT-2-A</t>
+  </si>
+  <si>
+    <t>The TestResultCode indicates that the test was aborted.  If the test was aborted for a reason not related to monitor performance, you should not report the test.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-EB1F6B20B4EB4A6BA4EA355F28622030" "L3FY866-ECCE752050714EAABD722545D5D84D47"</t>
+  </si>
+  <si>
+    <t>U02G-061421</t>
+  </si>
+  <si>
+    <t>FFACCTT-3-A</t>
+  </si>
+  <si>
+    <t>QAT "MDC-EB1F6B20B4EB4A6BA4EA355F28622030" "L3FY866-729F1C22C80248B9924912362B49E5E5"</t>
+  </si>
+  <si>
+    <t>U03G-030719</t>
+  </si>
+  <si>
+    <t>032 (GFFM)</t>
+  </si>
+  <si>
+    <t>FFACCTT-5-B</t>
+  </si>
+  <si>
+    <t>The value -1.0 in the field LowLevelAccuracy for this test is not within the range of valid values.  This value must be greater than or equal to zero.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-636EF828194B4705B8FCAE7960338471" "L3FY866-D20C0708345549F994025F615AD0CB74"</t>
+  </si>
+  <si>
+    <t>U03G-051321</t>
+  </si>
+  <si>
+    <t>FFACCTT-6-A</t>
+  </si>
+  <si>
+    <t>You did not provide LowLevelAccuracySpecCode, which is required for this test.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-636EF828194B4705B8FCAE7960338471" "L3FY866-012B3A0AA2F841C5A692870049B6FEE2"</t>
+  </si>
+  <si>
+    <t>U04G-030719</t>
+  </si>
+  <si>
+    <t>042 (GFFM)</t>
+  </si>
+  <si>
+    <t>FFACCTT-8-A</t>
+  </si>
+  <si>
+    <t>You did not provide MidLevelAccuracySpecCode, which is required for this test.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-502E7EDB89B045AD85E33474AD02F553" "L3FY866-6BDA7F35C85043BDBE2CBC468283E23C"</t>
+  </si>
+  <si>
+    <t>U04G-051321</t>
+  </si>
+  <si>
+    <t>FFACCTT-7-A</t>
+  </si>
+  <si>
+    <t>You did not provide MidLevelAccuracy, which is required for this test.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-502E7EDB89B045AD85E33474AD02F553" "L3FY866-D2A0980DF18644989C3B413C35A66221"</t>
+  </si>
+  <si>
+    <t>U05G-032919</t>
+  </si>
+  <si>
+    <t>052 (GFFM)</t>
+  </si>
+  <si>
+    <t>FFACCTT-10-A</t>
+  </si>
+  <si>
+    <t>You did not provide HighLevelAccuracySpecCode, which is required for this test.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-E3CAEF0BF9B84EFDB67860DE9B25C3C1" "L3FY866-CDF7A65B238F48098DA26AAADE1160AD"</t>
+  </si>
+  <si>
+    <t>U05G-052521</t>
+  </si>
+  <si>
+    <t>FFACCTT-9-B</t>
+  </si>
+  <si>
+    <t>The value -1.0 in the field HighLevelAccuracy for this test is not within the range of valid values.  This value must be greater than or equal to zero.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-E3CAEF0BF9B84EFDB67860DE9B25C3C1" "L3FY866-E193F04C2B59437FB2FD23B1801519F2"</t>
+  </si>
+  <si>
+    <t>U06G-033119</t>
+  </si>
+  <si>
+    <t>062 (GFFM)</t>
+  </si>
+  <si>
+    <t>FFACCTT-11-E</t>
+  </si>
+  <si>
+    <t>QAT "MDC-EBE2CA86EDD540F689466D33B808C12C" "L3FY866-A372B1B561FE4D64A3E273E0645F4B30"</t>
+  </si>
+  <si>
+    <t>U06G-052521</t>
+  </si>
+  <si>
+    <t>QAT "MDC-EBE2CA86EDD540F689466D33B808C12C" "L3FY866-B38A6C3FDCE54E4185844612890B64A8"</t>
+  </si>
+  <si>
+    <t>U6O-091421</t>
+  </si>
+  <si>
+    <t>FFACCTT-14-B</t>
+  </si>
+  <si>
+    <t>A Fuel Flowmeter Accuracy Test with this test number has been previously submitted. You must assign a different test number.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-EBE2CA86EDD540F689466D33B808C12C" "CAMD-WIN81-E331DF2CBD2F494294AFB059D68387AB"</t>
   </si>
 </sst>
 </file>
@@ -5630,7 +5793,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="151">
+  <dxfs count="165">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -5676,16 +5848,10 @@
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -5695,88 +5861,7 @@
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -5890,6 +5975,84 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -6265,6 +6428,85 @@
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -6433,100 +6675,120 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5C910FE5-874B-4017-B841-F60367D6DBDE}" name="Table9" displayName="Table9" ref="A1:K73" totalsRowShown="0" headerRowDxfId="150" dataDxfId="148" headerRowBorderDxfId="149">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5C910FE5-874B-4017-B841-F60367D6DBDE}" name="Table9" displayName="Table9" ref="A1:K73" totalsRowShown="0" headerRowDxfId="164" dataDxfId="162" headerRowBorderDxfId="163">
   <autoFilter ref="A1:K73" xr:uid="{5C910FE5-874B-4017-B841-F60367D6DBDE}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{8279D829-3000-4C82-8018-0E78EB4E52ED}" name="Location" dataDxfId="147"/>
-    <tableColumn id="2" xr3:uid="{8C3F4264-2BDD-4183-9522-C40A313B4494}" name="Test Type" dataDxfId="146"/>
-    <tableColumn id="3" xr3:uid="{B0DE5395-DC16-46BB-BC57-85CF8494EEC8}" name="Test Number" dataDxfId="145"/>
-    <tableColumn id="4" xr3:uid="{AFAA091C-FD51-4F17-B61A-9B63F7F60549}" name="Test Date-Time" dataDxfId="144"/>
-    <tableColumn id="5" xr3:uid="{9510359E-2D55-43AD-8BD2-3BEAD6C916CF}" name="Sys/Comp Info" dataDxfId="143"/>
-    <tableColumn id="6" xr3:uid="{AECAE78C-1669-4150-9D54-CF24FB46FB2C}" name="Severity" dataDxfId="142"/>
-    <tableColumn id="7" xr3:uid="{60F04430-453C-4689-B258-ECBB97164B62}" name="EASEY Result Code" dataDxfId="141"/>
-    <tableColumn id="8" xr3:uid="{48BBCC17-5C80-41DD-9F75-59C2F34B310D}" name="Fired" dataDxfId="140"/>
-    <tableColumn id="9" xr3:uid="{B8B66FF4-909C-4ADC-8A89-2420561A8BC8}" name="EASEY Result" dataDxfId="139"/>
-    <tableColumn id="10" xr3:uid="{502F8369-E6BA-4168-9FB1-BDCCFE48BA95}" name="Notes" dataDxfId="138"/>
-    <tableColumn id="11" xr3:uid="{1BA34216-1816-4C5B-91A2-0F623ECC08A9}" name="Command Line Parameters" dataDxfId="137"/>
+    <tableColumn id="1" xr3:uid="{8279D829-3000-4C82-8018-0E78EB4E52ED}" name="Location" dataDxfId="161"/>
+    <tableColumn id="2" xr3:uid="{8C3F4264-2BDD-4183-9522-C40A313B4494}" name="Test Type" dataDxfId="160"/>
+    <tableColumn id="3" xr3:uid="{B0DE5395-DC16-46BB-BC57-85CF8494EEC8}" name="Test Number" dataDxfId="159"/>
+    <tableColumn id="4" xr3:uid="{AFAA091C-FD51-4F17-B61A-9B63F7F60549}" name="Test Date-Time" dataDxfId="158"/>
+    <tableColumn id="5" xr3:uid="{9510359E-2D55-43AD-8BD2-3BEAD6C916CF}" name="Sys/Comp Info" dataDxfId="157"/>
+    <tableColumn id="6" xr3:uid="{AECAE78C-1669-4150-9D54-CF24FB46FB2C}" name="Severity" dataDxfId="156"/>
+    <tableColumn id="7" xr3:uid="{60F04430-453C-4689-B258-ECBB97164B62}" name="EASEY Result Code" dataDxfId="155"/>
+    <tableColumn id="8" xr3:uid="{48BBCC17-5C80-41DD-9F75-59C2F34B310D}" name="Fired" dataDxfId="154"/>
+    <tableColumn id="9" xr3:uid="{B8B66FF4-909C-4ADC-8A89-2420561A8BC8}" name="EASEY Result" dataDxfId="153"/>
+    <tableColumn id="10" xr3:uid="{502F8369-E6BA-4168-9FB1-BDCCFE48BA95}" name="Notes" dataDxfId="152"/>
+    <tableColumn id="11" xr3:uid="{1BA34216-1816-4C5B-91A2-0F623ECC08A9}" name="Command Line Parameters" dataDxfId="151"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}" name="Table2" displayName="Table2" ref="A1:K581" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54">
-  <autoFilter ref="A1:K581" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4A33A717-7F36-46E9-B108-57CE91FC9965}" name="Table10" displayName="Table10" ref="A1:K89" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54">
+  <autoFilter ref="A1:K89" xr:uid="{4A33A717-7F36-46E9-B108-57CE91FC9965}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{2F62CB62-9049-497E-ADC7-F9F96C31FD57}" name="Location" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{4B11ACA0-FDC6-44CA-8A6F-3F08C4CFA5F1}" name="Test Type" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{C41F1DAE-8DC9-48E1-917C-258A6C1E96C9}" name="Test Number" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{EC0CA150-1F20-45D9-9C39-AFA9123777F4}" name="Test Date-Time" dataDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{33FF74A1-9DCC-4D3A-B0C5-64E9380F879C}" name="Sys/Comp Info" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{22A99E8A-A5B5-4CBC-B53D-C1D9D2C5AE1B}" name="Severity" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{029739E6-4C78-4E2E-A09D-8C3FA73D2041}" name="EASEY Result Code" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{5D0E993C-1382-48E9-AA45-BE7DC3BA96AF}" name="Fired" dataDxfId="45"/>
-    <tableColumn id="9" xr3:uid="{F1CFA0F6-70F7-4594-B088-F1D73717D454}" name="EASEY Result" dataDxfId="44"/>
-    <tableColumn id="10" xr3:uid="{40B0439D-9986-4626-9FF3-B32AE7B5EA33}" name="Notes" dataDxfId="43"/>
-    <tableColumn id="11" xr3:uid="{FF29FE95-83D5-44D1-A98E-E38DE83D7BC7}" name="Command Line Parameters" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{CDEE6302-915F-4B8B-8931-C82E789BFD68}" name="Location" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{82F96464-31C7-41F4-99E4-F836EB4804AE}" name="Test Type" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{9A3AD922-1B43-4401-9D08-A69565CBC240}" name="Test Number" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{153B2B1E-9F8A-40A0-9FC6-F154FA69A06D}" name="Test Date-Time" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{EB537EEB-DEA8-4166-A050-FFBFD68D1416}" name="Sys/Comp Info" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{E0692378-248B-472C-9ADE-6DC4C40CE31D}" name="Severity" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{D0B08289-03B0-4D7E-B475-69D81994C3D6}" name="EASEY Result Code" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{8A5BC497-E14C-4A60-9721-3754AC8FBB86}" name="Fired" dataDxfId="45"/>
+    <tableColumn id="9" xr3:uid="{D4027939-C285-4B69-8FE1-5C89204292B8}" name="EASEY Result" dataDxfId="44"/>
+    <tableColumn id="10" xr3:uid="{CAD9076A-ADA1-4DB7-B052-FB52970BED12}" name="Notes" dataDxfId="43"/>
+    <tableColumn id="11" xr3:uid="{F61AE4C4-8B02-46C3-94D5-1DAA82EE83BE}" name="Command Line Parameters" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{72A5AA74-4364-4117-8778-356FF8C70282}" name="Table5" displayName="Table5" ref="A1:K91" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}" name="Table2" displayName="Table2" ref="A1:K581" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40">
+  <autoFilter ref="A1:K581" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{2F62CB62-9049-497E-ADC7-F9F96C31FD57}" name="Location" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{4B11ACA0-FDC6-44CA-8A6F-3F08C4CFA5F1}" name="Test Type" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{C41F1DAE-8DC9-48E1-917C-258A6C1E96C9}" name="Test Number" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{EC0CA150-1F20-45D9-9C39-AFA9123777F4}" name="Test Date-Time" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{33FF74A1-9DCC-4D3A-B0C5-64E9380F879C}" name="Sys/Comp Info" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{22A99E8A-A5B5-4CBC-B53D-C1D9D2C5AE1B}" name="Severity" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{029739E6-4C78-4E2E-A09D-8C3FA73D2041}" name="EASEY Result Code" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{5D0E993C-1382-48E9-AA45-BE7DC3BA96AF}" name="Fired" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{F1CFA0F6-70F7-4594-B088-F1D73717D454}" name="EASEY Result" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{40B0439D-9986-4626-9FF3-B32AE7B5EA33}" name="Notes" dataDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{FF29FE95-83D5-44D1-A98E-E38DE83D7BC7}" name="Command Line Parameters" dataDxfId="28"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{72A5AA74-4364-4117-8778-356FF8C70282}" name="Table5" displayName="Table5" ref="A1:K91" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26">
   <autoFilter ref="A1:K91" xr:uid="{72A5AA74-4364-4117-8778-356FF8C70282}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{B5B471E1-992B-4560-9AE9-3A0B01F9D400}" name="Location" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{1012AED6-A79C-434D-9EFD-BC07FE87995E}" name="Test Type" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{B5631442-9C30-47B5-9E8F-98D77DB400BF}" name="Test Number" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{960A60B0-A29E-44B1-B36A-03ABF8C9387B}" name="Test Date-Time" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{33F281F6-219B-4E02-9434-6B6D946A98E0}" name="Sys/Comp Info" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{E798D1DA-91F4-4F85-BC08-C953E40455E6}" name="Severity" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{D1264FDF-B29D-4FEE-92C2-AB98523233CD}" name="EASEY Result Code" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{C745552B-9704-4998-BE61-D3A91601E678}" name="Fired" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{C834180C-E3EF-4150-9616-ACEC523C5385}" name="EASEY Result" dataDxfId="30"/>
-    <tableColumn id="10" xr3:uid="{3ABD6028-9668-4A63-AEC5-1740A232405E}" name="Notes" dataDxfId="29"/>
-    <tableColumn id="11" xr3:uid="{9F9E58E8-A77F-4D89-A441-47366556DBC4}" name="Command Line Parameters" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{B5B471E1-992B-4560-9AE9-3A0B01F9D400}" name="Location" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{1012AED6-A79C-434D-9EFD-BC07FE87995E}" name="Test Type" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{B5631442-9C30-47B5-9E8F-98D77DB400BF}" name="Test Number" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{960A60B0-A29E-44B1-B36A-03ABF8C9387B}" name="Test Date-Time" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{33F281F6-219B-4E02-9434-6B6D946A98E0}" name="Sys/Comp Info" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{E798D1DA-91F4-4F85-BC08-C953E40455E6}" name="Severity" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{D1264FDF-B29D-4FEE-92C2-AB98523233CD}" name="EASEY Result Code" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{C745552B-9704-4998-BE61-D3A91601E678}" name="Fired" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{C834180C-E3EF-4150-9616-ACEC523C5385}" name="EASEY Result" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{3ABD6028-9668-4A63-AEC5-1740A232405E}" name="Notes" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{9F9E58E8-A77F-4D89-A441-47366556DBC4}" name="Command Line Parameters" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6E75B64B-AA6D-476A-8302-BF96D5E7E810}" name="Table6" displayName="Table6" ref="A1:K319" totalsRowShown="0" headerRowDxfId="136" dataDxfId="134" headerRowBorderDxfId="135">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6E75B64B-AA6D-476A-8302-BF96D5E7E810}" name="Table6" displayName="Table6" ref="A1:K319" totalsRowShown="0" headerRowDxfId="150" dataDxfId="148" headerRowBorderDxfId="149">
   <autoFilter ref="A1:K319" xr:uid="{6E75B64B-AA6D-476A-8302-BF96D5E7E810}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{DABC54ED-3C28-4B3B-8594-CAA471D265D5}" name="Location" dataDxfId="133"/>
-    <tableColumn id="2" xr3:uid="{F8AEE93E-FDE2-46D7-B1A7-244178C2F820}" name="Test Type" dataDxfId="132"/>
-    <tableColumn id="3" xr3:uid="{8C6E04D8-89F2-453E-9922-8A0AF53CB692}" name="Test Number" dataDxfId="131"/>
-    <tableColumn id="4" xr3:uid="{2B43C86D-8143-4360-87FC-99396C0E304F}" name="Test Date-Time" dataDxfId="130"/>
-    <tableColumn id="5" xr3:uid="{E75FB52D-EC10-43F0-8D77-68CDEA14235D}" name="Sys/Comp Info" dataDxfId="129"/>
-    <tableColumn id="6" xr3:uid="{E6D41DD1-2DAC-4262-AA16-1D46CE14D100}" name="Severity" dataDxfId="128"/>
-    <tableColumn id="7" xr3:uid="{E4B7FCA0-0453-4D46-AF2D-5FCB94154788}" name="EASEY Result Code" dataDxfId="127"/>
-    <tableColumn id="8" xr3:uid="{1C5C127B-0EC6-40C8-9F7F-CDFFB95E2B9C}" name="Fired" dataDxfId="126"/>
-    <tableColumn id="9" xr3:uid="{E4D52144-8081-4E9C-9216-F2B3E7D99696}" name="EASEY Result" dataDxfId="125"/>
-    <tableColumn id="10" xr3:uid="{1B8F57B6-0961-4DCE-A9BB-77E44380F12A}" name="Notes" dataDxfId="124"/>
-    <tableColumn id="11" xr3:uid="{8C749E78-19F9-4D93-A1EC-56160203A547}" name="Command Line Parameters" dataDxfId="123"/>
+    <tableColumn id="1" xr3:uid="{DABC54ED-3C28-4B3B-8594-CAA471D265D5}" name="Location" dataDxfId="147"/>
+    <tableColumn id="2" xr3:uid="{F8AEE93E-FDE2-46D7-B1A7-244178C2F820}" name="Test Type" dataDxfId="146"/>
+    <tableColumn id="3" xr3:uid="{8C6E04D8-89F2-453E-9922-8A0AF53CB692}" name="Test Number" dataDxfId="145"/>
+    <tableColumn id="4" xr3:uid="{2B43C86D-8143-4360-87FC-99396C0E304F}" name="Test Date-Time" dataDxfId="144"/>
+    <tableColumn id="5" xr3:uid="{E75FB52D-EC10-43F0-8D77-68CDEA14235D}" name="Sys/Comp Info" dataDxfId="143"/>
+    <tableColumn id="6" xr3:uid="{E6D41DD1-2DAC-4262-AA16-1D46CE14D100}" name="Severity" dataDxfId="142"/>
+    <tableColumn id="7" xr3:uid="{E4B7FCA0-0453-4D46-AF2D-5FCB94154788}" name="EASEY Result Code" dataDxfId="141"/>
+    <tableColumn id="8" xr3:uid="{1C5C127B-0EC6-40C8-9F7F-CDFFB95E2B9C}" name="Fired" dataDxfId="140"/>
+    <tableColumn id="9" xr3:uid="{E4D52144-8081-4E9C-9216-F2B3E7D99696}" name="EASEY Result" dataDxfId="139"/>
+    <tableColumn id="10" xr3:uid="{1B8F57B6-0961-4DCE-A9BB-77E44380F12A}" name="Notes" dataDxfId="138"/>
+    <tableColumn id="11" xr3:uid="{8C749E78-19F9-4D93-A1EC-56160203A547}" name="Command Line Parameters" dataDxfId="137"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{D2B13800-7296-41BF-B284-AE9E33207A74}" name="Table11" displayName="Table11" ref="A1:K43" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{D2B13800-7296-41BF-B284-AE9E33207A74}" name="Table11" displayName="Table11" ref="A1:K43" totalsRowShown="0" headerRowDxfId="136" dataDxfId="134" headerRowBorderDxfId="135">
   <autoFilter ref="A1:K43" xr:uid="{D2B13800-7296-41BF-B284-AE9E33207A74}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{5C4086A6-D708-4595-83D3-C24973FA7493}" name="Location" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{85418BD6-CBE3-465C-ABAB-216BDDDEC4AB}" name="Test Type" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{4A0464F8-B583-4C14-9868-15E3FED2D126}" name="Test Number" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{78C8BC19-497D-4CBB-B37C-A591E348A8F4}" name="Test Date-Time" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{1264561D-36B6-4A3C-959A-9E394716E8C7}" name="Sys/Comp Info" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{DD999D52-F401-4681-95E1-7CD8BFBB9B5E}" name="Severity" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{579ED199-5C6A-417A-ADFB-6972029F68D6}" name="EASEY Result Code" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{702EEAA3-DA01-410C-BE7A-D14CFC877E75}" name="Fired" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{DD383C11-E19A-499D-859A-528E10686FA7}" name="EASEY Result" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{C65DEB63-1D14-4EFD-B04E-24DDAC666CD7}" name="Notes" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{F16CC94C-3B79-491F-8B14-14C31351265C}" name="Command Line Parameters" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{5C4086A6-D708-4595-83D3-C24973FA7493}" name="Location" dataDxfId="133"/>
+    <tableColumn id="2" xr3:uid="{85418BD6-CBE3-465C-ABAB-216BDDDEC4AB}" name="Test Type" dataDxfId="132"/>
+    <tableColumn id="3" xr3:uid="{4A0464F8-B583-4C14-9868-15E3FED2D126}" name="Test Number" dataDxfId="131"/>
+    <tableColumn id="4" xr3:uid="{78C8BC19-497D-4CBB-B37C-A591E348A8F4}" name="Test Date-Time" dataDxfId="130"/>
+    <tableColumn id="5" xr3:uid="{1264561D-36B6-4A3C-959A-9E394716E8C7}" name="Sys/Comp Info" dataDxfId="129"/>
+    <tableColumn id="6" xr3:uid="{DD999D52-F401-4681-95E1-7CD8BFBB9B5E}" name="Severity" dataDxfId="128"/>
+    <tableColumn id="7" xr3:uid="{579ED199-5C6A-417A-ADFB-6972029F68D6}" name="EASEY Result Code" dataDxfId="127"/>
+    <tableColumn id="8" xr3:uid="{702EEAA3-DA01-410C-BE7A-D14CFC877E75}" name="Fired" dataDxfId="126"/>
+    <tableColumn id="9" xr3:uid="{DD383C11-E19A-499D-859A-528E10686FA7}" name="EASEY Result" dataDxfId="125"/>
+    <tableColumn id="10" xr3:uid="{C65DEB63-1D14-4EFD-B04E-24DDAC666CD7}" name="Notes" dataDxfId="124"/>
+    <tableColumn id="11" xr3:uid="{F16CC94C-3B79-491F-8B14-14C31351265C}" name="Command Line Parameters" dataDxfId="123"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6613,6 +6875,26 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{020EA727-A068-4214-96AF-BBB58B4AD2CD}" name="Table12" displayName="Table12" ref="A1:K25" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowBorderDxfId="13">
+  <autoFilter ref="A1:K25" xr:uid="{020EA727-A068-4214-96AF-BBB58B4AD2CD}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{17B6DF4E-F31D-42AC-A8A3-2F473C2E30F7}" name="Location" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{1A61DB90-0A47-46E7-8836-10B843CF3280}" name="Test Type" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{C31ACC80-9B40-4B96-9E67-1DC0F8B22187}" name="Test Number" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{80D262AE-185A-4DB8-B5EF-067896A28E0A}" name="Test Date-Time" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{6B683640-6F4D-4D37-B872-927A078A42E7}" name="Sys/Comp Info" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{F2BE968C-9CCB-4176-862E-EA3DBB1F5265}" name="Severity" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{BC1C5663-AD9C-4AF4-8910-56571D431FB2}" name="EASEY Result Code" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{9BDF95D2-C165-45CF-B4F9-D68DB059FCA4}" name="Fired" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{932FF336-A11E-491C-BA6B-0A86BA9E1B8D}" name="EASEY Result" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{DFD2B33B-3898-4612-A48A-7808C887C1CB}" name="Notes" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{62C0C95E-EBA4-4A37-A7D6-D1C8B2FB1DD6}" name="Command Line Parameters" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}" name="Table1" displayName="Table1" ref="A1:J68" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
   <autoFilter ref="A1:J68" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}"/>
   <tableColumns count="10">
@@ -6626,26 +6908,6 @@
     <tableColumn id="8" xr3:uid="{FBEFE9F9-E17E-4E0B-8743-7AE06BE9B114}" name="Fired" dataDxfId="58"/>
     <tableColumn id="6" xr3:uid="{FCE78312-8A7D-4561-B4CC-F676E43829AF}" name="EASEY Result" dataDxfId="57"/>
     <tableColumn id="7" xr3:uid="{AA4E3A53-68A9-4DF8-87BC-70FB236A6CED}" name="Notes" dataDxfId="56"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4A33A717-7F36-46E9-B108-57CE91FC9965}" name="Table10" displayName="Table10" ref="A1:K89" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="27">
-  <autoFilter ref="A1:K89" xr:uid="{4A33A717-7F36-46E9-B108-57CE91FC9965}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{CDEE6302-915F-4B8B-8931-C82E789BFD68}" name="Location" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{82F96464-31C7-41F4-99E4-F836EB4804AE}" name="Test Type" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{9A3AD922-1B43-4401-9D08-A69565CBC240}" name="Test Number" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{153B2B1E-9F8A-40A0-9FC6-F154FA69A06D}" name="Test Date-Time" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{EB537EEB-DEA8-4166-A050-FFBFD68D1416}" name="Sys/Comp Info" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{E0692378-248B-472C-9ADE-6DC4C40CE31D}" name="Severity" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{D0B08289-03B0-4D7E-B475-69D81994C3D6}" name="EASEY Result Code" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{8A5BC497-E14C-4A60-9721-3754AC8FBB86}" name="Fired" dataDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{D4027939-C285-4B69-8FE1-5C89204292B8}" name="EASEY Result" dataDxfId="24"/>
-    <tableColumn id="10" xr3:uid="{CAD9076A-ADA1-4DB7-B052-FB52970BED12}" name="Notes" dataDxfId="23"/>
-    <tableColumn id="11" xr3:uid="{F61AE4C4-8B02-46C3-94D5-1DAA82EE83BE}" name="Command Line Parameters" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9320,6 +9582,2628 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC7BF0A-744E-4983-9D44-F2CA7F0BDAB9}">
+  <dimension ref="A1:K89"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H35" sqref="H35:H89"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="65.28515625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="44.7109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="103.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>1583</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>1586</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>1593</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>1596</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>1598</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>1601</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>1604</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>1607</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>1596</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>1611</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>1615</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>1596</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>1619</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>1622</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>1625</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>1626</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>1631</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>1632</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>1637</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>1641</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>1645</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>1646</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>1649</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>1652</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>1649</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>1656</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>1598</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>1660</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>1665</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>1668</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>1669</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>1673</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>1598</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>1681</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>1683</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>1686</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>1689</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>1692</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>1699</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>1702</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>1703</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>1707</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>1710</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>1711</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>1712</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>1714</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>1715</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>1712</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>1717</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>1604</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>1717</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>1721</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>1622</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>1730</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>1732</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>1733</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>1734</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>1732</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>1737</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>1738</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>1741</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>1742</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF247E8-4CEE-4E4C-AA1C-A5F6418303B4}">
   <dimension ref="A1:K581"/>
   <sheetViews>
@@ -27964,7 +30848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB95806-BA08-44E5-BECF-767BC3A79B45}">
   <dimension ref="A1:K91"/>
   <sheetViews>
@@ -40879,7 +43763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C851F399-F137-4C16-9FAF-B6C6DF91652C}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -46321,6 +49205,844 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A00A2E-CC49-4E83-9E17-09716099F532}">
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="133.28515625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="45.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="97.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D2" s="6">
+        <v>43531.333333333336</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>1817</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D3" s="6">
+        <v>43531.333333333336</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D4" s="6">
+        <v>44329.375</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>1817</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D5" s="6">
+        <v>44329.375</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D6" s="6">
+        <v>43531.375</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>1825</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D7" s="6">
+        <v>43531.375</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D8" s="6">
+        <v>44361.375</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>1828</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D9" s="6">
+        <v>44361.375</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D10" s="6">
+        <v>43531.416666666664</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>1833</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D11" s="6">
+        <v>43531.416666666664</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D12" s="6">
+        <v>44329.416666666664</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>1837</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D13" s="6">
+        <v>44329.416666666664</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1839</v>
+      </c>
+      <c r="D14" s="6">
+        <v>43531.458333333336</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1840</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>1842</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1839</v>
+      </c>
+      <c r="D15" s="6">
+        <v>43531.458333333336</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1840</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D16" s="6">
+        <v>44329.458333333336</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>1840</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>1846</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D17" s="6">
+        <v>44329.458333333336</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1840</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D18" s="6">
+        <v>43553.333333333336</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>1851</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D19" s="6">
+        <v>43553.333333333336</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D20" s="6">
+        <v>44341.333333333336</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>1854</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>1855</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D21" s="6">
+        <v>44341.333333333336</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="D22" s="6">
+        <v>43555.333333333336</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>1859</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>1800</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="D23" s="6">
+        <v>43555.333333333336</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D24" s="6">
+        <v>44341.375</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="D25" s="6">
+        <v>44470.375</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>1865</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C84253-C1F3-40A8-BCD6-786B60222E9D}">
   <dimension ref="A1:J68"/>
   <sheetViews>
@@ -48329,2626 +52051,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC7BF0A-744E-4983-9D44-F2CA7F0BDAB9}">
-  <dimension ref="A1:K89"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H35" sqref="H35:H89"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="55.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="65.28515625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="44.7109375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="103.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1419</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1579</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1580</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>1581</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>1583</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1419</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1579</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1580</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>1585</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>1586</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>1419</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1579</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1580</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>1440</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1588</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>1445</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>1589</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>1440</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1588</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>1445</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>1440</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1591</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>1455</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>1592</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>1593</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>1440</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1591</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>1455</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>1440</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1591</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>1455</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>1595</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>1596</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>1440</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1591</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>1455</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>1597</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>1598</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>1459</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1599</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>1491</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>1600</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>1601</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>1459</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1599</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>1491</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>1603</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>1604</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>1459</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1599</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>1491</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>1459</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>1605</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>1496</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>1606</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>1607</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>1459</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>1605</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>1496</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>1459</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>1605</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>1496</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>1595</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>1596</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>1500</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>1609</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>1502</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>1610</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>1611</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>1500</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>1609</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>1502</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>1500</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>1613</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>1502</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>1614</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>1615</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>1500</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>1613</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>1502</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>1500</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>1613</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>1502</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>1595</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>1596</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>1500</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>1617</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>1511</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>1618</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>1619</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>1500</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>1617</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>1511</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>1621</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>1622</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>1500</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>1617</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>1511</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>1500</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>1623</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>1624</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>1625</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>1626</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>1500</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>1623</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>1624</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>1500</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>1623</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>1624</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>1628</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>1629</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>1500</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>1630</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>1516</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>1631</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>1632</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>1500</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>1630</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>1516</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>1500</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>1630</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>1516</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>1628</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>1629</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>1500</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>1634</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>1636</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>1637</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>1500</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>1634</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>1639</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>1522</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>1641</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>1639</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>1522</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>1544</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>1643</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>1644</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>1645</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>1646</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>1647</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>1544</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>1643</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>1644</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>1647</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>1544</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>1643</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>1644</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>1648</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>1649</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>1647</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>1544</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>1650</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>1644</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>1651</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>1652</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>1653</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>1544</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>1650</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>1644</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>1653</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>1544</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>1650</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>1644</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>1648</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>1649</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>1653</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>1544</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>1654</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>1545</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>1655</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>1656</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>1544</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>1654</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>1545</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>1544</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>1654</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>1545</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>1597</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>1598</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>1544</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>1658</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>1545</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>1659</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>1660</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>1544</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>1658</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>1545</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>1544</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>1662</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>1663</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>1664</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>1665</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>1666</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>1544</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>1662</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>1663</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>1666</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>1544</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>1667</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>1553</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>1668</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>1669</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>1544</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>1667</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>1553</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>1544</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>1671</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>1549</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>1673</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>1544</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>1671</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>1549</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>1544</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>1671</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>1549</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>1597</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>1598</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>1675</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>1676</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>1677</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>1678</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>1675</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>1676</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>1680</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>1681</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>1675</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>1676</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>1682</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>1683</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>1675</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>1676</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>1684</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>1676</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>1685</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>1686</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>1684</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>1676</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>1688</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>1689</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>1684</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>1676</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>1690</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>1558</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>1691</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>1692</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>1693</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>1690</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>1558</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>1693</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>1690</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>1558</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>1693</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>1694</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>1558</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>1696</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>1697</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>1698</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>1699</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>1696</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>1697</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>1701</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>1562</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>1702</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>1703</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>1704</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>1701</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>1562</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>1704</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>1705</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>1560</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>1706</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>1707</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>1708</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>1705</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>1560</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>1709</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>1710</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>1708</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>1705</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>1560</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>1688</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I70" s="5" t="s">
-        <v>1711</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>1708</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>1705</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>1560</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>1708</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>1564</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>1712</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>1713</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>1714</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>1715</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>1716</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>1564</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>1712</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>1713</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>1716</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>1564</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>1717</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>1713</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>1603</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I74" s="5" t="s">
-        <v>1604</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>1718</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>1564</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>1717</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>1713</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>1718</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>1564</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>1719</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>1567</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>1720</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>1721</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>1564</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>1719</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>1567</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I77" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>1564</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>1723</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>1567</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>1724</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>790</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>1564</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>1723</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>1567</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I79" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>1564</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>1726</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>1511</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>1621</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>1622</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>1564</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>1726</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>1511</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I81" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>1564</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>1728</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>1565</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I82" s="5" t="s">
-        <v>1730</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>1731</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>1564</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>1728</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>1565</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I83" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>1731</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>1571</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>1732</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>1574</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>1733</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I84" s="5" t="s">
-        <v>1734</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>1571</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>1732</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>1574</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I85" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>1571</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>1736</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>1574</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>1737</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I86" s="5" t="s">
-        <v>1738</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>1571</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>1736</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>1574</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I87" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>1571</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>1740</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>1576</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>1741</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I88" s="5" t="s">
-        <v>1742</v>
-      </c>
-      <c r="K88" s="1" t="s">
-        <v>1743</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>1571</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>1740</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>1576</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I89" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>1743</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/misc/Testing Scripts/QA/TestCaseResults.xlsx
+++ b/misc/Testing Scripts/QA/TestCaseResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\CAMDDevelopment\easey-db-scripts\misc\Testing Scripts\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC06F8E-57A7-44B4-AD57-EBF78501135A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0E3EA8-7EBF-43F4-A199-A00652BB42FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{673C86AF-EEEE-433C-9A6E-BD69DDCD2237}"/>
   </bookViews>
@@ -20,11 +20,12 @@
     <sheet name="F2LREF" sheetId="8" r:id="rId5"/>
     <sheet name="FF2LBAS" sheetId="4" r:id="rId6"/>
     <sheet name="FF2LTST" sheetId="3" r:id="rId7"/>
-    <sheet name="FFACCTT" sheetId="12" r:id="rId8"/>
-    <sheet name="LINE" sheetId="1" r:id="rId9"/>
-    <sheet name="ONOFF" sheetId="10" r:id="rId10"/>
-    <sheet name="RATA" sheetId="2" r:id="rId11"/>
-    <sheet name="UNITDEF" sheetId="5" r:id="rId12"/>
+    <sheet name="FFACC" sheetId="13" r:id="rId8"/>
+    <sheet name="FFACCTT" sheetId="12" r:id="rId9"/>
+    <sheet name="LINE" sheetId="1" r:id="rId10"/>
+    <sheet name="ONOFF" sheetId="10" r:id="rId11"/>
+    <sheet name="RATA" sheetId="2" r:id="rId12"/>
+    <sheet name="UNITDEF" sheetId="5" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12596" uniqueCount="1867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12832" uniqueCount="1919">
   <si>
     <t>ORIS 3 (Barry) Location 5</t>
   </si>
@@ -5652,6 +5653,162 @@
   </si>
   <si>
     <t>QAT "MDC-EBE2CA86EDD540F689466D33B808C12C" "CAMD-WIN81-E331DF2CBD2F494294AFB059D68387AB"</t>
+  </si>
+  <si>
+    <t>FFACC</t>
+  </si>
+  <si>
+    <t>U1O-072417</t>
+  </si>
+  <si>
+    <t>011 (CO2)</t>
+  </si>
+  <si>
+    <t>FFACC-1-B</t>
+  </si>
+  <si>
+    <t>The component type in the monitoring plan is CO2.  This type of component does not require a fuel flow accuracy test.  Only component types 'OFFM' or 'GFFM' may have a fuel flow accuracy test.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-A176443524F0445CA3FDB90DB059D5A5" "L3FY866-F88570FE932345B3A28F183D8721666B"</t>
+  </si>
+  <si>
+    <t>FFACC-3-C</t>
+  </si>
+  <si>
+    <t>U1O-082119</t>
+  </si>
+  <si>
+    <t>QAT "MDC-A176443524F0445CA3FDB90DB059D5A5" "L3FY866-C12D1C6359324D929BB891CBE1275BE1"</t>
+  </si>
+  <si>
+    <t>U2O-072417</t>
+  </si>
+  <si>
+    <t>021 (OFFM)</t>
+  </si>
+  <si>
+    <t>FFACC-4-A</t>
+  </si>
+  <si>
+    <t>You reported a ReinstallationDate and/or ReinstallationHour for an accuracy test that, according to the accuracy test method, was performed in-line.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-EB1F6B20B4EB4A6BA4EA355F28622030" "L3FY866-3D25D65A0FD4406487F1C3A4B2007C52"</t>
+  </si>
+  <si>
+    <t>U2O-082119</t>
+  </si>
+  <si>
+    <t>FFACC-2-A</t>
+  </si>
+  <si>
+    <t>QAT "MDC-EB1F6B20B4EB4A6BA4EA355F28622030" "L3FY866-B6561178A1A94711BD8CD18F62EAE15C"</t>
+  </si>
+  <si>
+    <t>U3O-072417</t>
+  </si>
+  <si>
+    <t>031 (OFFM)</t>
+  </si>
+  <si>
+    <t>FFACC-6-B</t>
+  </si>
+  <si>
+    <t>QAT "MDC-636EF828194B4705B8FCAE7960338471" "L3FY866-8A4958CB70FE43C981303DC5F653629B"</t>
+  </si>
+  <si>
+    <t>U3O-082119</t>
+  </si>
+  <si>
+    <t>FFACC-4-E</t>
+  </si>
+  <si>
+    <t>You did not report a ReinstallationDate for an accuracy test that, according to the accuracy test method, was not performed in-line.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-636EF828194B4705B8FCAE7960338471" "L3FY866-9D37CC9F4F864104B455D3B500B89F12"</t>
+  </si>
+  <si>
+    <t>FFACC-5-A</t>
+  </si>
+  <si>
+    <t>You did not provide ReinstallationHour, which is required for this test.</t>
+  </si>
+  <si>
+    <t>U4O-072417</t>
+  </si>
+  <si>
+    <t>041 (OFFM)</t>
+  </si>
+  <si>
+    <t>FFACC-8-B</t>
+  </si>
+  <si>
+    <t>The value -1.0 in the field LowFuelAccuracy for this test is not within the range of valid values.  This value must be greater than or equal to zero.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-502E7EDB89B045AD85E33474AD02F553" "L3FY866-59CFCD75866B432ABC196E4038F9C0C9"</t>
+  </si>
+  <si>
+    <t>U4O-082119</t>
+  </si>
+  <si>
+    <t>FFACC-7-A</t>
+  </si>
+  <si>
+    <t>You did not provide AccuracyTestMethodCode, which is required for this test.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-502E7EDB89B045AD85E33474AD02F553" "L3FY866-1988FF4CDE5D461C9DC9BF1B6BD51A86"</t>
+  </si>
+  <si>
+    <t>U5O-072417</t>
+  </si>
+  <si>
+    <t>051 (OFFM)</t>
+  </si>
+  <si>
+    <t>FFACC-9-A</t>
+  </si>
+  <si>
+    <t>You did not provide MidFuelAccuracy, which is required for this test.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-E3CAEF0BF9B84EFDB67860DE9B25C3C1" "L3FY866-BAB51BAE0F9948A19753571C586EF0FC"</t>
+  </si>
+  <si>
+    <t>U5O-082119</t>
+  </si>
+  <si>
+    <t>FFACC-10-B</t>
+  </si>
+  <si>
+    <t>The value -1.0 in the field HighFuelAccuracy for this test is not within the range of valid values.  This value must be greater than or equal to zero.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-E3CAEF0BF9B84EFDB67860DE9B25C3C1" "L3FY866-DC187C5ECFA44E33BF50B4B11BC4734C"</t>
+  </si>
+  <si>
+    <t>061 (OFFM)</t>
+  </si>
+  <si>
+    <t>QAT "MDC-EBE2CA86EDD540F689466D33B808C12C" "CAMD-WIN81-E67A6CC5F0274901BC7748C7CF8DBC17"</t>
+  </si>
+  <si>
+    <t>U6O-082119</t>
+  </si>
+  <si>
+    <t>FFACC-11-E</t>
+  </si>
+  <si>
+    <t>QAT "MDC-EBE2CA86EDD540F689466D33B808C12C" "L3FY866-33394AD5CFE7484F83DB03E4A8914E0C"</t>
+  </si>
+  <si>
+    <t>FFACC-14-B</t>
+  </si>
+  <si>
+    <t>A transmitter transducer test with this test number has been previously submitted. You must assign a different test number.</t>
   </si>
 </sst>
 </file>
@@ -5793,7 +5950,86 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="165">
+  <dxfs count="179">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -6675,239 +6911,259 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5C910FE5-874B-4017-B841-F60367D6DBDE}" name="Table9" displayName="Table9" ref="A1:K73" totalsRowShown="0" headerRowDxfId="164" dataDxfId="162" headerRowBorderDxfId="163">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5C910FE5-874B-4017-B841-F60367D6DBDE}" name="Table9" displayName="Table9" ref="A1:K73" totalsRowShown="0" headerRowDxfId="178" dataDxfId="176" headerRowBorderDxfId="177">
   <autoFilter ref="A1:K73" xr:uid="{5C910FE5-874B-4017-B841-F60367D6DBDE}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{8279D829-3000-4C82-8018-0E78EB4E52ED}" name="Location" dataDxfId="161"/>
-    <tableColumn id="2" xr3:uid="{8C3F4264-2BDD-4183-9522-C40A313B4494}" name="Test Type" dataDxfId="160"/>
-    <tableColumn id="3" xr3:uid="{B0DE5395-DC16-46BB-BC57-85CF8494EEC8}" name="Test Number" dataDxfId="159"/>
-    <tableColumn id="4" xr3:uid="{AFAA091C-FD51-4F17-B61A-9B63F7F60549}" name="Test Date-Time" dataDxfId="158"/>
-    <tableColumn id="5" xr3:uid="{9510359E-2D55-43AD-8BD2-3BEAD6C916CF}" name="Sys/Comp Info" dataDxfId="157"/>
-    <tableColumn id="6" xr3:uid="{AECAE78C-1669-4150-9D54-CF24FB46FB2C}" name="Severity" dataDxfId="156"/>
-    <tableColumn id="7" xr3:uid="{60F04430-453C-4689-B258-ECBB97164B62}" name="EASEY Result Code" dataDxfId="155"/>
-    <tableColumn id="8" xr3:uid="{48BBCC17-5C80-41DD-9F75-59C2F34B310D}" name="Fired" dataDxfId="154"/>
-    <tableColumn id="9" xr3:uid="{B8B66FF4-909C-4ADC-8A89-2420561A8BC8}" name="EASEY Result" dataDxfId="153"/>
-    <tableColumn id="10" xr3:uid="{502F8369-E6BA-4168-9FB1-BDCCFE48BA95}" name="Notes" dataDxfId="152"/>
-    <tableColumn id="11" xr3:uid="{1BA34216-1816-4C5B-91A2-0F623ECC08A9}" name="Command Line Parameters" dataDxfId="151"/>
+    <tableColumn id="1" xr3:uid="{8279D829-3000-4C82-8018-0E78EB4E52ED}" name="Location" dataDxfId="175"/>
+    <tableColumn id="2" xr3:uid="{8C3F4264-2BDD-4183-9522-C40A313B4494}" name="Test Type" dataDxfId="174"/>
+    <tableColumn id="3" xr3:uid="{B0DE5395-DC16-46BB-BC57-85CF8494EEC8}" name="Test Number" dataDxfId="173"/>
+    <tableColumn id="4" xr3:uid="{AFAA091C-FD51-4F17-B61A-9B63F7F60549}" name="Test Date-Time" dataDxfId="172"/>
+    <tableColumn id="5" xr3:uid="{9510359E-2D55-43AD-8BD2-3BEAD6C916CF}" name="Sys/Comp Info" dataDxfId="171"/>
+    <tableColumn id="6" xr3:uid="{AECAE78C-1669-4150-9D54-CF24FB46FB2C}" name="Severity" dataDxfId="170"/>
+    <tableColumn id="7" xr3:uid="{60F04430-453C-4689-B258-ECBB97164B62}" name="EASEY Result Code" dataDxfId="169"/>
+    <tableColumn id="8" xr3:uid="{48BBCC17-5C80-41DD-9F75-59C2F34B310D}" name="Fired" dataDxfId="168"/>
+    <tableColumn id="9" xr3:uid="{B8B66FF4-909C-4ADC-8A89-2420561A8BC8}" name="EASEY Result" dataDxfId="167"/>
+    <tableColumn id="10" xr3:uid="{502F8369-E6BA-4168-9FB1-BDCCFE48BA95}" name="Notes" dataDxfId="166"/>
+    <tableColumn id="11" xr3:uid="{1BA34216-1816-4C5B-91A2-0F623ECC08A9}" name="Command Line Parameters" dataDxfId="165"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4A33A717-7F36-46E9-B108-57CE91FC9965}" name="Table10" displayName="Table10" ref="A1:K89" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54">
-  <autoFilter ref="A1:K89" xr:uid="{4A33A717-7F36-46E9-B108-57CE91FC9965}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{CDEE6302-915F-4B8B-8931-C82E789BFD68}" name="Location" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{82F96464-31C7-41F4-99E4-F836EB4804AE}" name="Test Type" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{9A3AD922-1B43-4401-9D08-A69565CBC240}" name="Test Number" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{153B2B1E-9F8A-40A0-9FC6-F154FA69A06D}" name="Test Date-Time" dataDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{EB537EEB-DEA8-4166-A050-FFBFD68D1416}" name="Sys/Comp Info" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{E0692378-248B-472C-9ADE-6DC4C40CE31D}" name="Severity" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{D0B08289-03B0-4D7E-B475-69D81994C3D6}" name="EASEY Result Code" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{8A5BC497-E14C-4A60-9721-3754AC8FBB86}" name="Fired" dataDxfId="45"/>
-    <tableColumn id="9" xr3:uid="{D4027939-C285-4B69-8FE1-5C89204292B8}" name="EASEY Result" dataDxfId="44"/>
-    <tableColumn id="10" xr3:uid="{CAD9076A-ADA1-4DB7-B052-FB52970BED12}" name="Notes" dataDxfId="43"/>
-    <tableColumn id="11" xr3:uid="{F61AE4C4-8B02-46C3-94D5-1DAA82EE83BE}" name="Command Line Parameters" dataDxfId="42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}" name="Table1" displayName="Table1" ref="A1:J68" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
+  <autoFilter ref="A1:J68" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{4711296A-1683-4D59-9390-9C88803AA68A}" name="Location" dataDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{46A8668E-BFD8-4CE9-8D48-A23DE00E437E}" name="Test Type" dataDxfId="78"/>
+    <tableColumn id="3" xr3:uid="{B7C72E78-CAF2-41A0-B7AC-096EC362072F}" name="Test Number" dataDxfId="77"/>
+    <tableColumn id="10" xr3:uid="{91E3C101-E9B0-405F-84B0-E044FE40F81E}" name="Test Date-Time" dataDxfId="76"/>
+    <tableColumn id="9" xr3:uid="{D57E3F37-9AD6-40C2-8ACB-5192B0E03191}" name="Sys/Comp Info" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{9415854F-BF69-421C-939D-DB4180DF22DE}" name="Severity" dataDxfId="74"/>
+    <tableColumn id="5" xr3:uid="{5AD12D48-C5A2-4105-B479-271121D42D3E}" name="EASEY Result Code" dataDxfId="73"/>
+    <tableColumn id="8" xr3:uid="{FBEFE9F9-E17E-4E0B-8743-7AE06BE9B114}" name="Fired" dataDxfId="72"/>
+    <tableColumn id="6" xr3:uid="{FCE78312-8A7D-4561-B4CC-F676E43829AF}" name="EASEY Result" dataDxfId="71"/>
+    <tableColumn id="7" xr3:uid="{AA4E3A53-68A9-4DF8-87BC-70FB236A6CED}" name="Notes" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}" name="Table2" displayName="Table2" ref="A1:K581" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40">
-  <autoFilter ref="A1:K581" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4A33A717-7F36-46E9-B108-57CE91FC9965}" name="Table10" displayName="Table10" ref="A1:K89" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68">
+  <autoFilter ref="A1:K89" xr:uid="{4A33A717-7F36-46E9-B108-57CE91FC9965}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{2F62CB62-9049-497E-ADC7-F9F96C31FD57}" name="Location" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{4B11ACA0-FDC6-44CA-8A6F-3F08C4CFA5F1}" name="Test Type" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{C41F1DAE-8DC9-48E1-917C-258A6C1E96C9}" name="Test Number" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{EC0CA150-1F20-45D9-9C39-AFA9123777F4}" name="Test Date-Time" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{33FF74A1-9DCC-4D3A-B0C5-64E9380F879C}" name="Sys/Comp Info" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{22A99E8A-A5B5-4CBC-B53D-C1D9D2C5AE1B}" name="Severity" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{029739E6-4C78-4E2E-A09D-8C3FA73D2041}" name="EASEY Result Code" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{5D0E993C-1382-48E9-AA45-BE7DC3BA96AF}" name="Fired" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{F1CFA0F6-70F7-4594-B088-F1D73717D454}" name="EASEY Result" dataDxfId="30"/>
-    <tableColumn id="10" xr3:uid="{40B0439D-9986-4626-9FF3-B32AE7B5EA33}" name="Notes" dataDxfId="29"/>
-    <tableColumn id="11" xr3:uid="{FF29FE95-83D5-44D1-A98E-E38DE83D7BC7}" name="Command Line Parameters" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{CDEE6302-915F-4B8B-8931-C82E789BFD68}" name="Location" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{82F96464-31C7-41F4-99E4-F836EB4804AE}" name="Test Type" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{9A3AD922-1B43-4401-9D08-A69565CBC240}" name="Test Number" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{153B2B1E-9F8A-40A0-9FC6-F154FA69A06D}" name="Test Date-Time" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{EB537EEB-DEA8-4166-A050-FFBFD68D1416}" name="Sys/Comp Info" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{E0692378-248B-472C-9ADE-6DC4C40CE31D}" name="Severity" dataDxfId="61"/>
+    <tableColumn id="7" xr3:uid="{D0B08289-03B0-4D7E-B475-69D81994C3D6}" name="EASEY Result Code" dataDxfId="60"/>
+    <tableColumn id="8" xr3:uid="{8A5BC497-E14C-4A60-9721-3754AC8FBB86}" name="Fired" dataDxfId="59"/>
+    <tableColumn id="9" xr3:uid="{D4027939-C285-4B69-8FE1-5C89204292B8}" name="EASEY Result" dataDxfId="58"/>
+    <tableColumn id="10" xr3:uid="{CAD9076A-ADA1-4DB7-B052-FB52970BED12}" name="Notes" dataDxfId="57"/>
+    <tableColumn id="11" xr3:uid="{F61AE4C4-8B02-46C3-94D5-1DAA82EE83BE}" name="Command Line Parameters" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{72A5AA74-4364-4117-8778-356FF8C70282}" name="Table5" displayName="Table5" ref="A1:K91" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}" name="Table2" displayName="Table2" ref="A1:K581" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54">
+  <autoFilter ref="A1:K581" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{2F62CB62-9049-497E-ADC7-F9F96C31FD57}" name="Location" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{4B11ACA0-FDC6-44CA-8A6F-3F08C4CFA5F1}" name="Test Type" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{C41F1DAE-8DC9-48E1-917C-258A6C1E96C9}" name="Test Number" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{EC0CA150-1F20-45D9-9C39-AFA9123777F4}" name="Test Date-Time" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{33FF74A1-9DCC-4D3A-B0C5-64E9380F879C}" name="Sys/Comp Info" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{22A99E8A-A5B5-4CBC-B53D-C1D9D2C5AE1B}" name="Severity" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{029739E6-4C78-4E2E-A09D-8C3FA73D2041}" name="EASEY Result Code" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{5D0E993C-1382-48E9-AA45-BE7DC3BA96AF}" name="Fired" dataDxfId="45"/>
+    <tableColumn id="9" xr3:uid="{F1CFA0F6-70F7-4594-B088-F1D73717D454}" name="EASEY Result" dataDxfId="44"/>
+    <tableColumn id="10" xr3:uid="{40B0439D-9986-4626-9FF3-B32AE7B5EA33}" name="Notes" dataDxfId="43"/>
+    <tableColumn id="11" xr3:uid="{FF29FE95-83D5-44D1-A98E-E38DE83D7BC7}" name="Command Line Parameters" dataDxfId="42"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{72A5AA74-4364-4117-8778-356FF8C70282}" name="Table5" displayName="Table5" ref="A1:K91" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40">
   <autoFilter ref="A1:K91" xr:uid="{72A5AA74-4364-4117-8778-356FF8C70282}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{B5B471E1-992B-4560-9AE9-3A0B01F9D400}" name="Location" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{1012AED6-A79C-434D-9EFD-BC07FE87995E}" name="Test Type" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{B5631442-9C30-47B5-9E8F-98D77DB400BF}" name="Test Number" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{960A60B0-A29E-44B1-B36A-03ABF8C9387B}" name="Test Date-Time" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{33F281F6-219B-4E02-9434-6B6D946A98E0}" name="Sys/Comp Info" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{E798D1DA-91F4-4F85-BC08-C953E40455E6}" name="Severity" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{D1264FDF-B29D-4FEE-92C2-AB98523233CD}" name="EASEY Result Code" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{C745552B-9704-4998-BE61-D3A91601E678}" name="Fired" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{C834180C-E3EF-4150-9616-ACEC523C5385}" name="EASEY Result" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{3ABD6028-9668-4A63-AEC5-1740A232405E}" name="Notes" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{9F9E58E8-A77F-4D89-A441-47366556DBC4}" name="Command Line Parameters" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{B5B471E1-992B-4560-9AE9-3A0B01F9D400}" name="Location" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{1012AED6-A79C-434D-9EFD-BC07FE87995E}" name="Test Type" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{B5631442-9C30-47B5-9E8F-98D77DB400BF}" name="Test Number" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{960A60B0-A29E-44B1-B36A-03ABF8C9387B}" name="Test Date-Time" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{33F281F6-219B-4E02-9434-6B6D946A98E0}" name="Sys/Comp Info" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{E798D1DA-91F4-4F85-BC08-C953E40455E6}" name="Severity" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{D1264FDF-B29D-4FEE-92C2-AB98523233CD}" name="EASEY Result Code" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{C745552B-9704-4998-BE61-D3A91601E678}" name="Fired" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{C834180C-E3EF-4150-9616-ACEC523C5385}" name="EASEY Result" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{3ABD6028-9668-4A63-AEC5-1740A232405E}" name="Notes" dataDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{9F9E58E8-A77F-4D89-A441-47366556DBC4}" name="Command Line Parameters" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6E75B64B-AA6D-476A-8302-BF96D5E7E810}" name="Table6" displayName="Table6" ref="A1:K319" totalsRowShown="0" headerRowDxfId="150" dataDxfId="148" headerRowBorderDxfId="149">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6E75B64B-AA6D-476A-8302-BF96D5E7E810}" name="Table6" displayName="Table6" ref="A1:K319" totalsRowShown="0" headerRowDxfId="164" dataDxfId="162" headerRowBorderDxfId="163">
   <autoFilter ref="A1:K319" xr:uid="{6E75B64B-AA6D-476A-8302-BF96D5E7E810}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{DABC54ED-3C28-4B3B-8594-CAA471D265D5}" name="Location" dataDxfId="147"/>
-    <tableColumn id="2" xr3:uid="{F8AEE93E-FDE2-46D7-B1A7-244178C2F820}" name="Test Type" dataDxfId="146"/>
-    <tableColumn id="3" xr3:uid="{8C6E04D8-89F2-453E-9922-8A0AF53CB692}" name="Test Number" dataDxfId="145"/>
-    <tableColumn id="4" xr3:uid="{2B43C86D-8143-4360-87FC-99396C0E304F}" name="Test Date-Time" dataDxfId="144"/>
-    <tableColumn id="5" xr3:uid="{E75FB52D-EC10-43F0-8D77-68CDEA14235D}" name="Sys/Comp Info" dataDxfId="143"/>
-    <tableColumn id="6" xr3:uid="{E6D41DD1-2DAC-4262-AA16-1D46CE14D100}" name="Severity" dataDxfId="142"/>
-    <tableColumn id="7" xr3:uid="{E4B7FCA0-0453-4D46-AF2D-5FCB94154788}" name="EASEY Result Code" dataDxfId="141"/>
-    <tableColumn id="8" xr3:uid="{1C5C127B-0EC6-40C8-9F7F-CDFFB95E2B9C}" name="Fired" dataDxfId="140"/>
-    <tableColumn id="9" xr3:uid="{E4D52144-8081-4E9C-9216-F2B3E7D99696}" name="EASEY Result" dataDxfId="139"/>
-    <tableColumn id="10" xr3:uid="{1B8F57B6-0961-4DCE-A9BB-77E44380F12A}" name="Notes" dataDxfId="138"/>
-    <tableColumn id="11" xr3:uid="{8C749E78-19F9-4D93-A1EC-56160203A547}" name="Command Line Parameters" dataDxfId="137"/>
+    <tableColumn id="1" xr3:uid="{DABC54ED-3C28-4B3B-8594-CAA471D265D5}" name="Location" dataDxfId="161"/>
+    <tableColumn id="2" xr3:uid="{F8AEE93E-FDE2-46D7-B1A7-244178C2F820}" name="Test Type" dataDxfId="160"/>
+    <tableColumn id="3" xr3:uid="{8C6E04D8-89F2-453E-9922-8A0AF53CB692}" name="Test Number" dataDxfId="159"/>
+    <tableColumn id="4" xr3:uid="{2B43C86D-8143-4360-87FC-99396C0E304F}" name="Test Date-Time" dataDxfId="158"/>
+    <tableColumn id="5" xr3:uid="{E75FB52D-EC10-43F0-8D77-68CDEA14235D}" name="Sys/Comp Info" dataDxfId="157"/>
+    <tableColumn id="6" xr3:uid="{E6D41DD1-2DAC-4262-AA16-1D46CE14D100}" name="Severity" dataDxfId="156"/>
+    <tableColumn id="7" xr3:uid="{E4B7FCA0-0453-4D46-AF2D-5FCB94154788}" name="EASEY Result Code" dataDxfId="155"/>
+    <tableColumn id="8" xr3:uid="{1C5C127B-0EC6-40C8-9F7F-CDFFB95E2B9C}" name="Fired" dataDxfId="154"/>
+    <tableColumn id="9" xr3:uid="{E4D52144-8081-4E9C-9216-F2B3E7D99696}" name="EASEY Result" dataDxfId="153"/>
+    <tableColumn id="10" xr3:uid="{1B8F57B6-0961-4DCE-A9BB-77E44380F12A}" name="Notes" dataDxfId="152"/>
+    <tableColumn id="11" xr3:uid="{8C749E78-19F9-4D93-A1EC-56160203A547}" name="Command Line Parameters" dataDxfId="151"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{D2B13800-7296-41BF-B284-AE9E33207A74}" name="Table11" displayName="Table11" ref="A1:K43" totalsRowShown="0" headerRowDxfId="136" dataDxfId="134" headerRowBorderDxfId="135">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{D2B13800-7296-41BF-B284-AE9E33207A74}" name="Table11" displayName="Table11" ref="A1:K43" totalsRowShown="0" headerRowDxfId="150" dataDxfId="148" headerRowBorderDxfId="149">
   <autoFilter ref="A1:K43" xr:uid="{D2B13800-7296-41BF-B284-AE9E33207A74}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{5C4086A6-D708-4595-83D3-C24973FA7493}" name="Location" dataDxfId="133"/>
-    <tableColumn id="2" xr3:uid="{85418BD6-CBE3-465C-ABAB-216BDDDEC4AB}" name="Test Type" dataDxfId="132"/>
-    <tableColumn id="3" xr3:uid="{4A0464F8-B583-4C14-9868-15E3FED2D126}" name="Test Number" dataDxfId="131"/>
-    <tableColumn id="4" xr3:uid="{78C8BC19-497D-4CBB-B37C-A591E348A8F4}" name="Test Date-Time" dataDxfId="130"/>
-    <tableColumn id="5" xr3:uid="{1264561D-36B6-4A3C-959A-9E394716E8C7}" name="Sys/Comp Info" dataDxfId="129"/>
-    <tableColumn id="6" xr3:uid="{DD999D52-F401-4681-95E1-7CD8BFBB9B5E}" name="Severity" dataDxfId="128"/>
-    <tableColumn id="7" xr3:uid="{579ED199-5C6A-417A-ADFB-6972029F68D6}" name="EASEY Result Code" dataDxfId="127"/>
-    <tableColumn id="8" xr3:uid="{702EEAA3-DA01-410C-BE7A-D14CFC877E75}" name="Fired" dataDxfId="126"/>
-    <tableColumn id="9" xr3:uid="{DD383C11-E19A-499D-859A-528E10686FA7}" name="EASEY Result" dataDxfId="125"/>
-    <tableColumn id="10" xr3:uid="{C65DEB63-1D14-4EFD-B04E-24DDAC666CD7}" name="Notes" dataDxfId="124"/>
-    <tableColumn id="11" xr3:uid="{F16CC94C-3B79-491F-8B14-14C31351265C}" name="Command Line Parameters" dataDxfId="123"/>
+    <tableColumn id="1" xr3:uid="{5C4086A6-D708-4595-83D3-C24973FA7493}" name="Location" dataDxfId="147"/>
+    <tableColumn id="2" xr3:uid="{85418BD6-CBE3-465C-ABAB-216BDDDEC4AB}" name="Test Type" dataDxfId="146"/>
+    <tableColumn id="3" xr3:uid="{4A0464F8-B583-4C14-9868-15E3FED2D126}" name="Test Number" dataDxfId="145"/>
+    <tableColumn id="4" xr3:uid="{78C8BC19-497D-4CBB-B37C-A591E348A8F4}" name="Test Date-Time" dataDxfId="144"/>
+    <tableColumn id="5" xr3:uid="{1264561D-36B6-4A3C-959A-9E394716E8C7}" name="Sys/Comp Info" dataDxfId="143"/>
+    <tableColumn id="6" xr3:uid="{DD999D52-F401-4681-95E1-7CD8BFBB9B5E}" name="Severity" dataDxfId="142"/>
+    <tableColumn id="7" xr3:uid="{579ED199-5C6A-417A-ADFB-6972029F68D6}" name="EASEY Result Code" dataDxfId="141"/>
+    <tableColumn id="8" xr3:uid="{702EEAA3-DA01-410C-BE7A-D14CFC877E75}" name="Fired" dataDxfId="140"/>
+    <tableColumn id="9" xr3:uid="{DD383C11-E19A-499D-859A-528E10686FA7}" name="EASEY Result" dataDxfId="139"/>
+    <tableColumn id="10" xr3:uid="{C65DEB63-1D14-4EFD-B04E-24DDAC666CD7}" name="Notes" dataDxfId="138"/>
+    <tableColumn id="11" xr3:uid="{F16CC94C-3B79-491F-8B14-14C31351265C}" name="Command Line Parameters" dataDxfId="137"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{643FA4C3-7226-4FC1-A77A-D6CF46B7DE06}" name="Table7" displayName="Table7" ref="A1:K33" totalsRowShown="0" headerRowDxfId="122" dataDxfId="120" headerRowBorderDxfId="121">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{643FA4C3-7226-4FC1-A77A-D6CF46B7DE06}" name="Table7" displayName="Table7" ref="A1:K33" totalsRowShown="0" headerRowDxfId="136" dataDxfId="134" headerRowBorderDxfId="135">
   <autoFilter ref="A1:K33" xr:uid="{643FA4C3-7226-4FC1-A77A-D6CF46B7DE06}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{6A1DC097-B550-4298-811F-BB553C8A78B7}" name="Location" dataDxfId="119"/>
-    <tableColumn id="2" xr3:uid="{B0B911C5-C9AF-4D6B-9A8E-E4524ABB1455}" name="Test Type" dataDxfId="118"/>
-    <tableColumn id="3" xr3:uid="{7C46186D-C3D8-4F3A-A359-DBEC33D11A32}" name="Test Number" dataDxfId="117"/>
-    <tableColumn id="4" xr3:uid="{B77DADA4-D1C0-49A5-8941-BF36C2738914}" name="Test Date-Time" dataDxfId="116"/>
-    <tableColumn id="5" xr3:uid="{94D2842C-7497-4826-BFDF-64C1F4930DC7}" name="Sys/Comp Info" dataDxfId="115"/>
-    <tableColumn id="6" xr3:uid="{18E0026A-3AB3-4471-BB8D-F86CD1FCACB2}" name="Severity" dataDxfId="114"/>
-    <tableColumn id="7" xr3:uid="{64F844FE-3B1B-48BD-BFA3-F73DD8F6BAE7}" name="EASEY Result Code" dataDxfId="113"/>
-    <tableColumn id="8" xr3:uid="{0A777F6A-C367-4D68-80DC-BE82994A6C9C}" name="Fired" dataDxfId="112"/>
-    <tableColumn id="9" xr3:uid="{58E8A6A7-2EB9-4636-98D8-915BAA276364}" name="EASEY Result" dataDxfId="111"/>
-    <tableColumn id="10" xr3:uid="{8E16DEBD-9C74-43B0-A1EC-12CF584BC57D}" name="Notes" dataDxfId="110"/>
-    <tableColumn id="11" xr3:uid="{7AE3F542-B6CD-45CB-99F0-47DDE95004F7}" name="Command Line Parameters" dataDxfId="109"/>
+    <tableColumn id="1" xr3:uid="{6A1DC097-B550-4298-811F-BB553C8A78B7}" name="Location" dataDxfId="133"/>
+    <tableColumn id="2" xr3:uid="{B0B911C5-C9AF-4D6B-9A8E-E4524ABB1455}" name="Test Type" dataDxfId="132"/>
+    <tableColumn id="3" xr3:uid="{7C46186D-C3D8-4F3A-A359-DBEC33D11A32}" name="Test Number" dataDxfId="131"/>
+    <tableColumn id="4" xr3:uid="{B77DADA4-D1C0-49A5-8941-BF36C2738914}" name="Test Date-Time" dataDxfId="130"/>
+    <tableColumn id="5" xr3:uid="{94D2842C-7497-4826-BFDF-64C1F4930DC7}" name="Sys/Comp Info" dataDxfId="129"/>
+    <tableColumn id="6" xr3:uid="{18E0026A-3AB3-4471-BB8D-F86CD1FCACB2}" name="Severity" dataDxfId="128"/>
+    <tableColumn id="7" xr3:uid="{64F844FE-3B1B-48BD-BFA3-F73DD8F6BAE7}" name="EASEY Result Code" dataDxfId="127"/>
+    <tableColumn id="8" xr3:uid="{0A777F6A-C367-4D68-80DC-BE82994A6C9C}" name="Fired" dataDxfId="126"/>
+    <tableColumn id="9" xr3:uid="{58E8A6A7-2EB9-4636-98D8-915BAA276364}" name="EASEY Result" dataDxfId="125"/>
+    <tableColumn id="10" xr3:uid="{8E16DEBD-9C74-43B0-A1EC-12CF584BC57D}" name="Notes" dataDxfId="124"/>
+    <tableColumn id="11" xr3:uid="{7AE3F542-B6CD-45CB-99F0-47DDE95004F7}" name="Command Line Parameters" dataDxfId="123"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E4484FF7-4E72-42BE-B673-2211F40DBEC5}" name="Table8" displayName="Table8" ref="A1:K28" totalsRowShown="0" headerRowDxfId="108" headerRowBorderDxfId="107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E4484FF7-4E72-42BE-B673-2211F40DBEC5}" name="Table8" displayName="Table8" ref="A1:K28" totalsRowShown="0" headerRowDxfId="122" headerRowBorderDxfId="121">
   <autoFilter ref="A1:K28" xr:uid="{E4484FF7-4E72-42BE-B673-2211F40DBEC5}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{BCDEC250-D556-489B-A8C0-F3C0B749EE85}" name="Location" dataDxfId="106"/>
-    <tableColumn id="2" xr3:uid="{27845E29-DF76-4FC1-8B99-E6D05BC504AB}" name="Test Type" dataDxfId="105"/>
-    <tableColumn id="3" xr3:uid="{88E8B5E9-3A4F-487A-A1FD-2F8825130F6C}" name="Test Number" dataDxfId="104"/>
-    <tableColumn id="4" xr3:uid="{96597CE9-7403-4439-ACB1-4DB48A5AE831}" name="Test Date-Time" dataDxfId="103"/>
-    <tableColumn id="5" xr3:uid="{67D38623-BE59-4D0E-966A-D900405266E4}" name="Sys/Comp Info" dataDxfId="102"/>
-    <tableColumn id="6" xr3:uid="{4480DA93-63BE-46D7-9C44-A62CF4C30DB9}" name="Severity" dataDxfId="101"/>
-    <tableColumn id="7" xr3:uid="{4DE029FD-1894-4C16-A49E-7205888520D7}" name="EASEY Result Code" dataDxfId="100"/>
-    <tableColumn id="8" xr3:uid="{38E45A86-E2E8-436C-83B0-1DC52A25A389}" name="Fired" dataDxfId="99"/>
-    <tableColumn id="9" xr3:uid="{D0FCA1F1-B5E4-4F39-8570-3FDAAFD8C655}" name="EASEY Result" dataDxfId="98"/>
-    <tableColumn id="10" xr3:uid="{8FFB2F06-8DA3-4256-9B20-894A86F3CAB1}" name="Notes" dataDxfId="97"/>
-    <tableColumn id="11" xr3:uid="{0A82F04A-4DC9-465C-ACBF-8A9107DE5BF9}" name="Command Line Parameters" dataDxfId="96"/>
+    <tableColumn id="1" xr3:uid="{BCDEC250-D556-489B-A8C0-F3C0B749EE85}" name="Location" dataDxfId="120"/>
+    <tableColumn id="2" xr3:uid="{27845E29-DF76-4FC1-8B99-E6D05BC504AB}" name="Test Type" dataDxfId="119"/>
+    <tableColumn id="3" xr3:uid="{88E8B5E9-3A4F-487A-A1FD-2F8825130F6C}" name="Test Number" dataDxfId="118"/>
+    <tableColumn id="4" xr3:uid="{96597CE9-7403-4439-ACB1-4DB48A5AE831}" name="Test Date-Time" dataDxfId="117"/>
+    <tableColumn id="5" xr3:uid="{67D38623-BE59-4D0E-966A-D900405266E4}" name="Sys/Comp Info" dataDxfId="116"/>
+    <tableColumn id="6" xr3:uid="{4480DA93-63BE-46D7-9C44-A62CF4C30DB9}" name="Severity" dataDxfId="115"/>
+    <tableColumn id="7" xr3:uid="{4DE029FD-1894-4C16-A49E-7205888520D7}" name="EASEY Result Code" dataDxfId="114"/>
+    <tableColumn id="8" xr3:uid="{38E45A86-E2E8-436C-83B0-1DC52A25A389}" name="Fired" dataDxfId="113"/>
+    <tableColumn id="9" xr3:uid="{D0FCA1F1-B5E4-4F39-8570-3FDAAFD8C655}" name="EASEY Result" dataDxfId="112"/>
+    <tableColumn id="10" xr3:uid="{8FFB2F06-8DA3-4256-9B20-894A86F3CAB1}" name="Notes" dataDxfId="111"/>
+    <tableColumn id="11" xr3:uid="{0A82F04A-4DC9-465C-ACBF-8A9107DE5BF9}" name="Command Line Parameters" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C4E4C8FF-D2BC-4023-A7E2-4F0FE1340DDB}" name="Table4" displayName="Table4" ref="A1:K44" totalsRowShown="0" headerRowDxfId="95" dataDxfId="93" headerRowBorderDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C4E4C8FF-D2BC-4023-A7E2-4F0FE1340DDB}" name="Table4" displayName="Table4" ref="A1:K44" totalsRowShown="0" headerRowDxfId="109" dataDxfId="107" headerRowBorderDxfId="108">
   <autoFilter ref="A1:K44" xr:uid="{C4E4C8FF-D2BC-4023-A7E2-4F0FE1340DDB}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{25672079-CDA0-4D8B-8CF3-D545B2ACD419}" name="Location" dataDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{5279C203-946F-4765-ABB9-8C81921C2DC3}" name="Test Type" dataDxfId="91"/>
-    <tableColumn id="3" xr3:uid="{11DE1298-C62C-4C4B-9989-25AA10EF10C0}" name="Test Number" dataDxfId="90"/>
-    <tableColumn id="4" xr3:uid="{2A458B2D-9FF3-4418-9FD6-DF0766209CB5}" name="Test Date-Time" dataDxfId="89"/>
-    <tableColumn id="5" xr3:uid="{60E36B10-857E-4482-B035-790F74DBDB33}" name="Sys/Comp Info" dataDxfId="88"/>
-    <tableColumn id="6" xr3:uid="{2E26423A-D6BE-4410-8F61-F74A3CED15B8}" name="Severity" dataDxfId="87"/>
-    <tableColumn id="7" xr3:uid="{20497C37-19CA-4417-AC58-9CBBEB217149}" name="EASEY Result Code" dataDxfId="86"/>
-    <tableColumn id="8" xr3:uid="{B51DBED3-688D-4748-9F71-406904878E83}" name="Fired" dataDxfId="85"/>
-    <tableColumn id="9" xr3:uid="{55BF46DF-A688-44E7-9212-0315C9101E05}" name="EASEY Result" dataDxfId="84"/>
-    <tableColumn id="10" xr3:uid="{A4FC5CC8-E769-426F-AEEE-D8BDE3AAE1AB}" name="Notes" dataDxfId="83"/>
-    <tableColumn id="11" xr3:uid="{E7F09088-0589-40C2-8067-9D1FE0896663}" name="Command Line Parameters" dataDxfId="82"/>
+    <tableColumn id="1" xr3:uid="{25672079-CDA0-4D8B-8CF3-D545B2ACD419}" name="Location" dataDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{5279C203-946F-4765-ABB9-8C81921C2DC3}" name="Test Type" dataDxfId="105"/>
+    <tableColumn id="3" xr3:uid="{11DE1298-C62C-4C4B-9989-25AA10EF10C0}" name="Test Number" dataDxfId="104"/>
+    <tableColumn id="4" xr3:uid="{2A458B2D-9FF3-4418-9FD6-DF0766209CB5}" name="Test Date-Time" dataDxfId="103"/>
+    <tableColumn id="5" xr3:uid="{60E36B10-857E-4482-B035-790F74DBDB33}" name="Sys/Comp Info" dataDxfId="102"/>
+    <tableColumn id="6" xr3:uid="{2E26423A-D6BE-4410-8F61-F74A3CED15B8}" name="Severity" dataDxfId="101"/>
+    <tableColumn id="7" xr3:uid="{20497C37-19CA-4417-AC58-9CBBEB217149}" name="EASEY Result Code" dataDxfId="100"/>
+    <tableColumn id="8" xr3:uid="{B51DBED3-688D-4748-9F71-406904878E83}" name="Fired" dataDxfId="99"/>
+    <tableColumn id="9" xr3:uid="{55BF46DF-A688-44E7-9212-0315C9101E05}" name="EASEY Result" dataDxfId="98"/>
+    <tableColumn id="10" xr3:uid="{A4FC5CC8-E769-426F-AEEE-D8BDE3AAE1AB}" name="Notes" dataDxfId="97"/>
+    <tableColumn id="11" xr3:uid="{E7F09088-0589-40C2-8067-9D1FE0896663}" name="Command Line Parameters" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0CC4DB58-871D-4311-83EC-9DB6A2F24D3C}" name="Table3" displayName="Table3" ref="A1:K26" totalsRowShown="0" headerRowDxfId="81" dataDxfId="79" headerRowBorderDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0CC4DB58-871D-4311-83EC-9DB6A2F24D3C}" name="Table3" displayName="Table3" ref="A1:K26" totalsRowShown="0" headerRowDxfId="95" dataDxfId="93" headerRowBorderDxfId="94">
   <autoFilter ref="A1:K26" xr:uid="{0CC4DB58-871D-4311-83EC-9DB6A2F24D3C}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{FD39BA7F-4A73-45B6-8492-9C47A87EAF80}" name="Location" dataDxfId="78"/>
-    <tableColumn id="2" xr3:uid="{6BD18705-A907-480B-9613-FD6A89008B95}" name="Test Type" dataDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{171EC70D-BD2B-4679-9E2F-B7A72F41A5BC}" name="Test Number" dataDxfId="76"/>
-    <tableColumn id="4" xr3:uid="{54392DF7-D2E8-406A-BF46-C94A6AF058B7}" name="Test Date-Time" dataDxfId="75"/>
-    <tableColumn id="5" xr3:uid="{BEE30332-3FC4-42CC-9E0A-10D6FD8CE7DB}" name="Sys/Comp Info" dataDxfId="74"/>
-    <tableColumn id="6" xr3:uid="{4D56506A-EEFD-4953-B5C2-BFBFB1100C42}" name="Severity" dataDxfId="73"/>
-    <tableColumn id="7" xr3:uid="{F7744816-5978-4331-B8B7-FBAEA071B23C}" name="EASEY Result Code" dataDxfId="72"/>
-    <tableColumn id="8" xr3:uid="{5A8FF3A4-DEAC-4772-A7B5-657662710593}" name="Fired" dataDxfId="71"/>
-    <tableColumn id="9" xr3:uid="{B72C4A8D-A7B2-492D-AAF3-C53B34CC6D68}" name="EASEY Result" dataDxfId="70"/>
-    <tableColumn id="10" xr3:uid="{3BD58939-520E-4EF9-ACA2-F4F2053AAB3E}" name="Notes" dataDxfId="69"/>
-    <tableColumn id="11" xr3:uid="{81440B9B-FEDA-4EF7-8E5F-058F42001F39}" name="Command Line Parameters" dataDxfId="68"/>
+    <tableColumn id="1" xr3:uid="{FD39BA7F-4A73-45B6-8492-9C47A87EAF80}" name="Location" dataDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{6BD18705-A907-480B-9613-FD6A89008B95}" name="Test Type" dataDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{171EC70D-BD2B-4679-9E2F-B7A72F41A5BC}" name="Test Number" dataDxfId="90"/>
+    <tableColumn id="4" xr3:uid="{54392DF7-D2E8-406A-BF46-C94A6AF058B7}" name="Test Date-Time" dataDxfId="89"/>
+    <tableColumn id="5" xr3:uid="{BEE30332-3FC4-42CC-9E0A-10D6FD8CE7DB}" name="Sys/Comp Info" dataDxfId="88"/>
+    <tableColumn id="6" xr3:uid="{4D56506A-EEFD-4953-B5C2-BFBFB1100C42}" name="Severity" dataDxfId="87"/>
+    <tableColumn id="7" xr3:uid="{F7744816-5978-4331-B8B7-FBAEA071B23C}" name="EASEY Result Code" dataDxfId="86"/>
+    <tableColumn id="8" xr3:uid="{5A8FF3A4-DEAC-4772-A7B5-657662710593}" name="Fired" dataDxfId="85"/>
+    <tableColumn id="9" xr3:uid="{B72C4A8D-A7B2-492D-AAF3-C53B34CC6D68}" name="EASEY Result" dataDxfId="84"/>
+    <tableColumn id="10" xr3:uid="{3BD58939-520E-4EF9-ACA2-F4F2053AAB3E}" name="Notes" dataDxfId="83"/>
+    <tableColumn id="11" xr3:uid="{81440B9B-FEDA-4EF7-8E5F-058F42001F39}" name="Command Line Parameters" dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{020EA727-A068-4214-96AF-BBB58B4AD2CD}" name="Table12" displayName="Table12" ref="A1:K25" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowBorderDxfId="13">
-  <autoFilter ref="A1:K25" xr:uid="{020EA727-A068-4214-96AF-BBB58B4AD2CD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{387CD9B0-42DD-43F6-B933-FC392A3DA7CC}" name="Table13" displayName="Table13" ref="A1:K26" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="13">
+  <autoFilter ref="A1:K26" xr:uid="{387CD9B0-42DD-43F6-B933-FC392A3DA7CC}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{17B6DF4E-F31D-42AC-A8A3-2F473C2E30F7}" name="Location" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{1A61DB90-0A47-46E7-8836-10B843CF3280}" name="Test Type" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{C31ACC80-9B40-4B96-9E67-1DC0F8B22187}" name="Test Number" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{80D262AE-185A-4DB8-B5EF-067896A28E0A}" name="Test Date-Time" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{6B683640-6F4D-4D37-B872-927A078A42E7}" name="Sys/Comp Info" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{F2BE968C-9CCB-4176-862E-EA3DBB1F5265}" name="Severity" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{BC1C5663-AD9C-4AF4-8910-56571D431FB2}" name="EASEY Result Code" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{9BDF95D2-C165-45CF-B4F9-D68DB059FCA4}" name="Fired" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{932FF336-A11E-491C-BA6B-0A86BA9E1B8D}" name="EASEY Result" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{DFD2B33B-3898-4612-A48A-7808C887C1CB}" name="Notes" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{62C0C95E-EBA4-4A37-A7D6-D1C8B2FB1DD6}" name="Command Line Parameters" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{58A7C390-8DB8-4C87-940A-55AE4A3592FC}" name="Location" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{A3FC97A4-B761-48C4-BB4C-19DA9785E4DF}" name="Test Type" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{3A3BD58D-EB20-4F67-8215-8A96EE69C978}" name="Test Number" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{DE80CD30-41D0-4B53-8DE7-4F269F701558}" name="Test Date-Time" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{B86A2D2D-C8EB-483C-BF81-EB9D9F4E66F2}" name="Sys/Comp Info" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{36B980F4-27FC-477D-A50F-623E7E0A94DE}" name="Severity" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{A9D38791-49D7-4EB3-896C-646601058179}" name="EASEY Result Code" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{938968FB-CC01-4403-A09B-C4F6161B5D90}" name="Fired" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{25329D8A-5A94-4418-84D8-82518A7923BD}" name="EASEY Result" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{D60A5A6A-A087-4FC2-96A5-060A26AA48C8}" name="Notes" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{5DE715B2-E8F2-48F0-9DE2-694E23DB23E9}" name="Command Line Parameters" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}" name="Table1" displayName="Table1" ref="A1:J68" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
-  <autoFilter ref="A1:J68" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{4711296A-1683-4D59-9390-9C88803AA68A}" name="Location" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{46A8668E-BFD8-4CE9-8D48-A23DE00E437E}" name="Test Type" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{B7C72E78-CAF2-41A0-B7AC-096EC362072F}" name="Test Number" dataDxfId="63"/>
-    <tableColumn id="10" xr3:uid="{91E3C101-E9B0-405F-84B0-E044FE40F81E}" name="Test Date-Time" dataDxfId="62"/>
-    <tableColumn id="9" xr3:uid="{D57E3F37-9AD6-40C2-8ACB-5192B0E03191}" name="Sys/Comp Info" dataDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{9415854F-BF69-421C-939D-DB4180DF22DE}" name="Severity" dataDxfId="60"/>
-    <tableColumn id="5" xr3:uid="{5AD12D48-C5A2-4105-B479-271121D42D3E}" name="EASEY Result Code" dataDxfId="59"/>
-    <tableColumn id="8" xr3:uid="{FBEFE9F9-E17E-4E0B-8743-7AE06BE9B114}" name="Fired" dataDxfId="58"/>
-    <tableColumn id="6" xr3:uid="{FCE78312-8A7D-4561-B4CC-F676E43829AF}" name="EASEY Result" dataDxfId="57"/>
-    <tableColumn id="7" xr3:uid="{AA4E3A53-68A9-4DF8-87BC-70FB236A6CED}" name="Notes" dataDxfId="56"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{020EA727-A068-4214-96AF-BBB58B4AD2CD}" name="Table12" displayName="Table12" ref="A1:K25" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="27">
+  <autoFilter ref="A1:K25" xr:uid="{020EA727-A068-4214-96AF-BBB58B4AD2CD}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{17B6DF4E-F31D-42AC-A8A3-2F473C2E30F7}" name="Location" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{1A61DB90-0A47-46E7-8836-10B843CF3280}" name="Test Type" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{C31ACC80-9B40-4B96-9E67-1DC0F8B22187}" name="Test Number" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{80D262AE-185A-4DB8-B5EF-067896A28E0A}" name="Test Date-Time" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{6B683640-6F4D-4D37-B872-927A078A42E7}" name="Sys/Comp Info" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{F2BE968C-9CCB-4176-862E-EA3DBB1F5265}" name="Severity" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{BC1C5663-AD9C-4AF4-8910-56571D431FB2}" name="EASEY Result Code" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{9BDF95D2-C165-45CF-B4F9-D68DB059FCA4}" name="Fired" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{932FF336-A11E-491C-BA6B-0A86BA9E1B8D}" name="EASEY Result" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{DFD2B33B-3898-4612-A48A-7808C887C1CB}" name="Notes" dataDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{62C0C95E-EBA4-4A37-A7D6-D1C8B2FB1DD6}" name="Command Line Parameters" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9582,6 +9838,2017 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C84253-C1F3-40A8-BCD6-786B60222E9D}">
+  <dimension ref="A1:J68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1:I1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="66.7109375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="50.28515625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="6">
+        <v>42432.686111111114</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="6">
+        <v>42432.686111111114</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>44145.509027777778</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>44145.509027777778</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>44145.509027777778</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>44145.509027777778</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>44145.509027777778</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6">
+        <v>44145.509027777778</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="6">
+        <v>44145.509027777778</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="6">
+        <v>44145.509027777778</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="6">
+        <v>44145.509027777778</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="6">
+        <v>44145.509027777778</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="6">
+        <v>44145.509027777778</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="6">
+        <v>44145.509027777778</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="6">
+        <v>44145.567361111112</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="6">
+        <v>44145.567361111112</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="6">
+        <v>44145.567361111112</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="6">
+        <v>44145.567361111112</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="6">
+        <v>44242.51666666667</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="6">
+        <v>44242.51666666667</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="6">
+        <v>44242.51666666667</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="6">
+        <v>44242.51666666667</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="6">
+        <v>44242.51666666667</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="6">
+        <v>44242.51666666667</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="6">
+        <v>44242.51666666667</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="6">
+        <v>44242.555555555555</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="6">
+        <v>44242.555555555555</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="6">
+        <v>44242.555555555555</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="6">
+        <v>44242.555555555555</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="6">
+        <v>44242.555555555555</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="6">
+        <v>44242.555555555555</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="6">
+        <v>44242.555555555555</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="6">
+        <v>44242.555555555555</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="6">
+        <v>44242.555555555555</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="6">
+        <v>44354.578472222223</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="6">
+        <v>44354.578472222223</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="6">
+        <v>44354.578472222223</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="6">
+        <v>44354.578472222223</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="6">
+        <v>44354.578472222223</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="6">
+        <v>44354.578472222223</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="6">
+        <v>44354.578472222223</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="6">
+        <v>44361.62222222222</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="6">
+        <v>44361.62222222222</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="6">
+        <v>44361.62222222222</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="6">
+        <v>44361.62222222222</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" s="6">
+        <v>44361.62222222222</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="6">
+        <v>44361.62222222222</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="6">
+        <v>44361.62222222222</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="6">
+        <v>44446.49722222222</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="6">
+        <v>44446.49722222222</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="6">
+        <v>44446.49722222222</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" s="6">
+        <v>44446.49722222222</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" s="6">
+        <v>44446.49722222222</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55" s="6">
+        <v>44446.49722222222</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="6">
+        <v>44453.51666666667</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" s="6">
+        <v>44453.51666666667</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" s="6">
+        <v>44453.51666666667</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" s="6">
+        <v>44453.51666666667</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" s="6">
+        <v>44453.51666666667</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" s="6">
+        <v>44453.51666666667</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62" s="6">
+        <v>44453.474999999999</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D63" s="6">
+        <v>44453.474999999999</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D64" s="6">
+        <v>44453.474999999999</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D65" s="6">
+        <v>44453.474999999999</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D66" s="6">
+        <v>44362.416666666664</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D67" s="6">
+        <v>44362.416666666664</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D68" s="6">
+        <v>44362.416666666664</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC7BF0A-744E-4983-9D44-F2CA7F0BDAB9}">
   <dimension ref="A1:K89"/>
   <sheetViews>
@@ -12203,7 +14470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF247E8-4CEE-4E4C-AA1C-A5F6418303B4}">
   <dimension ref="A1:K581"/>
   <sheetViews>
@@ -30848,7 +33115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB95806-BA08-44E5-BECF-767BC3A79B45}">
   <dimension ref="A1:K91"/>
   <sheetViews>
@@ -49205,10 +51472,880 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F251FFA4-DA4E-420C-9FBD-B96432E43209}">
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="119.5703125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="45.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="97.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D2" s="6">
+        <v>42940.416666666664</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1870</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>1871</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D3" s="6">
+        <v>42940.416666666664</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="D4" s="6">
+        <v>43698.541666666664</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1870</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>1871</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="D5" s="6">
+        <v>43698.541666666664</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D6" s="6">
+        <v>42940.416666666664</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>1878</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>1879</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D7" s="6">
+        <v>42940.416666666664</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D8" s="6">
+        <v>43698.583333333336</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>1882</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>1825</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D9" s="6">
+        <v>43698.583333333336</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1884</v>
+      </c>
+      <c r="D10" s="6">
+        <v>36731.458333333336</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1885</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1884</v>
+      </c>
+      <c r="D11" s="6">
+        <v>36731.458333333336</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1885</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1888</v>
+      </c>
+      <c r="D12" s="6">
+        <v>43698.75</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1885</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>1890</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1888</v>
+      </c>
+      <c r="D13" s="6">
+        <v>43698.75</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1885</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>1892</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>1893</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1888</v>
+      </c>
+      <c r="D14" s="6">
+        <v>43698.75</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1885</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D15" s="6">
+        <v>42940.458333333336</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1895</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>1897</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D16" s="6">
+        <v>42940.458333333336</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>1895</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D17" s="6">
+        <v>43698.625</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1895</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>1901</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D18" s="6">
+        <v>43698.625</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>1895</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D19" s="6">
+        <v>42940.458333333336</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>1904</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>1906</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D20" s="6">
+        <v>42940.458333333336</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>1904</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1908</v>
+      </c>
+      <c r="D21" s="6">
+        <v>43698.625</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>1904</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>1909</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>1910</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1908</v>
+      </c>
+      <c r="D22" s="6">
+        <v>43698.625</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>1904</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="D23" s="6">
+        <v>44470.458333333336</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>1912</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>1917</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>1918</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D24" s="6">
+        <v>43698.625</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>1912</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>1915</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>1800</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D25" s="6">
+        <v>43698.625</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>1912</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D26" s="6">
+        <v>44341.375</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A00A2E-CC49-4E83-9E17-09716099F532}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -50040,2015 +53177,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C84253-C1F3-40A8-BCD6-786B60222E9D}">
-  <dimension ref="A1:J68"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1:I1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="19.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="66.7109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="50.28515625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="6">
-        <v>42432.686111111114</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="6">
-        <v>42432.686111111114</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="6">
-        <v>44145.509027777778</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="6">
-        <v>44145.509027777778</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="6">
-        <v>44145.509027777778</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="6">
-        <v>44145.509027777778</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="6">
-        <v>44145.509027777778</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="6">
-        <v>44145.509027777778</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="6">
-        <v>44145.509027777778</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="6">
-        <v>44145.509027777778</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="6">
-        <v>44145.509027777778</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="6">
-        <v>44145.509027777778</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="6">
-        <v>44145.509027777778</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="6">
-        <v>44145.509027777778</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="6">
-        <v>44145.567361111112</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="6">
-        <v>44145.567361111112</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="6">
-        <v>44145.567361111112</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="6">
-        <v>44145.567361111112</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="6">
-        <v>44242.51666666667</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="6">
-        <v>44242.51666666667</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="6">
-        <v>44242.51666666667</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="6">
-        <v>44242.51666666667</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="6">
-        <v>44242.51666666667</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="6">
-        <v>44242.51666666667</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="6">
-        <v>44242.51666666667</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="6">
-        <v>44242.555555555555</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="6">
-        <v>44242.555555555555</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="6">
-        <v>44242.555555555555</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="6">
-        <v>44242.555555555555</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="6">
-        <v>44242.555555555555</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="6">
-        <v>44242.555555555555</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="6">
-        <v>44242.555555555555</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="6">
-        <v>44242.555555555555</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="6">
-        <v>44242.555555555555</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="6">
-        <v>44354.578472222223</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="6">
-        <v>44354.578472222223</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="6">
-        <v>44354.578472222223</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="6">
-        <v>44354.578472222223</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" s="6">
-        <v>44354.578472222223</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D41" s="6">
-        <v>44354.578472222223</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D42" s="6">
-        <v>44354.578472222223</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D43" s="6">
-        <v>44361.62222222222</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" s="6">
-        <v>44361.62222222222</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="6">
-        <v>44361.62222222222</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D46" s="6">
-        <v>44361.62222222222</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D47" s="6">
-        <v>44361.62222222222</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" s="6">
-        <v>44361.62222222222</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D49" s="6">
-        <v>44361.62222222222</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D50" s="6">
-        <v>44446.49722222222</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D51" s="6">
-        <v>44446.49722222222</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52" s="6">
-        <v>44446.49722222222</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D53" s="6">
-        <v>44446.49722222222</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D54" s="6">
-        <v>44446.49722222222</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D55" s="6">
-        <v>44446.49722222222</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D56" s="6">
-        <v>44453.51666666667</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D57" s="6">
-        <v>44453.51666666667</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D58" s="6">
-        <v>44453.51666666667</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D59" s="6">
-        <v>44453.51666666667</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D60" s="6">
-        <v>44453.51666666667</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D61" s="6">
-        <v>44453.51666666667</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D62" s="6">
-        <v>44453.474999999999</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D63" s="6">
-        <v>44453.474999999999</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D64" s="6">
-        <v>44453.474999999999</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D65" s="6">
-        <v>44453.474999999999</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D66" s="6">
-        <v>44362.416666666664</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D67" s="6">
-        <v>44362.416666666664</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D68" s="6">
-        <v>44362.416666666664</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/misc/Testing Scripts/QA/TestCaseResults.xlsx
+++ b/misc/Testing Scripts/QA/TestCaseResults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\CAMDDevelopment\easey-db-scripts\misc\Testing Scripts\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0E3EA8-7EBF-43F4-A199-A00652BB42FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C339F76-1B1D-4C82-92BB-9D42DA5EC0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{673C86AF-EEEE-433C-9A6E-BD69DDCD2237}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="13" xr2:uid="{673C86AF-EEEE-433C-9A6E-BD69DDCD2237}"/>
   </bookViews>
   <sheets>
     <sheet name="7DAY" sheetId="9" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="ONOFF" sheetId="10" r:id="rId11"/>
     <sheet name="RATA" sheetId="2" r:id="rId12"/>
     <sheet name="UNITDEF" sheetId="5" r:id="rId13"/>
+    <sheet name="TEST Check Type" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12832" uniqueCount="1919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13422" uniqueCount="1990">
   <si>
     <t>ORIS 3 (Barry) Location 5</t>
   </si>
@@ -5809,13 +5810,229 @@
   </si>
   <si>
     <t>A transmitter transducer test with this test number has been previously submitted. You must assign a different test number.</t>
+  </si>
+  <si>
+    <t>201501250645CO2</t>
+  </si>
+  <si>
+    <t>TEST-8-A</t>
+  </si>
+  <si>
+    <t>You did not provide SpanScaleCode, which is required for this test.</t>
+  </si>
+  <si>
+    <t>QAT "TWCORNEL5-F4E3DAADF24B4E1C8F2BEDD2DE59B436" "TWCORNEL5-9987DDF633104765B9AA755E1EA15E90"</t>
+  </si>
+  <si>
+    <t>The software could not evaluate the Zero injection calculations reported for Zero Injection Date 1/25/2015, because of the errors listed above.</t>
+  </si>
+  <si>
+    <t>The software could not evaluate the Zero injection calculations reported for Zero Injection Date 1/26/2015, because of the errors listed above.</t>
+  </si>
+  <si>
+    <t>The software could not evaluate the Zero injection calculations reported for Zero Injection Date 1/27/2015, because of the errors listed above.</t>
+  </si>
+  <si>
+    <t>The software could not evaluate the Zero injection calculations reported for Zero Injection Date 1/28/2015, because of the errors listed above.</t>
+  </si>
+  <si>
+    <t>The software could not evaluate the Zero injection calculations reported for Zero Injection Date 1/29/2015, because of the errors listed above.</t>
+  </si>
+  <si>
+    <t>The software could not evaluate the Zero injection calculations reported for Zero Injection Date 1/30/2015, because of the errors listed above.</t>
+  </si>
+  <si>
+    <t>The software could not evaluate the Zero injection calculations reported for Zero Injection Date 1/31/2015, because of the errors listed above.</t>
+  </si>
+  <si>
+    <t>The software could not evaluate the Upscale injection calculations reported for Zero Injection Date 1/27/2015, because of the errors listed above.</t>
+  </si>
+  <si>
+    <t>The software could not evaluate the Upscale injection calculations reported for Zero Injection Date 1/31/2015, because of the errors listed above.</t>
+  </si>
+  <si>
+    <t>The software could not evaluate the Upscale injection calculations reported for Zero Injection Date 1/30/2015, because of the errors listed above.</t>
+  </si>
+  <si>
+    <t>The software could not evaluate the Upscale injection calculations reported for Zero Injection Date 1/29/2015, because of the errors listed above.</t>
+  </si>
+  <si>
+    <t>The software could not evaluate the Upscale injection calculations reported for Zero Injection Date 1/28/2015, because of the errors listed above.</t>
+  </si>
+  <si>
+    <t>The software could not evaluate the Upscale injection calculations reported for Zero Injection Date 1/25/2015, because of the errors listed above.</t>
+  </si>
+  <si>
+    <t>The software could not evaluate the Upscale injection calculations reported for Zero Injection Date 1/26/2015, because of the errors listed above.</t>
+  </si>
+  <si>
+    <t>NAX (NOX)</t>
+  </si>
+  <si>
+    <t>QAT "TWCORNEL5-F4E3DAADF24B4E1C8F2BEDD2DE59B436" "CHV-LGIANN-30584F105CE4476CB35F1E1BC7DF280E"</t>
+  </si>
+  <si>
+    <t>TEST-9-C</t>
+  </si>
+  <si>
+    <t>The tested component is not part of any monitoring system.</t>
+  </si>
+  <si>
+    <t>20210713113539NOX</t>
+  </si>
+  <si>
+    <t>TEST-1-A</t>
+  </si>
+  <si>
+    <t>You did not provide BeginDate, which is required for this test.</t>
+  </si>
+  <si>
+    <t>QAT "TWCORNEL5-F4E3DAADF24B4E1C8F2BEDD2DE59B436" "TWCORNEL5-C42757B58FA54F92A3A178BB053C2E78"</t>
+  </si>
+  <si>
+    <t>20210713113539SO2</t>
+  </si>
+  <si>
+    <t>TEST-2-B</t>
+  </si>
+  <si>
+    <t>The value 24 in the field BeginHour for this test is not within the range of valid values from 0 to 23.</t>
+  </si>
+  <si>
+    <t>QAT "TWCORNEL5-F4E3DAADF24B4E1C8F2BEDD2DE59B436" "TWCORNEL5-3C64FBE60DAA4767B39FF0C0F24A0E4A"</t>
+  </si>
+  <si>
+    <t>QAT "TWCORNEL5-F4E3DAADF24B4E1C8F2BEDD2DE59B436" "TWCORNEL5-BB24791354734E67B2CBA5BC85A46F12"</t>
+  </si>
+  <si>
+    <t>QAT "TWCORNEL5-F4E3DAADF24B4E1C8F2BEDD2DE59B436" "TWCORNEL5-EBBFBA13973A41A69A9DDD246386BD10"</t>
+  </si>
+  <si>
+    <t>QAT "TWCORNEL5-F4E3DAADF24B4E1C8F2BEDD2DE59B436" "TWCORNEL5-F87E825735454405A0FD60065958452D"</t>
+  </si>
+  <si>
+    <t>FLO (FLOW)</t>
+  </si>
+  <si>
+    <t>QAT "TWCORNEL5-F4E3DAADF24B4E1C8F2BEDD2DE59B436" "TWCORNEL5-F90C099FDA694744AF3C24D64E2A5DE3"</t>
+  </si>
+  <si>
+    <t>TEST-3-C</t>
+  </si>
+  <si>
+    <t>The value 61 in the field BeginMinute for this test is not within the range of valid values from 0 to 59.</t>
+  </si>
+  <si>
+    <t>TEST-5-B</t>
+  </si>
+  <si>
+    <t>The value 24 in the field EndHour for this test is not within the range of valid values from 0 to 23.</t>
+  </si>
+  <si>
+    <t>TEST-6-C</t>
+  </si>
+  <si>
+    <t>The value 61 in the field EndMinute for this test is not within the range of valid values from 0 to 59.</t>
+  </si>
+  <si>
+    <t>LEAK</t>
+  </si>
+  <si>
+    <t>TEST-16-D</t>
+  </si>
+  <si>
+    <t>The SampleAcquisitionMethodCode of the component associated with this test is invalid.  Leak checks are only performed on differential pressure (DP) flow monitors.</t>
+  </si>
+  <si>
+    <t>QAT "TWCORNEL5-488E42008B434177BC7D7BFF138D18EF" "CHV-LGIANN-5CA82B0AA75C42BA832B406B17D752CC"</t>
+  </si>
+  <si>
+    <t>BBB</t>
+  </si>
+  <si>
+    <t>FL1 (FLOW)</t>
+  </si>
+  <si>
+    <t>TEST-17-C</t>
+  </si>
+  <si>
+    <t>You reported the value INITIAL, which is not in the list of valid values for this test type, in the field TestReasonCode for this test.</t>
+  </si>
+  <si>
+    <t>QAT "TWCORNEL5-488E42008B434177BC7D7BFF138D18EF" "CHV-LGIANN-C80ACCC82C0D4F6FB097F190E213831F"</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>XX4 (DAHS)</t>
+  </si>
+  <si>
+    <t>TEST-14-A</t>
+  </si>
+  <si>
+    <t>You did not provide TestDescription, which is required for this test.</t>
+  </si>
+  <si>
+    <t>QAT "TWCORNEL5-488E42008B434177BC7D7BFF138D18EF" "CHV-LGIANN-5A41B20E87C54C42B987817CF8101A5C"</t>
+  </si>
+  <si>
+    <t>TEST-15-A</t>
+  </si>
+  <si>
+    <t>The GracePeriodIndicator is not appropriate for this test type.</t>
+  </si>
+  <si>
+    <t>TEST-23-D</t>
+  </si>
+  <si>
+    <t>An injection protocol is not required for this test type.</t>
+  </si>
+  <si>
+    <t>ORIS 56476 (Gateway Generating Station) Location GT1</t>
+  </si>
+  <si>
+    <t>GT1-VT001</t>
+  </si>
+  <si>
+    <t>004 (GFFM)</t>
+  </si>
+  <si>
+    <t>TEST-18-A</t>
+  </si>
+  <si>
+    <t>QAT "MDC-985E2491326D4848BB4E753FA4AA301E" "LTGO295726-75DCE01EB6B94A32A7FAE2C1CBD9E552"</t>
+  </si>
+  <si>
+    <t>TEST-20-C</t>
+  </si>
+  <si>
+    <t>Missing</t>
+  </si>
+  <si>
+    <t>TEST-22-A</t>
+  </si>
+  <si>
+    <t>A Monitoring Plan associated with this test has critical errors.  You must correct all active and future Monitoring Plans containing the location in this test in order to submit this test to be loaded on EPA's host system.</t>
+  </si>
+  <si>
+    <t>MP Severity Code source view CAMDECMPSWKS VW_MONITOR_PLAN_LOCATION grabs CHECK_SESSION SEVERITY_CODE from the CAMDECMPSAUX schema instead of the CAMDECMPSWKS schema.</t>
+  </si>
+  <si>
+    <t>Failed executing method 'ThrowInvalidOperationException_InvalidOperation_NoValue'.
+Nullable object must have a value.
+   at System.Nullable`1.get_Value()_x000D_
+   at ECMPS.Checks.TestChecks.cPgvpChecks.PGVP4(cCategory category, Boolean&amp; log) in C:\Dev\CAMDDevelopment\easey-quartz-scheduler\CheckEngine\QA\Checks\PgvpChecks.cs:line 319</t>
+  </si>
+  <si>
+    <t>PGVP-4 attempts to convert the BEGIN_DATE but does not expect the date to be null and throws an exception.  The testcase is for TEST-1-A, which fires if the date is null.  This exception occurs for both ECMPS 1.0 and 2.0.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5833,6 +6050,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5899,7 +6123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5946,89 +6170,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="179">
+  <dxfs count="193">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color theme="0"/>
-        </bottom>
-      </border>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -6084,19 +6244,10 @@
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -6380,6 +6531,164 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -6911,259 +7220,279 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5C910FE5-874B-4017-B841-F60367D6DBDE}" name="Table9" displayName="Table9" ref="A1:K73" totalsRowShown="0" headerRowDxfId="178" dataDxfId="176" headerRowBorderDxfId="177">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5C910FE5-874B-4017-B841-F60367D6DBDE}" name="Table9" displayName="Table9" ref="A1:K73" totalsRowShown="0" headerRowDxfId="192" dataDxfId="190" headerRowBorderDxfId="191">
   <autoFilter ref="A1:K73" xr:uid="{5C910FE5-874B-4017-B841-F60367D6DBDE}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{8279D829-3000-4C82-8018-0E78EB4E52ED}" name="Location" dataDxfId="175"/>
-    <tableColumn id="2" xr3:uid="{8C3F4264-2BDD-4183-9522-C40A313B4494}" name="Test Type" dataDxfId="174"/>
-    <tableColumn id="3" xr3:uid="{B0DE5395-DC16-46BB-BC57-85CF8494EEC8}" name="Test Number" dataDxfId="173"/>
-    <tableColumn id="4" xr3:uid="{AFAA091C-FD51-4F17-B61A-9B63F7F60549}" name="Test Date-Time" dataDxfId="172"/>
-    <tableColumn id="5" xr3:uid="{9510359E-2D55-43AD-8BD2-3BEAD6C916CF}" name="Sys/Comp Info" dataDxfId="171"/>
-    <tableColumn id="6" xr3:uid="{AECAE78C-1669-4150-9D54-CF24FB46FB2C}" name="Severity" dataDxfId="170"/>
-    <tableColumn id="7" xr3:uid="{60F04430-453C-4689-B258-ECBB97164B62}" name="EASEY Result Code" dataDxfId="169"/>
-    <tableColumn id="8" xr3:uid="{48BBCC17-5C80-41DD-9F75-59C2F34B310D}" name="Fired" dataDxfId="168"/>
-    <tableColumn id="9" xr3:uid="{B8B66FF4-909C-4ADC-8A89-2420561A8BC8}" name="EASEY Result" dataDxfId="167"/>
-    <tableColumn id="10" xr3:uid="{502F8369-E6BA-4168-9FB1-BDCCFE48BA95}" name="Notes" dataDxfId="166"/>
-    <tableColumn id="11" xr3:uid="{1BA34216-1816-4C5B-91A2-0F623ECC08A9}" name="Command Line Parameters" dataDxfId="165"/>
+    <tableColumn id="1" xr3:uid="{8279D829-3000-4C82-8018-0E78EB4E52ED}" name="Location" dataDxfId="189"/>
+    <tableColumn id="2" xr3:uid="{8C3F4264-2BDD-4183-9522-C40A313B4494}" name="Test Type" dataDxfId="188"/>
+    <tableColumn id="3" xr3:uid="{B0DE5395-DC16-46BB-BC57-85CF8494EEC8}" name="Test Number" dataDxfId="187"/>
+    <tableColumn id="4" xr3:uid="{AFAA091C-FD51-4F17-B61A-9B63F7F60549}" name="Test Date-Time" dataDxfId="186"/>
+    <tableColumn id="5" xr3:uid="{9510359E-2D55-43AD-8BD2-3BEAD6C916CF}" name="Sys/Comp Info" dataDxfId="185"/>
+    <tableColumn id="6" xr3:uid="{AECAE78C-1669-4150-9D54-CF24FB46FB2C}" name="Severity" dataDxfId="184"/>
+    <tableColumn id="7" xr3:uid="{60F04430-453C-4689-B258-ECBB97164B62}" name="EASEY Result Code" dataDxfId="183"/>
+    <tableColumn id="8" xr3:uid="{48BBCC17-5C80-41DD-9F75-59C2F34B310D}" name="Fired" dataDxfId="182"/>
+    <tableColumn id="9" xr3:uid="{B8B66FF4-909C-4ADC-8A89-2420561A8BC8}" name="EASEY Result" dataDxfId="181"/>
+    <tableColumn id="10" xr3:uid="{502F8369-E6BA-4168-9FB1-BDCCFE48BA95}" name="Notes" dataDxfId="180"/>
+    <tableColumn id="11" xr3:uid="{1BA34216-1816-4C5B-91A2-0F623ECC08A9}" name="Command Line Parameters" dataDxfId="179"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}" name="Table1" displayName="Table1" ref="A1:J68" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}" name="Table1" displayName="Table1" ref="A1:J68" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
   <autoFilter ref="A1:J68" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{4711296A-1683-4D59-9390-9C88803AA68A}" name="Location" dataDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{46A8668E-BFD8-4CE9-8D48-A23DE00E437E}" name="Test Type" dataDxfId="78"/>
-    <tableColumn id="3" xr3:uid="{B7C72E78-CAF2-41A0-B7AC-096EC362072F}" name="Test Number" dataDxfId="77"/>
-    <tableColumn id="10" xr3:uid="{91E3C101-E9B0-405F-84B0-E044FE40F81E}" name="Test Date-Time" dataDxfId="76"/>
-    <tableColumn id="9" xr3:uid="{D57E3F37-9AD6-40C2-8ACB-5192B0E03191}" name="Sys/Comp Info" dataDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{9415854F-BF69-421C-939D-DB4180DF22DE}" name="Severity" dataDxfId="74"/>
-    <tableColumn id="5" xr3:uid="{5AD12D48-C5A2-4105-B479-271121D42D3E}" name="EASEY Result Code" dataDxfId="73"/>
-    <tableColumn id="8" xr3:uid="{FBEFE9F9-E17E-4E0B-8743-7AE06BE9B114}" name="Fired" dataDxfId="72"/>
-    <tableColumn id="6" xr3:uid="{FCE78312-8A7D-4561-B4CC-F676E43829AF}" name="EASEY Result" dataDxfId="71"/>
-    <tableColumn id="7" xr3:uid="{AA4E3A53-68A9-4DF8-87BC-70FB236A6CED}" name="Notes" dataDxfId="70"/>
+    <tableColumn id="1" xr3:uid="{4711296A-1683-4D59-9390-9C88803AA68A}" name="Location" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{46A8668E-BFD8-4CE9-8D48-A23DE00E437E}" name="Test Type" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{B7C72E78-CAF2-41A0-B7AC-096EC362072F}" name="Test Number" dataDxfId="63"/>
+    <tableColumn id="10" xr3:uid="{91E3C101-E9B0-405F-84B0-E044FE40F81E}" name="Test Date-Time" dataDxfId="62"/>
+    <tableColumn id="9" xr3:uid="{D57E3F37-9AD6-40C2-8ACB-5192B0E03191}" name="Sys/Comp Info" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{9415854F-BF69-421C-939D-DB4180DF22DE}" name="Severity" dataDxfId="60"/>
+    <tableColumn id="5" xr3:uid="{5AD12D48-C5A2-4105-B479-271121D42D3E}" name="EASEY Result Code" dataDxfId="59"/>
+    <tableColumn id="8" xr3:uid="{FBEFE9F9-E17E-4E0B-8743-7AE06BE9B114}" name="Fired" dataDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{FCE78312-8A7D-4561-B4CC-F676E43829AF}" name="EASEY Result" dataDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{AA4E3A53-68A9-4DF8-87BC-70FB236A6CED}" name="Notes" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4A33A717-7F36-46E9-B108-57CE91FC9965}" name="Table10" displayName="Table10" ref="A1:K89" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4A33A717-7F36-46E9-B108-57CE91FC9965}" name="Table10" displayName="Table10" ref="A1:K89" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54">
   <autoFilter ref="A1:K89" xr:uid="{4A33A717-7F36-46E9-B108-57CE91FC9965}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{CDEE6302-915F-4B8B-8931-C82E789BFD68}" name="Location" dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{82F96464-31C7-41F4-99E4-F836EB4804AE}" name="Test Type" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{9A3AD922-1B43-4401-9D08-A69565CBC240}" name="Test Number" dataDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{153B2B1E-9F8A-40A0-9FC6-F154FA69A06D}" name="Test Date-Time" dataDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{EB537EEB-DEA8-4166-A050-FFBFD68D1416}" name="Sys/Comp Info" dataDxfId="62"/>
-    <tableColumn id="6" xr3:uid="{E0692378-248B-472C-9ADE-6DC4C40CE31D}" name="Severity" dataDxfId="61"/>
-    <tableColumn id="7" xr3:uid="{D0B08289-03B0-4D7E-B475-69D81994C3D6}" name="EASEY Result Code" dataDxfId="60"/>
-    <tableColumn id="8" xr3:uid="{8A5BC497-E14C-4A60-9721-3754AC8FBB86}" name="Fired" dataDxfId="59"/>
-    <tableColumn id="9" xr3:uid="{D4027939-C285-4B69-8FE1-5C89204292B8}" name="EASEY Result" dataDxfId="58"/>
-    <tableColumn id="10" xr3:uid="{CAD9076A-ADA1-4DB7-B052-FB52970BED12}" name="Notes" dataDxfId="57"/>
-    <tableColumn id="11" xr3:uid="{F61AE4C4-8B02-46C3-94D5-1DAA82EE83BE}" name="Command Line Parameters" dataDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{CDEE6302-915F-4B8B-8931-C82E789BFD68}" name="Location" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{82F96464-31C7-41F4-99E4-F836EB4804AE}" name="Test Type" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{9A3AD922-1B43-4401-9D08-A69565CBC240}" name="Test Number" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{153B2B1E-9F8A-40A0-9FC6-F154FA69A06D}" name="Test Date-Time" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{EB537EEB-DEA8-4166-A050-FFBFD68D1416}" name="Sys/Comp Info" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{E0692378-248B-472C-9ADE-6DC4C40CE31D}" name="Severity" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{D0B08289-03B0-4D7E-B475-69D81994C3D6}" name="EASEY Result Code" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{8A5BC497-E14C-4A60-9721-3754AC8FBB86}" name="Fired" dataDxfId="45"/>
+    <tableColumn id="9" xr3:uid="{D4027939-C285-4B69-8FE1-5C89204292B8}" name="EASEY Result" dataDxfId="44"/>
+    <tableColumn id="10" xr3:uid="{CAD9076A-ADA1-4DB7-B052-FB52970BED12}" name="Notes" dataDxfId="43"/>
+    <tableColumn id="11" xr3:uid="{F61AE4C4-8B02-46C3-94D5-1DAA82EE83BE}" name="Command Line Parameters" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}" name="Table2" displayName="Table2" ref="A1:K581" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}" name="Table2" displayName="Table2" ref="A1:K581" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40">
   <autoFilter ref="A1:K581" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{2F62CB62-9049-497E-ADC7-F9F96C31FD57}" name="Location" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{4B11ACA0-FDC6-44CA-8A6F-3F08C4CFA5F1}" name="Test Type" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{C41F1DAE-8DC9-48E1-917C-258A6C1E96C9}" name="Test Number" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{EC0CA150-1F20-45D9-9C39-AFA9123777F4}" name="Test Date-Time" dataDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{33FF74A1-9DCC-4D3A-B0C5-64E9380F879C}" name="Sys/Comp Info" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{22A99E8A-A5B5-4CBC-B53D-C1D9D2C5AE1B}" name="Severity" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{029739E6-4C78-4E2E-A09D-8C3FA73D2041}" name="EASEY Result Code" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{5D0E993C-1382-48E9-AA45-BE7DC3BA96AF}" name="Fired" dataDxfId="45"/>
-    <tableColumn id="9" xr3:uid="{F1CFA0F6-70F7-4594-B088-F1D73717D454}" name="EASEY Result" dataDxfId="44"/>
-    <tableColumn id="10" xr3:uid="{40B0439D-9986-4626-9FF3-B32AE7B5EA33}" name="Notes" dataDxfId="43"/>
-    <tableColumn id="11" xr3:uid="{FF29FE95-83D5-44D1-A98E-E38DE83D7BC7}" name="Command Line Parameters" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{2F62CB62-9049-497E-ADC7-F9F96C31FD57}" name="Location" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{4B11ACA0-FDC6-44CA-8A6F-3F08C4CFA5F1}" name="Test Type" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{C41F1DAE-8DC9-48E1-917C-258A6C1E96C9}" name="Test Number" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{EC0CA150-1F20-45D9-9C39-AFA9123777F4}" name="Test Date-Time" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{33FF74A1-9DCC-4D3A-B0C5-64E9380F879C}" name="Sys/Comp Info" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{22A99E8A-A5B5-4CBC-B53D-C1D9D2C5AE1B}" name="Severity" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{029739E6-4C78-4E2E-A09D-8C3FA73D2041}" name="EASEY Result Code" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{5D0E993C-1382-48E9-AA45-BE7DC3BA96AF}" name="Fired" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{F1CFA0F6-70F7-4594-B088-F1D73717D454}" name="EASEY Result" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{40B0439D-9986-4626-9FF3-B32AE7B5EA33}" name="Notes" dataDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{FF29FE95-83D5-44D1-A98E-E38DE83D7BC7}" name="Command Line Parameters" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{72A5AA74-4364-4117-8778-356FF8C70282}" name="Table5" displayName="Table5" ref="A1:K91" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{72A5AA74-4364-4117-8778-356FF8C70282}" name="Table5" displayName="Table5" ref="A1:K91" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26">
   <autoFilter ref="A1:K91" xr:uid="{72A5AA74-4364-4117-8778-356FF8C70282}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{B5B471E1-992B-4560-9AE9-3A0B01F9D400}" name="Location" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{1012AED6-A79C-434D-9EFD-BC07FE87995E}" name="Test Type" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{B5631442-9C30-47B5-9E8F-98D77DB400BF}" name="Test Number" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{960A60B0-A29E-44B1-B36A-03ABF8C9387B}" name="Test Date-Time" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{33F281F6-219B-4E02-9434-6B6D946A98E0}" name="Sys/Comp Info" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{E798D1DA-91F4-4F85-BC08-C953E40455E6}" name="Severity" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{D1264FDF-B29D-4FEE-92C2-AB98523233CD}" name="EASEY Result Code" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{C745552B-9704-4998-BE61-D3A91601E678}" name="Fired" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{C834180C-E3EF-4150-9616-ACEC523C5385}" name="EASEY Result" dataDxfId="30"/>
-    <tableColumn id="10" xr3:uid="{3ABD6028-9668-4A63-AEC5-1740A232405E}" name="Notes" dataDxfId="29"/>
-    <tableColumn id="11" xr3:uid="{9F9E58E8-A77F-4D89-A441-47366556DBC4}" name="Command Line Parameters" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{B5B471E1-992B-4560-9AE9-3A0B01F9D400}" name="Location" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{1012AED6-A79C-434D-9EFD-BC07FE87995E}" name="Test Type" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{B5631442-9C30-47B5-9E8F-98D77DB400BF}" name="Test Number" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{960A60B0-A29E-44B1-B36A-03ABF8C9387B}" name="Test Date-Time" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{33F281F6-219B-4E02-9434-6B6D946A98E0}" name="Sys/Comp Info" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{E798D1DA-91F4-4F85-BC08-C953E40455E6}" name="Severity" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{D1264FDF-B29D-4FEE-92C2-AB98523233CD}" name="EASEY Result Code" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{C745552B-9704-4998-BE61-D3A91601E678}" name="Fired" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{C834180C-E3EF-4150-9616-ACEC523C5385}" name="EASEY Result" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{3ABD6028-9668-4A63-AEC5-1740A232405E}" name="Notes" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{9F9E58E8-A77F-4D89-A441-47366556DBC4}" name="Command Line Parameters" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{4A6B4518-3730-4EDB-8118-7FC685E54D4D}" name="Table14" displayName="Table14" ref="A1:K65" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="13">
+  <autoFilter ref="A1:K65" xr:uid="{4A6B4518-3730-4EDB-8118-7FC685E54D4D}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{688BE455-22E7-460C-AEB8-77FED1C57AE3}" name="Location" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{20C8F268-F0DA-4C4B-85CC-9675F4020B20}" name="Test Type" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{54552E71-F736-4EBF-B675-B592F1FEB306}" name="Test Number" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{AE42C9A1-5DFB-4CAB-8EF8-07F76F7C7F72}" name="Test Date-Time" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{59716E11-5EC0-4CF7-9C60-46F006BF4A88}" name="Sys/Comp Info" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{C2858AAF-8CC6-49B5-8987-6A43E1C7AE69}" name="Severity" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{A0BA8D72-C986-43E0-A3BB-DFA920174AFC}" name="EASEY Result Code" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{39E9C69F-1E34-4D36-B7C3-F2D6A86BBD74}" name="Fired" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{ACAE356B-0C07-4041-B1FC-2027B441EF49}" name="EASEY Result" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{356D670A-5642-493A-B84F-2CC68F64CC3B}" name="Notes" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{B4F1D6ED-902F-4D6E-967E-05C2040CB5E8}" name="Command Line Parameters" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6E75B64B-AA6D-476A-8302-BF96D5E7E810}" name="Table6" displayName="Table6" ref="A1:K319" totalsRowShown="0" headerRowDxfId="164" dataDxfId="162" headerRowBorderDxfId="163">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6E75B64B-AA6D-476A-8302-BF96D5E7E810}" name="Table6" displayName="Table6" ref="A1:K319" totalsRowShown="0" headerRowDxfId="178" dataDxfId="176" headerRowBorderDxfId="177">
   <autoFilter ref="A1:K319" xr:uid="{6E75B64B-AA6D-476A-8302-BF96D5E7E810}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{DABC54ED-3C28-4B3B-8594-CAA471D265D5}" name="Location" dataDxfId="161"/>
-    <tableColumn id="2" xr3:uid="{F8AEE93E-FDE2-46D7-B1A7-244178C2F820}" name="Test Type" dataDxfId="160"/>
-    <tableColumn id="3" xr3:uid="{8C6E04D8-89F2-453E-9922-8A0AF53CB692}" name="Test Number" dataDxfId="159"/>
-    <tableColumn id="4" xr3:uid="{2B43C86D-8143-4360-87FC-99396C0E304F}" name="Test Date-Time" dataDxfId="158"/>
-    <tableColumn id="5" xr3:uid="{E75FB52D-EC10-43F0-8D77-68CDEA14235D}" name="Sys/Comp Info" dataDxfId="157"/>
-    <tableColumn id="6" xr3:uid="{E6D41DD1-2DAC-4262-AA16-1D46CE14D100}" name="Severity" dataDxfId="156"/>
-    <tableColumn id="7" xr3:uid="{E4B7FCA0-0453-4D46-AF2D-5FCB94154788}" name="EASEY Result Code" dataDxfId="155"/>
-    <tableColumn id="8" xr3:uid="{1C5C127B-0EC6-40C8-9F7F-CDFFB95E2B9C}" name="Fired" dataDxfId="154"/>
-    <tableColumn id="9" xr3:uid="{E4D52144-8081-4E9C-9216-F2B3E7D99696}" name="EASEY Result" dataDxfId="153"/>
-    <tableColumn id="10" xr3:uid="{1B8F57B6-0961-4DCE-A9BB-77E44380F12A}" name="Notes" dataDxfId="152"/>
-    <tableColumn id="11" xr3:uid="{8C749E78-19F9-4D93-A1EC-56160203A547}" name="Command Line Parameters" dataDxfId="151"/>
+    <tableColumn id="1" xr3:uid="{DABC54ED-3C28-4B3B-8594-CAA471D265D5}" name="Location" dataDxfId="175"/>
+    <tableColumn id="2" xr3:uid="{F8AEE93E-FDE2-46D7-B1A7-244178C2F820}" name="Test Type" dataDxfId="174"/>
+    <tableColumn id="3" xr3:uid="{8C6E04D8-89F2-453E-9922-8A0AF53CB692}" name="Test Number" dataDxfId="173"/>
+    <tableColumn id="4" xr3:uid="{2B43C86D-8143-4360-87FC-99396C0E304F}" name="Test Date-Time" dataDxfId="172"/>
+    <tableColumn id="5" xr3:uid="{E75FB52D-EC10-43F0-8D77-68CDEA14235D}" name="Sys/Comp Info" dataDxfId="171"/>
+    <tableColumn id="6" xr3:uid="{E6D41DD1-2DAC-4262-AA16-1D46CE14D100}" name="Severity" dataDxfId="170"/>
+    <tableColumn id="7" xr3:uid="{E4B7FCA0-0453-4D46-AF2D-5FCB94154788}" name="EASEY Result Code" dataDxfId="169"/>
+    <tableColumn id="8" xr3:uid="{1C5C127B-0EC6-40C8-9F7F-CDFFB95E2B9C}" name="Fired" dataDxfId="168"/>
+    <tableColumn id="9" xr3:uid="{E4D52144-8081-4E9C-9216-F2B3E7D99696}" name="EASEY Result" dataDxfId="167"/>
+    <tableColumn id="10" xr3:uid="{1B8F57B6-0961-4DCE-A9BB-77E44380F12A}" name="Notes" dataDxfId="166"/>
+    <tableColumn id="11" xr3:uid="{8C749E78-19F9-4D93-A1EC-56160203A547}" name="Command Line Parameters" dataDxfId="165"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{D2B13800-7296-41BF-B284-AE9E33207A74}" name="Table11" displayName="Table11" ref="A1:K43" totalsRowShown="0" headerRowDxfId="150" dataDxfId="148" headerRowBorderDxfId="149">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{D2B13800-7296-41BF-B284-AE9E33207A74}" name="Table11" displayName="Table11" ref="A1:K43" totalsRowShown="0" headerRowDxfId="164" dataDxfId="162" headerRowBorderDxfId="163">
   <autoFilter ref="A1:K43" xr:uid="{D2B13800-7296-41BF-B284-AE9E33207A74}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{5C4086A6-D708-4595-83D3-C24973FA7493}" name="Location" dataDxfId="147"/>
-    <tableColumn id="2" xr3:uid="{85418BD6-CBE3-465C-ABAB-216BDDDEC4AB}" name="Test Type" dataDxfId="146"/>
-    <tableColumn id="3" xr3:uid="{4A0464F8-B583-4C14-9868-15E3FED2D126}" name="Test Number" dataDxfId="145"/>
-    <tableColumn id="4" xr3:uid="{78C8BC19-497D-4CBB-B37C-A591E348A8F4}" name="Test Date-Time" dataDxfId="144"/>
-    <tableColumn id="5" xr3:uid="{1264561D-36B6-4A3C-959A-9E394716E8C7}" name="Sys/Comp Info" dataDxfId="143"/>
-    <tableColumn id="6" xr3:uid="{DD999D52-F401-4681-95E1-7CD8BFBB9B5E}" name="Severity" dataDxfId="142"/>
-    <tableColumn id="7" xr3:uid="{579ED199-5C6A-417A-ADFB-6972029F68D6}" name="EASEY Result Code" dataDxfId="141"/>
-    <tableColumn id="8" xr3:uid="{702EEAA3-DA01-410C-BE7A-D14CFC877E75}" name="Fired" dataDxfId="140"/>
-    <tableColumn id="9" xr3:uid="{DD383C11-E19A-499D-859A-528E10686FA7}" name="EASEY Result" dataDxfId="139"/>
-    <tableColumn id="10" xr3:uid="{C65DEB63-1D14-4EFD-B04E-24DDAC666CD7}" name="Notes" dataDxfId="138"/>
-    <tableColumn id="11" xr3:uid="{F16CC94C-3B79-491F-8B14-14C31351265C}" name="Command Line Parameters" dataDxfId="137"/>
+    <tableColumn id="1" xr3:uid="{5C4086A6-D708-4595-83D3-C24973FA7493}" name="Location" dataDxfId="161"/>
+    <tableColumn id="2" xr3:uid="{85418BD6-CBE3-465C-ABAB-216BDDDEC4AB}" name="Test Type" dataDxfId="160"/>
+    <tableColumn id="3" xr3:uid="{4A0464F8-B583-4C14-9868-15E3FED2D126}" name="Test Number" dataDxfId="159"/>
+    <tableColumn id="4" xr3:uid="{78C8BC19-497D-4CBB-B37C-A591E348A8F4}" name="Test Date-Time" dataDxfId="158"/>
+    <tableColumn id="5" xr3:uid="{1264561D-36B6-4A3C-959A-9E394716E8C7}" name="Sys/Comp Info" dataDxfId="157"/>
+    <tableColumn id="6" xr3:uid="{DD999D52-F401-4681-95E1-7CD8BFBB9B5E}" name="Severity" dataDxfId="156"/>
+    <tableColumn id="7" xr3:uid="{579ED199-5C6A-417A-ADFB-6972029F68D6}" name="EASEY Result Code" dataDxfId="155"/>
+    <tableColumn id="8" xr3:uid="{702EEAA3-DA01-410C-BE7A-D14CFC877E75}" name="Fired" dataDxfId="154"/>
+    <tableColumn id="9" xr3:uid="{DD383C11-E19A-499D-859A-528E10686FA7}" name="EASEY Result" dataDxfId="153"/>
+    <tableColumn id="10" xr3:uid="{C65DEB63-1D14-4EFD-B04E-24DDAC666CD7}" name="Notes" dataDxfId="152"/>
+    <tableColumn id="11" xr3:uid="{F16CC94C-3B79-491F-8B14-14C31351265C}" name="Command Line Parameters" dataDxfId="151"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{643FA4C3-7226-4FC1-A77A-D6CF46B7DE06}" name="Table7" displayName="Table7" ref="A1:K33" totalsRowShown="0" headerRowDxfId="136" dataDxfId="134" headerRowBorderDxfId="135">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{643FA4C3-7226-4FC1-A77A-D6CF46B7DE06}" name="Table7" displayName="Table7" ref="A1:K33" totalsRowShown="0" headerRowDxfId="150" dataDxfId="148" headerRowBorderDxfId="149">
   <autoFilter ref="A1:K33" xr:uid="{643FA4C3-7226-4FC1-A77A-D6CF46B7DE06}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{6A1DC097-B550-4298-811F-BB553C8A78B7}" name="Location" dataDxfId="133"/>
-    <tableColumn id="2" xr3:uid="{B0B911C5-C9AF-4D6B-9A8E-E4524ABB1455}" name="Test Type" dataDxfId="132"/>
-    <tableColumn id="3" xr3:uid="{7C46186D-C3D8-4F3A-A359-DBEC33D11A32}" name="Test Number" dataDxfId="131"/>
-    <tableColumn id="4" xr3:uid="{B77DADA4-D1C0-49A5-8941-BF36C2738914}" name="Test Date-Time" dataDxfId="130"/>
-    <tableColumn id="5" xr3:uid="{94D2842C-7497-4826-BFDF-64C1F4930DC7}" name="Sys/Comp Info" dataDxfId="129"/>
-    <tableColumn id="6" xr3:uid="{18E0026A-3AB3-4471-BB8D-F86CD1FCACB2}" name="Severity" dataDxfId="128"/>
-    <tableColumn id="7" xr3:uid="{64F844FE-3B1B-48BD-BFA3-F73DD8F6BAE7}" name="EASEY Result Code" dataDxfId="127"/>
-    <tableColumn id="8" xr3:uid="{0A777F6A-C367-4D68-80DC-BE82994A6C9C}" name="Fired" dataDxfId="126"/>
-    <tableColumn id="9" xr3:uid="{58E8A6A7-2EB9-4636-98D8-915BAA276364}" name="EASEY Result" dataDxfId="125"/>
-    <tableColumn id="10" xr3:uid="{8E16DEBD-9C74-43B0-A1EC-12CF584BC57D}" name="Notes" dataDxfId="124"/>
-    <tableColumn id="11" xr3:uid="{7AE3F542-B6CD-45CB-99F0-47DDE95004F7}" name="Command Line Parameters" dataDxfId="123"/>
+    <tableColumn id="1" xr3:uid="{6A1DC097-B550-4298-811F-BB553C8A78B7}" name="Location" dataDxfId="147"/>
+    <tableColumn id="2" xr3:uid="{B0B911C5-C9AF-4D6B-9A8E-E4524ABB1455}" name="Test Type" dataDxfId="146"/>
+    <tableColumn id="3" xr3:uid="{7C46186D-C3D8-4F3A-A359-DBEC33D11A32}" name="Test Number" dataDxfId="145"/>
+    <tableColumn id="4" xr3:uid="{B77DADA4-D1C0-49A5-8941-BF36C2738914}" name="Test Date-Time" dataDxfId="144"/>
+    <tableColumn id="5" xr3:uid="{94D2842C-7497-4826-BFDF-64C1F4930DC7}" name="Sys/Comp Info" dataDxfId="143"/>
+    <tableColumn id="6" xr3:uid="{18E0026A-3AB3-4471-BB8D-F86CD1FCACB2}" name="Severity" dataDxfId="142"/>
+    <tableColumn id="7" xr3:uid="{64F844FE-3B1B-48BD-BFA3-F73DD8F6BAE7}" name="EASEY Result Code" dataDxfId="141"/>
+    <tableColumn id="8" xr3:uid="{0A777F6A-C367-4D68-80DC-BE82994A6C9C}" name="Fired" dataDxfId="140"/>
+    <tableColumn id="9" xr3:uid="{58E8A6A7-2EB9-4636-98D8-915BAA276364}" name="EASEY Result" dataDxfId="139"/>
+    <tableColumn id="10" xr3:uid="{8E16DEBD-9C74-43B0-A1EC-12CF584BC57D}" name="Notes" dataDxfId="138"/>
+    <tableColumn id="11" xr3:uid="{7AE3F542-B6CD-45CB-99F0-47DDE95004F7}" name="Command Line Parameters" dataDxfId="137"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E4484FF7-4E72-42BE-B673-2211F40DBEC5}" name="Table8" displayName="Table8" ref="A1:K28" totalsRowShown="0" headerRowDxfId="122" headerRowBorderDxfId="121">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E4484FF7-4E72-42BE-B673-2211F40DBEC5}" name="Table8" displayName="Table8" ref="A1:K28" totalsRowShown="0" headerRowDxfId="136" headerRowBorderDxfId="135">
   <autoFilter ref="A1:K28" xr:uid="{E4484FF7-4E72-42BE-B673-2211F40DBEC5}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{BCDEC250-D556-489B-A8C0-F3C0B749EE85}" name="Location" dataDxfId="120"/>
-    <tableColumn id="2" xr3:uid="{27845E29-DF76-4FC1-8B99-E6D05BC504AB}" name="Test Type" dataDxfId="119"/>
-    <tableColumn id="3" xr3:uid="{88E8B5E9-3A4F-487A-A1FD-2F8825130F6C}" name="Test Number" dataDxfId="118"/>
-    <tableColumn id="4" xr3:uid="{96597CE9-7403-4439-ACB1-4DB48A5AE831}" name="Test Date-Time" dataDxfId="117"/>
-    <tableColumn id="5" xr3:uid="{67D38623-BE59-4D0E-966A-D900405266E4}" name="Sys/Comp Info" dataDxfId="116"/>
-    <tableColumn id="6" xr3:uid="{4480DA93-63BE-46D7-9C44-A62CF4C30DB9}" name="Severity" dataDxfId="115"/>
-    <tableColumn id="7" xr3:uid="{4DE029FD-1894-4C16-A49E-7205888520D7}" name="EASEY Result Code" dataDxfId="114"/>
-    <tableColumn id="8" xr3:uid="{38E45A86-E2E8-436C-83B0-1DC52A25A389}" name="Fired" dataDxfId="113"/>
-    <tableColumn id="9" xr3:uid="{D0FCA1F1-B5E4-4F39-8570-3FDAAFD8C655}" name="EASEY Result" dataDxfId="112"/>
-    <tableColumn id="10" xr3:uid="{8FFB2F06-8DA3-4256-9B20-894A86F3CAB1}" name="Notes" dataDxfId="111"/>
-    <tableColumn id="11" xr3:uid="{0A82F04A-4DC9-465C-ACBF-8A9107DE5BF9}" name="Command Line Parameters" dataDxfId="110"/>
+    <tableColumn id="1" xr3:uid="{BCDEC250-D556-489B-A8C0-F3C0B749EE85}" name="Location" dataDxfId="134"/>
+    <tableColumn id="2" xr3:uid="{27845E29-DF76-4FC1-8B99-E6D05BC504AB}" name="Test Type" dataDxfId="133"/>
+    <tableColumn id="3" xr3:uid="{88E8B5E9-3A4F-487A-A1FD-2F8825130F6C}" name="Test Number" dataDxfId="132"/>
+    <tableColumn id="4" xr3:uid="{96597CE9-7403-4439-ACB1-4DB48A5AE831}" name="Test Date-Time" dataDxfId="131"/>
+    <tableColumn id="5" xr3:uid="{67D38623-BE59-4D0E-966A-D900405266E4}" name="Sys/Comp Info" dataDxfId="130"/>
+    <tableColumn id="6" xr3:uid="{4480DA93-63BE-46D7-9C44-A62CF4C30DB9}" name="Severity" dataDxfId="129"/>
+    <tableColumn id="7" xr3:uid="{4DE029FD-1894-4C16-A49E-7205888520D7}" name="EASEY Result Code" dataDxfId="128"/>
+    <tableColumn id="8" xr3:uid="{38E45A86-E2E8-436C-83B0-1DC52A25A389}" name="Fired" dataDxfId="127"/>
+    <tableColumn id="9" xr3:uid="{D0FCA1F1-B5E4-4F39-8570-3FDAAFD8C655}" name="EASEY Result" dataDxfId="126"/>
+    <tableColumn id="10" xr3:uid="{8FFB2F06-8DA3-4256-9B20-894A86F3CAB1}" name="Notes" dataDxfId="125"/>
+    <tableColumn id="11" xr3:uid="{0A82F04A-4DC9-465C-ACBF-8A9107DE5BF9}" name="Command Line Parameters" dataDxfId="124"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C4E4C8FF-D2BC-4023-A7E2-4F0FE1340DDB}" name="Table4" displayName="Table4" ref="A1:K44" totalsRowShown="0" headerRowDxfId="109" dataDxfId="107" headerRowBorderDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C4E4C8FF-D2BC-4023-A7E2-4F0FE1340DDB}" name="Table4" displayName="Table4" ref="A1:K44" totalsRowShown="0" headerRowDxfId="123" dataDxfId="121" headerRowBorderDxfId="122">
   <autoFilter ref="A1:K44" xr:uid="{C4E4C8FF-D2BC-4023-A7E2-4F0FE1340DDB}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{25672079-CDA0-4D8B-8CF3-D545B2ACD419}" name="Location" dataDxfId="106"/>
-    <tableColumn id="2" xr3:uid="{5279C203-946F-4765-ABB9-8C81921C2DC3}" name="Test Type" dataDxfId="105"/>
-    <tableColumn id="3" xr3:uid="{11DE1298-C62C-4C4B-9989-25AA10EF10C0}" name="Test Number" dataDxfId="104"/>
-    <tableColumn id="4" xr3:uid="{2A458B2D-9FF3-4418-9FD6-DF0766209CB5}" name="Test Date-Time" dataDxfId="103"/>
-    <tableColumn id="5" xr3:uid="{60E36B10-857E-4482-B035-790F74DBDB33}" name="Sys/Comp Info" dataDxfId="102"/>
-    <tableColumn id="6" xr3:uid="{2E26423A-D6BE-4410-8F61-F74A3CED15B8}" name="Severity" dataDxfId="101"/>
-    <tableColumn id="7" xr3:uid="{20497C37-19CA-4417-AC58-9CBBEB217149}" name="EASEY Result Code" dataDxfId="100"/>
-    <tableColumn id="8" xr3:uid="{B51DBED3-688D-4748-9F71-406904878E83}" name="Fired" dataDxfId="99"/>
-    <tableColumn id="9" xr3:uid="{55BF46DF-A688-44E7-9212-0315C9101E05}" name="EASEY Result" dataDxfId="98"/>
-    <tableColumn id="10" xr3:uid="{A4FC5CC8-E769-426F-AEEE-D8BDE3AAE1AB}" name="Notes" dataDxfId="97"/>
-    <tableColumn id="11" xr3:uid="{E7F09088-0589-40C2-8067-9D1FE0896663}" name="Command Line Parameters" dataDxfId="96"/>
+    <tableColumn id="1" xr3:uid="{25672079-CDA0-4D8B-8CF3-D545B2ACD419}" name="Location" dataDxfId="120"/>
+    <tableColumn id="2" xr3:uid="{5279C203-946F-4765-ABB9-8C81921C2DC3}" name="Test Type" dataDxfId="119"/>
+    <tableColumn id="3" xr3:uid="{11DE1298-C62C-4C4B-9989-25AA10EF10C0}" name="Test Number" dataDxfId="118"/>
+    <tableColumn id="4" xr3:uid="{2A458B2D-9FF3-4418-9FD6-DF0766209CB5}" name="Test Date-Time" dataDxfId="117"/>
+    <tableColumn id="5" xr3:uid="{60E36B10-857E-4482-B035-790F74DBDB33}" name="Sys/Comp Info" dataDxfId="116"/>
+    <tableColumn id="6" xr3:uid="{2E26423A-D6BE-4410-8F61-F74A3CED15B8}" name="Severity" dataDxfId="115"/>
+    <tableColumn id="7" xr3:uid="{20497C37-19CA-4417-AC58-9CBBEB217149}" name="EASEY Result Code" dataDxfId="114"/>
+    <tableColumn id="8" xr3:uid="{B51DBED3-688D-4748-9F71-406904878E83}" name="Fired" dataDxfId="113"/>
+    <tableColumn id="9" xr3:uid="{55BF46DF-A688-44E7-9212-0315C9101E05}" name="EASEY Result" dataDxfId="112"/>
+    <tableColumn id="10" xr3:uid="{A4FC5CC8-E769-426F-AEEE-D8BDE3AAE1AB}" name="Notes" dataDxfId="111"/>
+    <tableColumn id="11" xr3:uid="{E7F09088-0589-40C2-8067-9D1FE0896663}" name="Command Line Parameters" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0CC4DB58-871D-4311-83EC-9DB6A2F24D3C}" name="Table3" displayName="Table3" ref="A1:K26" totalsRowShown="0" headerRowDxfId="95" dataDxfId="93" headerRowBorderDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0CC4DB58-871D-4311-83EC-9DB6A2F24D3C}" name="Table3" displayName="Table3" ref="A1:K26" totalsRowShown="0" headerRowDxfId="109" dataDxfId="107" headerRowBorderDxfId="108">
   <autoFilter ref="A1:K26" xr:uid="{0CC4DB58-871D-4311-83EC-9DB6A2F24D3C}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{FD39BA7F-4A73-45B6-8492-9C47A87EAF80}" name="Location" dataDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{6BD18705-A907-480B-9613-FD6A89008B95}" name="Test Type" dataDxfId="91"/>
-    <tableColumn id="3" xr3:uid="{171EC70D-BD2B-4679-9E2F-B7A72F41A5BC}" name="Test Number" dataDxfId="90"/>
-    <tableColumn id="4" xr3:uid="{54392DF7-D2E8-406A-BF46-C94A6AF058B7}" name="Test Date-Time" dataDxfId="89"/>
-    <tableColumn id="5" xr3:uid="{BEE30332-3FC4-42CC-9E0A-10D6FD8CE7DB}" name="Sys/Comp Info" dataDxfId="88"/>
-    <tableColumn id="6" xr3:uid="{4D56506A-EEFD-4953-B5C2-BFBFB1100C42}" name="Severity" dataDxfId="87"/>
-    <tableColumn id="7" xr3:uid="{F7744816-5978-4331-B8B7-FBAEA071B23C}" name="EASEY Result Code" dataDxfId="86"/>
-    <tableColumn id="8" xr3:uid="{5A8FF3A4-DEAC-4772-A7B5-657662710593}" name="Fired" dataDxfId="85"/>
-    <tableColumn id="9" xr3:uid="{B72C4A8D-A7B2-492D-AAF3-C53B34CC6D68}" name="EASEY Result" dataDxfId="84"/>
-    <tableColumn id="10" xr3:uid="{3BD58939-520E-4EF9-ACA2-F4F2053AAB3E}" name="Notes" dataDxfId="83"/>
-    <tableColumn id="11" xr3:uid="{81440B9B-FEDA-4EF7-8E5F-058F42001F39}" name="Command Line Parameters" dataDxfId="82"/>
+    <tableColumn id="1" xr3:uid="{FD39BA7F-4A73-45B6-8492-9C47A87EAF80}" name="Location" dataDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{6BD18705-A907-480B-9613-FD6A89008B95}" name="Test Type" dataDxfId="105"/>
+    <tableColumn id="3" xr3:uid="{171EC70D-BD2B-4679-9E2F-B7A72F41A5BC}" name="Test Number" dataDxfId="104"/>
+    <tableColumn id="4" xr3:uid="{54392DF7-D2E8-406A-BF46-C94A6AF058B7}" name="Test Date-Time" dataDxfId="103"/>
+    <tableColumn id="5" xr3:uid="{BEE30332-3FC4-42CC-9E0A-10D6FD8CE7DB}" name="Sys/Comp Info" dataDxfId="102"/>
+    <tableColumn id="6" xr3:uid="{4D56506A-EEFD-4953-B5C2-BFBFB1100C42}" name="Severity" dataDxfId="101"/>
+    <tableColumn id="7" xr3:uid="{F7744816-5978-4331-B8B7-FBAEA071B23C}" name="EASEY Result Code" dataDxfId="100"/>
+    <tableColumn id="8" xr3:uid="{5A8FF3A4-DEAC-4772-A7B5-657662710593}" name="Fired" dataDxfId="99"/>
+    <tableColumn id="9" xr3:uid="{B72C4A8D-A7B2-492D-AAF3-C53B34CC6D68}" name="EASEY Result" dataDxfId="98"/>
+    <tableColumn id="10" xr3:uid="{3BD58939-520E-4EF9-ACA2-F4F2053AAB3E}" name="Notes" dataDxfId="97"/>
+    <tableColumn id="11" xr3:uid="{81440B9B-FEDA-4EF7-8E5F-058F42001F39}" name="Command Line Parameters" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{387CD9B0-42DD-43F6-B933-FC392A3DA7CC}" name="Table13" displayName="Table13" ref="A1:K26" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{387CD9B0-42DD-43F6-B933-FC392A3DA7CC}" name="Table13" displayName="Table13" ref="A1:K26" totalsRowShown="0" headerRowDxfId="95" dataDxfId="93" headerRowBorderDxfId="94">
   <autoFilter ref="A1:K26" xr:uid="{387CD9B0-42DD-43F6-B933-FC392A3DA7CC}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{58A7C390-8DB8-4C87-940A-55AE4A3592FC}" name="Location" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{A3FC97A4-B761-48C4-BB4C-19DA9785E4DF}" name="Test Type" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{3A3BD58D-EB20-4F67-8215-8A96EE69C978}" name="Test Number" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{DE80CD30-41D0-4B53-8DE7-4F269F701558}" name="Test Date-Time" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{B86A2D2D-C8EB-483C-BF81-EB9D9F4E66F2}" name="Sys/Comp Info" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{36B980F4-27FC-477D-A50F-623E7E0A94DE}" name="Severity" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{A9D38791-49D7-4EB3-896C-646601058179}" name="EASEY Result Code" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{938968FB-CC01-4403-A09B-C4F6161B5D90}" name="Fired" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{25329D8A-5A94-4418-84D8-82518A7923BD}" name="EASEY Result" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{D60A5A6A-A087-4FC2-96A5-060A26AA48C8}" name="Notes" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{5DE715B2-E8F2-48F0-9DE2-694E23DB23E9}" name="Command Line Parameters" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{58A7C390-8DB8-4C87-940A-55AE4A3592FC}" name="Location" dataDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{A3FC97A4-B761-48C4-BB4C-19DA9785E4DF}" name="Test Type" dataDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{3A3BD58D-EB20-4F67-8215-8A96EE69C978}" name="Test Number" dataDxfId="90"/>
+    <tableColumn id="4" xr3:uid="{DE80CD30-41D0-4B53-8DE7-4F269F701558}" name="Test Date-Time" dataDxfId="89"/>
+    <tableColumn id="5" xr3:uid="{B86A2D2D-C8EB-483C-BF81-EB9D9F4E66F2}" name="Sys/Comp Info" dataDxfId="88"/>
+    <tableColumn id="6" xr3:uid="{36B980F4-27FC-477D-A50F-623E7E0A94DE}" name="Severity" dataDxfId="87"/>
+    <tableColumn id="7" xr3:uid="{A9D38791-49D7-4EB3-896C-646601058179}" name="EASEY Result Code" dataDxfId="86"/>
+    <tableColumn id="8" xr3:uid="{938968FB-CC01-4403-A09B-C4F6161B5D90}" name="Fired" dataDxfId="85"/>
+    <tableColumn id="9" xr3:uid="{25329D8A-5A94-4418-84D8-82518A7923BD}" name="EASEY Result" dataDxfId="84"/>
+    <tableColumn id="10" xr3:uid="{D60A5A6A-A087-4FC2-96A5-060A26AA48C8}" name="Notes" dataDxfId="83"/>
+    <tableColumn id="11" xr3:uid="{5DE715B2-E8F2-48F0-9DE2-694E23DB23E9}" name="Command Line Parameters" dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{020EA727-A068-4214-96AF-BBB58B4AD2CD}" name="Table12" displayName="Table12" ref="A1:K25" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{020EA727-A068-4214-96AF-BBB58B4AD2CD}" name="Table12" displayName="Table12" ref="A1:K25" totalsRowShown="0" headerRowDxfId="81" dataDxfId="79" headerRowBorderDxfId="80">
   <autoFilter ref="A1:K25" xr:uid="{020EA727-A068-4214-96AF-BBB58B4AD2CD}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{17B6DF4E-F31D-42AC-A8A3-2F473C2E30F7}" name="Location" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{1A61DB90-0A47-46E7-8836-10B843CF3280}" name="Test Type" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{C31ACC80-9B40-4B96-9E67-1DC0F8B22187}" name="Test Number" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{80D262AE-185A-4DB8-B5EF-067896A28E0A}" name="Test Date-Time" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{6B683640-6F4D-4D37-B872-927A078A42E7}" name="Sys/Comp Info" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{F2BE968C-9CCB-4176-862E-EA3DBB1F5265}" name="Severity" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{BC1C5663-AD9C-4AF4-8910-56571D431FB2}" name="EASEY Result Code" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{9BDF95D2-C165-45CF-B4F9-D68DB059FCA4}" name="Fired" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{932FF336-A11E-491C-BA6B-0A86BA9E1B8D}" name="EASEY Result" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{DFD2B33B-3898-4612-A48A-7808C887C1CB}" name="Notes" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{62C0C95E-EBA4-4A37-A7D6-D1C8B2FB1DD6}" name="Command Line Parameters" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{17B6DF4E-F31D-42AC-A8A3-2F473C2E30F7}" name="Location" dataDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{1A61DB90-0A47-46E7-8836-10B843CF3280}" name="Test Type" dataDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{C31ACC80-9B40-4B96-9E67-1DC0F8B22187}" name="Test Number" dataDxfId="76"/>
+    <tableColumn id="4" xr3:uid="{80D262AE-185A-4DB8-B5EF-067896A28E0A}" name="Test Date-Time" dataDxfId="75"/>
+    <tableColumn id="5" xr3:uid="{6B683640-6F4D-4D37-B872-927A078A42E7}" name="Sys/Comp Info" dataDxfId="74"/>
+    <tableColumn id="6" xr3:uid="{F2BE968C-9CCB-4176-862E-EA3DBB1F5265}" name="Severity" dataDxfId="73"/>
+    <tableColumn id="7" xr3:uid="{BC1C5663-AD9C-4AF4-8910-56571D431FB2}" name="EASEY Result Code" dataDxfId="72"/>
+    <tableColumn id="8" xr3:uid="{9BDF95D2-C165-45CF-B4F9-D68DB059FCA4}" name="Fired" dataDxfId="71"/>
+    <tableColumn id="9" xr3:uid="{932FF336-A11E-491C-BA6B-0A86BA9E1B8D}" name="EASEY Result" dataDxfId="70"/>
+    <tableColumn id="10" xr3:uid="{DFD2B33B-3898-4612-A48A-7808C887C1CB}" name="Notes" dataDxfId="69"/>
+    <tableColumn id="11" xr3:uid="{62C0C95E-EBA4-4A37-A7D6-D1C8B2FB1DD6}" name="Command Line Parameters" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -35795,6 +36124,2140 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D196CC-3DC9-4A6C-BAF4-BA1549D5FF19}">
+  <dimension ref="A1:K65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="103.28515625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="75.42578125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="104.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D2" s="6">
+        <v>42035.284722222219</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1920</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>1921</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D3" s="6">
+        <v>42035.284722222219</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>1984</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>1986</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>1987</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D4" s="6">
+        <v>42035.284722222219</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>1923</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D5" s="6">
+        <v>42035.284722222219</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>1924</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D6" s="6">
+        <v>42035.284722222219</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>1925</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D7" s="6">
+        <v>42035.284722222219</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>1926</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D8" s="6">
+        <v>42035.284722222219</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>1927</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D9" s="6">
+        <v>42035.284722222219</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>1928</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D10" s="6">
+        <v>42035.284722222219</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>1929</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D11" s="6">
+        <v>42035.284722222219</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>1930</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D12" s="6">
+        <v>42035.284722222219</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>1931</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D13" s="6">
+        <v>42035.284722222219</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>1932</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D14" s="6">
+        <v>42035.284722222219</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>1933</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D15" s="6">
+        <v>42035.284722222219</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>1934</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D16" s="6">
+        <v>42035.284722222219</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>1935</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D17" s="6">
+        <v>42035.284722222219</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>1936</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="6">
+        <v>42035</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>1937</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>1507</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="6">
+        <v>42035</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>1937</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>1940</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="6">
+        <v>42035</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>1937</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>1984</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>1986</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>1987</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>1941</v>
+      </c>
+      <c r="D21" s="6">
+        <v>44390.533333333333</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>1988</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>1989</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1941</v>
+      </c>
+      <c r="D22" s="6">
+        <v>44390.533333333333</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>1943</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>1941</v>
+      </c>
+      <c r="D23" s="6">
+        <v>44390.533333333333</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>1984</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>1986</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>1987</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>1941</v>
+      </c>
+      <c r="D24" s="6">
+        <v>44390.533333333333</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D25" s="6">
+        <v>44390.533333333333</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>1753</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>1946</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>1947</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D26" s="6">
+        <v>44390.533333333333</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>1753</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>1984</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>1986</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>1987</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D27" s="6">
+        <v>44390.533333333333</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>1753</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>1984</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>1986</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>1987</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>1984</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>1986</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>1987</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C32" s="3">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>1753</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>1984</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>1986</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>1987</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C33" s="3">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>1753</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C34" s="3">
+        <v>4</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>1984</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>1986</v>
+      </c>
+      <c r="J34" s="16" t="s">
+        <v>1987</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C35" s="3">
+        <v>4</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" s="6">
+        <v>44410.140277777777</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>1984</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>1986</v>
+      </c>
+      <c r="J36" s="16" t="s">
+        <v>1987</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D37" s="6">
+        <v>44410.140277777777</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D38" s="6">
+        <v>44410.667361111111</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>1954</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>1955</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" s="6">
+        <v>44410.667361111111</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>1984</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>1986</v>
+      </c>
+      <c r="J39" s="16" t="s">
+        <v>1987</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D40" s="6">
+        <v>44410.667361111111</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D41" s="6">
+        <v>44410.667361111111</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D42" s="1">
+        <v>44411.000694444447</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>1957</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D43" s="1">
+        <v>44411.000694444447</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>1984</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>1986</v>
+      </c>
+      <c r="J43" s="16" t="s">
+        <v>1987</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D44" s="1">
+        <v>44411.000694444447</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D45" s="1">
+        <v>44411.000694444447</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D46" s="1">
+        <v>44410.709027777775</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>1958</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>1959</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D47" s="1">
+        <v>44410.709027777775</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="H47" s="17" t="s">
+        <v>1984</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>1986</v>
+      </c>
+      <c r="J47" s="16" t="s">
+        <v>1987</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D48" s="1">
+        <v>44410.709027777775</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D49" s="6">
+        <v>44379.611805555556</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D50" s="6">
+        <v>44379.611805555556</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>948</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D51" s="6">
+        <v>44379.611805555556</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="H51" s="17" t="s">
+        <v>1984</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>1986</v>
+      </c>
+      <c r="J51" s="16" t="s">
+        <v>1987</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D52" s="6">
+        <v>44379.611805555556</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D53" s="6">
+        <v>44379.611805555556</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D54" s="6">
+        <v>44379.611805555556</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55" s="6">
+        <v>44552</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>1962</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" s="6">
+        <v>44552</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>1964</v>
+      </c>
+      <c r="D57" s="6">
+        <v>44552</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>1966</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>1967</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>1964</v>
+      </c>
+      <c r="D58" s="6">
+        <v>44552</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>1962</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C59" s="3">
+        <v>123</v>
+      </c>
+      <c r="D59" s="6">
+        <v>44552</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>1972</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C60" s="3">
+        <v>123</v>
+      </c>
+      <c r="D60" s="6">
+        <v>44552</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>1975</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D61" s="6">
+        <v>44250.609722222223</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>1977</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D62" s="6">
+        <v>44250.609722222223</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D63" s="6">
+        <v>44250.609722222223</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D64" s="6">
+        <v>39843.708333333336</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>1981</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D65" s="6">
+        <v>39843.708333333336</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>1983</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8AB6CEE-1A2D-4EDD-BF79-DABF10AD8F60}">
   <dimension ref="A1:K319"/>
@@ -51475,7 +53938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F251FFA4-DA4E-420C-9FBD-B96432E43209}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -52269,7 +54732,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>1202</v>
       </c>
@@ -52301,7 +54764,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>1202</v>
       </c>

--- a/misc/Testing Scripts/QA/TestCaseResults.xlsx
+++ b/misc/Testing Scripts/QA/TestCaseResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\CAMDDevelopment\easey-db-scripts\misc\Testing Scripts\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C339F76-1B1D-4C82-92BB-9D42DA5EC0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23707B10-5E85-4B74-96C7-EC9B310FBED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="13" xr2:uid="{673C86AF-EEEE-433C-9A6E-BD69DDCD2237}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="13" xr2:uid="{673C86AF-EEEE-433C-9A6E-BD69DDCD2237}"/>
   </bookViews>
   <sheets>
     <sheet name="7DAY" sheetId="9" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet name="ONOFF" sheetId="10" r:id="rId11"/>
     <sheet name="RATA" sheetId="2" r:id="rId12"/>
     <sheet name="UNITDEF" sheetId="5" r:id="rId13"/>
-    <sheet name="TEST Check Type" sheetId="14" r:id="rId14"/>
+    <sheet name="Check Type PGVP" sheetId="15" r:id="rId14"/>
+    <sheet name="Check Type TEST" sheetId="14" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13422" uniqueCount="1990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13658" uniqueCount="2018">
   <si>
     <t>ORIS 3 (Barry) Location 5</t>
   </si>
@@ -6026,6 +6027,90 @@
   </si>
   <si>
     <t>PGVP-4 attempts to convert the BEGIN_DATE but does not expect the date to be null and throws an exception.  The testcase is for TEST-1-A, which fires if the date is null.  This exception occurs for both ECMPS 1.0 and 2.0.</t>
+  </si>
+  <si>
+    <t>20210419084622CD1</t>
+  </si>
+  <si>
+    <t>PGVP-11-A</t>
+  </si>
+  <si>
+    <t>You reported an GasTypeCode that is not appropriate for the component type or the test reference method for Gas Level HIGH Gas Type AIR.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-68FF9CD5F0C2464E85FD2A3C15D5A670" "TWCORNEL5-BE6DED44FBE145D6B3CF0E9BB40CAD46"</t>
+  </si>
+  <si>
+    <t>20210419084622NX1</t>
+  </si>
+  <si>
+    <t>PGVP-10-D</t>
+  </si>
+  <si>
+    <t>You reported a GasTypeCode of "ZERO" which is only appropriate for the low level calibration of a reference analyzer used in Reference Method 3A, 6C, or 7E testing.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-68FF9CD5F0C2464E85FD2A3C15D5A670" "TWCORNEL5-8B094C53547D424EB92D4420A44EACBC"</t>
+  </si>
+  <si>
+    <t>20211012083705CD1</t>
+  </si>
+  <si>
+    <t>PGVP-2-A</t>
+  </si>
+  <si>
+    <t>You did not provide CylinderIdentifier, which is required for Gas Level HIGH Gas Type CO2,NO,NOX,BALN.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-68FF9CD5F0C2464E85FD2A3C15D5A670" "TWCORNEL5-26BCE00CFDDD4545ACF6CBCEC7399200"</t>
+  </si>
+  <si>
+    <t>20211012083705NX1</t>
+  </si>
+  <si>
+    <t>PGVP-3-B</t>
+  </si>
+  <si>
+    <t>You reported the value B220191, which is not in the list of valid values, in the field VendorIdentifier for Cylinder Identifier CC44728.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-68FF9CD5F0C2464E85FD2A3C15D5A670" "TWCORNEL5-7EBFA586EAB2493F92FF0341E03CDC14"</t>
+  </si>
+  <si>
+    <t>20211012091507CD1</t>
+  </si>
+  <si>
+    <t>You reported an ExpirationDate for the cylinder that is prior to the date of the test for Cylinder Identifier CC44728.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-68FF9CD5F0C2464E85FD2A3C15D5A670" "TWCORNEL5-48F8FBBDDF5142339034084C2FFCF856"</t>
+  </si>
+  <si>
+    <t>20211012091507NX1</t>
+  </si>
+  <si>
+    <t>PGVP-5-C</t>
+  </si>
+  <si>
+    <t>You reported an GasLevelCode of "AIR" for Gas Level MID Gas Type AIR, which indicates the use of purified air material, but this material can only be used for a high-level calibration.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-68FF9CD5F0C2464E85FD2A3C15D5A670" "TWCORNEL5-A99B4D9EDB914CCBB5F75F738C9F6F5C"</t>
+  </si>
+  <si>
+    <t>PGVP-11-C</t>
+  </si>
+  <si>
+    <t>You reported an GasTypeCode that is not appropriate for the component type or the test reference method for Gas Level MID Gas Type AIR.</t>
+  </si>
+  <si>
+    <t>You incorrectly reported a Protocol Gas Record for Cylinder Identifier CC357282.  You should only report a Protocol Gas record for a RATA performed using instrumental reference methods 3A, 6C, or 7E.</t>
+  </si>
+  <si>
+    <t>You incorrectly reported a Protocol Gas Record for Cylinder Identifier CC419382.  You should only report a Protocol Gas record for a RATA performed using instrumental reference methods 3A, 6C, or 7E.</t>
+  </si>
+  <si>
+    <t>You incorrectly reported a Protocol Gas Record for Cylinder Identifier CC360515.  You should only report a Protocol Gas record for a RATA performed using instrumental reference methods 3A, 6C, or 7E.</t>
   </si>
 </sst>
 </file>
@@ -6180,7 +6265,86 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="193">
+  <dxfs count="207">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -7220,279 +7384,299 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5C910FE5-874B-4017-B841-F60367D6DBDE}" name="Table9" displayName="Table9" ref="A1:K73" totalsRowShown="0" headerRowDxfId="192" dataDxfId="190" headerRowBorderDxfId="191">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5C910FE5-874B-4017-B841-F60367D6DBDE}" name="Table9" displayName="Table9" ref="A1:K73" totalsRowShown="0" headerRowDxfId="206" dataDxfId="204" headerRowBorderDxfId="205">
   <autoFilter ref="A1:K73" xr:uid="{5C910FE5-874B-4017-B841-F60367D6DBDE}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{8279D829-3000-4C82-8018-0E78EB4E52ED}" name="Location" dataDxfId="189"/>
-    <tableColumn id="2" xr3:uid="{8C3F4264-2BDD-4183-9522-C40A313B4494}" name="Test Type" dataDxfId="188"/>
-    <tableColumn id="3" xr3:uid="{B0DE5395-DC16-46BB-BC57-85CF8494EEC8}" name="Test Number" dataDxfId="187"/>
-    <tableColumn id="4" xr3:uid="{AFAA091C-FD51-4F17-B61A-9B63F7F60549}" name="Test Date-Time" dataDxfId="186"/>
-    <tableColumn id="5" xr3:uid="{9510359E-2D55-43AD-8BD2-3BEAD6C916CF}" name="Sys/Comp Info" dataDxfId="185"/>
-    <tableColumn id="6" xr3:uid="{AECAE78C-1669-4150-9D54-CF24FB46FB2C}" name="Severity" dataDxfId="184"/>
-    <tableColumn id="7" xr3:uid="{60F04430-453C-4689-B258-ECBB97164B62}" name="EASEY Result Code" dataDxfId="183"/>
-    <tableColumn id="8" xr3:uid="{48BBCC17-5C80-41DD-9F75-59C2F34B310D}" name="Fired" dataDxfId="182"/>
-    <tableColumn id="9" xr3:uid="{B8B66FF4-909C-4ADC-8A89-2420561A8BC8}" name="EASEY Result" dataDxfId="181"/>
-    <tableColumn id="10" xr3:uid="{502F8369-E6BA-4168-9FB1-BDCCFE48BA95}" name="Notes" dataDxfId="180"/>
-    <tableColumn id="11" xr3:uid="{1BA34216-1816-4C5B-91A2-0F623ECC08A9}" name="Command Line Parameters" dataDxfId="179"/>
+    <tableColumn id="1" xr3:uid="{8279D829-3000-4C82-8018-0E78EB4E52ED}" name="Location" dataDxfId="203"/>
+    <tableColumn id="2" xr3:uid="{8C3F4264-2BDD-4183-9522-C40A313B4494}" name="Test Type" dataDxfId="202"/>
+    <tableColumn id="3" xr3:uid="{B0DE5395-DC16-46BB-BC57-85CF8494EEC8}" name="Test Number" dataDxfId="201"/>
+    <tableColumn id="4" xr3:uid="{AFAA091C-FD51-4F17-B61A-9B63F7F60549}" name="Test Date-Time" dataDxfId="200"/>
+    <tableColumn id="5" xr3:uid="{9510359E-2D55-43AD-8BD2-3BEAD6C916CF}" name="Sys/Comp Info" dataDxfId="199"/>
+    <tableColumn id="6" xr3:uid="{AECAE78C-1669-4150-9D54-CF24FB46FB2C}" name="Severity" dataDxfId="198"/>
+    <tableColumn id="7" xr3:uid="{60F04430-453C-4689-B258-ECBB97164B62}" name="EASEY Result Code" dataDxfId="197"/>
+    <tableColumn id="8" xr3:uid="{48BBCC17-5C80-41DD-9F75-59C2F34B310D}" name="Fired" dataDxfId="196"/>
+    <tableColumn id="9" xr3:uid="{B8B66FF4-909C-4ADC-8A89-2420561A8BC8}" name="EASEY Result" dataDxfId="195"/>
+    <tableColumn id="10" xr3:uid="{502F8369-E6BA-4168-9FB1-BDCCFE48BA95}" name="Notes" dataDxfId="194"/>
+    <tableColumn id="11" xr3:uid="{1BA34216-1816-4C5B-91A2-0F623ECC08A9}" name="Command Line Parameters" dataDxfId="193"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}" name="Table1" displayName="Table1" ref="A1:J68" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}" name="Table1" displayName="Table1" ref="A1:J68" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
   <autoFilter ref="A1:J68" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{4711296A-1683-4D59-9390-9C88803AA68A}" name="Location" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{46A8668E-BFD8-4CE9-8D48-A23DE00E437E}" name="Test Type" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{B7C72E78-CAF2-41A0-B7AC-096EC362072F}" name="Test Number" dataDxfId="63"/>
-    <tableColumn id="10" xr3:uid="{91E3C101-E9B0-405F-84B0-E044FE40F81E}" name="Test Date-Time" dataDxfId="62"/>
-    <tableColumn id="9" xr3:uid="{D57E3F37-9AD6-40C2-8ACB-5192B0E03191}" name="Sys/Comp Info" dataDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{9415854F-BF69-421C-939D-DB4180DF22DE}" name="Severity" dataDxfId="60"/>
-    <tableColumn id="5" xr3:uid="{5AD12D48-C5A2-4105-B479-271121D42D3E}" name="EASEY Result Code" dataDxfId="59"/>
-    <tableColumn id="8" xr3:uid="{FBEFE9F9-E17E-4E0B-8743-7AE06BE9B114}" name="Fired" dataDxfId="58"/>
-    <tableColumn id="6" xr3:uid="{FCE78312-8A7D-4561-B4CC-F676E43829AF}" name="EASEY Result" dataDxfId="57"/>
-    <tableColumn id="7" xr3:uid="{AA4E3A53-68A9-4DF8-87BC-70FB236A6CED}" name="Notes" dataDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{4711296A-1683-4D59-9390-9C88803AA68A}" name="Location" dataDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{46A8668E-BFD8-4CE9-8D48-A23DE00E437E}" name="Test Type" dataDxfId="78"/>
+    <tableColumn id="3" xr3:uid="{B7C72E78-CAF2-41A0-B7AC-096EC362072F}" name="Test Number" dataDxfId="77"/>
+    <tableColumn id="10" xr3:uid="{91E3C101-E9B0-405F-84B0-E044FE40F81E}" name="Test Date-Time" dataDxfId="76"/>
+    <tableColumn id="9" xr3:uid="{D57E3F37-9AD6-40C2-8ACB-5192B0E03191}" name="Sys/Comp Info" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{9415854F-BF69-421C-939D-DB4180DF22DE}" name="Severity" dataDxfId="74"/>
+    <tableColumn id="5" xr3:uid="{5AD12D48-C5A2-4105-B479-271121D42D3E}" name="EASEY Result Code" dataDxfId="73"/>
+    <tableColumn id="8" xr3:uid="{FBEFE9F9-E17E-4E0B-8743-7AE06BE9B114}" name="Fired" dataDxfId="72"/>
+    <tableColumn id="6" xr3:uid="{FCE78312-8A7D-4561-B4CC-F676E43829AF}" name="EASEY Result" dataDxfId="71"/>
+    <tableColumn id="7" xr3:uid="{AA4E3A53-68A9-4DF8-87BC-70FB236A6CED}" name="Notes" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4A33A717-7F36-46E9-B108-57CE91FC9965}" name="Table10" displayName="Table10" ref="A1:K89" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4A33A717-7F36-46E9-B108-57CE91FC9965}" name="Table10" displayName="Table10" ref="A1:K89" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68">
   <autoFilter ref="A1:K89" xr:uid="{4A33A717-7F36-46E9-B108-57CE91FC9965}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{CDEE6302-915F-4B8B-8931-C82E789BFD68}" name="Location" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{82F96464-31C7-41F4-99E4-F836EB4804AE}" name="Test Type" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{9A3AD922-1B43-4401-9D08-A69565CBC240}" name="Test Number" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{153B2B1E-9F8A-40A0-9FC6-F154FA69A06D}" name="Test Date-Time" dataDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{EB537EEB-DEA8-4166-A050-FFBFD68D1416}" name="Sys/Comp Info" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{E0692378-248B-472C-9ADE-6DC4C40CE31D}" name="Severity" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{D0B08289-03B0-4D7E-B475-69D81994C3D6}" name="EASEY Result Code" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{8A5BC497-E14C-4A60-9721-3754AC8FBB86}" name="Fired" dataDxfId="45"/>
-    <tableColumn id="9" xr3:uid="{D4027939-C285-4B69-8FE1-5C89204292B8}" name="EASEY Result" dataDxfId="44"/>
-    <tableColumn id="10" xr3:uid="{CAD9076A-ADA1-4DB7-B052-FB52970BED12}" name="Notes" dataDxfId="43"/>
-    <tableColumn id="11" xr3:uid="{F61AE4C4-8B02-46C3-94D5-1DAA82EE83BE}" name="Command Line Parameters" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{CDEE6302-915F-4B8B-8931-C82E789BFD68}" name="Location" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{82F96464-31C7-41F4-99E4-F836EB4804AE}" name="Test Type" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{9A3AD922-1B43-4401-9D08-A69565CBC240}" name="Test Number" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{153B2B1E-9F8A-40A0-9FC6-F154FA69A06D}" name="Test Date-Time" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{EB537EEB-DEA8-4166-A050-FFBFD68D1416}" name="Sys/Comp Info" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{E0692378-248B-472C-9ADE-6DC4C40CE31D}" name="Severity" dataDxfId="61"/>
+    <tableColumn id="7" xr3:uid="{D0B08289-03B0-4D7E-B475-69D81994C3D6}" name="EASEY Result Code" dataDxfId="60"/>
+    <tableColumn id="8" xr3:uid="{8A5BC497-E14C-4A60-9721-3754AC8FBB86}" name="Fired" dataDxfId="59"/>
+    <tableColumn id="9" xr3:uid="{D4027939-C285-4B69-8FE1-5C89204292B8}" name="EASEY Result" dataDxfId="58"/>
+    <tableColumn id="10" xr3:uid="{CAD9076A-ADA1-4DB7-B052-FB52970BED12}" name="Notes" dataDxfId="57"/>
+    <tableColumn id="11" xr3:uid="{F61AE4C4-8B02-46C3-94D5-1DAA82EE83BE}" name="Command Line Parameters" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}" name="Table2" displayName="Table2" ref="A1:K581" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}" name="Table2" displayName="Table2" ref="A1:K581" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54">
   <autoFilter ref="A1:K581" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{2F62CB62-9049-497E-ADC7-F9F96C31FD57}" name="Location" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{4B11ACA0-FDC6-44CA-8A6F-3F08C4CFA5F1}" name="Test Type" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{C41F1DAE-8DC9-48E1-917C-258A6C1E96C9}" name="Test Number" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{EC0CA150-1F20-45D9-9C39-AFA9123777F4}" name="Test Date-Time" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{33FF74A1-9DCC-4D3A-B0C5-64E9380F879C}" name="Sys/Comp Info" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{22A99E8A-A5B5-4CBC-B53D-C1D9D2C5AE1B}" name="Severity" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{029739E6-4C78-4E2E-A09D-8C3FA73D2041}" name="EASEY Result Code" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{5D0E993C-1382-48E9-AA45-BE7DC3BA96AF}" name="Fired" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{F1CFA0F6-70F7-4594-B088-F1D73717D454}" name="EASEY Result" dataDxfId="30"/>
-    <tableColumn id="10" xr3:uid="{40B0439D-9986-4626-9FF3-B32AE7B5EA33}" name="Notes" dataDxfId="29"/>
-    <tableColumn id="11" xr3:uid="{FF29FE95-83D5-44D1-A98E-E38DE83D7BC7}" name="Command Line Parameters" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{2F62CB62-9049-497E-ADC7-F9F96C31FD57}" name="Location" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{4B11ACA0-FDC6-44CA-8A6F-3F08C4CFA5F1}" name="Test Type" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{C41F1DAE-8DC9-48E1-917C-258A6C1E96C9}" name="Test Number" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{EC0CA150-1F20-45D9-9C39-AFA9123777F4}" name="Test Date-Time" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{33FF74A1-9DCC-4D3A-B0C5-64E9380F879C}" name="Sys/Comp Info" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{22A99E8A-A5B5-4CBC-B53D-C1D9D2C5AE1B}" name="Severity" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{029739E6-4C78-4E2E-A09D-8C3FA73D2041}" name="EASEY Result Code" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{5D0E993C-1382-48E9-AA45-BE7DC3BA96AF}" name="Fired" dataDxfId="45"/>
+    <tableColumn id="9" xr3:uid="{F1CFA0F6-70F7-4594-B088-F1D73717D454}" name="EASEY Result" dataDxfId="44"/>
+    <tableColumn id="10" xr3:uid="{40B0439D-9986-4626-9FF3-B32AE7B5EA33}" name="Notes" dataDxfId="43"/>
+    <tableColumn id="11" xr3:uid="{FF29FE95-83D5-44D1-A98E-E38DE83D7BC7}" name="Command Line Parameters" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{72A5AA74-4364-4117-8778-356FF8C70282}" name="Table5" displayName="Table5" ref="A1:K91" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{72A5AA74-4364-4117-8778-356FF8C70282}" name="Table5" displayName="Table5" ref="A1:K91" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40">
   <autoFilter ref="A1:K91" xr:uid="{72A5AA74-4364-4117-8778-356FF8C70282}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{B5B471E1-992B-4560-9AE9-3A0B01F9D400}" name="Location" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{1012AED6-A79C-434D-9EFD-BC07FE87995E}" name="Test Type" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{B5631442-9C30-47B5-9E8F-98D77DB400BF}" name="Test Number" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{960A60B0-A29E-44B1-B36A-03ABF8C9387B}" name="Test Date-Time" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{33F281F6-219B-4E02-9434-6B6D946A98E0}" name="Sys/Comp Info" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{E798D1DA-91F4-4F85-BC08-C953E40455E6}" name="Severity" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{D1264FDF-B29D-4FEE-92C2-AB98523233CD}" name="EASEY Result Code" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{C745552B-9704-4998-BE61-D3A91601E678}" name="Fired" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{C834180C-E3EF-4150-9616-ACEC523C5385}" name="EASEY Result" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{3ABD6028-9668-4A63-AEC5-1740A232405E}" name="Notes" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{9F9E58E8-A77F-4D89-A441-47366556DBC4}" name="Command Line Parameters" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{B5B471E1-992B-4560-9AE9-3A0B01F9D400}" name="Location" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{1012AED6-A79C-434D-9EFD-BC07FE87995E}" name="Test Type" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{B5631442-9C30-47B5-9E8F-98D77DB400BF}" name="Test Number" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{960A60B0-A29E-44B1-B36A-03ABF8C9387B}" name="Test Date-Time" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{33F281F6-219B-4E02-9434-6B6D946A98E0}" name="Sys/Comp Info" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{E798D1DA-91F4-4F85-BC08-C953E40455E6}" name="Severity" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{D1264FDF-B29D-4FEE-92C2-AB98523233CD}" name="EASEY Result Code" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{C745552B-9704-4998-BE61-D3A91601E678}" name="Fired" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{C834180C-E3EF-4150-9616-ACEC523C5385}" name="EASEY Result" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{3ABD6028-9668-4A63-AEC5-1740A232405E}" name="Notes" dataDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{9F9E58E8-A77F-4D89-A441-47366556DBC4}" name="Command Line Parameters" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{4A6B4518-3730-4EDB-8118-7FC685E54D4D}" name="Table14" displayName="Table14" ref="A1:K65" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{F6500E59-5E05-4CE8-8F9D-9221B55D7FD2}" name="Table15" displayName="Table15" ref="A1:K26" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowBorderDxfId="13">
+  <autoFilter ref="A1:K26" xr:uid="{F6500E59-5E05-4CE8-8F9D-9221B55D7FD2}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{141A1F22-04AC-41C4-A9F5-CA2D856537D2}" name="Location" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{682EB442-4EFC-4943-86B4-811065481E58}" name="Test Type" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{A5BCB04C-743D-46FA-B0DB-84CF0B6BBC8E}" name="Test Number" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{337B62FF-2ACC-49AF-ACCD-33722D3A358A}" name="Test Date-Time" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{CA9A9114-48D7-4C09-9D29-E09FD186CBA4}" name="Sys/Comp Info" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{19FB15F6-B8AD-4984-9641-8937F6CFB220}" name="Severity" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{B429ED75-C4D0-4170-8D54-B8270FFB8774}" name="EASEY Result Code" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{B11B957A-B097-47B2-A383-93BC12EF8B7D}" name="Fired" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{C1D59F6D-98B3-4861-AE30-E527BF23B4D6}" name="EASEY Result" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{AF930BC6-6880-489A-BB78-667B6B0662F2}" name="Notes" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{BDA74063-BCCA-4147-84D8-3ACA73246EC1}" name="Command Line Parameters" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{4A6B4518-3730-4EDB-8118-7FC685E54D4D}" name="Table14" displayName="Table14" ref="A1:K65" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="27">
   <autoFilter ref="A1:K65" xr:uid="{4A6B4518-3730-4EDB-8118-7FC685E54D4D}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{688BE455-22E7-460C-AEB8-77FED1C57AE3}" name="Location" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{20C8F268-F0DA-4C4B-85CC-9675F4020B20}" name="Test Type" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{54552E71-F736-4EBF-B675-B592F1FEB306}" name="Test Number" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{AE42C9A1-5DFB-4CAB-8EF8-07F76F7C7F72}" name="Test Date-Time" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{59716E11-5EC0-4CF7-9C60-46F006BF4A88}" name="Sys/Comp Info" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{C2858AAF-8CC6-49B5-8987-6A43E1C7AE69}" name="Severity" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{A0BA8D72-C986-43E0-A3BB-DFA920174AFC}" name="EASEY Result Code" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{39E9C69F-1E34-4D36-B7C3-F2D6A86BBD74}" name="Fired" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{ACAE356B-0C07-4041-B1FC-2027B441EF49}" name="EASEY Result" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{356D670A-5642-493A-B84F-2CC68F64CC3B}" name="Notes" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{B4F1D6ED-902F-4D6E-967E-05C2040CB5E8}" name="Command Line Parameters" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{688BE455-22E7-460C-AEB8-77FED1C57AE3}" name="Location" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{20C8F268-F0DA-4C4B-85CC-9675F4020B20}" name="Test Type" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{54552E71-F736-4EBF-B675-B592F1FEB306}" name="Test Number" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{AE42C9A1-5DFB-4CAB-8EF8-07F76F7C7F72}" name="Test Date-Time" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{59716E11-5EC0-4CF7-9C60-46F006BF4A88}" name="Sys/Comp Info" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{C2858AAF-8CC6-49B5-8987-6A43E1C7AE69}" name="Severity" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{A0BA8D72-C986-43E0-A3BB-DFA920174AFC}" name="EASEY Result Code" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{39E9C69F-1E34-4D36-B7C3-F2D6A86BBD74}" name="Fired" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{ACAE356B-0C07-4041-B1FC-2027B441EF49}" name="EASEY Result" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{356D670A-5642-493A-B84F-2CC68F64CC3B}" name="Notes" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{B4F1D6ED-902F-4D6E-967E-05C2040CB5E8}" name="Command Line Parameters" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6E75B64B-AA6D-476A-8302-BF96D5E7E810}" name="Table6" displayName="Table6" ref="A1:K319" totalsRowShown="0" headerRowDxfId="178" dataDxfId="176" headerRowBorderDxfId="177">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6E75B64B-AA6D-476A-8302-BF96D5E7E810}" name="Table6" displayName="Table6" ref="A1:K319" totalsRowShown="0" headerRowDxfId="192" dataDxfId="190" headerRowBorderDxfId="191">
   <autoFilter ref="A1:K319" xr:uid="{6E75B64B-AA6D-476A-8302-BF96D5E7E810}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{DABC54ED-3C28-4B3B-8594-CAA471D265D5}" name="Location" dataDxfId="175"/>
-    <tableColumn id="2" xr3:uid="{F8AEE93E-FDE2-46D7-B1A7-244178C2F820}" name="Test Type" dataDxfId="174"/>
-    <tableColumn id="3" xr3:uid="{8C6E04D8-89F2-453E-9922-8A0AF53CB692}" name="Test Number" dataDxfId="173"/>
-    <tableColumn id="4" xr3:uid="{2B43C86D-8143-4360-87FC-99396C0E304F}" name="Test Date-Time" dataDxfId="172"/>
-    <tableColumn id="5" xr3:uid="{E75FB52D-EC10-43F0-8D77-68CDEA14235D}" name="Sys/Comp Info" dataDxfId="171"/>
-    <tableColumn id="6" xr3:uid="{E6D41DD1-2DAC-4262-AA16-1D46CE14D100}" name="Severity" dataDxfId="170"/>
-    <tableColumn id="7" xr3:uid="{E4B7FCA0-0453-4D46-AF2D-5FCB94154788}" name="EASEY Result Code" dataDxfId="169"/>
-    <tableColumn id="8" xr3:uid="{1C5C127B-0EC6-40C8-9F7F-CDFFB95E2B9C}" name="Fired" dataDxfId="168"/>
-    <tableColumn id="9" xr3:uid="{E4D52144-8081-4E9C-9216-F2B3E7D99696}" name="EASEY Result" dataDxfId="167"/>
-    <tableColumn id="10" xr3:uid="{1B8F57B6-0961-4DCE-A9BB-77E44380F12A}" name="Notes" dataDxfId="166"/>
-    <tableColumn id="11" xr3:uid="{8C749E78-19F9-4D93-A1EC-56160203A547}" name="Command Line Parameters" dataDxfId="165"/>
+    <tableColumn id="1" xr3:uid="{DABC54ED-3C28-4B3B-8594-CAA471D265D5}" name="Location" dataDxfId="189"/>
+    <tableColumn id="2" xr3:uid="{F8AEE93E-FDE2-46D7-B1A7-244178C2F820}" name="Test Type" dataDxfId="188"/>
+    <tableColumn id="3" xr3:uid="{8C6E04D8-89F2-453E-9922-8A0AF53CB692}" name="Test Number" dataDxfId="187"/>
+    <tableColumn id="4" xr3:uid="{2B43C86D-8143-4360-87FC-99396C0E304F}" name="Test Date-Time" dataDxfId="186"/>
+    <tableColumn id="5" xr3:uid="{E75FB52D-EC10-43F0-8D77-68CDEA14235D}" name="Sys/Comp Info" dataDxfId="185"/>
+    <tableColumn id="6" xr3:uid="{E6D41DD1-2DAC-4262-AA16-1D46CE14D100}" name="Severity" dataDxfId="184"/>
+    <tableColumn id="7" xr3:uid="{E4B7FCA0-0453-4D46-AF2D-5FCB94154788}" name="EASEY Result Code" dataDxfId="183"/>
+    <tableColumn id="8" xr3:uid="{1C5C127B-0EC6-40C8-9F7F-CDFFB95E2B9C}" name="Fired" dataDxfId="182"/>
+    <tableColumn id="9" xr3:uid="{E4D52144-8081-4E9C-9216-F2B3E7D99696}" name="EASEY Result" dataDxfId="181"/>
+    <tableColumn id="10" xr3:uid="{1B8F57B6-0961-4DCE-A9BB-77E44380F12A}" name="Notes" dataDxfId="180"/>
+    <tableColumn id="11" xr3:uid="{8C749E78-19F9-4D93-A1EC-56160203A547}" name="Command Line Parameters" dataDxfId="179"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{D2B13800-7296-41BF-B284-AE9E33207A74}" name="Table11" displayName="Table11" ref="A1:K43" totalsRowShown="0" headerRowDxfId="164" dataDxfId="162" headerRowBorderDxfId="163">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{D2B13800-7296-41BF-B284-AE9E33207A74}" name="Table11" displayName="Table11" ref="A1:K43" totalsRowShown="0" headerRowDxfId="178" dataDxfId="176" headerRowBorderDxfId="177">
   <autoFilter ref="A1:K43" xr:uid="{D2B13800-7296-41BF-B284-AE9E33207A74}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{5C4086A6-D708-4595-83D3-C24973FA7493}" name="Location" dataDxfId="161"/>
-    <tableColumn id="2" xr3:uid="{85418BD6-CBE3-465C-ABAB-216BDDDEC4AB}" name="Test Type" dataDxfId="160"/>
-    <tableColumn id="3" xr3:uid="{4A0464F8-B583-4C14-9868-15E3FED2D126}" name="Test Number" dataDxfId="159"/>
-    <tableColumn id="4" xr3:uid="{78C8BC19-497D-4CBB-B37C-A591E348A8F4}" name="Test Date-Time" dataDxfId="158"/>
-    <tableColumn id="5" xr3:uid="{1264561D-36B6-4A3C-959A-9E394716E8C7}" name="Sys/Comp Info" dataDxfId="157"/>
-    <tableColumn id="6" xr3:uid="{DD999D52-F401-4681-95E1-7CD8BFBB9B5E}" name="Severity" dataDxfId="156"/>
-    <tableColumn id="7" xr3:uid="{579ED199-5C6A-417A-ADFB-6972029F68D6}" name="EASEY Result Code" dataDxfId="155"/>
-    <tableColumn id="8" xr3:uid="{702EEAA3-DA01-410C-BE7A-D14CFC877E75}" name="Fired" dataDxfId="154"/>
-    <tableColumn id="9" xr3:uid="{DD383C11-E19A-499D-859A-528E10686FA7}" name="EASEY Result" dataDxfId="153"/>
-    <tableColumn id="10" xr3:uid="{C65DEB63-1D14-4EFD-B04E-24DDAC666CD7}" name="Notes" dataDxfId="152"/>
-    <tableColumn id="11" xr3:uid="{F16CC94C-3B79-491F-8B14-14C31351265C}" name="Command Line Parameters" dataDxfId="151"/>
+    <tableColumn id="1" xr3:uid="{5C4086A6-D708-4595-83D3-C24973FA7493}" name="Location" dataDxfId="175"/>
+    <tableColumn id="2" xr3:uid="{85418BD6-CBE3-465C-ABAB-216BDDDEC4AB}" name="Test Type" dataDxfId="174"/>
+    <tableColumn id="3" xr3:uid="{4A0464F8-B583-4C14-9868-15E3FED2D126}" name="Test Number" dataDxfId="173"/>
+    <tableColumn id="4" xr3:uid="{78C8BC19-497D-4CBB-B37C-A591E348A8F4}" name="Test Date-Time" dataDxfId="172"/>
+    <tableColumn id="5" xr3:uid="{1264561D-36B6-4A3C-959A-9E394716E8C7}" name="Sys/Comp Info" dataDxfId="171"/>
+    <tableColumn id="6" xr3:uid="{DD999D52-F401-4681-95E1-7CD8BFBB9B5E}" name="Severity" dataDxfId="170"/>
+    <tableColumn id="7" xr3:uid="{579ED199-5C6A-417A-ADFB-6972029F68D6}" name="EASEY Result Code" dataDxfId="169"/>
+    <tableColumn id="8" xr3:uid="{702EEAA3-DA01-410C-BE7A-D14CFC877E75}" name="Fired" dataDxfId="168"/>
+    <tableColumn id="9" xr3:uid="{DD383C11-E19A-499D-859A-528E10686FA7}" name="EASEY Result" dataDxfId="167"/>
+    <tableColumn id="10" xr3:uid="{C65DEB63-1D14-4EFD-B04E-24DDAC666CD7}" name="Notes" dataDxfId="166"/>
+    <tableColumn id="11" xr3:uid="{F16CC94C-3B79-491F-8B14-14C31351265C}" name="Command Line Parameters" dataDxfId="165"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{643FA4C3-7226-4FC1-A77A-D6CF46B7DE06}" name="Table7" displayName="Table7" ref="A1:K33" totalsRowShown="0" headerRowDxfId="150" dataDxfId="148" headerRowBorderDxfId="149">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{643FA4C3-7226-4FC1-A77A-D6CF46B7DE06}" name="Table7" displayName="Table7" ref="A1:K33" totalsRowShown="0" headerRowDxfId="164" dataDxfId="162" headerRowBorderDxfId="163">
   <autoFilter ref="A1:K33" xr:uid="{643FA4C3-7226-4FC1-A77A-D6CF46B7DE06}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{6A1DC097-B550-4298-811F-BB553C8A78B7}" name="Location" dataDxfId="147"/>
-    <tableColumn id="2" xr3:uid="{B0B911C5-C9AF-4D6B-9A8E-E4524ABB1455}" name="Test Type" dataDxfId="146"/>
-    <tableColumn id="3" xr3:uid="{7C46186D-C3D8-4F3A-A359-DBEC33D11A32}" name="Test Number" dataDxfId="145"/>
-    <tableColumn id="4" xr3:uid="{B77DADA4-D1C0-49A5-8941-BF36C2738914}" name="Test Date-Time" dataDxfId="144"/>
-    <tableColumn id="5" xr3:uid="{94D2842C-7497-4826-BFDF-64C1F4930DC7}" name="Sys/Comp Info" dataDxfId="143"/>
-    <tableColumn id="6" xr3:uid="{18E0026A-3AB3-4471-BB8D-F86CD1FCACB2}" name="Severity" dataDxfId="142"/>
-    <tableColumn id="7" xr3:uid="{64F844FE-3B1B-48BD-BFA3-F73DD8F6BAE7}" name="EASEY Result Code" dataDxfId="141"/>
-    <tableColumn id="8" xr3:uid="{0A777F6A-C367-4D68-80DC-BE82994A6C9C}" name="Fired" dataDxfId="140"/>
-    <tableColumn id="9" xr3:uid="{58E8A6A7-2EB9-4636-98D8-915BAA276364}" name="EASEY Result" dataDxfId="139"/>
-    <tableColumn id="10" xr3:uid="{8E16DEBD-9C74-43B0-A1EC-12CF584BC57D}" name="Notes" dataDxfId="138"/>
-    <tableColumn id="11" xr3:uid="{7AE3F542-B6CD-45CB-99F0-47DDE95004F7}" name="Command Line Parameters" dataDxfId="137"/>
+    <tableColumn id="1" xr3:uid="{6A1DC097-B550-4298-811F-BB553C8A78B7}" name="Location" dataDxfId="161"/>
+    <tableColumn id="2" xr3:uid="{B0B911C5-C9AF-4D6B-9A8E-E4524ABB1455}" name="Test Type" dataDxfId="160"/>
+    <tableColumn id="3" xr3:uid="{7C46186D-C3D8-4F3A-A359-DBEC33D11A32}" name="Test Number" dataDxfId="159"/>
+    <tableColumn id="4" xr3:uid="{B77DADA4-D1C0-49A5-8941-BF36C2738914}" name="Test Date-Time" dataDxfId="158"/>
+    <tableColumn id="5" xr3:uid="{94D2842C-7497-4826-BFDF-64C1F4930DC7}" name="Sys/Comp Info" dataDxfId="157"/>
+    <tableColumn id="6" xr3:uid="{18E0026A-3AB3-4471-BB8D-F86CD1FCACB2}" name="Severity" dataDxfId="156"/>
+    <tableColumn id="7" xr3:uid="{64F844FE-3B1B-48BD-BFA3-F73DD8F6BAE7}" name="EASEY Result Code" dataDxfId="155"/>
+    <tableColumn id="8" xr3:uid="{0A777F6A-C367-4D68-80DC-BE82994A6C9C}" name="Fired" dataDxfId="154"/>
+    <tableColumn id="9" xr3:uid="{58E8A6A7-2EB9-4636-98D8-915BAA276364}" name="EASEY Result" dataDxfId="153"/>
+    <tableColumn id="10" xr3:uid="{8E16DEBD-9C74-43B0-A1EC-12CF584BC57D}" name="Notes" dataDxfId="152"/>
+    <tableColumn id="11" xr3:uid="{7AE3F542-B6CD-45CB-99F0-47DDE95004F7}" name="Command Line Parameters" dataDxfId="151"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E4484FF7-4E72-42BE-B673-2211F40DBEC5}" name="Table8" displayName="Table8" ref="A1:K28" totalsRowShown="0" headerRowDxfId="136" headerRowBorderDxfId="135">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E4484FF7-4E72-42BE-B673-2211F40DBEC5}" name="Table8" displayName="Table8" ref="A1:K28" totalsRowShown="0" headerRowDxfId="150" headerRowBorderDxfId="149">
   <autoFilter ref="A1:K28" xr:uid="{E4484FF7-4E72-42BE-B673-2211F40DBEC5}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{BCDEC250-D556-489B-A8C0-F3C0B749EE85}" name="Location" dataDxfId="134"/>
-    <tableColumn id="2" xr3:uid="{27845E29-DF76-4FC1-8B99-E6D05BC504AB}" name="Test Type" dataDxfId="133"/>
-    <tableColumn id="3" xr3:uid="{88E8B5E9-3A4F-487A-A1FD-2F8825130F6C}" name="Test Number" dataDxfId="132"/>
-    <tableColumn id="4" xr3:uid="{96597CE9-7403-4439-ACB1-4DB48A5AE831}" name="Test Date-Time" dataDxfId="131"/>
-    <tableColumn id="5" xr3:uid="{67D38623-BE59-4D0E-966A-D900405266E4}" name="Sys/Comp Info" dataDxfId="130"/>
-    <tableColumn id="6" xr3:uid="{4480DA93-63BE-46D7-9C44-A62CF4C30DB9}" name="Severity" dataDxfId="129"/>
-    <tableColumn id="7" xr3:uid="{4DE029FD-1894-4C16-A49E-7205888520D7}" name="EASEY Result Code" dataDxfId="128"/>
-    <tableColumn id="8" xr3:uid="{38E45A86-E2E8-436C-83B0-1DC52A25A389}" name="Fired" dataDxfId="127"/>
-    <tableColumn id="9" xr3:uid="{D0FCA1F1-B5E4-4F39-8570-3FDAAFD8C655}" name="EASEY Result" dataDxfId="126"/>
-    <tableColumn id="10" xr3:uid="{8FFB2F06-8DA3-4256-9B20-894A86F3CAB1}" name="Notes" dataDxfId="125"/>
-    <tableColumn id="11" xr3:uid="{0A82F04A-4DC9-465C-ACBF-8A9107DE5BF9}" name="Command Line Parameters" dataDxfId="124"/>
+    <tableColumn id="1" xr3:uid="{BCDEC250-D556-489B-A8C0-F3C0B749EE85}" name="Location" dataDxfId="148"/>
+    <tableColumn id="2" xr3:uid="{27845E29-DF76-4FC1-8B99-E6D05BC504AB}" name="Test Type" dataDxfId="147"/>
+    <tableColumn id="3" xr3:uid="{88E8B5E9-3A4F-487A-A1FD-2F8825130F6C}" name="Test Number" dataDxfId="146"/>
+    <tableColumn id="4" xr3:uid="{96597CE9-7403-4439-ACB1-4DB48A5AE831}" name="Test Date-Time" dataDxfId="145"/>
+    <tableColumn id="5" xr3:uid="{67D38623-BE59-4D0E-966A-D900405266E4}" name="Sys/Comp Info" dataDxfId="144"/>
+    <tableColumn id="6" xr3:uid="{4480DA93-63BE-46D7-9C44-A62CF4C30DB9}" name="Severity" dataDxfId="143"/>
+    <tableColumn id="7" xr3:uid="{4DE029FD-1894-4C16-A49E-7205888520D7}" name="EASEY Result Code" dataDxfId="142"/>
+    <tableColumn id="8" xr3:uid="{38E45A86-E2E8-436C-83B0-1DC52A25A389}" name="Fired" dataDxfId="141"/>
+    <tableColumn id="9" xr3:uid="{D0FCA1F1-B5E4-4F39-8570-3FDAAFD8C655}" name="EASEY Result" dataDxfId="140"/>
+    <tableColumn id="10" xr3:uid="{8FFB2F06-8DA3-4256-9B20-894A86F3CAB1}" name="Notes" dataDxfId="139"/>
+    <tableColumn id="11" xr3:uid="{0A82F04A-4DC9-465C-ACBF-8A9107DE5BF9}" name="Command Line Parameters" dataDxfId="138"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C4E4C8FF-D2BC-4023-A7E2-4F0FE1340DDB}" name="Table4" displayName="Table4" ref="A1:K44" totalsRowShown="0" headerRowDxfId="123" dataDxfId="121" headerRowBorderDxfId="122">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C4E4C8FF-D2BC-4023-A7E2-4F0FE1340DDB}" name="Table4" displayName="Table4" ref="A1:K44" totalsRowShown="0" headerRowDxfId="137" dataDxfId="135" headerRowBorderDxfId="136">
   <autoFilter ref="A1:K44" xr:uid="{C4E4C8FF-D2BC-4023-A7E2-4F0FE1340DDB}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{25672079-CDA0-4D8B-8CF3-D545B2ACD419}" name="Location" dataDxfId="120"/>
-    <tableColumn id="2" xr3:uid="{5279C203-946F-4765-ABB9-8C81921C2DC3}" name="Test Type" dataDxfId="119"/>
-    <tableColumn id="3" xr3:uid="{11DE1298-C62C-4C4B-9989-25AA10EF10C0}" name="Test Number" dataDxfId="118"/>
-    <tableColumn id="4" xr3:uid="{2A458B2D-9FF3-4418-9FD6-DF0766209CB5}" name="Test Date-Time" dataDxfId="117"/>
-    <tableColumn id="5" xr3:uid="{60E36B10-857E-4482-B035-790F74DBDB33}" name="Sys/Comp Info" dataDxfId="116"/>
-    <tableColumn id="6" xr3:uid="{2E26423A-D6BE-4410-8F61-F74A3CED15B8}" name="Severity" dataDxfId="115"/>
-    <tableColumn id="7" xr3:uid="{20497C37-19CA-4417-AC58-9CBBEB217149}" name="EASEY Result Code" dataDxfId="114"/>
-    <tableColumn id="8" xr3:uid="{B51DBED3-688D-4748-9F71-406904878E83}" name="Fired" dataDxfId="113"/>
-    <tableColumn id="9" xr3:uid="{55BF46DF-A688-44E7-9212-0315C9101E05}" name="EASEY Result" dataDxfId="112"/>
-    <tableColumn id="10" xr3:uid="{A4FC5CC8-E769-426F-AEEE-D8BDE3AAE1AB}" name="Notes" dataDxfId="111"/>
-    <tableColumn id="11" xr3:uid="{E7F09088-0589-40C2-8067-9D1FE0896663}" name="Command Line Parameters" dataDxfId="110"/>
+    <tableColumn id="1" xr3:uid="{25672079-CDA0-4D8B-8CF3-D545B2ACD419}" name="Location" dataDxfId="134"/>
+    <tableColumn id="2" xr3:uid="{5279C203-946F-4765-ABB9-8C81921C2DC3}" name="Test Type" dataDxfId="133"/>
+    <tableColumn id="3" xr3:uid="{11DE1298-C62C-4C4B-9989-25AA10EF10C0}" name="Test Number" dataDxfId="132"/>
+    <tableColumn id="4" xr3:uid="{2A458B2D-9FF3-4418-9FD6-DF0766209CB5}" name="Test Date-Time" dataDxfId="131"/>
+    <tableColumn id="5" xr3:uid="{60E36B10-857E-4482-B035-790F74DBDB33}" name="Sys/Comp Info" dataDxfId="130"/>
+    <tableColumn id="6" xr3:uid="{2E26423A-D6BE-4410-8F61-F74A3CED15B8}" name="Severity" dataDxfId="129"/>
+    <tableColumn id="7" xr3:uid="{20497C37-19CA-4417-AC58-9CBBEB217149}" name="EASEY Result Code" dataDxfId="128"/>
+    <tableColumn id="8" xr3:uid="{B51DBED3-688D-4748-9F71-406904878E83}" name="Fired" dataDxfId="127"/>
+    <tableColumn id="9" xr3:uid="{55BF46DF-A688-44E7-9212-0315C9101E05}" name="EASEY Result" dataDxfId="126"/>
+    <tableColumn id="10" xr3:uid="{A4FC5CC8-E769-426F-AEEE-D8BDE3AAE1AB}" name="Notes" dataDxfId="125"/>
+    <tableColumn id="11" xr3:uid="{E7F09088-0589-40C2-8067-9D1FE0896663}" name="Command Line Parameters" dataDxfId="124"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0CC4DB58-871D-4311-83EC-9DB6A2F24D3C}" name="Table3" displayName="Table3" ref="A1:K26" totalsRowShown="0" headerRowDxfId="109" dataDxfId="107" headerRowBorderDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0CC4DB58-871D-4311-83EC-9DB6A2F24D3C}" name="Table3" displayName="Table3" ref="A1:K26" totalsRowShown="0" headerRowDxfId="123" dataDxfId="121" headerRowBorderDxfId="122">
   <autoFilter ref="A1:K26" xr:uid="{0CC4DB58-871D-4311-83EC-9DB6A2F24D3C}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{FD39BA7F-4A73-45B6-8492-9C47A87EAF80}" name="Location" dataDxfId="106"/>
-    <tableColumn id="2" xr3:uid="{6BD18705-A907-480B-9613-FD6A89008B95}" name="Test Type" dataDxfId="105"/>
-    <tableColumn id="3" xr3:uid="{171EC70D-BD2B-4679-9E2F-B7A72F41A5BC}" name="Test Number" dataDxfId="104"/>
-    <tableColumn id="4" xr3:uid="{54392DF7-D2E8-406A-BF46-C94A6AF058B7}" name="Test Date-Time" dataDxfId="103"/>
-    <tableColumn id="5" xr3:uid="{BEE30332-3FC4-42CC-9E0A-10D6FD8CE7DB}" name="Sys/Comp Info" dataDxfId="102"/>
-    <tableColumn id="6" xr3:uid="{4D56506A-EEFD-4953-B5C2-BFBFB1100C42}" name="Severity" dataDxfId="101"/>
-    <tableColumn id="7" xr3:uid="{F7744816-5978-4331-B8B7-FBAEA071B23C}" name="EASEY Result Code" dataDxfId="100"/>
-    <tableColumn id="8" xr3:uid="{5A8FF3A4-DEAC-4772-A7B5-657662710593}" name="Fired" dataDxfId="99"/>
-    <tableColumn id="9" xr3:uid="{B72C4A8D-A7B2-492D-AAF3-C53B34CC6D68}" name="EASEY Result" dataDxfId="98"/>
-    <tableColumn id="10" xr3:uid="{3BD58939-520E-4EF9-ACA2-F4F2053AAB3E}" name="Notes" dataDxfId="97"/>
-    <tableColumn id="11" xr3:uid="{81440B9B-FEDA-4EF7-8E5F-058F42001F39}" name="Command Line Parameters" dataDxfId="96"/>
+    <tableColumn id="1" xr3:uid="{FD39BA7F-4A73-45B6-8492-9C47A87EAF80}" name="Location" dataDxfId="120"/>
+    <tableColumn id="2" xr3:uid="{6BD18705-A907-480B-9613-FD6A89008B95}" name="Test Type" dataDxfId="119"/>
+    <tableColumn id="3" xr3:uid="{171EC70D-BD2B-4679-9E2F-B7A72F41A5BC}" name="Test Number" dataDxfId="118"/>
+    <tableColumn id="4" xr3:uid="{54392DF7-D2E8-406A-BF46-C94A6AF058B7}" name="Test Date-Time" dataDxfId="117"/>
+    <tableColumn id="5" xr3:uid="{BEE30332-3FC4-42CC-9E0A-10D6FD8CE7DB}" name="Sys/Comp Info" dataDxfId="116"/>
+    <tableColumn id="6" xr3:uid="{4D56506A-EEFD-4953-B5C2-BFBFB1100C42}" name="Severity" dataDxfId="115"/>
+    <tableColumn id="7" xr3:uid="{F7744816-5978-4331-B8B7-FBAEA071B23C}" name="EASEY Result Code" dataDxfId="114"/>
+    <tableColumn id="8" xr3:uid="{5A8FF3A4-DEAC-4772-A7B5-657662710593}" name="Fired" dataDxfId="113"/>
+    <tableColumn id="9" xr3:uid="{B72C4A8D-A7B2-492D-AAF3-C53B34CC6D68}" name="EASEY Result" dataDxfId="112"/>
+    <tableColumn id="10" xr3:uid="{3BD58939-520E-4EF9-ACA2-F4F2053AAB3E}" name="Notes" dataDxfId="111"/>
+    <tableColumn id="11" xr3:uid="{81440B9B-FEDA-4EF7-8E5F-058F42001F39}" name="Command Line Parameters" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{387CD9B0-42DD-43F6-B933-FC392A3DA7CC}" name="Table13" displayName="Table13" ref="A1:K26" totalsRowShown="0" headerRowDxfId="95" dataDxfId="93" headerRowBorderDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{387CD9B0-42DD-43F6-B933-FC392A3DA7CC}" name="Table13" displayName="Table13" ref="A1:K26" totalsRowShown="0" headerRowDxfId="109" dataDxfId="107" headerRowBorderDxfId="108">
   <autoFilter ref="A1:K26" xr:uid="{387CD9B0-42DD-43F6-B933-FC392A3DA7CC}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{58A7C390-8DB8-4C87-940A-55AE4A3592FC}" name="Location" dataDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{A3FC97A4-B761-48C4-BB4C-19DA9785E4DF}" name="Test Type" dataDxfId="91"/>
-    <tableColumn id="3" xr3:uid="{3A3BD58D-EB20-4F67-8215-8A96EE69C978}" name="Test Number" dataDxfId="90"/>
-    <tableColumn id="4" xr3:uid="{DE80CD30-41D0-4B53-8DE7-4F269F701558}" name="Test Date-Time" dataDxfId="89"/>
-    <tableColumn id="5" xr3:uid="{B86A2D2D-C8EB-483C-BF81-EB9D9F4E66F2}" name="Sys/Comp Info" dataDxfId="88"/>
-    <tableColumn id="6" xr3:uid="{36B980F4-27FC-477D-A50F-623E7E0A94DE}" name="Severity" dataDxfId="87"/>
-    <tableColumn id="7" xr3:uid="{A9D38791-49D7-4EB3-896C-646601058179}" name="EASEY Result Code" dataDxfId="86"/>
-    <tableColumn id="8" xr3:uid="{938968FB-CC01-4403-A09B-C4F6161B5D90}" name="Fired" dataDxfId="85"/>
-    <tableColumn id="9" xr3:uid="{25329D8A-5A94-4418-84D8-82518A7923BD}" name="EASEY Result" dataDxfId="84"/>
-    <tableColumn id="10" xr3:uid="{D60A5A6A-A087-4FC2-96A5-060A26AA48C8}" name="Notes" dataDxfId="83"/>
-    <tableColumn id="11" xr3:uid="{5DE715B2-E8F2-48F0-9DE2-694E23DB23E9}" name="Command Line Parameters" dataDxfId="82"/>
+    <tableColumn id="1" xr3:uid="{58A7C390-8DB8-4C87-940A-55AE4A3592FC}" name="Location" dataDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{A3FC97A4-B761-48C4-BB4C-19DA9785E4DF}" name="Test Type" dataDxfId="105"/>
+    <tableColumn id="3" xr3:uid="{3A3BD58D-EB20-4F67-8215-8A96EE69C978}" name="Test Number" dataDxfId="104"/>
+    <tableColumn id="4" xr3:uid="{DE80CD30-41D0-4B53-8DE7-4F269F701558}" name="Test Date-Time" dataDxfId="103"/>
+    <tableColumn id="5" xr3:uid="{B86A2D2D-C8EB-483C-BF81-EB9D9F4E66F2}" name="Sys/Comp Info" dataDxfId="102"/>
+    <tableColumn id="6" xr3:uid="{36B980F4-27FC-477D-A50F-623E7E0A94DE}" name="Severity" dataDxfId="101"/>
+    <tableColumn id="7" xr3:uid="{A9D38791-49D7-4EB3-896C-646601058179}" name="EASEY Result Code" dataDxfId="100"/>
+    <tableColumn id="8" xr3:uid="{938968FB-CC01-4403-A09B-C4F6161B5D90}" name="Fired" dataDxfId="99"/>
+    <tableColumn id="9" xr3:uid="{25329D8A-5A94-4418-84D8-82518A7923BD}" name="EASEY Result" dataDxfId="98"/>
+    <tableColumn id="10" xr3:uid="{D60A5A6A-A087-4FC2-96A5-060A26AA48C8}" name="Notes" dataDxfId="97"/>
+    <tableColumn id="11" xr3:uid="{5DE715B2-E8F2-48F0-9DE2-694E23DB23E9}" name="Command Line Parameters" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{020EA727-A068-4214-96AF-BBB58B4AD2CD}" name="Table12" displayName="Table12" ref="A1:K25" totalsRowShown="0" headerRowDxfId="81" dataDxfId="79" headerRowBorderDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{020EA727-A068-4214-96AF-BBB58B4AD2CD}" name="Table12" displayName="Table12" ref="A1:K25" totalsRowShown="0" headerRowDxfId="95" dataDxfId="93" headerRowBorderDxfId="94">
   <autoFilter ref="A1:K25" xr:uid="{020EA727-A068-4214-96AF-BBB58B4AD2CD}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{17B6DF4E-F31D-42AC-A8A3-2F473C2E30F7}" name="Location" dataDxfId="78"/>
-    <tableColumn id="2" xr3:uid="{1A61DB90-0A47-46E7-8836-10B843CF3280}" name="Test Type" dataDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{C31ACC80-9B40-4B96-9E67-1DC0F8B22187}" name="Test Number" dataDxfId="76"/>
-    <tableColumn id="4" xr3:uid="{80D262AE-185A-4DB8-B5EF-067896A28E0A}" name="Test Date-Time" dataDxfId="75"/>
-    <tableColumn id="5" xr3:uid="{6B683640-6F4D-4D37-B872-927A078A42E7}" name="Sys/Comp Info" dataDxfId="74"/>
-    <tableColumn id="6" xr3:uid="{F2BE968C-9CCB-4176-862E-EA3DBB1F5265}" name="Severity" dataDxfId="73"/>
-    <tableColumn id="7" xr3:uid="{BC1C5663-AD9C-4AF4-8910-56571D431FB2}" name="EASEY Result Code" dataDxfId="72"/>
-    <tableColumn id="8" xr3:uid="{9BDF95D2-C165-45CF-B4F9-D68DB059FCA4}" name="Fired" dataDxfId="71"/>
-    <tableColumn id="9" xr3:uid="{932FF336-A11E-491C-BA6B-0A86BA9E1B8D}" name="EASEY Result" dataDxfId="70"/>
-    <tableColumn id="10" xr3:uid="{DFD2B33B-3898-4612-A48A-7808C887C1CB}" name="Notes" dataDxfId="69"/>
-    <tableColumn id="11" xr3:uid="{62C0C95E-EBA4-4A37-A7D6-D1C8B2FB1DD6}" name="Command Line Parameters" dataDxfId="68"/>
+    <tableColumn id="1" xr3:uid="{17B6DF4E-F31D-42AC-A8A3-2F473C2E30F7}" name="Location" dataDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{1A61DB90-0A47-46E7-8836-10B843CF3280}" name="Test Type" dataDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{C31ACC80-9B40-4B96-9E67-1DC0F8B22187}" name="Test Number" dataDxfId="90"/>
+    <tableColumn id="4" xr3:uid="{80D262AE-185A-4DB8-B5EF-067896A28E0A}" name="Test Date-Time" dataDxfId="89"/>
+    <tableColumn id="5" xr3:uid="{6B683640-6F4D-4D37-B872-927A078A42E7}" name="Sys/Comp Info" dataDxfId="88"/>
+    <tableColumn id="6" xr3:uid="{F2BE968C-9CCB-4176-862E-EA3DBB1F5265}" name="Severity" dataDxfId="87"/>
+    <tableColumn id="7" xr3:uid="{BC1C5663-AD9C-4AF4-8910-56571D431FB2}" name="EASEY Result Code" dataDxfId="86"/>
+    <tableColumn id="8" xr3:uid="{9BDF95D2-C165-45CF-B4F9-D68DB059FCA4}" name="Fired" dataDxfId="85"/>
+    <tableColumn id="9" xr3:uid="{932FF336-A11E-491C-BA6B-0A86BA9E1B8D}" name="EASEY Result" dataDxfId="84"/>
+    <tableColumn id="10" xr3:uid="{DFD2B33B-3898-4612-A48A-7808C887C1CB}" name="Notes" dataDxfId="83"/>
+    <tableColumn id="11" xr3:uid="{62C0C95E-EBA4-4A37-A7D6-D1C8B2FB1DD6}" name="Command Line Parameters" dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -36125,11 +36309,881 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307E8187-44DF-4FB9-8580-48A85C7DC54A}">
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17:A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="112.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="39.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="96.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1990</v>
+      </c>
+      <c r="D2" s="6">
+        <v>44305.404166666667</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>1992</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1990</v>
+      </c>
+      <c r="D3" s="6">
+        <v>44305.404166666667</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1994</v>
+      </c>
+      <c r="D4" s="6">
+        <v>44305.404166666667</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1995</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>1996</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1994</v>
+      </c>
+      <c r="D5" s="6">
+        <v>44305.404166666667</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D6" s="6">
+        <v>44481.382638888892</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>2000</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D7" s="6">
+        <v>44481.382638888892</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2002</v>
+      </c>
+      <c r="D8" s="6">
+        <v>44481.382638888892</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>2003</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>2004</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2002</v>
+      </c>
+      <c r="D9" s="6">
+        <v>44481.382638888892</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D10" s="6">
+        <v>44481.410416666666</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>2007</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D11" s="6">
+        <v>44481.410416666666</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D12" s="6">
+        <v>44481.410416666666</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D13" s="6">
+        <v>44481.410416666666</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>2011</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D14" s="6">
+        <v>44481.410416666666</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D15" s="6">
+        <v>44481.410416666666</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>2013</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>2014</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D16" s="6">
+        <v>44481.410416666666</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D17" s="6">
+        <v>43837.533333333333</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D18" s="6">
+        <v>43837.533333333333</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D19" s="6">
+        <v>43837.533333333333</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D20" s="6">
+        <v>44257.670138888891</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>2015</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D21" s="6">
+        <v>44257.670138888891</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>2016</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D22" s="6">
+        <v>44257.670138888891</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D23" s="6">
+        <v>44257.670138888891</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D24" s="6">
+        <v>44257.670138888891</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D25" s="6">
+        <v>44257.670138888891</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>2017</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D26" s="6">
+        <v>44257.670138888891</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D196CC-3DC9-4A6C-BAF4-BA1549D5FF19}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>

--- a/misc/Testing Scripts/QA/TestCaseResults.xlsx
+++ b/misc/Testing Scripts/QA/TestCaseResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\CAMDDevelopment\easey-db-scripts\misc\Testing Scripts\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23707B10-5E85-4B74-96C7-EC9B310FBED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDE29CC-5574-4418-99D7-C45142C1B860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="13" xr2:uid="{673C86AF-EEEE-433C-9A6E-BD69DDCD2237}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" activeTab="13" xr2:uid="{673C86AF-EEEE-433C-9A6E-BD69DDCD2237}"/>
   </bookViews>
   <sheets>
     <sheet name="7DAY" sheetId="9" r:id="rId1"/>
@@ -26,8 +26,9 @@
     <sheet name="ONOFF" sheetId="10" r:id="rId11"/>
     <sheet name="RATA" sheetId="2" r:id="rId12"/>
     <sheet name="UNITDEF" sheetId="5" r:id="rId13"/>
-    <sheet name="Check Type PGVP" sheetId="15" r:id="rId14"/>
-    <sheet name="Check Type TEST" sheetId="14" r:id="rId15"/>
+    <sheet name="Check Type AETB" sheetId="16" r:id="rId14"/>
+    <sheet name="Check Type PGVP" sheetId="15" r:id="rId15"/>
+    <sheet name="Check Type TEST" sheetId="14" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13658" uniqueCount="2018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13948" uniqueCount="2054">
   <si>
     <t>ORIS 3 (Barry) Location 5</t>
   </si>
@@ -6111,6 +6112,114 @@
   </si>
   <si>
     <t>You incorrectly reported a Protocol Gas Record for Cylinder Identifier CC360515.  You should only report a Protocol Gas record for a RATA performed using instrumental reference methods 3A, 6C, or 7E.</t>
+  </si>
+  <si>
+    <t>AETB-9-C</t>
+  </si>
+  <si>
+    <t>You reported an ExamDate that is more than five years prior to the date of the test for Benjamin A. Chalk.  AETB exams expire in five years.</t>
+  </si>
+  <si>
+    <t>AETB-4-A</t>
+  </si>
+  <si>
+    <t>You did not provide AETBName, which is required for a A. a.</t>
+  </si>
+  <si>
+    <t>AETB-5-A</t>
+  </si>
+  <si>
+    <t>You did not provide AETBPhoneNumber, which is required for a A. a.</t>
+  </si>
+  <si>
+    <t>AETB-6-A</t>
+  </si>
+  <si>
+    <t>You did not provide AETBEmail, which is required for a A. a.</t>
+  </si>
+  <si>
+    <t>AETB-7-A</t>
+  </si>
+  <si>
+    <t>You did not provide ProviderName, which is required for a A. a.</t>
+  </si>
+  <si>
+    <t>AETB-8-A</t>
+  </si>
+  <si>
+    <t>You did not provide ProviderEmail, which is required for a A. a.</t>
+  </si>
+  <si>
+    <t>AETB-9-A</t>
+  </si>
+  <si>
+    <t>You did not provide ExamDate, which is required for a A. a.</t>
+  </si>
+  <si>
+    <t>AETB-10-B</t>
+  </si>
+  <si>
+    <t>Air Emissions Testing Records are not required for Hg, HCl, HF, or ST tests.</t>
+  </si>
+  <si>
+    <t>201602150844MA3</t>
+  </si>
+  <si>
+    <t>You did not provide AETBEmail, which is required for Benjamin A. Chalk.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-68FF9CD5F0C2464E85FD2A3C15D5A670" "TWCORNEL5-DAB99C69B32643149B6489A1159629B8"</t>
+  </si>
+  <si>
+    <t>201703281312MA3</t>
+  </si>
+  <si>
+    <t>AETB-2-B</t>
+  </si>
+  <si>
+    <t>The value 2 in the QIFirstName for 2 M. Rew does not have the expected format.  Please confirm that this value is reported correctly.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-68FF9CD5F0C2464E85FD2A3C15D5A670" "TWCORNEL5-40EE1436487A491386C9DEF9D97BF0C9"</t>
+  </si>
+  <si>
+    <t>201802270921MA3</t>
+  </si>
+  <si>
+    <t>You did not provide ProviderName, which is required for Judd M. Rew.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-68FF9CD5F0C2464E85FD2A3C15D5A670" "TWCORNEL5-22F251FBE908456FA602381683DB2F70"</t>
+  </si>
+  <si>
+    <t>201901220932MA3</t>
+  </si>
+  <si>
+    <t>AETB-3-A</t>
+  </si>
+  <si>
+    <t>The value 3 in the QIMiddleInitial for Judd 3. Rew does not have the expected format.  Please confirm that this value is reported correctly.</t>
+  </si>
+  <si>
+    <t>QAT "MDC-68FF9CD5F0C2464E85FD2A3C15D5A670" "TWCORNEL5-6CAA42CFC0EE44A3BFC1878FE0EA59EF"</t>
+  </si>
+  <si>
+    <t>AETB-5-B</t>
+  </si>
+  <si>
+    <t>The value 2513317560 in the AETBPhoneNumber for Judd M. Rew does not have the expected format.  Please confirm that this value is reported correctly.</t>
+  </si>
+  <si>
+    <t>You did not provide AETBName, which is required for Judd M. Rew.</t>
+  </si>
+  <si>
+    <t>AETB-1-B</t>
+  </si>
+  <si>
+    <t>The value 1 in the QILastName for Judd M. 1 does not have the expected format.  Please confirm that this value is reported correctly.</t>
+  </si>
+  <si>
+    <t>You did not provide ProviderEmail, which is required for Judd M. Rew.</t>
   </si>
 </sst>
 </file>
@@ -6265,16 +6374,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="207">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="221">
     <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -6323,7 +6423,13 @@
       <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -6331,6 +6437,53 @@
     <dxf>
       <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -6344,27 +6497,6 @@
           <color theme="0"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -6408,6 +6540,18 @@
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -6418,10 +6562,54 @@
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thick">
           <color theme="0"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -7384,299 +7572,319 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5C910FE5-874B-4017-B841-F60367D6DBDE}" name="Table9" displayName="Table9" ref="A1:K73" totalsRowShown="0" headerRowDxfId="206" dataDxfId="204" headerRowBorderDxfId="205">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5C910FE5-874B-4017-B841-F60367D6DBDE}" name="Table9" displayName="Table9" ref="A1:K73" totalsRowShown="0" headerRowDxfId="220" dataDxfId="218" headerRowBorderDxfId="219">
   <autoFilter ref="A1:K73" xr:uid="{5C910FE5-874B-4017-B841-F60367D6DBDE}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{8279D829-3000-4C82-8018-0E78EB4E52ED}" name="Location" dataDxfId="203"/>
-    <tableColumn id="2" xr3:uid="{8C3F4264-2BDD-4183-9522-C40A313B4494}" name="Test Type" dataDxfId="202"/>
-    <tableColumn id="3" xr3:uid="{B0DE5395-DC16-46BB-BC57-85CF8494EEC8}" name="Test Number" dataDxfId="201"/>
-    <tableColumn id="4" xr3:uid="{AFAA091C-FD51-4F17-B61A-9B63F7F60549}" name="Test Date-Time" dataDxfId="200"/>
-    <tableColumn id="5" xr3:uid="{9510359E-2D55-43AD-8BD2-3BEAD6C916CF}" name="Sys/Comp Info" dataDxfId="199"/>
-    <tableColumn id="6" xr3:uid="{AECAE78C-1669-4150-9D54-CF24FB46FB2C}" name="Severity" dataDxfId="198"/>
-    <tableColumn id="7" xr3:uid="{60F04430-453C-4689-B258-ECBB97164B62}" name="EASEY Result Code" dataDxfId="197"/>
-    <tableColumn id="8" xr3:uid="{48BBCC17-5C80-41DD-9F75-59C2F34B310D}" name="Fired" dataDxfId="196"/>
-    <tableColumn id="9" xr3:uid="{B8B66FF4-909C-4ADC-8A89-2420561A8BC8}" name="EASEY Result" dataDxfId="195"/>
-    <tableColumn id="10" xr3:uid="{502F8369-E6BA-4168-9FB1-BDCCFE48BA95}" name="Notes" dataDxfId="194"/>
-    <tableColumn id="11" xr3:uid="{1BA34216-1816-4C5B-91A2-0F623ECC08A9}" name="Command Line Parameters" dataDxfId="193"/>
+    <tableColumn id="1" xr3:uid="{8279D829-3000-4C82-8018-0E78EB4E52ED}" name="Location" dataDxfId="217"/>
+    <tableColumn id="2" xr3:uid="{8C3F4264-2BDD-4183-9522-C40A313B4494}" name="Test Type" dataDxfId="216"/>
+    <tableColumn id="3" xr3:uid="{B0DE5395-DC16-46BB-BC57-85CF8494EEC8}" name="Test Number" dataDxfId="215"/>
+    <tableColumn id="4" xr3:uid="{AFAA091C-FD51-4F17-B61A-9B63F7F60549}" name="Test Date-Time" dataDxfId="214"/>
+    <tableColumn id="5" xr3:uid="{9510359E-2D55-43AD-8BD2-3BEAD6C916CF}" name="Sys/Comp Info" dataDxfId="213"/>
+    <tableColumn id="6" xr3:uid="{AECAE78C-1669-4150-9D54-CF24FB46FB2C}" name="Severity" dataDxfId="212"/>
+    <tableColumn id="7" xr3:uid="{60F04430-453C-4689-B258-ECBB97164B62}" name="EASEY Result Code" dataDxfId="211"/>
+    <tableColumn id="8" xr3:uid="{48BBCC17-5C80-41DD-9F75-59C2F34B310D}" name="Fired" dataDxfId="210"/>
+    <tableColumn id="9" xr3:uid="{B8B66FF4-909C-4ADC-8A89-2420561A8BC8}" name="EASEY Result" dataDxfId="209"/>
+    <tableColumn id="10" xr3:uid="{502F8369-E6BA-4168-9FB1-BDCCFE48BA95}" name="Notes" dataDxfId="208"/>
+    <tableColumn id="11" xr3:uid="{1BA34216-1816-4C5B-91A2-0F623ECC08A9}" name="Command Line Parameters" dataDxfId="207"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}" name="Table1" displayName="Table1" ref="A1:J68" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}" name="Table1" displayName="Table1" ref="A1:J68" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
   <autoFilter ref="A1:J68" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{4711296A-1683-4D59-9390-9C88803AA68A}" name="Location" dataDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{46A8668E-BFD8-4CE9-8D48-A23DE00E437E}" name="Test Type" dataDxfId="78"/>
-    <tableColumn id="3" xr3:uid="{B7C72E78-CAF2-41A0-B7AC-096EC362072F}" name="Test Number" dataDxfId="77"/>
-    <tableColumn id="10" xr3:uid="{91E3C101-E9B0-405F-84B0-E044FE40F81E}" name="Test Date-Time" dataDxfId="76"/>
-    <tableColumn id="9" xr3:uid="{D57E3F37-9AD6-40C2-8ACB-5192B0E03191}" name="Sys/Comp Info" dataDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{9415854F-BF69-421C-939D-DB4180DF22DE}" name="Severity" dataDxfId="74"/>
-    <tableColumn id="5" xr3:uid="{5AD12D48-C5A2-4105-B479-271121D42D3E}" name="EASEY Result Code" dataDxfId="73"/>
-    <tableColumn id="8" xr3:uid="{FBEFE9F9-E17E-4E0B-8743-7AE06BE9B114}" name="Fired" dataDxfId="72"/>
-    <tableColumn id="6" xr3:uid="{FCE78312-8A7D-4561-B4CC-F676E43829AF}" name="EASEY Result" dataDxfId="71"/>
-    <tableColumn id="7" xr3:uid="{AA4E3A53-68A9-4DF8-87BC-70FB236A6CED}" name="Notes" dataDxfId="70"/>
+    <tableColumn id="1" xr3:uid="{4711296A-1683-4D59-9390-9C88803AA68A}" name="Location" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{46A8668E-BFD8-4CE9-8D48-A23DE00E437E}" name="Test Type" dataDxfId="92"/>
+    <tableColumn id="3" xr3:uid="{B7C72E78-CAF2-41A0-B7AC-096EC362072F}" name="Test Number" dataDxfId="91"/>
+    <tableColumn id="10" xr3:uid="{91E3C101-E9B0-405F-84B0-E044FE40F81E}" name="Test Date-Time" dataDxfId="90"/>
+    <tableColumn id="9" xr3:uid="{D57E3F37-9AD6-40C2-8ACB-5192B0E03191}" name="Sys/Comp Info" dataDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{9415854F-BF69-421C-939D-DB4180DF22DE}" name="Severity" dataDxfId="88"/>
+    <tableColumn id="5" xr3:uid="{5AD12D48-C5A2-4105-B479-271121D42D3E}" name="EASEY Result Code" dataDxfId="87"/>
+    <tableColumn id="8" xr3:uid="{FBEFE9F9-E17E-4E0B-8743-7AE06BE9B114}" name="Fired" dataDxfId="86"/>
+    <tableColumn id="6" xr3:uid="{FCE78312-8A7D-4561-B4CC-F676E43829AF}" name="EASEY Result" dataDxfId="85"/>
+    <tableColumn id="7" xr3:uid="{AA4E3A53-68A9-4DF8-87BC-70FB236A6CED}" name="Notes" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4A33A717-7F36-46E9-B108-57CE91FC9965}" name="Table10" displayName="Table10" ref="A1:K89" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4A33A717-7F36-46E9-B108-57CE91FC9965}" name="Table10" displayName="Table10" ref="A1:K89" totalsRowShown="0" headerRowDxfId="83" dataDxfId="81" headerRowBorderDxfId="82">
   <autoFilter ref="A1:K89" xr:uid="{4A33A717-7F36-46E9-B108-57CE91FC9965}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{CDEE6302-915F-4B8B-8931-C82E789BFD68}" name="Location" dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{82F96464-31C7-41F4-99E4-F836EB4804AE}" name="Test Type" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{9A3AD922-1B43-4401-9D08-A69565CBC240}" name="Test Number" dataDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{153B2B1E-9F8A-40A0-9FC6-F154FA69A06D}" name="Test Date-Time" dataDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{EB537EEB-DEA8-4166-A050-FFBFD68D1416}" name="Sys/Comp Info" dataDxfId="62"/>
-    <tableColumn id="6" xr3:uid="{E0692378-248B-472C-9ADE-6DC4C40CE31D}" name="Severity" dataDxfId="61"/>
-    <tableColumn id="7" xr3:uid="{D0B08289-03B0-4D7E-B475-69D81994C3D6}" name="EASEY Result Code" dataDxfId="60"/>
-    <tableColumn id="8" xr3:uid="{8A5BC497-E14C-4A60-9721-3754AC8FBB86}" name="Fired" dataDxfId="59"/>
-    <tableColumn id="9" xr3:uid="{D4027939-C285-4B69-8FE1-5C89204292B8}" name="EASEY Result" dataDxfId="58"/>
-    <tableColumn id="10" xr3:uid="{CAD9076A-ADA1-4DB7-B052-FB52970BED12}" name="Notes" dataDxfId="57"/>
-    <tableColumn id="11" xr3:uid="{F61AE4C4-8B02-46C3-94D5-1DAA82EE83BE}" name="Command Line Parameters" dataDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{CDEE6302-915F-4B8B-8931-C82E789BFD68}" name="Location" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{82F96464-31C7-41F4-99E4-F836EB4804AE}" name="Test Type" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{9A3AD922-1B43-4401-9D08-A69565CBC240}" name="Test Number" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{153B2B1E-9F8A-40A0-9FC6-F154FA69A06D}" name="Test Date-Time" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{EB537EEB-DEA8-4166-A050-FFBFD68D1416}" name="Sys/Comp Info" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{E0692378-248B-472C-9ADE-6DC4C40CE31D}" name="Severity" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{D0B08289-03B0-4D7E-B475-69D81994C3D6}" name="EASEY Result Code" dataDxfId="74"/>
+    <tableColumn id="8" xr3:uid="{8A5BC497-E14C-4A60-9721-3754AC8FBB86}" name="Fired" dataDxfId="73"/>
+    <tableColumn id="9" xr3:uid="{D4027939-C285-4B69-8FE1-5C89204292B8}" name="EASEY Result" dataDxfId="72"/>
+    <tableColumn id="10" xr3:uid="{CAD9076A-ADA1-4DB7-B052-FB52970BED12}" name="Notes" dataDxfId="71"/>
+    <tableColumn id="11" xr3:uid="{F61AE4C4-8B02-46C3-94D5-1DAA82EE83BE}" name="Command Line Parameters" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}" name="Table2" displayName="Table2" ref="A1:K581" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}" name="Table2" displayName="Table2" ref="A1:K581" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68">
   <autoFilter ref="A1:K581" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{2F62CB62-9049-497E-ADC7-F9F96C31FD57}" name="Location" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{4B11ACA0-FDC6-44CA-8A6F-3F08C4CFA5F1}" name="Test Type" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{C41F1DAE-8DC9-48E1-917C-258A6C1E96C9}" name="Test Number" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{EC0CA150-1F20-45D9-9C39-AFA9123777F4}" name="Test Date-Time" dataDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{33FF74A1-9DCC-4D3A-B0C5-64E9380F879C}" name="Sys/Comp Info" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{22A99E8A-A5B5-4CBC-B53D-C1D9D2C5AE1B}" name="Severity" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{029739E6-4C78-4E2E-A09D-8C3FA73D2041}" name="EASEY Result Code" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{5D0E993C-1382-48E9-AA45-BE7DC3BA96AF}" name="Fired" dataDxfId="45"/>
-    <tableColumn id="9" xr3:uid="{F1CFA0F6-70F7-4594-B088-F1D73717D454}" name="EASEY Result" dataDxfId="44"/>
-    <tableColumn id="10" xr3:uid="{40B0439D-9986-4626-9FF3-B32AE7B5EA33}" name="Notes" dataDxfId="43"/>
-    <tableColumn id="11" xr3:uid="{FF29FE95-83D5-44D1-A98E-E38DE83D7BC7}" name="Command Line Parameters" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{2F62CB62-9049-497E-ADC7-F9F96C31FD57}" name="Location" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{4B11ACA0-FDC6-44CA-8A6F-3F08C4CFA5F1}" name="Test Type" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{C41F1DAE-8DC9-48E1-917C-258A6C1E96C9}" name="Test Number" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{EC0CA150-1F20-45D9-9C39-AFA9123777F4}" name="Test Date-Time" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{33FF74A1-9DCC-4D3A-B0C5-64E9380F879C}" name="Sys/Comp Info" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{22A99E8A-A5B5-4CBC-B53D-C1D9D2C5AE1B}" name="Severity" dataDxfId="61"/>
+    <tableColumn id="7" xr3:uid="{029739E6-4C78-4E2E-A09D-8C3FA73D2041}" name="EASEY Result Code" dataDxfId="60"/>
+    <tableColumn id="8" xr3:uid="{5D0E993C-1382-48E9-AA45-BE7DC3BA96AF}" name="Fired" dataDxfId="59"/>
+    <tableColumn id="9" xr3:uid="{F1CFA0F6-70F7-4594-B088-F1D73717D454}" name="EASEY Result" dataDxfId="58"/>
+    <tableColumn id="10" xr3:uid="{40B0439D-9986-4626-9FF3-B32AE7B5EA33}" name="Notes" dataDxfId="57"/>
+    <tableColumn id="11" xr3:uid="{FF29FE95-83D5-44D1-A98E-E38DE83D7BC7}" name="Command Line Parameters" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{72A5AA74-4364-4117-8778-356FF8C70282}" name="Table5" displayName="Table5" ref="A1:K91" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{72A5AA74-4364-4117-8778-356FF8C70282}" name="Table5" displayName="Table5" ref="A1:K91" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54">
   <autoFilter ref="A1:K91" xr:uid="{72A5AA74-4364-4117-8778-356FF8C70282}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{B5B471E1-992B-4560-9AE9-3A0B01F9D400}" name="Location" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{1012AED6-A79C-434D-9EFD-BC07FE87995E}" name="Test Type" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{B5631442-9C30-47B5-9E8F-98D77DB400BF}" name="Test Number" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{960A60B0-A29E-44B1-B36A-03ABF8C9387B}" name="Test Date-Time" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{33F281F6-219B-4E02-9434-6B6D946A98E0}" name="Sys/Comp Info" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{E798D1DA-91F4-4F85-BC08-C953E40455E6}" name="Severity" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{D1264FDF-B29D-4FEE-92C2-AB98523233CD}" name="EASEY Result Code" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{C745552B-9704-4998-BE61-D3A91601E678}" name="Fired" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{C834180C-E3EF-4150-9616-ACEC523C5385}" name="EASEY Result" dataDxfId="30"/>
-    <tableColumn id="10" xr3:uid="{3ABD6028-9668-4A63-AEC5-1740A232405E}" name="Notes" dataDxfId="29"/>
-    <tableColumn id="11" xr3:uid="{9F9E58E8-A77F-4D89-A441-47366556DBC4}" name="Command Line Parameters" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{B5B471E1-992B-4560-9AE9-3A0B01F9D400}" name="Location" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{1012AED6-A79C-434D-9EFD-BC07FE87995E}" name="Test Type" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{B5631442-9C30-47B5-9E8F-98D77DB400BF}" name="Test Number" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{960A60B0-A29E-44B1-B36A-03ABF8C9387B}" name="Test Date-Time" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{33F281F6-219B-4E02-9434-6B6D946A98E0}" name="Sys/Comp Info" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{E798D1DA-91F4-4F85-BC08-C953E40455E6}" name="Severity" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{D1264FDF-B29D-4FEE-92C2-AB98523233CD}" name="EASEY Result Code" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{C745552B-9704-4998-BE61-D3A91601E678}" name="Fired" dataDxfId="45"/>
+    <tableColumn id="9" xr3:uid="{C834180C-E3EF-4150-9616-ACEC523C5385}" name="EASEY Result" dataDxfId="44"/>
+    <tableColumn id="10" xr3:uid="{3ABD6028-9668-4A63-AEC5-1740A232405E}" name="Notes" dataDxfId="43"/>
+    <tableColumn id="11" xr3:uid="{9F9E58E8-A77F-4D89-A441-47366556DBC4}" name="Command Line Parameters" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{F6500E59-5E05-4CE8-8F9D-9221B55D7FD2}" name="Table15" displayName="Table15" ref="A1:K26" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowBorderDxfId="13">
-  <autoFilter ref="A1:K26" xr:uid="{F6500E59-5E05-4CE8-8F9D-9221B55D7FD2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{AF9DD8BE-C048-408A-9F94-5A8BA21F35EE}" name="Table16" displayName="Table16" ref="A1:K32" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="13">
+  <autoFilter ref="A1:K32" xr:uid="{AF9DD8BE-C048-408A-9F94-5A8BA21F35EE}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{141A1F22-04AC-41C4-A9F5-CA2D856537D2}" name="Location" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{682EB442-4EFC-4943-86B4-811065481E58}" name="Test Type" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{A5BCB04C-743D-46FA-B0DB-84CF0B6BBC8E}" name="Test Number" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{337B62FF-2ACC-49AF-ACCD-33722D3A358A}" name="Test Date-Time" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{CA9A9114-48D7-4C09-9D29-E09FD186CBA4}" name="Sys/Comp Info" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{19FB15F6-B8AD-4984-9641-8937F6CFB220}" name="Severity" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{B429ED75-C4D0-4170-8D54-B8270FFB8774}" name="EASEY Result Code" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{B11B957A-B097-47B2-A383-93BC12EF8B7D}" name="Fired" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{C1D59F6D-98B3-4861-AE30-E527BF23B4D6}" name="EASEY Result" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{AF930BC6-6880-489A-BB78-667B6B0662F2}" name="Notes" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{BDA74063-BCCA-4147-84D8-3ACA73246EC1}" name="Command Line Parameters" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{CEF40D72-5DCC-4B34-AFF0-DB646EE7F1D9}" name="Location" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{73E21D38-0138-4A9D-92D7-F5A45463FD70}" name="Test Type" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{F42AD8C2-F06C-4997-B9FA-A329126E0DFF}" name="Test Number" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{854FA5EA-A370-4202-BA3A-9FA3AB721241}" name="Test Date-Time" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{7732B98C-AAD5-4156-A763-0BC4DE759B93}" name="Sys/Comp Info" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{45B5508A-A4AD-4CFF-B677-AD9882050109}" name="Severity" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{C256B736-EB39-4718-8D5D-E6109D13DA65}" name="EASEY Result Code" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{924700DB-01C4-4CC8-9378-33C861B04674}" name="Fired" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{443A7749-F8EE-4346-8DAB-AB037E910CC8}" name="EASEY Result" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{17370406-1790-475D-A379-C70F7A67E837}" name="Notes" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{52FD404F-F0C8-42CF-85B7-842E44A87945}" name="Command Line Parameters" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{4A6B4518-3730-4EDB-8118-7FC685E54D4D}" name="Table14" displayName="Table14" ref="A1:K65" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{F6500E59-5E05-4CE8-8F9D-9221B55D7FD2}" name="Table15" displayName="Table15" ref="A1:K26" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40">
+  <autoFilter ref="A1:K26" xr:uid="{F6500E59-5E05-4CE8-8F9D-9221B55D7FD2}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{141A1F22-04AC-41C4-A9F5-CA2D856537D2}" name="Location" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{682EB442-4EFC-4943-86B4-811065481E58}" name="Test Type" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{A5BCB04C-743D-46FA-B0DB-84CF0B6BBC8E}" name="Test Number" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{337B62FF-2ACC-49AF-ACCD-33722D3A358A}" name="Test Date-Time" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{CA9A9114-48D7-4C09-9D29-E09FD186CBA4}" name="Sys/Comp Info" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{19FB15F6-B8AD-4984-9641-8937F6CFB220}" name="Severity" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{B429ED75-C4D0-4170-8D54-B8270FFB8774}" name="EASEY Result Code" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{B11B957A-B097-47B2-A383-93BC12EF8B7D}" name="Fired" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{C1D59F6D-98B3-4861-AE30-E527BF23B4D6}" name="EASEY Result" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{AF930BC6-6880-489A-BB78-667B6B0662F2}" name="Notes" dataDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{BDA74063-BCCA-4147-84D8-3ACA73246EC1}" name="Command Line Parameters" dataDxfId="28"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{4A6B4518-3730-4EDB-8118-7FC685E54D4D}" name="Table14" displayName="Table14" ref="A1:K65" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26">
   <autoFilter ref="A1:K65" xr:uid="{4A6B4518-3730-4EDB-8118-7FC685E54D4D}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{688BE455-22E7-460C-AEB8-77FED1C57AE3}" name="Location" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{20C8F268-F0DA-4C4B-85CC-9675F4020B20}" name="Test Type" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{54552E71-F736-4EBF-B675-B592F1FEB306}" name="Test Number" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{AE42C9A1-5DFB-4CAB-8EF8-07F76F7C7F72}" name="Test Date-Time" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{59716E11-5EC0-4CF7-9C60-46F006BF4A88}" name="Sys/Comp Info" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{C2858AAF-8CC6-49B5-8987-6A43E1C7AE69}" name="Severity" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{A0BA8D72-C986-43E0-A3BB-DFA920174AFC}" name="EASEY Result Code" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{39E9C69F-1E34-4D36-B7C3-F2D6A86BBD74}" name="Fired" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{ACAE356B-0C07-4041-B1FC-2027B441EF49}" name="EASEY Result" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{356D670A-5642-493A-B84F-2CC68F64CC3B}" name="Notes" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{B4F1D6ED-902F-4D6E-967E-05C2040CB5E8}" name="Command Line Parameters" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{688BE455-22E7-460C-AEB8-77FED1C57AE3}" name="Location" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{20C8F268-F0DA-4C4B-85CC-9675F4020B20}" name="Test Type" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{54552E71-F736-4EBF-B675-B592F1FEB306}" name="Test Number" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{AE42C9A1-5DFB-4CAB-8EF8-07F76F7C7F72}" name="Test Date-Time" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{59716E11-5EC0-4CF7-9C60-46F006BF4A88}" name="Sys/Comp Info" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{C2858AAF-8CC6-49B5-8987-6A43E1C7AE69}" name="Severity" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{A0BA8D72-C986-43E0-A3BB-DFA920174AFC}" name="EASEY Result Code" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{39E9C69F-1E34-4D36-B7C3-F2D6A86BBD74}" name="Fired" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{ACAE356B-0C07-4041-B1FC-2027B441EF49}" name="EASEY Result" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{356D670A-5642-493A-B84F-2CC68F64CC3B}" name="Notes" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{B4F1D6ED-902F-4D6E-967E-05C2040CB5E8}" name="Command Line Parameters" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6E75B64B-AA6D-476A-8302-BF96D5E7E810}" name="Table6" displayName="Table6" ref="A1:K319" totalsRowShown="0" headerRowDxfId="192" dataDxfId="190" headerRowBorderDxfId="191">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6E75B64B-AA6D-476A-8302-BF96D5E7E810}" name="Table6" displayName="Table6" ref="A1:K319" totalsRowShown="0" headerRowDxfId="206" dataDxfId="204" headerRowBorderDxfId="205">
   <autoFilter ref="A1:K319" xr:uid="{6E75B64B-AA6D-476A-8302-BF96D5E7E810}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{DABC54ED-3C28-4B3B-8594-CAA471D265D5}" name="Location" dataDxfId="189"/>
-    <tableColumn id="2" xr3:uid="{F8AEE93E-FDE2-46D7-B1A7-244178C2F820}" name="Test Type" dataDxfId="188"/>
-    <tableColumn id="3" xr3:uid="{8C6E04D8-89F2-453E-9922-8A0AF53CB692}" name="Test Number" dataDxfId="187"/>
-    <tableColumn id="4" xr3:uid="{2B43C86D-8143-4360-87FC-99396C0E304F}" name="Test Date-Time" dataDxfId="186"/>
-    <tableColumn id="5" xr3:uid="{E75FB52D-EC10-43F0-8D77-68CDEA14235D}" name="Sys/Comp Info" dataDxfId="185"/>
-    <tableColumn id="6" xr3:uid="{E6D41DD1-2DAC-4262-AA16-1D46CE14D100}" name="Severity" dataDxfId="184"/>
-    <tableColumn id="7" xr3:uid="{E4B7FCA0-0453-4D46-AF2D-5FCB94154788}" name="EASEY Result Code" dataDxfId="183"/>
-    <tableColumn id="8" xr3:uid="{1C5C127B-0EC6-40C8-9F7F-CDFFB95E2B9C}" name="Fired" dataDxfId="182"/>
-    <tableColumn id="9" xr3:uid="{E4D52144-8081-4E9C-9216-F2B3E7D99696}" name="EASEY Result" dataDxfId="181"/>
-    <tableColumn id="10" xr3:uid="{1B8F57B6-0961-4DCE-A9BB-77E44380F12A}" name="Notes" dataDxfId="180"/>
-    <tableColumn id="11" xr3:uid="{8C749E78-19F9-4D93-A1EC-56160203A547}" name="Command Line Parameters" dataDxfId="179"/>
+    <tableColumn id="1" xr3:uid="{DABC54ED-3C28-4B3B-8594-CAA471D265D5}" name="Location" dataDxfId="203"/>
+    <tableColumn id="2" xr3:uid="{F8AEE93E-FDE2-46D7-B1A7-244178C2F820}" name="Test Type" dataDxfId="202"/>
+    <tableColumn id="3" xr3:uid="{8C6E04D8-89F2-453E-9922-8A0AF53CB692}" name="Test Number" dataDxfId="201"/>
+    <tableColumn id="4" xr3:uid="{2B43C86D-8143-4360-87FC-99396C0E304F}" name="Test Date-Time" dataDxfId="200"/>
+    <tableColumn id="5" xr3:uid="{E75FB52D-EC10-43F0-8D77-68CDEA14235D}" name="Sys/Comp Info" dataDxfId="199"/>
+    <tableColumn id="6" xr3:uid="{E6D41DD1-2DAC-4262-AA16-1D46CE14D100}" name="Severity" dataDxfId="198"/>
+    <tableColumn id="7" xr3:uid="{E4B7FCA0-0453-4D46-AF2D-5FCB94154788}" name="EASEY Result Code" dataDxfId="197"/>
+    <tableColumn id="8" xr3:uid="{1C5C127B-0EC6-40C8-9F7F-CDFFB95E2B9C}" name="Fired" dataDxfId="196"/>
+    <tableColumn id="9" xr3:uid="{E4D52144-8081-4E9C-9216-F2B3E7D99696}" name="EASEY Result" dataDxfId="195"/>
+    <tableColumn id="10" xr3:uid="{1B8F57B6-0961-4DCE-A9BB-77E44380F12A}" name="Notes" dataDxfId="194"/>
+    <tableColumn id="11" xr3:uid="{8C749E78-19F9-4D93-A1EC-56160203A547}" name="Command Line Parameters" dataDxfId="193"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{D2B13800-7296-41BF-B284-AE9E33207A74}" name="Table11" displayName="Table11" ref="A1:K43" totalsRowShown="0" headerRowDxfId="178" dataDxfId="176" headerRowBorderDxfId="177">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{D2B13800-7296-41BF-B284-AE9E33207A74}" name="Table11" displayName="Table11" ref="A1:K43" totalsRowShown="0" headerRowDxfId="192" dataDxfId="190" headerRowBorderDxfId="191">
   <autoFilter ref="A1:K43" xr:uid="{D2B13800-7296-41BF-B284-AE9E33207A74}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{5C4086A6-D708-4595-83D3-C24973FA7493}" name="Location" dataDxfId="175"/>
-    <tableColumn id="2" xr3:uid="{85418BD6-CBE3-465C-ABAB-216BDDDEC4AB}" name="Test Type" dataDxfId="174"/>
-    <tableColumn id="3" xr3:uid="{4A0464F8-B583-4C14-9868-15E3FED2D126}" name="Test Number" dataDxfId="173"/>
-    <tableColumn id="4" xr3:uid="{78C8BC19-497D-4CBB-B37C-A591E348A8F4}" name="Test Date-Time" dataDxfId="172"/>
-    <tableColumn id="5" xr3:uid="{1264561D-36B6-4A3C-959A-9E394716E8C7}" name="Sys/Comp Info" dataDxfId="171"/>
-    <tableColumn id="6" xr3:uid="{DD999D52-F401-4681-95E1-7CD8BFBB9B5E}" name="Severity" dataDxfId="170"/>
-    <tableColumn id="7" xr3:uid="{579ED199-5C6A-417A-ADFB-6972029F68D6}" name="EASEY Result Code" dataDxfId="169"/>
-    <tableColumn id="8" xr3:uid="{702EEAA3-DA01-410C-BE7A-D14CFC877E75}" name="Fired" dataDxfId="168"/>
-    <tableColumn id="9" xr3:uid="{DD383C11-E19A-499D-859A-528E10686FA7}" name="EASEY Result" dataDxfId="167"/>
-    <tableColumn id="10" xr3:uid="{C65DEB63-1D14-4EFD-B04E-24DDAC666CD7}" name="Notes" dataDxfId="166"/>
-    <tableColumn id="11" xr3:uid="{F16CC94C-3B79-491F-8B14-14C31351265C}" name="Command Line Parameters" dataDxfId="165"/>
+    <tableColumn id="1" xr3:uid="{5C4086A6-D708-4595-83D3-C24973FA7493}" name="Location" dataDxfId="189"/>
+    <tableColumn id="2" xr3:uid="{85418BD6-CBE3-465C-ABAB-216BDDDEC4AB}" name="Test Type" dataDxfId="188"/>
+    <tableColumn id="3" xr3:uid="{4A0464F8-B583-4C14-9868-15E3FED2D126}" name="Test Number" dataDxfId="187"/>
+    <tableColumn id="4" xr3:uid="{78C8BC19-497D-4CBB-B37C-A591E348A8F4}" name="Test Date-Time" dataDxfId="186"/>
+    <tableColumn id="5" xr3:uid="{1264561D-36B6-4A3C-959A-9E394716E8C7}" name="Sys/Comp Info" dataDxfId="185"/>
+    <tableColumn id="6" xr3:uid="{DD999D52-F401-4681-95E1-7CD8BFBB9B5E}" name="Severity" dataDxfId="184"/>
+    <tableColumn id="7" xr3:uid="{579ED199-5C6A-417A-ADFB-6972029F68D6}" name="EASEY Result Code" dataDxfId="183"/>
+    <tableColumn id="8" xr3:uid="{702EEAA3-DA01-410C-BE7A-D14CFC877E75}" name="Fired" dataDxfId="182"/>
+    <tableColumn id="9" xr3:uid="{DD383C11-E19A-499D-859A-528E10686FA7}" name="EASEY Result" dataDxfId="181"/>
+    <tableColumn id="10" xr3:uid="{C65DEB63-1D14-4EFD-B04E-24DDAC666CD7}" name="Notes" dataDxfId="180"/>
+    <tableColumn id="11" xr3:uid="{F16CC94C-3B79-491F-8B14-14C31351265C}" name="Command Line Parameters" dataDxfId="179"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{643FA4C3-7226-4FC1-A77A-D6CF46B7DE06}" name="Table7" displayName="Table7" ref="A1:K33" totalsRowShown="0" headerRowDxfId="164" dataDxfId="162" headerRowBorderDxfId="163">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{643FA4C3-7226-4FC1-A77A-D6CF46B7DE06}" name="Table7" displayName="Table7" ref="A1:K33" totalsRowShown="0" headerRowDxfId="178" dataDxfId="176" headerRowBorderDxfId="177">
   <autoFilter ref="A1:K33" xr:uid="{643FA4C3-7226-4FC1-A77A-D6CF46B7DE06}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{6A1DC097-B550-4298-811F-BB553C8A78B7}" name="Location" dataDxfId="161"/>
-    <tableColumn id="2" xr3:uid="{B0B911C5-C9AF-4D6B-9A8E-E4524ABB1455}" name="Test Type" dataDxfId="160"/>
-    <tableColumn id="3" xr3:uid="{7C46186D-C3D8-4F3A-A359-DBEC33D11A32}" name="Test Number" dataDxfId="159"/>
-    <tableColumn id="4" xr3:uid="{B77DADA4-D1C0-49A5-8941-BF36C2738914}" name="Test Date-Time" dataDxfId="158"/>
-    <tableColumn id="5" xr3:uid="{94D2842C-7497-4826-BFDF-64C1F4930DC7}" name="Sys/Comp Info" dataDxfId="157"/>
-    <tableColumn id="6" xr3:uid="{18E0026A-3AB3-4471-BB8D-F86CD1FCACB2}" name="Severity" dataDxfId="156"/>
-    <tableColumn id="7" xr3:uid="{64F844FE-3B1B-48BD-BFA3-F73DD8F6BAE7}" name="EASEY Result Code" dataDxfId="155"/>
-    <tableColumn id="8" xr3:uid="{0A777F6A-C367-4D68-80DC-BE82994A6C9C}" name="Fired" dataDxfId="154"/>
-    <tableColumn id="9" xr3:uid="{58E8A6A7-2EB9-4636-98D8-915BAA276364}" name="EASEY Result" dataDxfId="153"/>
-    <tableColumn id="10" xr3:uid="{8E16DEBD-9C74-43B0-A1EC-12CF584BC57D}" name="Notes" dataDxfId="152"/>
-    <tableColumn id="11" xr3:uid="{7AE3F542-B6CD-45CB-99F0-47DDE95004F7}" name="Command Line Parameters" dataDxfId="151"/>
+    <tableColumn id="1" xr3:uid="{6A1DC097-B550-4298-811F-BB553C8A78B7}" name="Location" dataDxfId="175"/>
+    <tableColumn id="2" xr3:uid="{B0B911C5-C9AF-4D6B-9A8E-E4524ABB1455}" name="Test Type" dataDxfId="174"/>
+    <tableColumn id="3" xr3:uid="{7C46186D-C3D8-4F3A-A359-DBEC33D11A32}" name="Test Number" dataDxfId="173"/>
+    <tableColumn id="4" xr3:uid="{B77DADA4-D1C0-49A5-8941-BF36C2738914}" name="Test Date-Time" dataDxfId="172"/>
+    <tableColumn id="5" xr3:uid="{94D2842C-7497-4826-BFDF-64C1F4930DC7}" name="Sys/Comp Info" dataDxfId="171"/>
+    <tableColumn id="6" xr3:uid="{18E0026A-3AB3-4471-BB8D-F86CD1FCACB2}" name="Severity" dataDxfId="170"/>
+    <tableColumn id="7" xr3:uid="{64F844FE-3B1B-48BD-BFA3-F73DD8F6BAE7}" name="EASEY Result Code" dataDxfId="169"/>
+    <tableColumn id="8" xr3:uid="{0A777F6A-C367-4D68-80DC-BE82994A6C9C}" name="Fired" dataDxfId="168"/>
+    <tableColumn id="9" xr3:uid="{58E8A6A7-2EB9-4636-98D8-915BAA276364}" name="EASEY Result" dataDxfId="167"/>
+    <tableColumn id="10" xr3:uid="{8E16DEBD-9C74-43B0-A1EC-12CF584BC57D}" name="Notes" dataDxfId="166"/>
+    <tableColumn id="11" xr3:uid="{7AE3F542-B6CD-45CB-99F0-47DDE95004F7}" name="Command Line Parameters" dataDxfId="165"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E4484FF7-4E72-42BE-B673-2211F40DBEC5}" name="Table8" displayName="Table8" ref="A1:K28" totalsRowShown="0" headerRowDxfId="150" headerRowBorderDxfId="149">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E4484FF7-4E72-42BE-B673-2211F40DBEC5}" name="Table8" displayName="Table8" ref="A1:K28" totalsRowShown="0" headerRowDxfId="164" headerRowBorderDxfId="163">
   <autoFilter ref="A1:K28" xr:uid="{E4484FF7-4E72-42BE-B673-2211F40DBEC5}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{BCDEC250-D556-489B-A8C0-F3C0B749EE85}" name="Location" dataDxfId="148"/>
-    <tableColumn id="2" xr3:uid="{27845E29-DF76-4FC1-8B99-E6D05BC504AB}" name="Test Type" dataDxfId="147"/>
-    <tableColumn id="3" xr3:uid="{88E8B5E9-3A4F-487A-A1FD-2F8825130F6C}" name="Test Number" dataDxfId="146"/>
-    <tableColumn id="4" xr3:uid="{96597CE9-7403-4439-ACB1-4DB48A5AE831}" name="Test Date-Time" dataDxfId="145"/>
-    <tableColumn id="5" xr3:uid="{67D38623-BE59-4D0E-966A-D900405266E4}" name="Sys/Comp Info" dataDxfId="144"/>
-    <tableColumn id="6" xr3:uid="{4480DA93-63BE-46D7-9C44-A62CF4C30DB9}" name="Severity" dataDxfId="143"/>
-    <tableColumn id="7" xr3:uid="{4DE029FD-1894-4C16-A49E-7205888520D7}" name="EASEY Result Code" dataDxfId="142"/>
-    <tableColumn id="8" xr3:uid="{38E45A86-E2E8-436C-83B0-1DC52A25A389}" name="Fired" dataDxfId="141"/>
-    <tableColumn id="9" xr3:uid="{D0FCA1F1-B5E4-4F39-8570-3FDAAFD8C655}" name="EASEY Result" dataDxfId="140"/>
-    <tableColumn id="10" xr3:uid="{8FFB2F06-8DA3-4256-9B20-894A86F3CAB1}" name="Notes" dataDxfId="139"/>
-    <tableColumn id="11" xr3:uid="{0A82F04A-4DC9-465C-ACBF-8A9107DE5BF9}" name="Command Line Parameters" dataDxfId="138"/>
+    <tableColumn id="1" xr3:uid="{BCDEC250-D556-489B-A8C0-F3C0B749EE85}" name="Location" dataDxfId="162"/>
+    <tableColumn id="2" xr3:uid="{27845E29-DF76-4FC1-8B99-E6D05BC504AB}" name="Test Type" dataDxfId="161"/>
+    <tableColumn id="3" xr3:uid="{88E8B5E9-3A4F-487A-A1FD-2F8825130F6C}" name="Test Number" dataDxfId="160"/>
+    <tableColumn id="4" xr3:uid="{96597CE9-7403-4439-ACB1-4DB48A5AE831}" name="Test Date-Time" dataDxfId="159"/>
+    <tableColumn id="5" xr3:uid="{67D38623-BE59-4D0E-966A-D900405266E4}" name="Sys/Comp Info" dataDxfId="158"/>
+    <tableColumn id="6" xr3:uid="{4480DA93-63BE-46D7-9C44-A62CF4C30DB9}" name="Severity" dataDxfId="157"/>
+    <tableColumn id="7" xr3:uid="{4DE029FD-1894-4C16-A49E-7205888520D7}" name="EASEY Result Code" dataDxfId="156"/>
+    <tableColumn id="8" xr3:uid="{38E45A86-E2E8-436C-83B0-1DC52A25A389}" name="Fired" dataDxfId="155"/>
+    <tableColumn id="9" xr3:uid="{D0FCA1F1-B5E4-4F39-8570-3FDAAFD8C655}" name="EASEY Result" dataDxfId="154"/>
+    <tableColumn id="10" xr3:uid="{8FFB2F06-8DA3-4256-9B20-894A86F3CAB1}" name="Notes" dataDxfId="153"/>
+    <tableColumn id="11" xr3:uid="{0A82F04A-4DC9-465C-ACBF-8A9107DE5BF9}" name="Command Line Parameters" dataDxfId="152"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C4E4C8FF-D2BC-4023-A7E2-4F0FE1340DDB}" name="Table4" displayName="Table4" ref="A1:K44" totalsRowShown="0" headerRowDxfId="137" dataDxfId="135" headerRowBorderDxfId="136">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C4E4C8FF-D2BC-4023-A7E2-4F0FE1340DDB}" name="Table4" displayName="Table4" ref="A1:K44" totalsRowShown="0" headerRowDxfId="151" dataDxfId="149" headerRowBorderDxfId="150">
   <autoFilter ref="A1:K44" xr:uid="{C4E4C8FF-D2BC-4023-A7E2-4F0FE1340DDB}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{25672079-CDA0-4D8B-8CF3-D545B2ACD419}" name="Location" dataDxfId="134"/>
-    <tableColumn id="2" xr3:uid="{5279C203-946F-4765-ABB9-8C81921C2DC3}" name="Test Type" dataDxfId="133"/>
-    <tableColumn id="3" xr3:uid="{11DE1298-C62C-4C4B-9989-25AA10EF10C0}" name="Test Number" dataDxfId="132"/>
-    <tableColumn id="4" xr3:uid="{2A458B2D-9FF3-4418-9FD6-DF0766209CB5}" name="Test Date-Time" dataDxfId="131"/>
-    <tableColumn id="5" xr3:uid="{60E36B10-857E-4482-B035-790F74DBDB33}" name="Sys/Comp Info" dataDxfId="130"/>
-    <tableColumn id="6" xr3:uid="{2E26423A-D6BE-4410-8F61-F74A3CED15B8}" name="Severity" dataDxfId="129"/>
-    <tableColumn id="7" xr3:uid="{20497C37-19CA-4417-AC58-9CBBEB217149}" name="EASEY Result Code" dataDxfId="128"/>
-    <tableColumn id="8" xr3:uid="{B51DBED3-688D-4748-9F71-406904878E83}" name="Fired" dataDxfId="127"/>
-    <tableColumn id="9" xr3:uid="{55BF46DF-A688-44E7-9212-0315C9101E05}" name="EASEY Result" dataDxfId="126"/>
-    <tableColumn id="10" xr3:uid="{A4FC5CC8-E769-426F-AEEE-D8BDE3AAE1AB}" name="Notes" dataDxfId="125"/>
-    <tableColumn id="11" xr3:uid="{E7F09088-0589-40C2-8067-9D1FE0896663}" name="Command Line Parameters" dataDxfId="124"/>
+    <tableColumn id="1" xr3:uid="{25672079-CDA0-4D8B-8CF3-D545B2ACD419}" name="Location" dataDxfId="148"/>
+    <tableColumn id="2" xr3:uid="{5279C203-946F-4765-ABB9-8C81921C2DC3}" name="Test Type" dataDxfId="147"/>
+    <tableColumn id="3" xr3:uid="{11DE1298-C62C-4C4B-9989-25AA10EF10C0}" name="Test Number" dataDxfId="146"/>
+    <tableColumn id="4" xr3:uid="{2A458B2D-9FF3-4418-9FD6-DF0766209CB5}" name="Test Date-Time" dataDxfId="145"/>
+    <tableColumn id="5" xr3:uid="{60E36B10-857E-4482-B035-790F74DBDB33}" name="Sys/Comp Info" dataDxfId="144"/>
+    <tableColumn id="6" xr3:uid="{2E26423A-D6BE-4410-8F61-F74A3CED15B8}" name="Severity" dataDxfId="143"/>
+    <tableColumn id="7" xr3:uid="{20497C37-19CA-4417-AC58-9CBBEB217149}" name="EASEY Result Code" dataDxfId="142"/>
+    <tableColumn id="8" xr3:uid="{B51DBED3-688D-4748-9F71-406904878E83}" name="Fired" dataDxfId="141"/>
+    <tableColumn id="9" xr3:uid="{55BF46DF-A688-44E7-9212-0315C9101E05}" name="EASEY Result" dataDxfId="140"/>
+    <tableColumn id="10" xr3:uid="{A4FC5CC8-E769-426F-AEEE-D8BDE3AAE1AB}" name="Notes" dataDxfId="139"/>
+    <tableColumn id="11" xr3:uid="{E7F09088-0589-40C2-8067-9D1FE0896663}" name="Command Line Parameters" dataDxfId="138"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0CC4DB58-871D-4311-83EC-9DB6A2F24D3C}" name="Table3" displayName="Table3" ref="A1:K26" totalsRowShown="0" headerRowDxfId="123" dataDxfId="121" headerRowBorderDxfId="122">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0CC4DB58-871D-4311-83EC-9DB6A2F24D3C}" name="Table3" displayName="Table3" ref="A1:K26" totalsRowShown="0" headerRowDxfId="137" dataDxfId="135" headerRowBorderDxfId="136">
   <autoFilter ref="A1:K26" xr:uid="{0CC4DB58-871D-4311-83EC-9DB6A2F24D3C}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{FD39BA7F-4A73-45B6-8492-9C47A87EAF80}" name="Location" dataDxfId="120"/>
-    <tableColumn id="2" xr3:uid="{6BD18705-A907-480B-9613-FD6A89008B95}" name="Test Type" dataDxfId="119"/>
-    <tableColumn id="3" xr3:uid="{171EC70D-BD2B-4679-9E2F-B7A72F41A5BC}" name="Test Number" dataDxfId="118"/>
-    <tableColumn id="4" xr3:uid="{54392DF7-D2E8-406A-BF46-C94A6AF058B7}" name="Test Date-Time" dataDxfId="117"/>
-    <tableColumn id="5" xr3:uid="{BEE30332-3FC4-42CC-9E0A-10D6FD8CE7DB}" name="Sys/Comp Info" dataDxfId="116"/>
-    <tableColumn id="6" xr3:uid="{4D56506A-EEFD-4953-B5C2-BFBFB1100C42}" name="Severity" dataDxfId="115"/>
-    <tableColumn id="7" xr3:uid="{F7744816-5978-4331-B8B7-FBAEA071B23C}" name="EASEY Result Code" dataDxfId="114"/>
-    <tableColumn id="8" xr3:uid="{5A8FF3A4-DEAC-4772-A7B5-657662710593}" name="Fired" dataDxfId="113"/>
-    <tableColumn id="9" xr3:uid="{B72C4A8D-A7B2-492D-AAF3-C53B34CC6D68}" name="EASEY Result" dataDxfId="112"/>
-    <tableColumn id="10" xr3:uid="{3BD58939-520E-4EF9-ACA2-F4F2053AAB3E}" name="Notes" dataDxfId="111"/>
-    <tableColumn id="11" xr3:uid="{81440B9B-FEDA-4EF7-8E5F-058F42001F39}" name="Command Line Parameters" dataDxfId="110"/>
+    <tableColumn id="1" xr3:uid="{FD39BA7F-4A73-45B6-8492-9C47A87EAF80}" name="Location" dataDxfId="134"/>
+    <tableColumn id="2" xr3:uid="{6BD18705-A907-480B-9613-FD6A89008B95}" name="Test Type" dataDxfId="133"/>
+    <tableColumn id="3" xr3:uid="{171EC70D-BD2B-4679-9E2F-B7A72F41A5BC}" name="Test Number" dataDxfId="132"/>
+    <tableColumn id="4" xr3:uid="{54392DF7-D2E8-406A-BF46-C94A6AF058B7}" name="Test Date-Time" dataDxfId="131"/>
+    <tableColumn id="5" xr3:uid="{BEE30332-3FC4-42CC-9E0A-10D6FD8CE7DB}" name="Sys/Comp Info" dataDxfId="130"/>
+    <tableColumn id="6" xr3:uid="{4D56506A-EEFD-4953-B5C2-BFBFB1100C42}" name="Severity" dataDxfId="129"/>
+    <tableColumn id="7" xr3:uid="{F7744816-5978-4331-B8B7-FBAEA071B23C}" name="EASEY Result Code" dataDxfId="128"/>
+    <tableColumn id="8" xr3:uid="{5A8FF3A4-DEAC-4772-A7B5-657662710593}" name="Fired" dataDxfId="127"/>
+    <tableColumn id="9" xr3:uid="{B72C4A8D-A7B2-492D-AAF3-C53B34CC6D68}" name="EASEY Result" dataDxfId="126"/>
+    <tableColumn id="10" xr3:uid="{3BD58939-520E-4EF9-ACA2-F4F2053AAB3E}" name="Notes" dataDxfId="125"/>
+    <tableColumn id="11" xr3:uid="{81440B9B-FEDA-4EF7-8E5F-058F42001F39}" name="Command Line Parameters" dataDxfId="124"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{387CD9B0-42DD-43F6-B933-FC392A3DA7CC}" name="Table13" displayName="Table13" ref="A1:K26" totalsRowShown="0" headerRowDxfId="109" dataDxfId="107" headerRowBorderDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{387CD9B0-42DD-43F6-B933-FC392A3DA7CC}" name="Table13" displayName="Table13" ref="A1:K26" totalsRowShown="0" headerRowDxfId="123" dataDxfId="121" headerRowBorderDxfId="122">
   <autoFilter ref="A1:K26" xr:uid="{387CD9B0-42DD-43F6-B933-FC392A3DA7CC}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{58A7C390-8DB8-4C87-940A-55AE4A3592FC}" name="Location" dataDxfId="106"/>
-    <tableColumn id="2" xr3:uid="{A3FC97A4-B761-48C4-BB4C-19DA9785E4DF}" name="Test Type" dataDxfId="105"/>
-    <tableColumn id="3" xr3:uid="{3A3BD58D-EB20-4F67-8215-8A96EE69C978}" name="Test Number" dataDxfId="104"/>
-    <tableColumn id="4" xr3:uid="{DE80CD30-41D0-4B53-8DE7-4F269F701558}" name="Test Date-Time" dataDxfId="103"/>
-    <tableColumn id="5" xr3:uid="{B86A2D2D-C8EB-483C-BF81-EB9D9F4E66F2}" name="Sys/Comp Info" dataDxfId="102"/>
-    <tableColumn id="6" xr3:uid="{36B980F4-27FC-477D-A50F-623E7E0A94DE}" name="Severity" dataDxfId="101"/>
-    <tableColumn id="7" xr3:uid="{A9D38791-49D7-4EB3-896C-646601058179}" name="EASEY Result Code" dataDxfId="100"/>
-    <tableColumn id="8" xr3:uid="{938968FB-CC01-4403-A09B-C4F6161B5D90}" name="Fired" dataDxfId="99"/>
-    <tableColumn id="9" xr3:uid="{25329D8A-5A94-4418-84D8-82518A7923BD}" name="EASEY Result" dataDxfId="98"/>
-    <tableColumn id="10" xr3:uid="{D60A5A6A-A087-4FC2-96A5-060A26AA48C8}" name="Notes" dataDxfId="97"/>
-    <tableColumn id="11" xr3:uid="{5DE715B2-E8F2-48F0-9DE2-694E23DB23E9}" name="Command Line Parameters" dataDxfId="96"/>
+    <tableColumn id="1" xr3:uid="{58A7C390-8DB8-4C87-940A-55AE4A3592FC}" name="Location" dataDxfId="120"/>
+    <tableColumn id="2" xr3:uid="{A3FC97A4-B761-48C4-BB4C-19DA9785E4DF}" name="Test Type" dataDxfId="119"/>
+    <tableColumn id="3" xr3:uid="{3A3BD58D-EB20-4F67-8215-8A96EE69C978}" name="Test Number" dataDxfId="118"/>
+    <tableColumn id="4" xr3:uid="{DE80CD30-41D0-4B53-8DE7-4F269F701558}" name="Test Date-Time" dataDxfId="117"/>
+    <tableColumn id="5" xr3:uid="{B86A2D2D-C8EB-483C-BF81-EB9D9F4E66F2}" name="Sys/Comp Info" dataDxfId="116"/>
+    <tableColumn id="6" xr3:uid="{36B980F4-27FC-477D-A50F-623E7E0A94DE}" name="Severity" dataDxfId="115"/>
+    <tableColumn id="7" xr3:uid="{A9D38791-49D7-4EB3-896C-646601058179}" name="EASEY Result Code" dataDxfId="114"/>
+    <tableColumn id="8" xr3:uid="{938968FB-CC01-4403-A09B-C4F6161B5D90}" name="Fired" dataDxfId="113"/>
+    <tableColumn id="9" xr3:uid="{25329D8A-5A94-4418-84D8-82518A7923BD}" name="EASEY Result" dataDxfId="112"/>
+    <tableColumn id="10" xr3:uid="{D60A5A6A-A087-4FC2-96A5-060A26AA48C8}" name="Notes" dataDxfId="111"/>
+    <tableColumn id="11" xr3:uid="{5DE715B2-E8F2-48F0-9DE2-694E23DB23E9}" name="Command Line Parameters" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{020EA727-A068-4214-96AF-BBB58B4AD2CD}" name="Table12" displayName="Table12" ref="A1:K25" totalsRowShown="0" headerRowDxfId="95" dataDxfId="93" headerRowBorderDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{020EA727-A068-4214-96AF-BBB58B4AD2CD}" name="Table12" displayName="Table12" ref="A1:K25" totalsRowShown="0" headerRowDxfId="109" dataDxfId="107" headerRowBorderDxfId="108">
   <autoFilter ref="A1:K25" xr:uid="{020EA727-A068-4214-96AF-BBB58B4AD2CD}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{17B6DF4E-F31D-42AC-A8A3-2F473C2E30F7}" name="Location" dataDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{1A61DB90-0A47-46E7-8836-10B843CF3280}" name="Test Type" dataDxfId="91"/>
-    <tableColumn id="3" xr3:uid="{C31ACC80-9B40-4B96-9E67-1DC0F8B22187}" name="Test Number" dataDxfId="90"/>
-    <tableColumn id="4" xr3:uid="{80D262AE-185A-4DB8-B5EF-067896A28E0A}" name="Test Date-Time" dataDxfId="89"/>
-    <tableColumn id="5" xr3:uid="{6B683640-6F4D-4D37-B872-927A078A42E7}" name="Sys/Comp Info" dataDxfId="88"/>
-    <tableColumn id="6" xr3:uid="{F2BE968C-9CCB-4176-862E-EA3DBB1F5265}" name="Severity" dataDxfId="87"/>
-    <tableColumn id="7" xr3:uid="{BC1C5663-AD9C-4AF4-8910-56571D431FB2}" name="EASEY Result Code" dataDxfId="86"/>
-    <tableColumn id="8" xr3:uid="{9BDF95D2-C165-45CF-B4F9-D68DB059FCA4}" name="Fired" dataDxfId="85"/>
-    <tableColumn id="9" xr3:uid="{932FF336-A11E-491C-BA6B-0A86BA9E1B8D}" name="EASEY Result" dataDxfId="84"/>
-    <tableColumn id="10" xr3:uid="{DFD2B33B-3898-4612-A48A-7808C887C1CB}" name="Notes" dataDxfId="83"/>
-    <tableColumn id="11" xr3:uid="{62C0C95E-EBA4-4A37-A7D6-D1C8B2FB1DD6}" name="Command Line Parameters" dataDxfId="82"/>
+    <tableColumn id="1" xr3:uid="{17B6DF4E-F31D-42AC-A8A3-2F473C2E30F7}" name="Location" dataDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{1A61DB90-0A47-46E7-8836-10B843CF3280}" name="Test Type" dataDxfId="105"/>
+    <tableColumn id="3" xr3:uid="{C31ACC80-9B40-4B96-9E67-1DC0F8B22187}" name="Test Number" dataDxfId="104"/>
+    <tableColumn id="4" xr3:uid="{80D262AE-185A-4DB8-B5EF-067896A28E0A}" name="Test Date-Time" dataDxfId="103"/>
+    <tableColumn id="5" xr3:uid="{6B683640-6F4D-4D37-B872-927A078A42E7}" name="Sys/Comp Info" dataDxfId="102"/>
+    <tableColumn id="6" xr3:uid="{F2BE968C-9CCB-4176-862E-EA3DBB1F5265}" name="Severity" dataDxfId="101"/>
+    <tableColumn id="7" xr3:uid="{BC1C5663-AD9C-4AF4-8910-56571D431FB2}" name="EASEY Result Code" dataDxfId="100"/>
+    <tableColumn id="8" xr3:uid="{9BDF95D2-C165-45CF-B4F9-D68DB059FCA4}" name="Fired" dataDxfId="99"/>
+    <tableColumn id="9" xr3:uid="{932FF336-A11E-491C-BA6B-0A86BA9E1B8D}" name="EASEY Result" dataDxfId="98"/>
+    <tableColumn id="10" xr3:uid="{DFD2B33B-3898-4612-A48A-7808C887C1CB}" name="Notes" dataDxfId="97"/>
+    <tableColumn id="11" xr3:uid="{62C0C95E-EBA4-4A37-A7D6-D1C8B2FB1DD6}" name="Command Line Parameters" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -36309,10 +36517,1072 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85F61AB-9DA3-44EF-9664-ED9383A7DC6E}">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="115.42578125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="102.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" s="6">
+        <v>43920.578472222223</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2018</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>2019</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="6">
+        <v>43920.578472222223</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" s="6">
+        <v>43920.578472222223</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="6">
+        <v>43920.741666666669</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>2020</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>2021</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" s="6">
+        <v>43920.741666666669</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>2022</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>2023</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="6">
+        <v>43920.741666666669</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>2024</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>2025</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D8" s="6">
+        <v>43920.741666666669</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>2026</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>2027</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="6">
+        <v>43920.741666666669</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>2028</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>2029</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="6">
+        <v>43920.741666666669</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>2030</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>2031</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" s="6">
+        <v>43920.741666666669</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>2032</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>2033</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" s="6">
+        <v>43920.741666666669</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D13" s="6">
+        <v>42415.574305555558</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>2024</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>2035</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D14" s="6">
+        <v>42415.574305555558</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D15" s="6">
+        <v>42822.741666666669</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>2038</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>2039</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D16" s="6">
+        <v>42822.741666666669</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2041</v>
+      </c>
+      <c r="D17" s="6">
+        <v>43158.572916666664</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>2026</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>2042</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2041</v>
+      </c>
+      <c r="D18" s="6">
+        <v>43158.572916666664</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2041</v>
+      </c>
+      <c r="D19" s="6">
+        <v>43158.572916666664</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>2041</v>
+      </c>
+      <c r="D20" s="6">
+        <v>43158.572916666664</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2044</v>
+      </c>
+      <c r="D21" s="6">
+        <v>43487.588888888888</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>2045</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>2046</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2044</v>
+      </c>
+      <c r="D22" s="6">
+        <v>43487.588888888888</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D23" s="6">
+        <v>43600.525694444441</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>2048</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>2049</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D24" s="6">
+        <v>43600.525694444441</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D25" s="6">
+        <v>43600.525694444441</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D26" s="6">
+        <v>43837.533333333333</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>2020</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>2050</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D27" s="6">
+        <v>43837.533333333333</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D28" s="6">
+        <v>43837.533333333333</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D29" s="6">
+        <v>44257.670138888891</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>2051</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>2052</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D30" s="6">
+        <v>44257.670138888891</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D31" s="6">
+        <v>44264.519444444442</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>2028</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>2053</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D32" s="6">
+        <v>44264.519444444442</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307E8187-44DF-4FB9-8580-48A85C7DC54A}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -37178,7 +38448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D196CC-3DC9-4A6C-BAF4-BA1549D5FF19}">
   <dimension ref="A1:K65"/>
   <sheetViews>

--- a/misc/Testing Scripts/QA/TestCaseResults.xlsx
+++ b/misc/Testing Scripts/QA/TestCaseResults.xlsx
@@ -8,27 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\CAMDDevelopment\easey-db-scripts\misc\Testing Scripts\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDE29CC-5574-4418-99D7-C45142C1B860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60D5ECC-BD9B-46FB-BD40-5D7AF9FA7D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" activeTab="13" xr2:uid="{673C86AF-EEEE-433C-9A6E-BD69DDCD2237}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" activeTab="3" xr2:uid="{673C86AF-EEEE-433C-9A6E-BD69DDCD2237}"/>
   </bookViews>
   <sheets>
     <sheet name="7DAY" sheetId="9" r:id="rId1"/>
     <sheet name="APPE" sheetId="6" r:id="rId2"/>
     <sheet name="CYCLE" sheetId="11" r:id="rId3"/>
-    <sheet name="F2LCHK" sheetId="7" r:id="rId4"/>
-    <sheet name="F2LREF" sheetId="8" r:id="rId5"/>
-    <sheet name="FF2LBAS" sheetId="4" r:id="rId6"/>
-    <sheet name="FF2LTST" sheetId="3" r:id="rId7"/>
-    <sheet name="FFACC" sheetId="13" r:id="rId8"/>
-    <sheet name="FFACCTT" sheetId="12" r:id="rId9"/>
-    <sheet name="LINE" sheetId="1" r:id="rId10"/>
-    <sheet name="ONOFF" sheetId="10" r:id="rId11"/>
-    <sheet name="RATA" sheetId="2" r:id="rId12"/>
-    <sheet name="UNITDEF" sheetId="5" r:id="rId13"/>
-    <sheet name="Check Type AETB" sheetId="16" r:id="rId14"/>
-    <sheet name="Check Type PGVP" sheetId="15" r:id="rId15"/>
-    <sheet name="Check Type TEST" sheetId="14" r:id="rId16"/>
+    <sheet name="EVENT" sheetId="17" r:id="rId4"/>
+    <sheet name="F2LCHK" sheetId="7" r:id="rId5"/>
+    <sheet name="F2LREF" sheetId="8" r:id="rId6"/>
+    <sheet name="FF2LBAS" sheetId="4" r:id="rId7"/>
+    <sheet name="FF2LTST" sheetId="3" r:id="rId8"/>
+    <sheet name="FFACC" sheetId="13" r:id="rId9"/>
+    <sheet name="FFACCTT" sheetId="12" r:id="rId10"/>
+    <sheet name="LINE" sheetId="1" r:id="rId11"/>
+    <sheet name="ONOFF" sheetId="10" r:id="rId12"/>
+    <sheet name="RATA" sheetId="2" r:id="rId13"/>
+    <sheet name="UNITDEF" sheetId="5" r:id="rId14"/>
+    <sheet name="Check Type AETB" sheetId="16" r:id="rId15"/>
+    <sheet name="Check Type PGVP" sheetId="15" r:id="rId16"/>
+    <sheet name="Check Type TEST" sheetId="14" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13948" uniqueCount="2054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14209" uniqueCount="2119">
   <si>
     <t>ORIS 3 (Barry) Location 5</t>
   </si>
@@ -6220,6 +6221,201 @@
   </si>
   <si>
     <t>You did not provide ProviderEmail, which is required for Judd M. Rew.</t>
+  </si>
+  <si>
+    <t>2019-11-07 10</t>
+  </si>
+  <si>
+    <t>QACERT-10-A</t>
+  </si>
+  <si>
+    <t>You reported CompletionTestDate and CompletionTestHour, which is prior to ConditionalBeginDate and ConditionalBeginHour for this event.</t>
+  </si>
+  <si>
+    <t>QCE "TWCORNEL5-C0E3879920A14159BAA98E03F1980A7A" "TWCORNEL5-959139C2776D435998D9DF182A3B3DF6"</t>
+  </si>
+  <si>
+    <t>2021-12-20 00</t>
+  </si>
+  <si>
+    <t>QACERT-13-B</t>
+  </si>
+  <si>
+    <t>The RequiredTestCode is not appropriate for the system or component in the event record reported for this event.</t>
+  </si>
+  <si>
+    <t>QCE "TWCORNEL5-C0E3879920A14159BAA98E03F1980A7A" "CHV-LGIANN-FD2E4272AEF146BDAE361D4E46904B37"</t>
+  </si>
+  <si>
+    <t>QACERT-15-A</t>
+  </si>
+  <si>
+    <t>Based on the EventCode in the record for this event, the certification event requires the following test types: LINE.  However, you have reported a RequiredTestCode that does not include these types of tests.</t>
+  </si>
+  <si>
+    <t>2021-12-27 00</t>
+  </si>
+  <si>
+    <t>QACERT-6-A</t>
+  </si>
+  <si>
+    <t>You reported ConditionalBeginHour but did not report ConditionalBeginDate for this event.</t>
+  </si>
+  <si>
+    <t>QCE "TWCORNEL5-C0E3879920A14159BAA98E03F1980A7A" "CHV-LGIANN-DEDC606C43184A09AB091D76CFD4DC22"</t>
+  </si>
+  <si>
+    <t>AA1 (SO2)</t>
+  </si>
+  <si>
+    <t>AA6 (SO2)</t>
+  </si>
+  <si>
+    <t>QACERT-8-A</t>
+  </si>
+  <si>
+    <t>You did not provide RequiredTestCode, which is required for this event.</t>
+  </si>
+  <si>
+    <t>QCE "TWCORNEL5-C0E3879920A14159BAA98E03F1980A7A" "CHV-LGIANN-2EE6184E5D854CB7A271E2842A5640E3"</t>
+  </si>
+  <si>
+    <t>QACERT-4-C</t>
+  </si>
+  <si>
+    <t>Based on the EventDate and EventHour, the monitoring system reported in the event record for this event was not active.</t>
+  </si>
+  <si>
+    <t>QACERT-5-C</t>
+  </si>
+  <si>
+    <t>According to the Monitoring System Component records in the monitoring plan, the component was not active during the event reported in the event record for this event.</t>
+  </si>
+  <si>
+    <t>QACERT-5-A</t>
+  </si>
+  <si>
+    <t>You did not report a ComponentID for this event.  You must provide a ComponentID when the RequiredTestCode indicates that you must perform a component-specific test.</t>
+  </si>
+  <si>
+    <t>QCE "TWCORNEL5-C0E3879920A14159BAA98E03F1980A7A" "CHV-LGIANN-6392789024C64BA088AF3514D971E883"</t>
+  </si>
+  <si>
+    <t>4000-12-27 00</t>
+  </si>
+  <si>
+    <t>QACERT-2-B</t>
+  </si>
+  <si>
+    <t>You reported a QACertEventDate of 12/27/4000, which is outside the range of acceptable values for this date for this event.</t>
+  </si>
+  <si>
+    <t>QCE "TWCORNEL5-C0E3879920A14159BAA98E03F1980A7A" "CHV-LGIANN-046E7C9120004C68A61565DD26E93D54"</t>
+  </si>
+  <si>
+    <t>QACERT-12-B</t>
+  </si>
+  <si>
+    <t>The QACertEventCode is not appropriate for the system or component reported in the event record for this event.</t>
+  </si>
+  <si>
+    <t>2006-09-11 06</t>
+  </si>
+  <si>
+    <t>AA9 (FLOW)</t>
+  </si>
+  <si>
+    <t>Based on the EventCode in the record for this event, the certification event requires the following test types: 7DAY.  However, you have reported a RequiredTestCode that does not include these types of tests.</t>
+  </si>
+  <si>
+    <t>QCE "TWCORNEL5-C0E3879920A14159BAA98E03F1980A7A" "EPA-C3B62FA230499D0AC987255322B3EF55"</t>
+  </si>
+  <si>
+    <t>2021-12-27 24</t>
+  </si>
+  <si>
+    <t>QACERT-3-B</t>
+  </si>
+  <si>
+    <t>You reported a QACertEventHour of 24, which is outside the range of acceptable values for this hour for this event.</t>
+  </si>
+  <si>
+    <t>QCE "TWCORNEL5-C0E3879920A14159BAA98E03F1980A7A" "CHV-LGIANN-C6C2C9B494244418A5BB30AC65CF028A"</t>
+  </si>
+  <si>
+    <t>AA8 (CO2)</t>
+  </si>
+  <si>
+    <t>QACERT-9-A</t>
+  </si>
+  <si>
+    <t>You reported ConditionalBeginDate and ConditionalBeginHour, which is prior to QACertEventDate and QACertEventHour for this event.</t>
+  </si>
+  <si>
+    <t>QCE "TWCORNEL5-C0E3879920A14159BAA98E03F1980A7A" "CHV-LGIANN-7737C2BC0C224390B2A9E78E4ECBEBFA"</t>
+  </si>
+  <si>
+    <t>QACERT-14-G</t>
+  </si>
+  <si>
+    <t>You reported a QA Certification Event record for this event, indicating that this location is an ozone-season-only reporter,  but the Monitor Plan Reporting Frequency records indicate that this location is an annual reporter.</t>
+  </si>
+  <si>
+    <t>Based on the EventCode in the record for this event, the certification event requires the following test types: LINE,RATA.  However, you have reported a RequiredTestCode that does not include these types of tests.</t>
+  </si>
+  <si>
+    <t>QACERT-1-B</t>
+  </si>
+  <si>
+    <t>You reported a QACertEventCode of 99, which requires approval from the EPA.</t>
+  </si>
+  <si>
+    <t>QCE "TWCORNEL5-C0E3879920A14159BAA98E03F1980A7A" "CHV-LGIANN-41D6CA4DCB3B4B45AC753004E9D09062"</t>
+  </si>
+  <si>
+    <t>QACERT-7-D</t>
+  </si>
+  <si>
+    <t>You did not report a TestCompletionDate for this event.  If you have not yet completed the tests required for this QA Certification event, you should update the test completion date and hour, and resubmit the record after all tests are completed.</t>
+  </si>
+  <si>
+    <t>Event Code</t>
+  </si>
+  <si>
+    <t>Event Hout</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>2014-10-01 00</t>
+  </si>
+  <si>
+    <t>2015-08-26 08</t>
+  </si>
+  <si>
+    <t>QCE "TWCORNEL5-F4E3DAADF24B4E1C8F2BEDD2DE59B436" "TWCORNEL5-7AA073FE89164FDB9D89D23F2CA36D9C"</t>
+  </si>
+  <si>
+    <t>QCE "TWCORNEL5-F4E3DAADF24B4E1C8F2BEDD2DE59B436" "TWCORNEL5-ED6B3C78DB8946F183CC38BFB172111E"</t>
+  </si>
+  <si>
+    <t>QCE "TWCORNEL5-F4E3DAADF24B4E1C8F2BEDD2DE59B436" "TWCORNEL5-ED705A2D8B5E415B81C4238C224B14CF"</t>
+  </si>
+  <si>
+    <t>QCE "TWCORNEL5-F4E3DAADF24B4E1C8F2BEDD2DE59B436" "TWCORNEL5-45B51BCC6A034B98BAA2D1F58ABDAA71"</t>
+  </si>
+  <si>
+    <t>QCE "TWCORNEL5-F4E3DAADF24B4E1C8F2BEDD2DE59B436" "TWCORNEL5-3F62E109A85942C5803C406C9877D38E"</t>
+  </si>
+  <si>
+    <t>QACERT-16-A</t>
+  </si>
+  <si>
+    <t>A Monitoring Plan associated with this QA certification event has critical errors.  You must correct all active and future Monitoring Plans containing the location in this QA certification event in order to submit this QA certification event to be loaded on EPA's host system.</t>
   </si>
 </sst>
 </file>
@@ -6374,9 +6570,128 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="221">
+  <dxfs count="235">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -6440,47 +6755,6 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -7572,125 +7846,145 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5C910FE5-874B-4017-B841-F60367D6DBDE}" name="Table9" displayName="Table9" ref="A1:K73" totalsRowShown="0" headerRowDxfId="220" dataDxfId="218" headerRowBorderDxfId="219">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5C910FE5-874B-4017-B841-F60367D6DBDE}" name="Table9" displayName="Table9" ref="A1:K73" totalsRowShown="0" headerRowDxfId="234" dataDxfId="232" headerRowBorderDxfId="233">
   <autoFilter ref="A1:K73" xr:uid="{5C910FE5-874B-4017-B841-F60367D6DBDE}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{8279D829-3000-4C82-8018-0E78EB4E52ED}" name="Location" dataDxfId="217"/>
-    <tableColumn id="2" xr3:uid="{8C3F4264-2BDD-4183-9522-C40A313B4494}" name="Test Type" dataDxfId="216"/>
-    <tableColumn id="3" xr3:uid="{B0DE5395-DC16-46BB-BC57-85CF8494EEC8}" name="Test Number" dataDxfId="215"/>
-    <tableColumn id="4" xr3:uid="{AFAA091C-FD51-4F17-B61A-9B63F7F60549}" name="Test Date-Time" dataDxfId="214"/>
-    <tableColumn id="5" xr3:uid="{9510359E-2D55-43AD-8BD2-3BEAD6C916CF}" name="Sys/Comp Info" dataDxfId="213"/>
-    <tableColumn id="6" xr3:uid="{AECAE78C-1669-4150-9D54-CF24FB46FB2C}" name="Severity" dataDxfId="212"/>
-    <tableColumn id="7" xr3:uid="{60F04430-453C-4689-B258-ECBB97164B62}" name="EASEY Result Code" dataDxfId="211"/>
-    <tableColumn id="8" xr3:uid="{48BBCC17-5C80-41DD-9F75-59C2F34B310D}" name="Fired" dataDxfId="210"/>
-    <tableColumn id="9" xr3:uid="{B8B66FF4-909C-4ADC-8A89-2420561A8BC8}" name="EASEY Result" dataDxfId="209"/>
-    <tableColumn id="10" xr3:uid="{502F8369-E6BA-4168-9FB1-BDCCFE48BA95}" name="Notes" dataDxfId="208"/>
-    <tableColumn id="11" xr3:uid="{1BA34216-1816-4C5B-91A2-0F623ECC08A9}" name="Command Line Parameters" dataDxfId="207"/>
+    <tableColumn id="1" xr3:uid="{8279D829-3000-4C82-8018-0E78EB4E52ED}" name="Location" dataDxfId="231"/>
+    <tableColumn id="2" xr3:uid="{8C3F4264-2BDD-4183-9522-C40A313B4494}" name="Test Type" dataDxfId="230"/>
+    <tableColumn id="3" xr3:uid="{B0DE5395-DC16-46BB-BC57-85CF8494EEC8}" name="Test Number" dataDxfId="229"/>
+    <tableColumn id="4" xr3:uid="{AFAA091C-FD51-4F17-B61A-9B63F7F60549}" name="Test Date-Time" dataDxfId="228"/>
+    <tableColumn id="5" xr3:uid="{9510359E-2D55-43AD-8BD2-3BEAD6C916CF}" name="Sys/Comp Info" dataDxfId="227"/>
+    <tableColumn id="6" xr3:uid="{AECAE78C-1669-4150-9D54-CF24FB46FB2C}" name="Severity" dataDxfId="226"/>
+    <tableColumn id="7" xr3:uid="{60F04430-453C-4689-B258-ECBB97164B62}" name="EASEY Result Code" dataDxfId="225"/>
+    <tableColumn id="8" xr3:uid="{48BBCC17-5C80-41DD-9F75-59C2F34B310D}" name="Fired" dataDxfId="224"/>
+    <tableColumn id="9" xr3:uid="{B8B66FF4-909C-4ADC-8A89-2420561A8BC8}" name="EASEY Result" dataDxfId="223"/>
+    <tableColumn id="10" xr3:uid="{502F8369-E6BA-4168-9FB1-BDCCFE48BA95}" name="Notes" dataDxfId="222"/>
+    <tableColumn id="11" xr3:uid="{1BA34216-1816-4C5B-91A2-0F623ECC08A9}" name="Command Line Parameters" dataDxfId="221"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}" name="Table1" displayName="Table1" ref="A1:J68" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
-  <autoFilter ref="A1:J68" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{4711296A-1683-4D59-9390-9C88803AA68A}" name="Location" dataDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{46A8668E-BFD8-4CE9-8D48-A23DE00E437E}" name="Test Type" dataDxfId="92"/>
-    <tableColumn id="3" xr3:uid="{B7C72E78-CAF2-41A0-B7AC-096EC362072F}" name="Test Number" dataDxfId="91"/>
-    <tableColumn id="10" xr3:uid="{91E3C101-E9B0-405F-84B0-E044FE40F81E}" name="Test Date-Time" dataDxfId="90"/>
-    <tableColumn id="9" xr3:uid="{D57E3F37-9AD6-40C2-8ACB-5192B0E03191}" name="Sys/Comp Info" dataDxfId="89"/>
-    <tableColumn id="4" xr3:uid="{9415854F-BF69-421C-939D-DB4180DF22DE}" name="Severity" dataDxfId="88"/>
-    <tableColumn id="5" xr3:uid="{5AD12D48-C5A2-4105-B479-271121D42D3E}" name="EASEY Result Code" dataDxfId="87"/>
-    <tableColumn id="8" xr3:uid="{FBEFE9F9-E17E-4E0B-8743-7AE06BE9B114}" name="Fired" dataDxfId="86"/>
-    <tableColumn id="6" xr3:uid="{FCE78312-8A7D-4561-B4CC-F676E43829AF}" name="EASEY Result" dataDxfId="85"/>
-    <tableColumn id="7" xr3:uid="{AA4E3A53-68A9-4DF8-87BC-70FB236A6CED}" name="Notes" dataDxfId="84"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{020EA727-A068-4214-96AF-BBB58B4AD2CD}" name="Table12" displayName="Table12" ref="A1:K25" totalsRowShown="0" headerRowDxfId="123" dataDxfId="121" headerRowBorderDxfId="122">
+  <autoFilter ref="A1:K25" xr:uid="{020EA727-A068-4214-96AF-BBB58B4AD2CD}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{17B6DF4E-F31D-42AC-A8A3-2F473C2E30F7}" name="Location" dataDxfId="120"/>
+    <tableColumn id="2" xr3:uid="{1A61DB90-0A47-46E7-8836-10B843CF3280}" name="Test Type" dataDxfId="119"/>
+    <tableColumn id="3" xr3:uid="{C31ACC80-9B40-4B96-9E67-1DC0F8B22187}" name="Test Number" dataDxfId="118"/>
+    <tableColumn id="4" xr3:uid="{80D262AE-185A-4DB8-B5EF-067896A28E0A}" name="Test Date-Time" dataDxfId="117"/>
+    <tableColumn id="5" xr3:uid="{6B683640-6F4D-4D37-B872-927A078A42E7}" name="Sys/Comp Info" dataDxfId="116"/>
+    <tableColumn id="6" xr3:uid="{F2BE968C-9CCB-4176-862E-EA3DBB1F5265}" name="Severity" dataDxfId="115"/>
+    <tableColumn id="7" xr3:uid="{BC1C5663-AD9C-4AF4-8910-56571D431FB2}" name="EASEY Result Code" dataDxfId="114"/>
+    <tableColumn id="8" xr3:uid="{9BDF95D2-C165-45CF-B4F9-D68DB059FCA4}" name="Fired" dataDxfId="113"/>
+    <tableColumn id="9" xr3:uid="{932FF336-A11E-491C-BA6B-0A86BA9E1B8D}" name="EASEY Result" dataDxfId="112"/>
+    <tableColumn id="10" xr3:uid="{DFD2B33B-3898-4612-A48A-7808C887C1CB}" name="Notes" dataDxfId="111"/>
+    <tableColumn id="11" xr3:uid="{62C0C95E-EBA4-4A37-A7D6-D1C8B2FB1DD6}" name="Command Line Parameters" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4A33A717-7F36-46E9-B108-57CE91FC9965}" name="Table10" displayName="Table10" ref="A1:K89" totalsRowShown="0" headerRowDxfId="83" dataDxfId="81" headerRowBorderDxfId="82">
-  <autoFilter ref="A1:K89" xr:uid="{4A33A717-7F36-46E9-B108-57CE91FC9965}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{CDEE6302-915F-4B8B-8931-C82E789BFD68}" name="Location" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{82F96464-31C7-41F4-99E4-F836EB4804AE}" name="Test Type" dataDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{9A3AD922-1B43-4401-9D08-A69565CBC240}" name="Test Number" dataDxfId="78"/>
-    <tableColumn id="4" xr3:uid="{153B2B1E-9F8A-40A0-9FC6-F154FA69A06D}" name="Test Date-Time" dataDxfId="77"/>
-    <tableColumn id="5" xr3:uid="{EB537EEB-DEA8-4166-A050-FFBFD68D1416}" name="Sys/Comp Info" dataDxfId="76"/>
-    <tableColumn id="6" xr3:uid="{E0692378-248B-472C-9ADE-6DC4C40CE31D}" name="Severity" dataDxfId="75"/>
-    <tableColumn id="7" xr3:uid="{D0B08289-03B0-4D7E-B475-69D81994C3D6}" name="EASEY Result Code" dataDxfId="74"/>
-    <tableColumn id="8" xr3:uid="{8A5BC497-E14C-4A60-9721-3754AC8FBB86}" name="Fired" dataDxfId="73"/>
-    <tableColumn id="9" xr3:uid="{D4027939-C285-4B69-8FE1-5C89204292B8}" name="EASEY Result" dataDxfId="72"/>
-    <tableColumn id="10" xr3:uid="{CAD9076A-ADA1-4DB7-B052-FB52970BED12}" name="Notes" dataDxfId="71"/>
-    <tableColumn id="11" xr3:uid="{F61AE4C4-8B02-46C3-94D5-1DAA82EE83BE}" name="Command Line Parameters" dataDxfId="70"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}" name="Table1" displayName="Table1" ref="A1:J68" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
+  <autoFilter ref="A1:J68" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{4711296A-1683-4D59-9390-9C88803AA68A}" name="Location" dataDxfId="107"/>
+    <tableColumn id="2" xr3:uid="{46A8668E-BFD8-4CE9-8D48-A23DE00E437E}" name="Test Type" dataDxfId="106"/>
+    <tableColumn id="3" xr3:uid="{B7C72E78-CAF2-41A0-B7AC-096EC362072F}" name="Test Number" dataDxfId="105"/>
+    <tableColumn id="10" xr3:uid="{91E3C101-E9B0-405F-84B0-E044FE40F81E}" name="Test Date-Time" dataDxfId="104"/>
+    <tableColumn id="9" xr3:uid="{D57E3F37-9AD6-40C2-8ACB-5192B0E03191}" name="Sys/Comp Info" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{9415854F-BF69-421C-939D-DB4180DF22DE}" name="Severity" dataDxfId="102"/>
+    <tableColumn id="5" xr3:uid="{5AD12D48-C5A2-4105-B479-271121D42D3E}" name="EASEY Result Code" dataDxfId="101"/>
+    <tableColumn id="8" xr3:uid="{FBEFE9F9-E17E-4E0B-8743-7AE06BE9B114}" name="Fired" dataDxfId="100"/>
+    <tableColumn id="6" xr3:uid="{FCE78312-8A7D-4561-B4CC-F676E43829AF}" name="EASEY Result" dataDxfId="99"/>
+    <tableColumn id="7" xr3:uid="{AA4E3A53-68A9-4DF8-87BC-70FB236A6CED}" name="Notes" dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}" name="Table2" displayName="Table2" ref="A1:K581" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68">
-  <autoFilter ref="A1:K581" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4A33A717-7F36-46E9-B108-57CE91FC9965}" name="Table10" displayName="Table10" ref="A1:K89" totalsRowShown="0" headerRowDxfId="97" dataDxfId="95" headerRowBorderDxfId="96">
+  <autoFilter ref="A1:K89" xr:uid="{4A33A717-7F36-46E9-B108-57CE91FC9965}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{2F62CB62-9049-497E-ADC7-F9F96C31FD57}" name="Location" dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{4B11ACA0-FDC6-44CA-8A6F-3F08C4CFA5F1}" name="Test Type" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{C41F1DAE-8DC9-48E1-917C-258A6C1E96C9}" name="Test Number" dataDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{EC0CA150-1F20-45D9-9C39-AFA9123777F4}" name="Test Date-Time" dataDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{33FF74A1-9DCC-4D3A-B0C5-64E9380F879C}" name="Sys/Comp Info" dataDxfId="62"/>
-    <tableColumn id="6" xr3:uid="{22A99E8A-A5B5-4CBC-B53D-C1D9D2C5AE1B}" name="Severity" dataDxfId="61"/>
-    <tableColumn id="7" xr3:uid="{029739E6-4C78-4E2E-A09D-8C3FA73D2041}" name="EASEY Result Code" dataDxfId="60"/>
-    <tableColumn id="8" xr3:uid="{5D0E993C-1382-48E9-AA45-BE7DC3BA96AF}" name="Fired" dataDxfId="59"/>
-    <tableColumn id="9" xr3:uid="{F1CFA0F6-70F7-4594-B088-F1D73717D454}" name="EASEY Result" dataDxfId="58"/>
-    <tableColumn id="10" xr3:uid="{40B0439D-9986-4626-9FF3-B32AE7B5EA33}" name="Notes" dataDxfId="57"/>
-    <tableColumn id="11" xr3:uid="{FF29FE95-83D5-44D1-A98E-E38DE83D7BC7}" name="Command Line Parameters" dataDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{CDEE6302-915F-4B8B-8931-C82E789BFD68}" name="Location" dataDxfId="94"/>
+    <tableColumn id="2" xr3:uid="{82F96464-31C7-41F4-99E4-F836EB4804AE}" name="Test Type" dataDxfId="93"/>
+    <tableColumn id="3" xr3:uid="{9A3AD922-1B43-4401-9D08-A69565CBC240}" name="Test Number" dataDxfId="92"/>
+    <tableColumn id="4" xr3:uid="{153B2B1E-9F8A-40A0-9FC6-F154FA69A06D}" name="Test Date-Time" dataDxfId="91"/>
+    <tableColumn id="5" xr3:uid="{EB537EEB-DEA8-4166-A050-FFBFD68D1416}" name="Sys/Comp Info" dataDxfId="90"/>
+    <tableColumn id="6" xr3:uid="{E0692378-248B-472C-9ADE-6DC4C40CE31D}" name="Severity" dataDxfId="89"/>
+    <tableColumn id="7" xr3:uid="{D0B08289-03B0-4D7E-B475-69D81994C3D6}" name="EASEY Result Code" dataDxfId="88"/>
+    <tableColumn id="8" xr3:uid="{8A5BC497-E14C-4A60-9721-3754AC8FBB86}" name="Fired" dataDxfId="87"/>
+    <tableColumn id="9" xr3:uid="{D4027939-C285-4B69-8FE1-5C89204292B8}" name="EASEY Result" dataDxfId="86"/>
+    <tableColumn id="10" xr3:uid="{CAD9076A-ADA1-4DB7-B052-FB52970BED12}" name="Notes" dataDxfId="85"/>
+    <tableColumn id="11" xr3:uid="{F61AE4C4-8B02-46C3-94D5-1DAA82EE83BE}" name="Command Line Parameters" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{72A5AA74-4364-4117-8778-356FF8C70282}" name="Table5" displayName="Table5" ref="A1:K91" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54">
-  <autoFilter ref="A1:K91" xr:uid="{72A5AA74-4364-4117-8778-356FF8C70282}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}" name="Table2" displayName="Table2" ref="A1:K581" totalsRowShown="0" headerRowDxfId="83" dataDxfId="81" headerRowBorderDxfId="82">
+  <autoFilter ref="A1:K581" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{B5B471E1-992B-4560-9AE9-3A0B01F9D400}" name="Location" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{1012AED6-A79C-434D-9EFD-BC07FE87995E}" name="Test Type" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{B5631442-9C30-47B5-9E8F-98D77DB400BF}" name="Test Number" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{960A60B0-A29E-44B1-B36A-03ABF8C9387B}" name="Test Date-Time" dataDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{33F281F6-219B-4E02-9434-6B6D946A98E0}" name="Sys/Comp Info" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{E798D1DA-91F4-4F85-BC08-C953E40455E6}" name="Severity" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{D1264FDF-B29D-4FEE-92C2-AB98523233CD}" name="EASEY Result Code" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{C745552B-9704-4998-BE61-D3A91601E678}" name="Fired" dataDxfId="45"/>
-    <tableColumn id="9" xr3:uid="{C834180C-E3EF-4150-9616-ACEC523C5385}" name="EASEY Result" dataDxfId="44"/>
-    <tableColumn id="10" xr3:uid="{3ABD6028-9668-4A63-AEC5-1740A232405E}" name="Notes" dataDxfId="43"/>
-    <tableColumn id="11" xr3:uid="{9F9E58E8-A77F-4D89-A441-47366556DBC4}" name="Command Line Parameters" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{2F62CB62-9049-497E-ADC7-F9F96C31FD57}" name="Location" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{4B11ACA0-FDC6-44CA-8A6F-3F08C4CFA5F1}" name="Test Type" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{C41F1DAE-8DC9-48E1-917C-258A6C1E96C9}" name="Test Number" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{EC0CA150-1F20-45D9-9C39-AFA9123777F4}" name="Test Date-Time" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{33FF74A1-9DCC-4D3A-B0C5-64E9380F879C}" name="Sys/Comp Info" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{22A99E8A-A5B5-4CBC-B53D-C1D9D2C5AE1B}" name="Severity" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{029739E6-4C78-4E2E-A09D-8C3FA73D2041}" name="EASEY Result Code" dataDxfId="74"/>
+    <tableColumn id="8" xr3:uid="{5D0E993C-1382-48E9-AA45-BE7DC3BA96AF}" name="Fired" dataDxfId="73"/>
+    <tableColumn id="9" xr3:uid="{F1CFA0F6-70F7-4594-B088-F1D73717D454}" name="EASEY Result" dataDxfId="72"/>
+    <tableColumn id="10" xr3:uid="{40B0439D-9986-4626-9FF3-B32AE7B5EA33}" name="Notes" dataDxfId="71"/>
+    <tableColumn id="11" xr3:uid="{FF29FE95-83D5-44D1-A98E-E38DE83D7BC7}" name="Command Line Parameters" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{AF9DD8BE-C048-408A-9F94-5A8BA21F35EE}" name="Table16" displayName="Table16" ref="A1:K32" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="13">
-  <autoFilter ref="A1:K32" xr:uid="{AF9DD8BE-C048-408A-9F94-5A8BA21F35EE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{72A5AA74-4364-4117-8778-356FF8C70282}" name="Table5" displayName="Table5" ref="A1:K91" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68">
+  <autoFilter ref="A1:K91" xr:uid="{72A5AA74-4364-4117-8778-356FF8C70282}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{CEF40D72-5DCC-4B34-AFF0-DB646EE7F1D9}" name="Location" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{73E21D38-0138-4A9D-92D7-F5A45463FD70}" name="Test Type" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{F42AD8C2-F06C-4997-B9FA-A329126E0DFF}" name="Test Number" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{854FA5EA-A370-4202-BA3A-9FA3AB721241}" name="Test Date-Time" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{7732B98C-AAD5-4156-A763-0BC4DE759B93}" name="Sys/Comp Info" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{45B5508A-A4AD-4CFF-B677-AD9882050109}" name="Severity" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{C256B736-EB39-4718-8D5D-E6109D13DA65}" name="EASEY Result Code" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{924700DB-01C4-4CC8-9378-33C861B04674}" name="Fired" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{443A7749-F8EE-4346-8DAB-AB037E910CC8}" name="EASEY Result" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{17370406-1790-475D-A379-C70F7A67E837}" name="Notes" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{52FD404F-F0C8-42CF-85B7-842E44A87945}" name="Command Line Parameters" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{B5B471E1-992B-4560-9AE9-3A0B01F9D400}" name="Location" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{1012AED6-A79C-434D-9EFD-BC07FE87995E}" name="Test Type" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{B5631442-9C30-47B5-9E8F-98D77DB400BF}" name="Test Number" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{960A60B0-A29E-44B1-B36A-03ABF8C9387B}" name="Test Date-Time" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{33F281F6-219B-4E02-9434-6B6D946A98E0}" name="Sys/Comp Info" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{E798D1DA-91F4-4F85-BC08-C953E40455E6}" name="Severity" dataDxfId="61"/>
+    <tableColumn id="7" xr3:uid="{D1264FDF-B29D-4FEE-92C2-AB98523233CD}" name="EASEY Result Code" dataDxfId="60"/>
+    <tableColumn id="8" xr3:uid="{C745552B-9704-4998-BE61-D3A91601E678}" name="Fired" dataDxfId="59"/>
+    <tableColumn id="9" xr3:uid="{C834180C-E3EF-4150-9616-ACEC523C5385}" name="EASEY Result" dataDxfId="58"/>
+    <tableColumn id="10" xr3:uid="{3ABD6028-9668-4A63-AEC5-1740A232405E}" name="Notes" dataDxfId="57"/>
+    <tableColumn id="11" xr3:uid="{9F9E58E8-A77F-4D89-A441-47366556DBC4}" name="Command Line Parameters" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{AF9DD8BE-C048-408A-9F94-5A8BA21F35EE}" name="Table16" displayName="Table16" ref="A1:K32" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54">
+  <autoFilter ref="A1:K32" xr:uid="{AF9DD8BE-C048-408A-9F94-5A8BA21F35EE}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{CEF40D72-5DCC-4B34-AFF0-DB646EE7F1D9}" name="Location" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{73E21D38-0138-4A9D-92D7-F5A45463FD70}" name="Test Type" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{F42AD8C2-F06C-4997-B9FA-A329126E0DFF}" name="Test Number" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{854FA5EA-A370-4202-BA3A-9FA3AB721241}" name="Test Date-Time" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{7732B98C-AAD5-4156-A763-0BC4DE759B93}" name="Sys/Comp Info" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{45B5508A-A4AD-4CFF-B677-AD9882050109}" name="Severity" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{C256B736-EB39-4718-8D5D-E6109D13DA65}" name="EASEY Result Code" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{924700DB-01C4-4CC8-9378-33C861B04674}" name="Fired" dataDxfId="45"/>
+    <tableColumn id="9" xr3:uid="{443A7749-F8EE-4346-8DAB-AB037E910CC8}" name="EASEY Result" dataDxfId="44"/>
+    <tableColumn id="10" xr3:uid="{17370406-1790-475D-A379-C70F7A67E837}" name="Notes" dataDxfId="43"/>
+    <tableColumn id="11" xr3:uid="{52FD404F-F0C8-42CF-85B7-842E44A87945}" name="Command Line Parameters" dataDxfId="42"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{F6500E59-5E05-4CE8-8F9D-9221B55D7FD2}" name="Table15" displayName="Table15" ref="A1:K26" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40">
   <autoFilter ref="A1:K26" xr:uid="{F6500E59-5E05-4CE8-8F9D-9221B55D7FD2}"/>
   <tableColumns count="11">
@@ -7710,7 +8004,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{4A6B4518-3730-4EDB-8118-7FC685E54D4D}" name="Table14" displayName="Table14" ref="A1:K65" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26">
   <autoFilter ref="A1:K65" xr:uid="{4A6B4518-3730-4EDB-8118-7FC685E54D4D}"/>
   <tableColumns count="11">
@@ -7731,160 +8025,160 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6E75B64B-AA6D-476A-8302-BF96D5E7E810}" name="Table6" displayName="Table6" ref="A1:K319" totalsRowShown="0" headerRowDxfId="206" dataDxfId="204" headerRowBorderDxfId="205">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6E75B64B-AA6D-476A-8302-BF96D5E7E810}" name="Table6" displayName="Table6" ref="A1:K319" totalsRowShown="0" headerRowDxfId="220" dataDxfId="218" headerRowBorderDxfId="219">
   <autoFilter ref="A1:K319" xr:uid="{6E75B64B-AA6D-476A-8302-BF96D5E7E810}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{DABC54ED-3C28-4B3B-8594-CAA471D265D5}" name="Location" dataDxfId="203"/>
-    <tableColumn id="2" xr3:uid="{F8AEE93E-FDE2-46D7-B1A7-244178C2F820}" name="Test Type" dataDxfId="202"/>
-    <tableColumn id="3" xr3:uid="{8C6E04D8-89F2-453E-9922-8A0AF53CB692}" name="Test Number" dataDxfId="201"/>
-    <tableColumn id="4" xr3:uid="{2B43C86D-8143-4360-87FC-99396C0E304F}" name="Test Date-Time" dataDxfId="200"/>
-    <tableColumn id="5" xr3:uid="{E75FB52D-EC10-43F0-8D77-68CDEA14235D}" name="Sys/Comp Info" dataDxfId="199"/>
-    <tableColumn id="6" xr3:uid="{E6D41DD1-2DAC-4262-AA16-1D46CE14D100}" name="Severity" dataDxfId="198"/>
-    <tableColumn id="7" xr3:uid="{E4B7FCA0-0453-4D46-AF2D-5FCB94154788}" name="EASEY Result Code" dataDxfId="197"/>
-    <tableColumn id="8" xr3:uid="{1C5C127B-0EC6-40C8-9F7F-CDFFB95E2B9C}" name="Fired" dataDxfId="196"/>
-    <tableColumn id="9" xr3:uid="{E4D52144-8081-4E9C-9216-F2B3E7D99696}" name="EASEY Result" dataDxfId="195"/>
-    <tableColumn id="10" xr3:uid="{1B8F57B6-0961-4DCE-A9BB-77E44380F12A}" name="Notes" dataDxfId="194"/>
-    <tableColumn id="11" xr3:uid="{8C749E78-19F9-4D93-A1EC-56160203A547}" name="Command Line Parameters" dataDxfId="193"/>
+    <tableColumn id="1" xr3:uid="{DABC54ED-3C28-4B3B-8594-CAA471D265D5}" name="Location" dataDxfId="217"/>
+    <tableColumn id="2" xr3:uid="{F8AEE93E-FDE2-46D7-B1A7-244178C2F820}" name="Test Type" dataDxfId="216"/>
+    <tableColumn id="3" xr3:uid="{8C6E04D8-89F2-453E-9922-8A0AF53CB692}" name="Test Number" dataDxfId="215"/>
+    <tableColumn id="4" xr3:uid="{2B43C86D-8143-4360-87FC-99396C0E304F}" name="Test Date-Time" dataDxfId="214"/>
+    <tableColumn id="5" xr3:uid="{E75FB52D-EC10-43F0-8D77-68CDEA14235D}" name="Sys/Comp Info" dataDxfId="213"/>
+    <tableColumn id="6" xr3:uid="{E6D41DD1-2DAC-4262-AA16-1D46CE14D100}" name="Severity" dataDxfId="212"/>
+    <tableColumn id="7" xr3:uid="{E4B7FCA0-0453-4D46-AF2D-5FCB94154788}" name="EASEY Result Code" dataDxfId="211"/>
+    <tableColumn id="8" xr3:uid="{1C5C127B-0EC6-40C8-9F7F-CDFFB95E2B9C}" name="Fired" dataDxfId="210"/>
+    <tableColumn id="9" xr3:uid="{E4D52144-8081-4E9C-9216-F2B3E7D99696}" name="EASEY Result" dataDxfId="209"/>
+    <tableColumn id="10" xr3:uid="{1B8F57B6-0961-4DCE-A9BB-77E44380F12A}" name="Notes" dataDxfId="208"/>
+    <tableColumn id="11" xr3:uid="{8C749E78-19F9-4D93-A1EC-56160203A547}" name="Command Line Parameters" dataDxfId="207"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{D2B13800-7296-41BF-B284-AE9E33207A74}" name="Table11" displayName="Table11" ref="A1:K43" totalsRowShown="0" headerRowDxfId="192" dataDxfId="190" headerRowBorderDxfId="191">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{D2B13800-7296-41BF-B284-AE9E33207A74}" name="Table11" displayName="Table11" ref="A1:K43" totalsRowShown="0" headerRowDxfId="206" dataDxfId="204" headerRowBorderDxfId="205">
   <autoFilter ref="A1:K43" xr:uid="{D2B13800-7296-41BF-B284-AE9E33207A74}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{5C4086A6-D708-4595-83D3-C24973FA7493}" name="Location" dataDxfId="189"/>
-    <tableColumn id="2" xr3:uid="{85418BD6-CBE3-465C-ABAB-216BDDDEC4AB}" name="Test Type" dataDxfId="188"/>
-    <tableColumn id="3" xr3:uid="{4A0464F8-B583-4C14-9868-15E3FED2D126}" name="Test Number" dataDxfId="187"/>
-    <tableColumn id="4" xr3:uid="{78C8BC19-497D-4CBB-B37C-A591E348A8F4}" name="Test Date-Time" dataDxfId="186"/>
-    <tableColumn id="5" xr3:uid="{1264561D-36B6-4A3C-959A-9E394716E8C7}" name="Sys/Comp Info" dataDxfId="185"/>
-    <tableColumn id="6" xr3:uid="{DD999D52-F401-4681-95E1-7CD8BFBB9B5E}" name="Severity" dataDxfId="184"/>
-    <tableColumn id="7" xr3:uid="{579ED199-5C6A-417A-ADFB-6972029F68D6}" name="EASEY Result Code" dataDxfId="183"/>
-    <tableColumn id="8" xr3:uid="{702EEAA3-DA01-410C-BE7A-D14CFC877E75}" name="Fired" dataDxfId="182"/>
-    <tableColumn id="9" xr3:uid="{DD383C11-E19A-499D-859A-528E10686FA7}" name="EASEY Result" dataDxfId="181"/>
-    <tableColumn id="10" xr3:uid="{C65DEB63-1D14-4EFD-B04E-24DDAC666CD7}" name="Notes" dataDxfId="180"/>
-    <tableColumn id="11" xr3:uid="{F16CC94C-3B79-491F-8B14-14C31351265C}" name="Command Line Parameters" dataDxfId="179"/>
+    <tableColumn id="1" xr3:uid="{5C4086A6-D708-4595-83D3-C24973FA7493}" name="Location" dataDxfId="203"/>
+    <tableColumn id="2" xr3:uid="{85418BD6-CBE3-465C-ABAB-216BDDDEC4AB}" name="Test Type" dataDxfId="202"/>
+    <tableColumn id="3" xr3:uid="{4A0464F8-B583-4C14-9868-15E3FED2D126}" name="Test Number" dataDxfId="201"/>
+    <tableColumn id="4" xr3:uid="{78C8BC19-497D-4CBB-B37C-A591E348A8F4}" name="Test Date-Time" dataDxfId="200"/>
+    <tableColumn id="5" xr3:uid="{1264561D-36B6-4A3C-959A-9E394716E8C7}" name="Sys/Comp Info" dataDxfId="199"/>
+    <tableColumn id="6" xr3:uid="{DD999D52-F401-4681-95E1-7CD8BFBB9B5E}" name="Severity" dataDxfId="198"/>
+    <tableColumn id="7" xr3:uid="{579ED199-5C6A-417A-ADFB-6972029F68D6}" name="EASEY Result Code" dataDxfId="197"/>
+    <tableColumn id="8" xr3:uid="{702EEAA3-DA01-410C-BE7A-D14CFC877E75}" name="Fired" dataDxfId="196"/>
+    <tableColumn id="9" xr3:uid="{DD383C11-E19A-499D-859A-528E10686FA7}" name="EASEY Result" dataDxfId="195"/>
+    <tableColumn id="10" xr3:uid="{C65DEB63-1D14-4EFD-B04E-24DDAC666CD7}" name="Notes" dataDxfId="194"/>
+    <tableColumn id="11" xr3:uid="{F16CC94C-3B79-491F-8B14-14C31351265C}" name="Command Line Parameters" dataDxfId="193"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{643FA4C3-7226-4FC1-A77A-D6CF46B7DE06}" name="Table7" displayName="Table7" ref="A1:K33" totalsRowShown="0" headerRowDxfId="178" dataDxfId="176" headerRowBorderDxfId="177">
-  <autoFilter ref="A1:K33" xr:uid="{643FA4C3-7226-4FC1-A77A-D6CF46B7DE06}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{ADD0CDC3-005A-4908-87CE-24A74B49CF61}" name="Table17" displayName="Table17" ref="A1:K29" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowBorderDxfId="13">
+  <autoFilter ref="A1:K29" xr:uid="{ADD0CDC3-005A-4908-87CE-24A74B49CF61}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{6A1DC097-B550-4298-811F-BB553C8A78B7}" name="Location" dataDxfId="175"/>
-    <tableColumn id="2" xr3:uid="{B0B911C5-C9AF-4D6B-9A8E-E4524ABB1455}" name="Test Type" dataDxfId="174"/>
-    <tableColumn id="3" xr3:uid="{7C46186D-C3D8-4F3A-A359-DBEC33D11A32}" name="Test Number" dataDxfId="173"/>
-    <tableColumn id="4" xr3:uid="{B77DADA4-D1C0-49A5-8941-BF36C2738914}" name="Test Date-Time" dataDxfId="172"/>
-    <tableColumn id="5" xr3:uid="{94D2842C-7497-4826-BFDF-64C1F4930DC7}" name="Sys/Comp Info" dataDxfId="171"/>
-    <tableColumn id="6" xr3:uid="{18E0026A-3AB3-4471-BB8D-F86CD1FCACB2}" name="Severity" dataDxfId="170"/>
-    <tableColumn id="7" xr3:uid="{64F844FE-3B1B-48BD-BFA3-F73DD8F6BAE7}" name="EASEY Result Code" dataDxfId="169"/>
-    <tableColumn id="8" xr3:uid="{0A777F6A-C367-4D68-80DC-BE82994A6C9C}" name="Fired" dataDxfId="168"/>
-    <tableColumn id="9" xr3:uid="{58E8A6A7-2EB9-4636-98D8-915BAA276364}" name="EASEY Result" dataDxfId="167"/>
-    <tableColumn id="10" xr3:uid="{8E16DEBD-9C74-43B0-A1EC-12CF584BC57D}" name="Notes" dataDxfId="166"/>
-    <tableColumn id="11" xr3:uid="{7AE3F542-B6CD-45CB-99F0-47DDE95004F7}" name="Command Line Parameters" dataDxfId="165"/>
+    <tableColumn id="1" xr3:uid="{B56F8537-694B-43C9-A68E-8609AD201C4E}" name="Location" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{6DBC46BF-D815-49D3-8182-9348CC54B060}" name="Event Code" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{575144C3-7FC0-46B6-BF5F-2AFF455A12F3}" name="Event Hout" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{9C078E68-941B-436F-8B0A-AC7AEA4D2856}" name="System" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{8AA702CF-37F0-461E-82EF-1D8192AE75F5}" name="Component" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{44FDC991-9A31-45EE-8AFE-7B8A2C3DB067}" name="Severity" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{F92E5153-B0F4-49AF-A741-FF7478287E50}" name="EASEY Result Code" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{EE2A550F-1ECC-43BA-8D54-2B5A57C82353}" name="Fired" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{BF863843-8882-43DC-9370-234BCBAE2F1E}" name="EASEY Result" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{53139B45-AF9C-4977-B597-D0A55FC6A1BE}" name="Notes" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{8B1260FF-BE34-423D-A59F-2DA415AA604B}" name="Command Line Parameters" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E4484FF7-4E72-42BE-B673-2211F40DBEC5}" name="Table8" displayName="Table8" ref="A1:K28" totalsRowShown="0" headerRowDxfId="164" headerRowBorderDxfId="163">
-  <autoFilter ref="A1:K28" xr:uid="{E4484FF7-4E72-42BE-B673-2211F40DBEC5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{643FA4C3-7226-4FC1-A77A-D6CF46B7DE06}" name="Table7" displayName="Table7" ref="A1:K33" totalsRowShown="0" headerRowDxfId="192" dataDxfId="190" headerRowBorderDxfId="191">
+  <autoFilter ref="A1:K33" xr:uid="{643FA4C3-7226-4FC1-A77A-D6CF46B7DE06}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{BCDEC250-D556-489B-A8C0-F3C0B749EE85}" name="Location" dataDxfId="162"/>
-    <tableColumn id="2" xr3:uid="{27845E29-DF76-4FC1-8B99-E6D05BC504AB}" name="Test Type" dataDxfId="161"/>
-    <tableColumn id="3" xr3:uid="{88E8B5E9-3A4F-487A-A1FD-2F8825130F6C}" name="Test Number" dataDxfId="160"/>
-    <tableColumn id="4" xr3:uid="{96597CE9-7403-4439-ACB1-4DB48A5AE831}" name="Test Date-Time" dataDxfId="159"/>
-    <tableColumn id="5" xr3:uid="{67D38623-BE59-4D0E-966A-D900405266E4}" name="Sys/Comp Info" dataDxfId="158"/>
-    <tableColumn id="6" xr3:uid="{4480DA93-63BE-46D7-9C44-A62CF4C30DB9}" name="Severity" dataDxfId="157"/>
-    <tableColumn id="7" xr3:uid="{4DE029FD-1894-4C16-A49E-7205888520D7}" name="EASEY Result Code" dataDxfId="156"/>
-    <tableColumn id="8" xr3:uid="{38E45A86-E2E8-436C-83B0-1DC52A25A389}" name="Fired" dataDxfId="155"/>
-    <tableColumn id="9" xr3:uid="{D0FCA1F1-B5E4-4F39-8570-3FDAAFD8C655}" name="EASEY Result" dataDxfId="154"/>
-    <tableColumn id="10" xr3:uid="{8FFB2F06-8DA3-4256-9B20-894A86F3CAB1}" name="Notes" dataDxfId="153"/>
-    <tableColumn id="11" xr3:uid="{0A82F04A-4DC9-465C-ACBF-8A9107DE5BF9}" name="Command Line Parameters" dataDxfId="152"/>
+    <tableColumn id="1" xr3:uid="{6A1DC097-B550-4298-811F-BB553C8A78B7}" name="Location" dataDxfId="189"/>
+    <tableColumn id="2" xr3:uid="{B0B911C5-C9AF-4D6B-9A8E-E4524ABB1455}" name="Test Type" dataDxfId="188"/>
+    <tableColumn id="3" xr3:uid="{7C46186D-C3D8-4F3A-A359-DBEC33D11A32}" name="Test Number" dataDxfId="187"/>
+    <tableColumn id="4" xr3:uid="{B77DADA4-D1C0-49A5-8941-BF36C2738914}" name="Test Date-Time" dataDxfId="186"/>
+    <tableColumn id="5" xr3:uid="{94D2842C-7497-4826-BFDF-64C1F4930DC7}" name="Sys/Comp Info" dataDxfId="185"/>
+    <tableColumn id="6" xr3:uid="{18E0026A-3AB3-4471-BB8D-F86CD1FCACB2}" name="Severity" dataDxfId="184"/>
+    <tableColumn id="7" xr3:uid="{64F844FE-3B1B-48BD-BFA3-F73DD8F6BAE7}" name="EASEY Result Code" dataDxfId="183"/>
+    <tableColumn id="8" xr3:uid="{0A777F6A-C367-4D68-80DC-BE82994A6C9C}" name="Fired" dataDxfId="182"/>
+    <tableColumn id="9" xr3:uid="{58E8A6A7-2EB9-4636-98D8-915BAA276364}" name="EASEY Result" dataDxfId="181"/>
+    <tableColumn id="10" xr3:uid="{8E16DEBD-9C74-43B0-A1EC-12CF584BC57D}" name="Notes" dataDxfId="180"/>
+    <tableColumn id="11" xr3:uid="{7AE3F542-B6CD-45CB-99F0-47DDE95004F7}" name="Command Line Parameters" dataDxfId="179"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C4E4C8FF-D2BC-4023-A7E2-4F0FE1340DDB}" name="Table4" displayName="Table4" ref="A1:K44" totalsRowShown="0" headerRowDxfId="151" dataDxfId="149" headerRowBorderDxfId="150">
-  <autoFilter ref="A1:K44" xr:uid="{C4E4C8FF-D2BC-4023-A7E2-4F0FE1340DDB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E4484FF7-4E72-42BE-B673-2211F40DBEC5}" name="Table8" displayName="Table8" ref="A1:K28" totalsRowShown="0" headerRowDxfId="178" headerRowBorderDxfId="177">
+  <autoFilter ref="A1:K28" xr:uid="{E4484FF7-4E72-42BE-B673-2211F40DBEC5}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{25672079-CDA0-4D8B-8CF3-D545B2ACD419}" name="Location" dataDxfId="148"/>
-    <tableColumn id="2" xr3:uid="{5279C203-946F-4765-ABB9-8C81921C2DC3}" name="Test Type" dataDxfId="147"/>
-    <tableColumn id="3" xr3:uid="{11DE1298-C62C-4C4B-9989-25AA10EF10C0}" name="Test Number" dataDxfId="146"/>
-    <tableColumn id="4" xr3:uid="{2A458B2D-9FF3-4418-9FD6-DF0766209CB5}" name="Test Date-Time" dataDxfId="145"/>
-    <tableColumn id="5" xr3:uid="{60E36B10-857E-4482-B035-790F74DBDB33}" name="Sys/Comp Info" dataDxfId="144"/>
-    <tableColumn id="6" xr3:uid="{2E26423A-D6BE-4410-8F61-F74A3CED15B8}" name="Severity" dataDxfId="143"/>
-    <tableColumn id="7" xr3:uid="{20497C37-19CA-4417-AC58-9CBBEB217149}" name="EASEY Result Code" dataDxfId="142"/>
-    <tableColumn id="8" xr3:uid="{B51DBED3-688D-4748-9F71-406904878E83}" name="Fired" dataDxfId="141"/>
-    <tableColumn id="9" xr3:uid="{55BF46DF-A688-44E7-9212-0315C9101E05}" name="EASEY Result" dataDxfId="140"/>
-    <tableColumn id="10" xr3:uid="{A4FC5CC8-E769-426F-AEEE-D8BDE3AAE1AB}" name="Notes" dataDxfId="139"/>
-    <tableColumn id="11" xr3:uid="{E7F09088-0589-40C2-8067-9D1FE0896663}" name="Command Line Parameters" dataDxfId="138"/>
+    <tableColumn id="1" xr3:uid="{BCDEC250-D556-489B-A8C0-F3C0B749EE85}" name="Location" dataDxfId="176"/>
+    <tableColumn id="2" xr3:uid="{27845E29-DF76-4FC1-8B99-E6D05BC504AB}" name="Test Type" dataDxfId="175"/>
+    <tableColumn id="3" xr3:uid="{88E8B5E9-3A4F-487A-A1FD-2F8825130F6C}" name="Test Number" dataDxfId="174"/>
+    <tableColumn id="4" xr3:uid="{96597CE9-7403-4439-ACB1-4DB48A5AE831}" name="Test Date-Time" dataDxfId="173"/>
+    <tableColumn id="5" xr3:uid="{67D38623-BE59-4D0E-966A-D900405266E4}" name="Sys/Comp Info" dataDxfId="172"/>
+    <tableColumn id="6" xr3:uid="{4480DA93-63BE-46D7-9C44-A62CF4C30DB9}" name="Severity" dataDxfId="171"/>
+    <tableColumn id="7" xr3:uid="{4DE029FD-1894-4C16-A49E-7205888520D7}" name="EASEY Result Code" dataDxfId="170"/>
+    <tableColumn id="8" xr3:uid="{38E45A86-E2E8-436C-83B0-1DC52A25A389}" name="Fired" dataDxfId="169"/>
+    <tableColumn id="9" xr3:uid="{D0FCA1F1-B5E4-4F39-8570-3FDAAFD8C655}" name="EASEY Result" dataDxfId="168"/>
+    <tableColumn id="10" xr3:uid="{8FFB2F06-8DA3-4256-9B20-894A86F3CAB1}" name="Notes" dataDxfId="167"/>
+    <tableColumn id="11" xr3:uid="{0A82F04A-4DC9-465C-ACBF-8A9107DE5BF9}" name="Command Line Parameters" dataDxfId="166"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0CC4DB58-871D-4311-83EC-9DB6A2F24D3C}" name="Table3" displayName="Table3" ref="A1:K26" totalsRowShown="0" headerRowDxfId="137" dataDxfId="135" headerRowBorderDxfId="136">
-  <autoFilter ref="A1:K26" xr:uid="{0CC4DB58-871D-4311-83EC-9DB6A2F24D3C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C4E4C8FF-D2BC-4023-A7E2-4F0FE1340DDB}" name="Table4" displayName="Table4" ref="A1:K44" totalsRowShown="0" headerRowDxfId="165" dataDxfId="163" headerRowBorderDxfId="164">
+  <autoFilter ref="A1:K44" xr:uid="{C4E4C8FF-D2BC-4023-A7E2-4F0FE1340DDB}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{FD39BA7F-4A73-45B6-8492-9C47A87EAF80}" name="Location" dataDxfId="134"/>
-    <tableColumn id="2" xr3:uid="{6BD18705-A907-480B-9613-FD6A89008B95}" name="Test Type" dataDxfId="133"/>
-    <tableColumn id="3" xr3:uid="{171EC70D-BD2B-4679-9E2F-B7A72F41A5BC}" name="Test Number" dataDxfId="132"/>
-    <tableColumn id="4" xr3:uid="{54392DF7-D2E8-406A-BF46-C94A6AF058B7}" name="Test Date-Time" dataDxfId="131"/>
-    <tableColumn id="5" xr3:uid="{BEE30332-3FC4-42CC-9E0A-10D6FD8CE7DB}" name="Sys/Comp Info" dataDxfId="130"/>
-    <tableColumn id="6" xr3:uid="{4D56506A-EEFD-4953-B5C2-BFBFB1100C42}" name="Severity" dataDxfId="129"/>
-    <tableColumn id="7" xr3:uid="{F7744816-5978-4331-B8B7-FBAEA071B23C}" name="EASEY Result Code" dataDxfId="128"/>
-    <tableColumn id="8" xr3:uid="{5A8FF3A4-DEAC-4772-A7B5-657662710593}" name="Fired" dataDxfId="127"/>
-    <tableColumn id="9" xr3:uid="{B72C4A8D-A7B2-492D-AAF3-C53B34CC6D68}" name="EASEY Result" dataDxfId="126"/>
-    <tableColumn id="10" xr3:uid="{3BD58939-520E-4EF9-ACA2-F4F2053AAB3E}" name="Notes" dataDxfId="125"/>
-    <tableColumn id="11" xr3:uid="{81440B9B-FEDA-4EF7-8E5F-058F42001F39}" name="Command Line Parameters" dataDxfId="124"/>
+    <tableColumn id="1" xr3:uid="{25672079-CDA0-4D8B-8CF3-D545B2ACD419}" name="Location" dataDxfId="162"/>
+    <tableColumn id="2" xr3:uid="{5279C203-946F-4765-ABB9-8C81921C2DC3}" name="Test Type" dataDxfId="161"/>
+    <tableColumn id="3" xr3:uid="{11DE1298-C62C-4C4B-9989-25AA10EF10C0}" name="Test Number" dataDxfId="160"/>
+    <tableColumn id="4" xr3:uid="{2A458B2D-9FF3-4418-9FD6-DF0766209CB5}" name="Test Date-Time" dataDxfId="159"/>
+    <tableColumn id="5" xr3:uid="{60E36B10-857E-4482-B035-790F74DBDB33}" name="Sys/Comp Info" dataDxfId="158"/>
+    <tableColumn id="6" xr3:uid="{2E26423A-D6BE-4410-8F61-F74A3CED15B8}" name="Severity" dataDxfId="157"/>
+    <tableColumn id="7" xr3:uid="{20497C37-19CA-4417-AC58-9CBBEB217149}" name="EASEY Result Code" dataDxfId="156"/>
+    <tableColumn id="8" xr3:uid="{B51DBED3-688D-4748-9F71-406904878E83}" name="Fired" dataDxfId="155"/>
+    <tableColumn id="9" xr3:uid="{55BF46DF-A688-44E7-9212-0315C9101E05}" name="EASEY Result" dataDxfId="154"/>
+    <tableColumn id="10" xr3:uid="{A4FC5CC8-E769-426F-AEEE-D8BDE3AAE1AB}" name="Notes" dataDxfId="153"/>
+    <tableColumn id="11" xr3:uid="{E7F09088-0589-40C2-8067-9D1FE0896663}" name="Command Line Parameters" dataDxfId="152"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{387CD9B0-42DD-43F6-B933-FC392A3DA7CC}" name="Table13" displayName="Table13" ref="A1:K26" totalsRowShown="0" headerRowDxfId="123" dataDxfId="121" headerRowBorderDxfId="122">
-  <autoFilter ref="A1:K26" xr:uid="{387CD9B0-42DD-43F6-B933-FC392A3DA7CC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0CC4DB58-871D-4311-83EC-9DB6A2F24D3C}" name="Table3" displayName="Table3" ref="A1:K26" totalsRowShown="0" headerRowDxfId="151" dataDxfId="149" headerRowBorderDxfId="150">
+  <autoFilter ref="A1:K26" xr:uid="{0CC4DB58-871D-4311-83EC-9DB6A2F24D3C}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{58A7C390-8DB8-4C87-940A-55AE4A3592FC}" name="Location" dataDxfId="120"/>
-    <tableColumn id="2" xr3:uid="{A3FC97A4-B761-48C4-BB4C-19DA9785E4DF}" name="Test Type" dataDxfId="119"/>
-    <tableColumn id="3" xr3:uid="{3A3BD58D-EB20-4F67-8215-8A96EE69C978}" name="Test Number" dataDxfId="118"/>
-    <tableColumn id="4" xr3:uid="{DE80CD30-41D0-4B53-8DE7-4F269F701558}" name="Test Date-Time" dataDxfId="117"/>
-    <tableColumn id="5" xr3:uid="{B86A2D2D-C8EB-483C-BF81-EB9D9F4E66F2}" name="Sys/Comp Info" dataDxfId="116"/>
-    <tableColumn id="6" xr3:uid="{36B980F4-27FC-477D-A50F-623E7E0A94DE}" name="Severity" dataDxfId="115"/>
-    <tableColumn id="7" xr3:uid="{A9D38791-49D7-4EB3-896C-646601058179}" name="EASEY Result Code" dataDxfId="114"/>
-    <tableColumn id="8" xr3:uid="{938968FB-CC01-4403-A09B-C4F6161B5D90}" name="Fired" dataDxfId="113"/>
-    <tableColumn id="9" xr3:uid="{25329D8A-5A94-4418-84D8-82518A7923BD}" name="EASEY Result" dataDxfId="112"/>
-    <tableColumn id="10" xr3:uid="{D60A5A6A-A087-4FC2-96A5-060A26AA48C8}" name="Notes" dataDxfId="111"/>
-    <tableColumn id="11" xr3:uid="{5DE715B2-E8F2-48F0-9DE2-694E23DB23E9}" name="Command Line Parameters" dataDxfId="110"/>
+    <tableColumn id="1" xr3:uid="{FD39BA7F-4A73-45B6-8492-9C47A87EAF80}" name="Location" dataDxfId="148"/>
+    <tableColumn id="2" xr3:uid="{6BD18705-A907-480B-9613-FD6A89008B95}" name="Test Type" dataDxfId="147"/>
+    <tableColumn id="3" xr3:uid="{171EC70D-BD2B-4679-9E2F-B7A72F41A5BC}" name="Test Number" dataDxfId="146"/>
+    <tableColumn id="4" xr3:uid="{54392DF7-D2E8-406A-BF46-C94A6AF058B7}" name="Test Date-Time" dataDxfId="145"/>
+    <tableColumn id="5" xr3:uid="{BEE30332-3FC4-42CC-9E0A-10D6FD8CE7DB}" name="Sys/Comp Info" dataDxfId="144"/>
+    <tableColumn id="6" xr3:uid="{4D56506A-EEFD-4953-B5C2-BFBFB1100C42}" name="Severity" dataDxfId="143"/>
+    <tableColumn id="7" xr3:uid="{F7744816-5978-4331-B8B7-FBAEA071B23C}" name="EASEY Result Code" dataDxfId="142"/>
+    <tableColumn id="8" xr3:uid="{5A8FF3A4-DEAC-4772-A7B5-657662710593}" name="Fired" dataDxfId="141"/>
+    <tableColumn id="9" xr3:uid="{B72C4A8D-A7B2-492D-AAF3-C53B34CC6D68}" name="EASEY Result" dataDxfId="140"/>
+    <tableColumn id="10" xr3:uid="{3BD58939-520E-4EF9-ACA2-F4F2053AAB3E}" name="Notes" dataDxfId="139"/>
+    <tableColumn id="11" xr3:uid="{81440B9B-FEDA-4EF7-8E5F-058F42001F39}" name="Command Line Parameters" dataDxfId="138"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{020EA727-A068-4214-96AF-BBB58B4AD2CD}" name="Table12" displayName="Table12" ref="A1:K25" totalsRowShown="0" headerRowDxfId="109" dataDxfId="107" headerRowBorderDxfId="108">
-  <autoFilter ref="A1:K25" xr:uid="{020EA727-A068-4214-96AF-BBB58B4AD2CD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{387CD9B0-42DD-43F6-B933-FC392A3DA7CC}" name="Table13" displayName="Table13" ref="A1:K26" totalsRowShown="0" headerRowDxfId="137" dataDxfId="135" headerRowBorderDxfId="136">
+  <autoFilter ref="A1:K26" xr:uid="{387CD9B0-42DD-43F6-B933-FC392A3DA7CC}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{17B6DF4E-F31D-42AC-A8A3-2F473C2E30F7}" name="Location" dataDxfId="106"/>
-    <tableColumn id="2" xr3:uid="{1A61DB90-0A47-46E7-8836-10B843CF3280}" name="Test Type" dataDxfId="105"/>
-    <tableColumn id="3" xr3:uid="{C31ACC80-9B40-4B96-9E67-1DC0F8B22187}" name="Test Number" dataDxfId="104"/>
-    <tableColumn id="4" xr3:uid="{80D262AE-185A-4DB8-B5EF-067896A28E0A}" name="Test Date-Time" dataDxfId="103"/>
-    <tableColumn id="5" xr3:uid="{6B683640-6F4D-4D37-B872-927A078A42E7}" name="Sys/Comp Info" dataDxfId="102"/>
-    <tableColumn id="6" xr3:uid="{F2BE968C-9CCB-4176-862E-EA3DBB1F5265}" name="Severity" dataDxfId="101"/>
-    <tableColumn id="7" xr3:uid="{BC1C5663-AD9C-4AF4-8910-56571D431FB2}" name="EASEY Result Code" dataDxfId="100"/>
-    <tableColumn id="8" xr3:uid="{9BDF95D2-C165-45CF-B4F9-D68DB059FCA4}" name="Fired" dataDxfId="99"/>
-    <tableColumn id="9" xr3:uid="{932FF336-A11E-491C-BA6B-0A86BA9E1B8D}" name="EASEY Result" dataDxfId="98"/>
-    <tableColumn id="10" xr3:uid="{DFD2B33B-3898-4612-A48A-7808C887C1CB}" name="Notes" dataDxfId="97"/>
-    <tableColumn id="11" xr3:uid="{62C0C95E-EBA4-4A37-A7D6-D1C8B2FB1DD6}" name="Command Line Parameters" dataDxfId="96"/>
+    <tableColumn id="1" xr3:uid="{58A7C390-8DB8-4C87-940A-55AE4A3592FC}" name="Location" dataDxfId="134"/>
+    <tableColumn id="2" xr3:uid="{A3FC97A4-B761-48C4-BB4C-19DA9785E4DF}" name="Test Type" dataDxfId="133"/>
+    <tableColumn id="3" xr3:uid="{3A3BD58D-EB20-4F67-8215-8A96EE69C978}" name="Test Number" dataDxfId="132"/>
+    <tableColumn id="4" xr3:uid="{DE80CD30-41D0-4B53-8DE7-4F269F701558}" name="Test Date-Time" dataDxfId="131"/>
+    <tableColumn id="5" xr3:uid="{B86A2D2D-C8EB-483C-BF81-EB9D9F4E66F2}" name="Sys/Comp Info" dataDxfId="130"/>
+    <tableColumn id="6" xr3:uid="{36B980F4-27FC-477D-A50F-623E7E0A94DE}" name="Severity" dataDxfId="129"/>
+    <tableColumn id="7" xr3:uid="{A9D38791-49D7-4EB3-896C-646601058179}" name="EASEY Result Code" dataDxfId="128"/>
+    <tableColumn id="8" xr3:uid="{938968FB-CC01-4403-A09B-C4F6161B5D90}" name="Fired" dataDxfId="127"/>
+    <tableColumn id="9" xr3:uid="{25329D8A-5A94-4418-84D8-82518A7923BD}" name="EASEY Result" dataDxfId="126"/>
+    <tableColumn id="10" xr3:uid="{D60A5A6A-A087-4FC2-96A5-060A26AA48C8}" name="Notes" dataDxfId="125"/>
+    <tableColumn id="11" xr3:uid="{5DE715B2-E8F2-48F0-9DE2-694E23DB23E9}" name="Command Line Parameters" dataDxfId="124"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8190,10 +8484,10 @@
   <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H72" sqref="H72"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10559,6 +10853,844 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A00A2E-CC49-4E83-9E17-09716099F532}">
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="133.28515625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="45.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="97.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D2" s="6">
+        <v>43531.333333333336</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>1817</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D3" s="6">
+        <v>43531.333333333336</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D4" s="6">
+        <v>44329.375</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>1817</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D5" s="6">
+        <v>44329.375</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D6" s="6">
+        <v>43531.375</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>1825</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D7" s="6">
+        <v>43531.375</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D8" s="6">
+        <v>44361.375</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>1828</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D9" s="6">
+        <v>44361.375</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D10" s="6">
+        <v>43531.416666666664</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>1833</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D11" s="6">
+        <v>43531.416666666664</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D12" s="6">
+        <v>44329.416666666664</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>1837</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D13" s="6">
+        <v>44329.416666666664</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1839</v>
+      </c>
+      <c r="D14" s="6">
+        <v>43531.458333333336</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1840</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>1842</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1839</v>
+      </c>
+      <c r="D15" s="6">
+        <v>43531.458333333336</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1840</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D16" s="6">
+        <v>44329.458333333336</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>1840</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>1846</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D17" s="6">
+        <v>44329.458333333336</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1840</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D18" s="6">
+        <v>43553.333333333336</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>1851</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D19" s="6">
+        <v>43553.333333333336</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D20" s="6">
+        <v>44341.333333333336</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>1854</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>1855</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D21" s="6">
+        <v>44341.333333333336</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="D22" s="6">
+        <v>43555.333333333336</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>1859</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>1800</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="D23" s="6">
+        <v>43555.333333333336</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D24" s="6">
+        <v>44341.375</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="D25" s="6">
+        <v>44470.375</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>1865</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C84253-C1F3-40A8-BCD6-786B60222E9D}">
   <dimension ref="A1:J68"/>
   <sheetViews>
@@ -10566,7 +11698,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1:I1048576"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12569,15 +13701,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC7BF0A-744E-4983-9D44-F2CA7F0BDAB9}">
   <dimension ref="A1:K89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H35" sqref="H35:H89"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15191,15 +16323,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF247E8-4CEE-4E4C-AA1C-A5F6418303B4}">
   <dimension ref="A1:K581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="A1:K1"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33836,15 +34968,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB95806-BA08-44E5-BECF-767BC3A79B45}">
   <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H90" sqref="H90"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36516,15 +37648,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85F61AB-9DA3-44EF-9664-ED9383A7DC6E}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37578,7 +38710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307E8187-44DF-4FB9-8580-48A85C7DC54A}">
   <dimension ref="A1:K26"/>
   <sheetViews>
@@ -37586,7 +38718,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17:A19"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38448,15 +39580,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D196CC-3DC9-4A6C-BAF4-BA1549D5FF19}">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
   <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40586,8 +41721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8AB6CEE-1A2D-4EDD-BF79-DABF10AD8F60}">
   <dimension ref="A1:K319"/>
   <sheetViews>
-    <sheetView topLeftCell="A299" workbookViewId="0">
-      <selection activeCell="H305" sqref="H305"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52216,14 +53351,977 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD6117F-D81F-4ED3-969D-937806D08C75}">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:K29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="130.5703125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="104" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2107</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2108</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2109</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="2">
+        <v>120</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2110</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1753</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2117</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>1984</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>2118</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="2">
+        <v>120</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2110</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>2117</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>1984</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>2118</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="2">
+        <v>120</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2110</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>2117</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>1984</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>2118</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="2">
+        <v>302</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>2117</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>1984</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>2118</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="2">
+        <v>311</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2110</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>2117</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>1984</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>2118</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B7" s="2">
+        <v>100</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>2055</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>2056</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B8" s="2">
+        <v>100</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>2059</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>2060</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B9" s="2">
+        <v>100</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>2062</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>2063</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B10" s="2">
+        <v>100</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>2066</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>2069</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>2070</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>2071</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>2069</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>2073</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>2074</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>2069</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>2075</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>2076</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>2077</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>2078</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>2073</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>2074</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>2081</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>2082</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>2084</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>2085</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>2059</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>2060</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B19" s="2">
+        <v>300</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2086</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>2087</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>2062</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>2088</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B20" s="2">
+        <v>300</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>2090</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>2087</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>2091</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>2092</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B21" s="2">
+        <v>300</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2090</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>2087</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>2062</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>2088</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B22" s="2">
+        <v>800</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>2094</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>2095</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>2096</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B23" s="2">
+        <v>800</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>2094</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>2059</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>2060</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B24" s="2">
+        <v>800</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>2094</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>2098</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>2099</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B25" s="2">
+        <v>800</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>2094</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>2062</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>2100</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B26" s="2">
+        <v>800</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>2094</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>2075</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>2076</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B27" s="2">
+        <v>99</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>2101</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>2102</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B28" s="2">
+        <v>99</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>2059</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>2060</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B29" s="2">
+        <v>99</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>2104</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>2105</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1178DED-FAC2-4896-ADA7-BAB067290A3E}">
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53215,15 +55313,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284F8D0C-E6B8-46E4-BE14-B585B6CD2EA0}">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54150,12 +56248,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7A12ED-21A8-440D-BCEA-B358D4E41F2C}">
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55464,7 +57562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF78B613-4599-4AFD-8861-A9AE5B1FBB5E}">
   <dimension ref="A1:K26"/>
   <sheetViews>
@@ -55472,7 +57570,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56258,7 +58356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F251FFA4-DA4E-420C-9FBD-B96432E43209}">
   <dimension ref="A1:K26"/>
   <sheetViews>
@@ -56266,7 +58364,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57126,842 +59224,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A00A2E-CC49-4E83-9E17-09716099F532}">
-  <dimension ref="A1:K25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="46.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="133.28515625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="45.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="97.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1813</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1814</v>
-      </c>
-      <c r="D2" s="6">
-        <v>43531.333333333336</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1815</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>1816</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>1817</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1813</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1814</v>
-      </c>
-      <c r="D3" s="6">
-        <v>43531.333333333336</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1815</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>1819</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1813</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1820</v>
-      </c>
-      <c r="D4" s="6">
-        <v>44329.375</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1815</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>1816</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>1817</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>1821</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>1813</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1820</v>
-      </c>
-      <c r="D5" s="6">
-        <v>44329.375</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>1815</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>1819</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>1821</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>1813</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1822</v>
-      </c>
-      <c r="D6" s="6">
-        <v>43531.375</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>1824</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>1825</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>1826</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1813</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1822</v>
-      </c>
-      <c r="D7" s="6">
-        <v>43531.375</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>1819</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>1826</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>1813</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1827</v>
-      </c>
-      <c r="D8" s="6">
-        <v>44361.375</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>1828</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>1829</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>1813</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1827</v>
-      </c>
-      <c r="D9" s="6">
-        <v>44361.375</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>1819</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>1829</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>1813</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1830</v>
-      </c>
-      <c r="D10" s="6">
-        <v>43531.416666666664</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>1831</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>1832</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>1833</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>1834</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>1813</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1830</v>
-      </c>
-      <c r="D11" s="6">
-        <v>43531.416666666664</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>1831</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>1819</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>1834</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>1813</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1835</v>
-      </c>
-      <c r="D12" s="6">
-        <v>44329.416666666664</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>1831</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>1836</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>1837</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>1838</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>1813</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1835</v>
-      </c>
-      <c r="D13" s="6">
-        <v>44329.416666666664</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>1831</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>1819</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>1838</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>1813</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>1839</v>
-      </c>
-      <c r="D14" s="6">
-        <v>43531.458333333336</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>1840</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>1841</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>1842</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>1843</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>1813</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>1839</v>
-      </c>
-      <c r="D15" s="6">
-        <v>43531.458333333336</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>1840</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>1819</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>1843</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>1813</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>1844</v>
-      </c>
-      <c r="D16" s="6">
-        <v>44329.458333333336</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>1840</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>1845</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>1846</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>1813</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>1844</v>
-      </c>
-      <c r="D17" s="6">
-        <v>44329.458333333336</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>1840</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>1819</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>1813</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>1848</v>
-      </c>
-      <c r="D18" s="6">
-        <v>43553.333333333336</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>1849</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>1850</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>1851</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>1852</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>1813</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>1848</v>
-      </c>
-      <c r="D19" s="6">
-        <v>43553.333333333336</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>1849</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>1819</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>1852</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>1813</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>1853</v>
-      </c>
-      <c r="D20" s="6">
-        <v>44341.333333333336</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>1849</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>1854</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>1855</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>1856</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>1813</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>1853</v>
-      </c>
-      <c r="D21" s="6">
-        <v>44341.333333333336</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>1849</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>1819</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>1856</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>1813</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>1857</v>
-      </c>
-      <c r="D22" s="6">
-        <v>43555.333333333336</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>1858</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>1859</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>1800</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>1860</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>1813</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>1857</v>
-      </c>
-      <c r="D23" s="6">
-        <v>43555.333333333336</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>1858</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>1819</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>1860</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>1813</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>1861</v>
-      </c>
-      <c r="D24" s="6">
-        <v>44341.375</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>1858</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>1819</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>1813</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>1863</v>
-      </c>
-      <c r="D25" s="6">
-        <v>44470.375</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>1858</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>1864</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>1865</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/misc/Testing Scripts/QA/TestCaseResults.xlsx
+++ b/misc/Testing Scripts/QA/TestCaseResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\CAMDDevelopment\easey-db-scripts\misc\Testing Scripts\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60D5ECC-BD9B-46FB-BD40-5D7AF9FA7D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7249E35-091D-442F-9491-33A92A61E4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" activeTab="3" xr2:uid="{673C86AF-EEEE-433C-9A6E-BD69DDCD2237}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" activeTab="3" xr2:uid="{673C86AF-EEEE-433C-9A6E-BD69DDCD2237}"/>
   </bookViews>
   <sheets>
     <sheet name="7DAY" sheetId="9" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14209" uniqueCount="2119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14214" uniqueCount="2119">
   <si>
     <t>ORIS 3 (Barry) Location 5</t>
   </si>
@@ -6571,84 +6571,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="235">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -7602,6 +7524,84 @@
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -7866,159 +7866,159 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{020EA727-A068-4214-96AF-BBB58B4AD2CD}" name="Table12" displayName="Table12" ref="A1:K25" totalsRowShown="0" headerRowDxfId="123" dataDxfId="121" headerRowBorderDxfId="122">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{020EA727-A068-4214-96AF-BBB58B4AD2CD}" name="Table12" displayName="Table12" ref="A1:K25" totalsRowShown="0" headerRowDxfId="109" dataDxfId="107" headerRowBorderDxfId="108">
   <autoFilter ref="A1:K25" xr:uid="{020EA727-A068-4214-96AF-BBB58B4AD2CD}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{17B6DF4E-F31D-42AC-A8A3-2F473C2E30F7}" name="Location" dataDxfId="120"/>
-    <tableColumn id="2" xr3:uid="{1A61DB90-0A47-46E7-8836-10B843CF3280}" name="Test Type" dataDxfId="119"/>
-    <tableColumn id="3" xr3:uid="{C31ACC80-9B40-4B96-9E67-1DC0F8B22187}" name="Test Number" dataDxfId="118"/>
-    <tableColumn id="4" xr3:uid="{80D262AE-185A-4DB8-B5EF-067896A28E0A}" name="Test Date-Time" dataDxfId="117"/>
-    <tableColumn id="5" xr3:uid="{6B683640-6F4D-4D37-B872-927A078A42E7}" name="Sys/Comp Info" dataDxfId="116"/>
-    <tableColumn id="6" xr3:uid="{F2BE968C-9CCB-4176-862E-EA3DBB1F5265}" name="Severity" dataDxfId="115"/>
-    <tableColumn id="7" xr3:uid="{BC1C5663-AD9C-4AF4-8910-56571D431FB2}" name="EASEY Result Code" dataDxfId="114"/>
-    <tableColumn id="8" xr3:uid="{9BDF95D2-C165-45CF-B4F9-D68DB059FCA4}" name="Fired" dataDxfId="113"/>
-    <tableColumn id="9" xr3:uid="{932FF336-A11E-491C-BA6B-0A86BA9E1B8D}" name="EASEY Result" dataDxfId="112"/>
-    <tableColumn id="10" xr3:uid="{DFD2B33B-3898-4612-A48A-7808C887C1CB}" name="Notes" dataDxfId="111"/>
-    <tableColumn id="11" xr3:uid="{62C0C95E-EBA4-4A37-A7D6-D1C8B2FB1DD6}" name="Command Line Parameters" dataDxfId="110"/>
+    <tableColumn id="1" xr3:uid="{17B6DF4E-F31D-42AC-A8A3-2F473C2E30F7}" name="Location" dataDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{1A61DB90-0A47-46E7-8836-10B843CF3280}" name="Test Type" dataDxfId="105"/>
+    <tableColumn id="3" xr3:uid="{C31ACC80-9B40-4B96-9E67-1DC0F8B22187}" name="Test Number" dataDxfId="104"/>
+    <tableColumn id="4" xr3:uid="{80D262AE-185A-4DB8-B5EF-067896A28E0A}" name="Test Date-Time" dataDxfId="103"/>
+    <tableColumn id="5" xr3:uid="{6B683640-6F4D-4D37-B872-927A078A42E7}" name="Sys/Comp Info" dataDxfId="102"/>
+    <tableColumn id="6" xr3:uid="{F2BE968C-9CCB-4176-862E-EA3DBB1F5265}" name="Severity" dataDxfId="101"/>
+    <tableColumn id="7" xr3:uid="{BC1C5663-AD9C-4AF4-8910-56571D431FB2}" name="EASEY Result Code" dataDxfId="100"/>
+    <tableColumn id="8" xr3:uid="{9BDF95D2-C165-45CF-B4F9-D68DB059FCA4}" name="Fired" dataDxfId="99"/>
+    <tableColumn id="9" xr3:uid="{932FF336-A11E-491C-BA6B-0A86BA9E1B8D}" name="EASEY Result" dataDxfId="98"/>
+    <tableColumn id="10" xr3:uid="{DFD2B33B-3898-4612-A48A-7808C887C1CB}" name="Notes" dataDxfId="97"/>
+    <tableColumn id="11" xr3:uid="{62C0C95E-EBA4-4A37-A7D6-D1C8B2FB1DD6}" name="Command Line Parameters" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}" name="Table1" displayName="Table1" ref="A1:J68" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}" name="Table1" displayName="Table1" ref="A1:J68" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
   <autoFilter ref="A1:J68" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{4711296A-1683-4D59-9390-9C88803AA68A}" name="Location" dataDxfId="107"/>
-    <tableColumn id="2" xr3:uid="{46A8668E-BFD8-4CE9-8D48-A23DE00E437E}" name="Test Type" dataDxfId="106"/>
-    <tableColumn id="3" xr3:uid="{B7C72E78-CAF2-41A0-B7AC-096EC362072F}" name="Test Number" dataDxfId="105"/>
-    <tableColumn id="10" xr3:uid="{91E3C101-E9B0-405F-84B0-E044FE40F81E}" name="Test Date-Time" dataDxfId="104"/>
-    <tableColumn id="9" xr3:uid="{D57E3F37-9AD6-40C2-8ACB-5192B0E03191}" name="Sys/Comp Info" dataDxfId="103"/>
-    <tableColumn id="4" xr3:uid="{9415854F-BF69-421C-939D-DB4180DF22DE}" name="Severity" dataDxfId="102"/>
-    <tableColumn id="5" xr3:uid="{5AD12D48-C5A2-4105-B479-271121D42D3E}" name="EASEY Result Code" dataDxfId="101"/>
-    <tableColumn id="8" xr3:uid="{FBEFE9F9-E17E-4E0B-8743-7AE06BE9B114}" name="Fired" dataDxfId="100"/>
-    <tableColumn id="6" xr3:uid="{FCE78312-8A7D-4561-B4CC-F676E43829AF}" name="EASEY Result" dataDxfId="99"/>
-    <tableColumn id="7" xr3:uid="{AA4E3A53-68A9-4DF8-87BC-70FB236A6CED}" name="Notes" dataDxfId="98"/>
+    <tableColumn id="1" xr3:uid="{4711296A-1683-4D59-9390-9C88803AA68A}" name="Location" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{46A8668E-BFD8-4CE9-8D48-A23DE00E437E}" name="Test Type" dataDxfId="92"/>
+    <tableColumn id="3" xr3:uid="{B7C72E78-CAF2-41A0-B7AC-096EC362072F}" name="Test Number" dataDxfId="91"/>
+    <tableColumn id="10" xr3:uid="{91E3C101-E9B0-405F-84B0-E044FE40F81E}" name="Test Date-Time" dataDxfId="90"/>
+    <tableColumn id="9" xr3:uid="{D57E3F37-9AD6-40C2-8ACB-5192B0E03191}" name="Sys/Comp Info" dataDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{9415854F-BF69-421C-939D-DB4180DF22DE}" name="Severity" dataDxfId="88"/>
+    <tableColumn id="5" xr3:uid="{5AD12D48-C5A2-4105-B479-271121D42D3E}" name="EASEY Result Code" dataDxfId="87"/>
+    <tableColumn id="8" xr3:uid="{FBEFE9F9-E17E-4E0B-8743-7AE06BE9B114}" name="Fired" dataDxfId="86"/>
+    <tableColumn id="6" xr3:uid="{FCE78312-8A7D-4561-B4CC-F676E43829AF}" name="EASEY Result" dataDxfId="85"/>
+    <tableColumn id="7" xr3:uid="{AA4E3A53-68A9-4DF8-87BC-70FB236A6CED}" name="Notes" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4A33A717-7F36-46E9-B108-57CE91FC9965}" name="Table10" displayName="Table10" ref="A1:K89" totalsRowShown="0" headerRowDxfId="97" dataDxfId="95" headerRowBorderDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4A33A717-7F36-46E9-B108-57CE91FC9965}" name="Table10" displayName="Table10" ref="A1:K89" totalsRowShown="0" headerRowDxfId="83" dataDxfId="81" headerRowBorderDxfId="82">
   <autoFilter ref="A1:K89" xr:uid="{4A33A717-7F36-46E9-B108-57CE91FC9965}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{CDEE6302-915F-4B8B-8931-C82E789BFD68}" name="Location" dataDxfId="94"/>
-    <tableColumn id="2" xr3:uid="{82F96464-31C7-41F4-99E4-F836EB4804AE}" name="Test Type" dataDxfId="93"/>
-    <tableColumn id="3" xr3:uid="{9A3AD922-1B43-4401-9D08-A69565CBC240}" name="Test Number" dataDxfId="92"/>
-    <tableColumn id="4" xr3:uid="{153B2B1E-9F8A-40A0-9FC6-F154FA69A06D}" name="Test Date-Time" dataDxfId="91"/>
-    <tableColumn id="5" xr3:uid="{EB537EEB-DEA8-4166-A050-FFBFD68D1416}" name="Sys/Comp Info" dataDxfId="90"/>
-    <tableColumn id="6" xr3:uid="{E0692378-248B-472C-9ADE-6DC4C40CE31D}" name="Severity" dataDxfId="89"/>
-    <tableColumn id="7" xr3:uid="{D0B08289-03B0-4D7E-B475-69D81994C3D6}" name="EASEY Result Code" dataDxfId="88"/>
-    <tableColumn id="8" xr3:uid="{8A5BC497-E14C-4A60-9721-3754AC8FBB86}" name="Fired" dataDxfId="87"/>
-    <tableColumn id="9" xr3:uid="{D4027939-C285-4B69-8FE1-5C89204292B8}" name="EASEY Result" dataDxfId="86"/>
-    <tableColumn id="10" xr3:uid="{CAD9076A-ADA1-4DB7-B052-FB52970BED12}" name="Notes" dataDxfId="85"/>
-    <tableColumn id="11" xr3:uid="{F61AE4C4-8B02-46C3-94D5-1DAA82EE83BE}" name="Command Line Parameters" dataDxfId="84"/>
+    <tableColumn id="1" xr3:uid="{CDEE6302-915F-4B8B-8931-C82E789BFD68}" name="Location" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{82F96464-31C7-41F4-99E4-F836EB4804AE}" name="Test Type" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{9A3AD922-1B43-4401-9D08-A69565CBC240}" name="Test Number" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{153B2B1E-9F8A-40A0-9FC6-F154FA69A06D}" name="Test Date-Time" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{EB537EEB-DEA8-4166-A050-FFBFD68D1416}" name="Sys/Comp Info" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{E0692378-248B-472C-9ADE-6DC4C40CE31D}" name="Severity" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{D0B08289-03B0-4D7E-B475-69D81994C3D6}" name="EASEY Result Code" dataDxfId="74"/>
+    <tableColumn id="8" xr3:uid="{8A5BC497-E14C-4A60-9721-3754AC8FBB86}" name="Fired" dataDxfId="73"/>
+    <tableColumn id="9" xr3:uid="{D4027939-C285-4B69-8FE1-5C89204292B8}" name="EASEY Result" dataDxfId="72"/>
+    <tableColumn id="10" xr3:uid="{CAD9076A-ADA1-4DB7-B052-FB52970BED12}" name="Notes" dataDxfId="71"/>
+    <tableColumn id="11" xr3:uid="{F61AE4C4-8B02-46C3-94D5-1DAA82EE83BE}" name="Command Line Parameters" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}" name="Table2" displayName="Table2" ref="A1:K581" totalsRowShown="0" headerRowDxfId="83" dataDxfId="81" headerRowBorderDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}" name="Table2" displayName="Table2" ref="A1:K581" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68">
   <autoFilter ref="A1:K581" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{2F62CB62-9049-497E-ADC7-F9F96C31FD57}" name="Location" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{4B11ACA0-FDC6-44CA-8A6F-3F08C4CFA5F1}" name="Test Type" dataDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{C41F1DAE-8DC9-48E1-917C-258A6C1E96C9}" name="Test Number" dataDxfId="78"/>
-    <tableColumn id="4" xr3:uid="{EC0CA150-1F20-45D9-9C39-AFA9123777F4}" name="Test Date-Time" dataDxfId="77"/>
-    <tableColumn id="5" xr3:uid="{33FF74A1-9DCC-4D3A-B0C5-64E9380F879C}" name="Sys/Comp Info" dataDxfId="76"/>
-    <tableColumn id="6" xr3:uid="{22A99E8A-A5B5-4CBC-B53D-C1D9D2C5AE1B}" name="Severity" dataDxfId="75"/>
-    <tableColumn id="7" xr3:uid="{029739E6-4C78-4E2E-A09D-8C3FA73D2041}" name="EASEY Result Code" dataDxfId="74"/>
-    <tableColumn id="8" xr3:uid="{5D0E993C-1382-48E9-AA45-BE7DC3BA96AF}" name="Fired" dataDxfId="73"/>
-    <tableColumn id="9" xr3:uid="{F1CFA0F6-70F7-4594-B088-F1D73717D454}" name="EASEY Result" dataDxfId="72"/>
-    <tableColumn id="10" xr3:uid="{40B0439D-9986-4626-9FF3-B32AE7B5EA33}" name="Notes" dataDxfId="71"/>
-    <tableColumn id="11" xr3:uid="{FF29FE95-83D5-44D1-A98E-E38DE83D7BC7}" name="Command Line Parameters" dataDxfId="70"/>
+    <tableColumn id="1" xr3:uid="{2F62CB62-9049-497E-ADC7-F9F96C31FD57}" name="Location" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{4B11ACA0-FDC6-44CA-8A6F-3F08C4CFA5F1}" name="Test Type" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{C41F1DAE-8DC9-48E1-917C-258A6C1E96C9}" name="Test Number" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{EC0CA150-1F20-45D9-9C39-AFA9123777F4}" name="Test Date-Time" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{33FF74A1-9DCC-4D3A-B0C5-64E9380F879C}" name="Sys/Comp Info" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{22A99E8A-A5B5-4CBC-B53D-C1D9D2C5AE1B}" name="Severity" dataDxfId="61"/>
+    <tableColumn id="7" xr3:uid="{029739E6-4C78-4E2E-A09D-8C3FA73D2041}" name="EASEY Result Code" dataDxfId="60"/>
+    <tableColumn id="8" xr3:uid="{5D0E993C-1382-48E9-AA45-BE7DC3BA96AF}" name="Fired" dataDxfId="59"/>
+    <tableColumn id="9" xr3:uid="{F1CFA0F6-70F7-4594-B088-F1D73717D454}" name="EASEY Result" dataDxfId="58"/>
+    <tableColumn id="10" xr3:uid="{40B0439D-9986-4626-9FF3-B32AE7B5EA33}" name="Notes" dataDxfId="57"/>
+    <tableColumn id="11" xr3:uid="{FF29FE95-83D5-44D1-A98E-E38DE83D7BC7}" name="Command Line Parameters" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{72A5AA74-4364-4117-8778-356FF8C70282}" name="Table5" displayName="Table5" ref="A1:K91" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{72A5AA74-4364-4117-8778-356FF8C70282}" name="Table5" displayName="Table5" ref="A1:K91" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54">
   <autoFilter ref="A1:K91" xr:uid="{72A5AA74-4364-4117-8778-356FF8C70282}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{B5B471E1-992B-4560-9AE9-3A0B01F9D400}" name="Location" dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{1012AED6-A79C-434D-9EFD-BC07FE87995E}" name="Test Type" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{B5631442-9C30-47B5-9E8F-98D77DB400BF}" name="Test Number" dataDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{960A60B0-A29E-44B1-B36A-03ABF8C9387B}" name="Test Date-Time" dataDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{33F281F6-219B-4E02-9434-6B6D946A98E0}" name="Sys/Comp Info" dataDxfId="62"/>
-    <tableColumn id="6" xr3:uid="{E798D1DA-91F4-4F85-BC08-C953E40455E6}" name="Severity" dataDxfId="61"/>
-    <tableColumn id="7" xr3:uid="{D1264FDF-B29D-4FEE-92C2-AB98523233CD}" name="EASEY Result Code" dataDxfId="60"/>
-    <tableColumn id="8" xr3:uid="{C745552B-9704-4998-BE61-D3A91601E678}" name="Fired" dataDxfId="59"/>
-    <tableColumn id="9" xr3:uid="{C834180C-E3EF-4150-9616-ACEC523C5385}" name="EASEY Result" dataDxfId="58"/>
-    <tableColumn id="10" xr3:uid="{3ABD6028-9668-4A63-AEC5-1740A232405E}" name="Notes" dataDxfId="57"/>
-    <tableColumn id="11" xr3:uid="{9F9E58E8-A77F-4D89-A441-47366556DBC4}" name="Command Line Parameters" dataDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{B5B471E1-992B-4560-9AE9-3A0B01F9D400}" name="Location" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{1012AED6-A79C-434D-9EFD-BC07FE87995E}" name="Test Type" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{B5631442-9C30-47B5-9E8F-98D77DB400BF}" name="Test Number" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{960A60B0-A29E-44B1-B36A-03ABF8C9387B}" name="Test Date-Time" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{33F281F6-219B-4E02-9434-6B6D946A98E0}" name="Sys/Comp Info" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{E798D1DA-91F4-4F85-BC08-C953E40455E6}" name="Severity" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{D1264FDF-B29D-4FEE-92C2-AB98523233CD}" name="EASEY Result Code" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{C745552B-9704-4998-BE61-D3A91601E678}" name="Fired" dataDxfId="45"/>
+    <tableColumn id="9" xr3:uid="{C834180C-E3EF-4150-9616-ACEC523C5385}" name="EASEY Result" dataDxfId="44"/>
+    <tableColumn id="10" xr3:uid="{3ABD6028-9668-4A63-AEC5-1740A232405E}" name="Notes" dataDxfId="43"/>
+    <tableColumn id="11" xr3:uid="{9F9E58E8-A77F-4D89-A441-47366556DBC4}" name="Command Line Parameters" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{AF9DD8BE-C048-408A-9F94-5A8BA21F35EE}" name="Table16" displayName="Table16" ref="A1:K32" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{AF9DD8BE-C048-408A-9F94-5A8BA21F35EE}" name="Table16" displayName="Table16" ref="A1:K32" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40">
   <autoFilter ref="A1:K32" xr:uid="{AF9DD8BE-C048-408A-9F94-5A8BA21F35EE}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{CEF40D72-5DCC-4B34-AFF0-DB646EE7F1D9}" name="Location" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{73E21D38-0138-4A9D-92D7-F5A45463FD70}" name="Test Type" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{F42AD8C2-F06C-4997-B9FA-A329126E0DFF}" name="Test Number" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{854FA5EA-A370-4202-BA3A-9FA3AB721241}" name="Test Date-Time" dataDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{7732B98C-AAD5-4156-A763-0BC4DE759B93}" name="Sys/Comp Info" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{45B5508A-A4AD-4CFF-B677-AD9882050109}" name="Severity" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{C256B736-EB39-4718-8D5D-E6109D13DA65}" name="EASEY Result Code" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{924700DB-01C4-4CC8-9378-33C861B04674}" name="Fired" dataDxfId="45"/>
-    <tableColumn id="9" xr3:uid="{443A7749-F8EE-4346-8DAB-AB037E910CC8}" name="EASEY Result" dataDxfId="44"/>
-    <tableColumn id="10" xr3:uid="{17370406-1790-475D-A379-C70F7A67E837}" name="Notes" dataDxfId="43"/>
-    <tableColumn id="11" xr3:uid="{52FD404F-F0C8-42CF-85B7-842E44A87945}" name="Command Line Parameters" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{CEF40D72-5DCC-4B34-AFF0-DB646EE7F1D9}" name="Location" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{73E21D38-0138-4A9D-92D7-F5A45463FD70}" name="Test Type" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{F42AD8C2-F06C-4997-B9FA-A329126E0DFF}" name="Test Number" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{854FA5EA-A370-4202-BA3A-9FA3AB721241}" name="Test Date-Time" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{7732B98C-AAD5-4156-A763-0BC4DE759B93}" name="Sys/Comp Info" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{45B5508A-A4AD-4CFF-B677-AD9882050109}" name="Severity" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{C256B736-EB39-4718-8D5D-E6109D13DA65}" name="EASEY Result Code" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{924700DB-01C4-4CC8-9378-33C861B04674}" name="Fired" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{443A7749-F8EE-4346-8DAB-AB037E910CC8}" name="EASEY Result" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{17370406-1790-475D-A379-C70F7A67E837}" name="Notes" dataDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{52FD404F-F0C8-42CF-85B7-842E44A87945}" name="Command Line Parameters" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{F6500E59-5E05-4CE8-8F9D-9221B55D7FD2}" name="Table15" displayName="Table15" ref="A1:K26" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{F6500E59-5E05-4CE8-8F9D-9221B55D7FD2}" name="Table15" displayName="Table15" ref="A1:K26" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26">
   <autoFilter ref="A1:K26" xr:uid="{F6500E59-5E05-4CE8-8F9D-9221B55D7FD2}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{141A1F22-04AC-41C4-A9F5-CA2D856537D2}" name="Location" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{682EB442-4EFC-4943-86B4-811065481E58}" name="Test Type" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{A5BCB04C-743D-46FA-B0DB-84CF0B6BBC8E}" name="Test Number" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{337B62FF-2ACC-49AF-ACCD-33722D3A358A}" name="Test Date-Time" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{CA9A9114-48D7-4C09-9D29-E09FD186CBA4}" name="Sys/Comp Info" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{19FB15F6-B8AD-4984-9641-8937F6CFB220}" name="Severity" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{B429ED75-C4D0-4170-8D54-B8270FFB8774}" name="EASEY Result Code" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{B11B957A-B097-47B2-A383-93BC12EF8B7D}" name="Fired" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{C1D59F6D-98B3-4861-AE30-E527BF23B4D6}" name="EASEY Result" dataDxfId="30"/>
-    <tableColumn id="10" xr3:uid="{AF930BC6-6880-489A-BB78-667B6B0662F2}" name="Notes" dataDxfId="29"/>
-    <tableColumn id="11" xr3:uid="{BDA74063-BCCA-4147-84D8-3ACA73246EC1}" name="Command Line Parameters" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{141A1F22-04AC-41C4-A9F5-CA2D856537D2}" name="Location" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{682EB442-4EFC-4943-86B4-811065481E58}" name="Test Type" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{A5BCB04C-743D-46FA-B0DB-84CF0B6BBC8E}" name="Test Number" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{337B62FF-2ACC-49AF-ACCD-33722D3A358A}" name="Test Date-Time" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{CA9A9114-48D7-4C09-9D29-E09FD186CBA4}" name="Sys/Comp Info" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{19FB15F6-B8AD-4984-9641-8937F6CFB220}" name="Severity" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{B429ED75-C4D0-4170-8D54-B8270FFB8774}" name="EASEY Result Code" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{B11B957A-B097-47B2-A383-93BC12EF8B7D}" name="Fired" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{C1D59F6D-98B3-4861-AE30-E527BF23B4D6}" name="EASEY Result" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{AF930BC6-6880-489A-BB78-667B6B0662F2}" name="Notes" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{BDA74063-BCCA-4147-84D8-3ACA73246EC1}" name="Command Line Parameters" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{4A6B4518-3730-4EDB-8118-7FC685E54D4D}" name="Table14" displayName="Table14" ref="A1:K65" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{4A6B4518-3730-4EDB-8118-7FC685E54D4D}" name="Table14" displayName="Table14" ref="A1:K65" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12">
   <autoFilter ref="A1:K65" xr:uid="{4A6B4518-3730-4EDB-8118-7FC685E54D4D}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{688BE455-22E7-460C-AEB8-77FED1C57AE3}" name="Location" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{20C8F268-F0DA-4C4B-85CC-9675F4020B20}" name="Test Type" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{54552E71-F736-4EBF-B675-B592F1FEB306}" name="Test Number" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{AE42C9A1-5DFB-4CAB-8EF8-07F76F7C7F72}" name="Test Date-Time" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{59716E11-5EC0-4CF7-9C60-46F006BF4A88}" name="Sys/Comp Info" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{C2858AAF-8CC6-49B5-8987-6A43E1C7AE69}" name="Severity" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{A0BA8D72-C986-43E0-A3BB-DFA920174AFC}" name="EASEY Result Code" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{39E9C69F-1E34-4D36-B7C3-F2D6A86BBD74}" name="Fired" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{ACAE356B-0C07-4041-B1FC-2027B441EF49}" name="EASEY Result" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{356D670A-5642-493A-B84F-2CC68F64CC3B}" name="Notes" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{B4F1D6ED-902F-4D6E-967E-05C2040CB5E8}" name="Command Line Parameters" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{688BE455-22E7-460C-AEB8-77FED1C57AE3}" name="Location" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{20C8F268-F0DA-4C4B-85CC-9675F4020B20}" name="Test Type" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{54552E71-F736-4EBF-B675-B592F1FEB306}" name="Test Number" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{AE42C9A1-5DFB-4CAB-8EF8-07F76F7C7F72}" name="Test Date-Time" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{59716E11-5EC0-4CF7-9C60-46F006BF4A88}" name="Sys/Comp Info" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{C2858AAF-8CC6-49B5-8987-6A43E1C7AE69}" name="Severity" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{A0BA8D72-C986-43E0-A3BB-DFA920174AFC}" name="EASEY Result Code" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{39E9C69F-1E34-4D36-B7C3-F2D6A86BBD74}" name="Fired" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{ACAE356B-0C07-4041-B1FC-2027B441EF49}" name="EASEY Result" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{356D670A-5642-493A-B84F-2CC68F64CC3B}" name="Notes" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{B4F1D6ED-902F-4D6E-967E-05C2040CB5E8}" name="Command Line Parameters" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8065,120 +8065,120 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{ADD0CDC3-005A-4908-87CE-24A74B49CF61}" name="Table17" displayName="Table17" ref="A1:K29" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{ADD0CDC3-005A-4908-87CE-24A74B49CF61}" name="Table17" displayName="Table17" ref="A1:K29" totalsRowShown="0" headerRowDxfId="192" dataDxfId="190" headerRowBorderDxfId="191">
   <autoFilter ref="A1:K29" xr:uid="{ADD0CDC3-005A-4908-87CE-24A74B49CF61}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{B56F8537-694B-43C9-A68E-8609AD201C4E}" name="Location" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{6DBC46BF-D815-49D3-8182-9348CC54B060}" name="Event Code" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{575144C3-7FC0-46B6-BF5F-2AFF455A12F3}" name="Event Hout" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{9C078E68-941B-436F-8B0A-AC7AEA4D2856}" name="System" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{8AA702CF-37F0-461E-82EF-1D8192AE75F5}" name="Component" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{44FDC991-9A31-45EE-8AFE-7B8A2C3DB067}" name="Severity" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{F92E5153-B0F4-49AF-A741-FF7478287E50}" name="EASEY Result Code" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{EE2A550F-1ECC-43BA-8D54-2B5A57C82353}" name="Fired" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{BF863843-8882-43DC-9370-234BCBAE2F1E}" name="EASEY Result" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{53139B45-AF9C-4977-B597-D0A55FC6A1BE}" name="Notes" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{8B1260FF-BE34-423D-A59F-2DA415AA604B}" name="Command Line Parameters" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{B56F8537-694B-43C9-A68E-8609AD201C4E}" name="Location" dataDxfId="189"/>
+    <tableColumn id="2" xr3:uid="{6DBC46BF-D815-49D3-8182-9348CC54B060}" name="Event Code" dataDxfId="188"/>
+    <tableColumn id="3" xr3:uid="{575144C3-7FC0-46B6-BF5F-2AFF455A12F3}" name="Event Hout" dataDxfId="187"/>
+    <tableColumn id="4" xr3:uid="{9C078E68-941B-436F-8B0A-AC7AEA4D2856}" name="System" dataDxfId="186"/>
+    <tableColumn id="5" xr3:uid="{8AA702CF-37F0-461E-82EF-1D8192AE75F5}" name="Component" dataDxfId="185"/>
+    <tableColumn id="6" xr3:uid="{44FDC991-9A31-45EE-8AFE-7B8A2C3DB067}" name="Severity" dataDxfId="184"/>
+    <tableColumn id="7" xr3:uid="{F92E5153-B0F4-49AF-A741-FF7478287E50}" name="EASEY Result Code" dataDxfId="183"/>
+    <tableColumn id="8" xr3:uid="{EE2A550F-1ECC-43BA-8D54-2B5A57C82353}" name="Fired" dataDxfId="182"/>
+    <tableColumn id="9" xr3:uid="{BF863843-8882-43DC-9370-234BCBAE2F1E}" name="EASEY Result" dataDxfId="181"/>
+    <tableColumn id="10" xr3:uid="{53139B45-AF9C-4977-B597-D0A55FC6A1BE}" name="Notes" dataDxfId="180"/>
+    <tableColumn id="11" xr3:uid="{8B1260FF-BE34-423D-A59F-2DA415AA604B}" name="Command Line Parameters" dataDxfId="179"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{643FA4C3-7226-4FC1-A77A-D6CF46B7DE06}" name="Table7" displayName="Table7" ref="A1:K33" totalsRowShown="0" headerRowDxfId="192" dataDxfId="190" headerRowBorderDxfId="191">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{643FA4C3-7226-4FC1-A77A-D6CF46B7DE06}" name="Table7" displayName="Table7" ref="A1:K33" totalsRowShown="0" headerRowDxfId="178" dataDxfId="176" headerRowBorderDxfId="177">
   <autoFilter ref="A1:K33" xr:uid="{643FA4C3-7226-4FC1-A77A-D6CF46B7DE06}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{6A1DC097-B550-4298-811F-BB553C8A78B7}" name="Location" dataDxfId="189"/>
-    <tableColumn id="2" xr3:uid="{B0B911C5-C9AF-4D6B-9A8E-E4524ABB1455}" name="Test Type" dataDxfId="188"/>
-    <tableColumn id="3" xr3:uid="{7C46186D-C3D8-4F3A-A359-DBEC33D11A32}" name="Test Number" dataDxfId="187"/>
-    <tableColumn id="4" xr3:uid="{B77DADA4-D1C0-49A5-8941-BF36C2738914}" name="Test Date-Time" dataDxfId="186"/>
-    <tableColumn id="5" xr3:uid="{94D2842C-7497-4826-BFDF-64C1F4930DC7}" name="Sys/Comp Info" dataDxfId="185"/>
-    <tableColumn id="6" xr3:uid="{18E0026A-3AB3-4471-BB8D-F86CD1FCACB2}" name="Severity" dataDxfId="184"/>
-    <tableColumn id="7" xr3:uid="{64F844FE-3B1B-48BD-BFA3-F73DD8F6BAE7}" name="EASEY Result Code" dataDxfId="183"/>
-    <tableColumn id="8" xr3:uid="{0A777F6A-C367-4D68-80DC-BE82994A6C9C}" name="Fired" dataDxfId="182"/>
-    <tableColumn id="9" xr3:uid="{58E8A6A7-2EB9-4636-98D8-915BAA276364}" name="EASEY Result" dataDxfId="181"/>
-    <tableColumn id="10" xr3:uid="{8E16DEBD-9C74-43B0-A1EC-12CF584BC57D}" name="Notes" dataDxfId="180"/>
-    <tableColumn id="11" xr3:uid="{7AE3F542-B6CD-45CB-99F0-47DDE95004F7}" name="Command Line Parameters" dataDxfId="179"/>
+    <tableColumn id="1" xr3:uid="{6A1DC097-B550-4298-811F-BB553C8A78B7}" name="Location" dataDxfId="175"/>
+    <tableColumn id="2" xr3:uid="{B0B911C5-C9AF-4D6B-9A8E-E4524ABB1455}" name="Test Type" dataDxfId="174"/>
+    <tableColumn id="3" xr3:uid="{7C46186D-C3D8-4F3A-A359-DBEC33D11A32}" name="Test Number" dataDxfId="173"/>
+    <tableColumn id="4" xr3:uid="{B77DADA4-D1C0-49A5-8941-BF36C2738914}" name="Test Date-Time" dataDxfId="172"/>
+    <tableColumn id="5" xr3:uid="{94D2842C-7497-4826-BFDF-64C1F4930DC7}" name="Sys/Comp Info" dataDxfId="171"/>
+    <tableColumn id="6" xr3:uid="{18E0026A-3AB3-4471-BB8D-F86CD1FCACB2}" name="Severity" dataDxfId="170"/>
+    <tableColumn id="7" xr3:uid="{64F844FE-3B1B-48BD-BFA3-F73DD8F6BAE7}" name="EASEY Result Code" dataDxfId="169"/>
+    <tableColumn id="8" xr3:uid="{0A777F6A-C367-4D68-80DC-BE82994A6C9C}" name="Fired" dataDxfId="168"/>
+    <tableColumn id="9" xr3:uid="{58E8A6A7-2EB9-4636-98D8-915BAA276364}" name="EASEY Result" dataDxfId="167"/>
+    <tableColumn id="10" xr3:uid="{8E16DEBD-9C74-43B0-A1EC-12CF584BC57D}" name="Notes" dataDxfId="166"/>
+    <tableColumn id="11" xr3:uid="{7AE3F542-B6CD-45CB-99F0-47DDE95004F7}" name="Command Line Parameters" dataDxfId="165"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E4484FF7-4E72-42BE-B673-2211F40DBEC5}" name="Table8" displayName="Table8" ref="A1:K28" totalsRowShown="0" headerRowDxfId="178" headerRowBorderDxfId="177">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E4484FF7-4E72-42BE-B673-2211F40DBEC5}" name="Table8" displayName="Table8" ref="A1:K28" totalsRowShown="0" headerRowDxfId="164" headerRowBorderDxfId="163">
   <autoFilter ref="A1:K28" xr:uid="{E4484FF7-4E72-42BE-B673-2211F40DBEC5}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{BCDEC250-D556-489B-A8C0-F3C0B749EE85}" name="Location" dataDxfId="176"/>
-    <tableColumn id="2" xr3:uid="{27845E29-DF76-4FC1-8B99-E6D05BC504AB}" name="Test Type" dataDxfId="175"/>
-    <tableColumn id="3" xr3:uid="{88E8B5E9-3A4F-487A-A1FD-2F8825130F6C}" name="Test Number" dataDxfId="174"/>
-    <tableColumn id="4" xr3:uid="{96597CE9-7403-4439-ACB1-4DB48A5AE831}" name="Test Date-Time" dataDxfId="173"/>
-    <tableColumn id="5" xr3:uid="{67D38623-BE59-4D0E-966A-D900405266E4}" name="Sys/Comp Info" dataDxfId="172"/>
-    <tableColumn id="6" xr3:uid="{4480DA93-63BE-46D7-9C44-A62CF4C30DB9}" name="Severity" dataDxfId="171"/>
-    <tableColumn id="7" xr3:uid="{4DE029FD-1894-4C16-A49E-7205888520D7}" name="EASEY Result Code" dataDxfId="170"/>
-    <tableColumn id="8" xr3:uid="{38E45A86-E2E8-436C-83B0-1DC52A25A389}" name="Fired" dataDxfId="169"/>
-    <tableColumn id="9" xr3:uid="{D0FCA1F1-B5E4-4F39-8570-3FDAAFD8C655}" name="EASEY Result" dataDxfId="168"/>
-    <tableColumn id="10" xr3:uid="{8FFB2F06-8DA3-4256-9B20-894A86F3CAB1}" name="Notes" dataDxfId="167"/>
-    <tableColumn id="11" xr3:uid="{0A82F04A-4DC9-465C-ACBF-8A9107DE5BF9}" name="Command Line Parameters" dataDxfId="166"/>
+    <tableColumn id="1" xr3:uid="{BCDEC250-D556-489B-A8C0-F3C0B749EE85}" name="Location" dataDxfId="162"/>
+    <tableColumn id="2" xr3:uid="{27845E29-DF76-4FC1-8B99-E6D05BC504AB}" name="Test Type" dataDxfId="161"/>
+    <tableColumn id="3" xr3:uid="{88E8B5E9-3A4F-487A-A1FD-2F8825130F6C}" name="Test Number" dataDxfId="160"/>
+    <tableColumn id="4" xr3:uid="{96597CE9-7403-4439-ACB1-4DB48A5AE831}" name="Test Date-Time" dataDxfId="159"/>
+    <tableColumn id="5" xr3:uid="{67D38623-BE59-4D0E-966A-D900405266E4}" name="Sys/Comp Info" dataDxfId="158"/>
+    <tableColumn id="6" xr3:uid="{4480DA93-63BE-46D7-9C44-A62CF4C30DB9}" name="Severity" dataDxfId="157"/>
+    <tableColumn id="7" xr3:uid="{4DE029FD-1894-4C16-A49E-7205888520D7}" name="EASEY Result Code" dataDxfId="156"/>
+    <tableColumn id="8" xr3:uid="{38E45A86-E2E8-436C-83B0-1DC52A25A389}" name="Fired" dataDxfId="155"/>
+    <tableColumn id="9" xr3:uid="{D0FCA1F1-B5E4-4F39-8570-3FDAAFD8C655}" name="EASEY Result" dataDxfId="154"/>
+    <tableColumn id="10" xr3:uid="{8FFB2F06-8DA3-4256-9B20-894A86F3CAB1}" name="Notes" dataDxfId="153"/>
+    <tableColumn id="11" xr3:uid="{0A82F04A-4DC9-465C-ACBF-8A9107DE5BF9}" name="Command Line Parameters" dataDxfId="152"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C4E4C8FF-D2BC-4023-A7E2-4F0FE1340DDB}" name="Table4" displayName="Table4" ref="A1:K44" totalsRowShown="0" headerRowDxfId="165" dataDxfId="163" headerRowBorderDxfId="164">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C4E4C8FF-D2BC-4023-A7E2-4F0FE1340DDB}" name="Table4" displayName="Table4" ref="A1:K44" totalsRowShown="0" headerRowDxfId="151" dataDxfId="149" headerRowBorderDxfId="150">
   <autoFilter ref="A1:K44" xr:uid="{C4E4C8FF-D2BC-4023-A7E2-4F0FE1340DDB}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{25672079-CDA0-4D8B-8CF3-D545B2ACD419}" name="Location" dataDxfId="162"/>
-    <tableColumn id="2" xr3:uid="{5279C203-946F-4765-ABB9-8C81921C2DC3}" name="Test Type" dataDxfId="161"/>
-    <tableColumn id="3" xr3:uid="{11DE1298-C62C-4C4B-9989-25AA10EF10C0}" name="Test Number" dataDxfId="160"/>
-    <tableColumn id="4" xr3:uid="{2A458B2D-9FF3-4418-9FD6-DF0766209CB5}" name="Test Date-Time" dataDxfId="159"/>
-    <tableColumn id="5" xr3:uid="{60E36B10-857E-4482-B035-790F74DBDB33}" name="Sys/Comp Info" dataDxfId="158"/>
-    <tableColumn id="6" xr3:uid="{2E26423A-D6BE-4410-8F61-F74A3CED15B8}" name="Severity" dataDxfId="157"/>
-    <tableColumn id="7" xr3:uid="{20497C37-19CA-4417-AC58-9CBBEB217149}" name="EASEY Result Code" dataDxfId="156"/>
-    <tableColumn id="8" xr3:uid="{B51DBED3-688D-4748-9F71-406904878E83}" name="Fired" dataDxfId="155"/>
-    <tableColumn id="9" xr3:uid="{55BF46DF-A688-44E7-9212-0315C9101E05}" name="EASEY Result" dataDxfId="154"/>
-    <tableColumn id="10" xr3:uid="{A4FC5CC8-E769-426F-AEEE-D8BDE3AAE1AB}" name="Notes" dataDxfId="153"/>
-    <tableColumn id="11" xr3:uid="{E7F09088-0589-40C2-8067-9D1FE0896663}" name="Command Line Parameters" dataDxfId="152"/>
+    <tableColumn id="1" xr3:uid="{25672079-CDA0-4D8B-8CF3-D545B2ACD419}" name="Location" dataDxfId="148"/>
+    <tableColumn id="2" xr3:uid="{5279C203-946F-4765-ABB9-8C81921C2DC3}" name="Test Type" dataDxfId="147"/>
+    <tableColumn id="3" xr3:uid="{11DE1298-C62C-4C4B-9989-25AA10EF10C0}" name="Test Number" dataDxfId="146"/>
+    <tableColumn id="4" xr3:uid="{2A458B2D-9FF3-4418-9FD6-DF0766209CB5}" name="Test Date-Time" dataDxfId="145"/>
+    <tableColumn id="5" xr3:uid="{60E36B10-857E-4482-B035-790F74DBDB33}" name="Sys/Comp Info" dataDxfId="144"/>
+    <tableColumn id="6" xr3:uid="{2E26423A-D6BE-4410-8F61-F74A3CED15B8}" name="Severity" dataDxfId="143"/>
+    <tableColumn id="7" xr3:uid="{20497C37-19CA-4417-AC58-9CBBEB217149}" name="EASEY Result Code" dataDxfId="142"/>
+    <tableColumn id="8" xr3:uid="{B51DBED3-688D-4748-9F71-406904878E83}" name="Fired" dataDxfId="141"/>
+    <tableColumn id="9" xr3:uid="{55BF46DF-A688-44E7-9212-0315C9101E05}" name="EASEY Result" dataDxfId="140"/>
+    <tableColumn id="10" xr3:uid="{A4FC5CC8-E769-426F-AEEE-D8BDE3AAE1AB}" name="Notes" dataDxfId="139"/>
+    <tableColumn id="11" xr3:uid="{E7F09088-0589-40C2-8067-9D1FE0896663}" name="Command Line Parameters" dataDxfId="138"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0CC4DB58-871D-4311-83EC-9DB6A2F24D3C}" name="Table3" displayName="Table3" ref="A1:K26" totalsRowShown="0" headerRowDxfId="151" dataDxfId="149" headerRowBorderDxfId="150">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0CC4DB58-871D-4311-83EC-9DB6A2F24D3C}" name="Table3" displayName="Table3" ref="A1:K26" totalsRowShown="0" headerRowDxfId="137" dataDxfId="135" headerRowBorderDxfId="136">
   <autoFilter ref="A1:K26" xr:uid="{0CC4DB58-871D-4311-83EC-9DB6A2F24D3C}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{FD39BA7F-4A73-45B6-8492-9C47A87EAF80}" name="Location" dataDxfId="148"/>
-    <tableColumn id="2" xr3:uid="{6BD18705-A907-480B-9613-FD6A89008B95}" name="Test Type" dataDxfId="147"/>
-    <tableColumn id="3" xr3:uid="{171EC70D-BD2B-4679-9E2F-B7A72F41A5BC}" name="Test Number" dataDxfId="146"/>
-    <tableColumn id="4" xr3:uid="{54392DF7-D2E8-406A-BF46-C94A6AF058B7}" name="Test Date-Time" dataDxfId="145"/>
-    <tableColumn id="5" xr3:uid="{BEE30332-3FC4-42CC-9E0A-10D6FD8CE7DB}" name="Sys/Comp Info" dataDxfId="144"/>
-    <tableColumn id="6" xr3:uid="{4D56506A-EEFD-4953-B5C2-BFBFB1100C42}" name="Severity" dataDxfId="143"/>
-    <tableColumn id="7" xr3:uid="{F7744816-5978-4331-B8B7-FBAEA071B23C}" name="EASEY Result Code" dataDxfId="142"/>
-    <tableColumn id="8" xr3:uid="{5A8FF3A4-DEAC-4772-A7B5-657662710593}" name="Fired" dataDxfId="141"/>
-    <tableColumn id="9" xr3:uid="{B72C4A8D-A7B2-492D-AAF3-C53B34CC6D68}" name="EASEY Result" dataDxfId="140"/>
-    <tableColumn id="10" xr3:uid="{3BD58939-520E-4EF9-ACA2-F4F2053AAB3E}" name="Notes" dataDxfId="139"/>
-    <tableColumn id="11" xr3:uid="{81440B9B-FEDA-4EF7-8E5F-058F42001F39}" name="Command Line Parameters" dataDxfId="138"/>
+    <tableColumn id="1" xr3:uid="{FD39BA7F-4A73-45B6-8492-9C47A87EAF80}" name="Location" dataDxfId="134"/>
+    <tableColumn id="2" xr3:uid="{6BD18705-A907-480B-9613-FD6A89008B95}" name="Test Type" dataDxfId="133"/>
+    <tableColumn id="3" xr3:uid="{171EC70D-BD2B-4679-9E2F-B7A72F41A5BC}" name="Test Number" dataDxfId="132"/>
+    <tableColumn id="4" xr3:uid="{54392DF7-D2E8-406A-BF46-C94A6AF058B7}" name="Test Date-Time" dataDxfId="131"/>
+    <tableColumn id="5" xr3:uid="{BEE30332-3FC4-42CC-9E0A-10D6FD8CE7DB}" name="Sys/Comp Info" dataDxfId="130"/>
+    <tableColumn id="6" xr3:uid="{4D56506A-EEFD-4953-B5C2-BFBFB1100C42}" name="Severity" dataDxfId="129"/>
+    <tableColumn id="7" xr3:uid="{F7744816-5978-4331-B8B7-FBAEA071B23C}" name="EASEY Result Code" dataDxfId="128"/>
+    <tableColumn id="8" xr3:uid="{5A8FF3A4-DEAC-4772-A7B5-657662710593}" name="Fired" dataDxfId="127"/>
+    <tableColumn id="9" xr3:uid="{B72C4A8D-A7B2-492D-AAF3-C53B34CC6D68}" name="EASEY Result" dataDxfId="126"/>
+    <tableColumn id="10" xr3:uid="{3BD58939-520E-4EF9-ACA2-F4F2053AAB3E}" name="Notes" dataDxfId="125"/>
+    <tableColumn id="11" xr3:uid="{81440B9B-FEDA-4EF7-8E5F-058F42001F39}" name="Command Line Parameters" dataDxfId="124"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{387CD9B0-42DD-43F6-B933-FC392A3DA7CC}" name="Table13" displayName="Table13" ref="A1:K26" totalsRowShown="0" headerRowDxfId="137" dataDxfId="135" headerRowBorderDxfId="136">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{387CD9B0-42DD-43F6-B933-FC392A3DA7CC}" name="Table13" displayName="Table13" ref="A1:K26" totalsRowShown="0" headerRowDxfId="123" dataDxfId="121" headerRowBorderDxfId="122">
   <autoFilter ref="A1:K26" xr:uid="{387CD9B0-42DD-43F6-B933-FC392A3DA7CC}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{58A7C390-8DB8-4C87-940A-55AE4A3592FC}" name="Location" dataDxfId="134"/>
-    <tableColumn id="2" xr3:uid="{A3FC97A4-B761-48C4-BB4C-19DA9785E4DF}" name="Test Type" dataDxfId="133"/>
-    <tableColumn id="3" xr3:uid="{3A3BD58D-EB20-4F67-8215-8A96EE69C978}" name="Test Number" dataDxfId="132"/>
-    <tableColumn id="4" xr3:uid="{DE80CD30-41D0-4B53-8DE7-4F269F701558}" name="Test Date-Time" dataDxfId="131"/>
-    <tableColumn id="5" xr3:uid="{B86A2D2D-C8EB-483C-BF81-EB9D9F4E66F2}" name="Sys/Comp Info" dataDxfId="130"/>
-    <tableColumn id="6" xr3:uid="{36B980F4-27FC-477D-A50F-623E7E0A94DE}" name="Severity" dataDxfId="129"/>
-    <tableColumn id="7" xr3:uid="{A9D38791-49D7-4EB3-896C-646601058179}" name="EASEY Result Code" dataDxfId="128"/>
-    <tableColumn id="8" xr3:uid="{938968FB-CC01-4403-A09B-C4F6161B5D90}" name="Fired" dataDxfId="127"/>
-    <tableColumn id="9" xr3:uid="{25329D8A-5A94-4418-84D8-82518A7923BD}" name="EASEY Result" dataDxfId="126"/>
-    <tableColumn id="10" xr3:uid="{D60A5A6A-A087-4FC2-96A5-060A26AA48C8}" name="Notes" dataDxfId="125"/>
-    <tableColumn id="11" xr3:uid="{5DE715B2-E8F2-48F0-9DE2-694E23DB23E9}" name="Command Line Parameters" dataDxfId="124"/>
+    <tableColumn id="1" xr3:uid="{58A7C390-8DB8-4C87-940A-55AE4A3592FC}" name="Location" dataDxfId="120"/>
+    <tableColumn id="2" xr3:uid="{A3FC97A4-B761-48C4-BB4C-19DA9785E4DF}" name="Test Type" dataDxfId="119"/>
+    <tableColumn id="3" xr3:uid="{3A3BD58D-EB20-4F67-8215-8A96EE69C978}" name="Test Number" dataDxfId="118"/>
+    <tableColumn id="4" xr3:uid="{DE80CD30-41D0-4B53-8DE7-4F269F701558}" name="Test Date-Time" dataDxfId="117"/>
+    <tableColumn id="5" xr3:uid="{B86A2D2D-C8EB-483C-BF81-EB9D9F4E66F2}" name="Sys/Comp Info" dataDxfId="116"/>
+    <tableColumn id="6" xr3:uid="{36B980F4-27FC-477D-A50F-623E7E0A94DE}" name="Severity" dataDxfId="115"/>
+    <tableColumn id="7" xr3:uid="{A9D38791-49D7-4EB3-896C-646601058179}" name="EASEY Result Code" dataDxfId="114"/>
+    <tableColumn id="8" xr3:uid="{938968FB-CC01-4403-A09B-C4F6161B5D90}" name="Fired" dataDxfId="113"/>
+    <tableColumn id="9" xr3:uid="{25329D8A-5A94-4418-84D8-82518A7923BD}" name="EASEY Result" dataDxfId="112"/>
+    <tableColumn id="10" xr3:uid="{D60A5A6A-A087-4FC2-96A5-060A26AA48C8}" name="Notes" dataDxfId="111"/>
+    <tableColumn id="11" xr3:uid="{5DE715B2-E8F2-48F0-9DE2-694E23DB23E9}" name="Command Line Parameters" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -39588,10 +39588,10 @@
   <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53361,7 +53361,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2:H6"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53375,7 +53375,7 @@
     <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="130.5703125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="38.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="75.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="104" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -53415,7 +53415,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>108</v>
       </c>
@@ -53443,11 +53443,14 @@
       <c r="I2" s="5" t="s">
         <v>2118</v>
       </c>
+      <c r="J2" s="16" t="s">
+        <v>1987</v>
+      </c>
       <c r="K2" s="1" t="s">
         <v>2112</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>108</v>
       </c>
@@ -53475,11 +53478,14 @@
       <c r="I3" s="5" t="s">
         <v>2118</v>
       </c>
+      <c r="J3" s="16" t="s">
+        <v>1987</v>
+      </c>
       <c r="K3" s="1" t="s">
         <v>2113</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>108</v>
       </c>
@@ -53507,11 +53513,14 @@
       <c r="I4" s="5" t="s">
         <v>2118</v>
       </c>
+      <c r="J4" s="16" t="s">
+        <v>1987</v>
+      </c>
       <c r="K4" s="1" t="s">
         <v>2114</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>108</v>
       </c>
@@ -53539,11 +53548,14 @@
       <c r="I5" s="5" t="s">
         <v>2118</v>
       </c>
+      <c r="J5" s="16" t="s">
+        <v>1987</v>
+      </c>
       <c r="K5" s="1" t="s">
         <v>2115</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>108</v>
       </c>
@@ -53570,6 +53582,9 @@
       </c>
       <c r="I6" s="5" t="s">
         <v>2118</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>1987</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>2116</v>
@@ -56079,7 +56094,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>1299</v>
       </c>
@@ -56111,7 +56126,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>1299</v>
       </c>
@@ -59122,7 +59137,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>1202</v>
       </c>

--- a/misc/Testing Scripts/QA/TestCaseResults.xlsx
+++ b/misc/Testing Scripts/QA/TestCaseResults.xlsx
@@ -8,28 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\CAMDDevelopment\easey-db-scripts\misc\Testing Scripts\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7249E35-091D-442F-9491-33A92A61E4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C859F8-924E-4954-B738-849281068240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" activeTab="3" xr2:uid="{673C86AF-EEEE-433C-9A6E-BD69DDCD2237}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" activeTab="4" xr2:uid="{673C86AF-EEEE-433C-9A6E-BD69DDCD2237}"/>
   </bookViews>
   <sheets>
     <sheet name="7DAY" sheetId="9" r:id="rId1"/>
     <sheet name="APPE" sheetId="6" r:id="rId2"/>
     <sheet name="CYCLE" sheetId="11" r:id="rId3"/>
     <sheet name="EVENT" sheetId="17" r:id="rId4"/>
-    <sheet name="F2LCHK" sheetId="7" r:id="rId5"/>
-    <sheet name="F2LREF" sheetId="8" r:id="rId6"/>
-    <sheet name="FF2LBAS" sheetId="4" r:id="rId7"/>
-    <sheet name="FF2LTST" sheetId="3" r:id="rId8"/>
-    <sheet name="FFACC" sheetId="13" r:id="rId9"/>
-    <sheet name="FFACCTT" sheetId="12" r:id="rId10"/>
-    <sheet name="LINE" sheetId="1" r:id="rId11"/>
-    <sheet name="ONOFF" sheetId="10" r:id="rId12"/>
-    <sheet name="RATA" sheetId="2" r:id="rId13"/>
-    <sheet name="UNITDEF" sheetId="5" r:id="rId14"/>
-    <sheet name="Check Type AETB" sheetId="16" r:id="rId15"/>
-    <sheet name="Check Type PGVP" sheetId="15" r:id="rId16"/>
-    <sheet name="Check Type TEST" sheetId="14" r:id="rId17"/>
+    <sheet name="EXTEXEM" sheetId="18" r:id="rId5"/>
+    <sheet name="F2LCHK" sheetId="7" r:id="rId6"/>
+    <sheet name="F2LREF" sheetId="8" r:id="rId7"/>
+    <sheet name="FF2LBAS" sheetId="4" r:id="rId8"/>
+    <sheet name="FF2LTST" sheetId="3" r:id="rId9"/>
+    <sheet name="FFACC" sheetId="13" r:id="rId10"/>
+    <sheet name="FFACCTT" sheetId="12" r:id="rId11"/>
+    <sheet name="LINE" sheetId="1" r:id="rId12"/>
+    <sheet name="ONOFF" sheetId="10" r:id="rId13"/>
+    <sheet name="RATA" sheetId="2" r:id="rId14"/>
+    <sheet name="UNITDEF" sheetId="5" r:id="rId15"/>
+    <sheet name="Check Type AETB" sheetId="16" r:id="rId16"/>
+    <sheet name="Check Type PGVP" sheetId="15" r:id="rId17"/>
+    <sheet name="Check Type TEST" sheetId="14" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14214" uniqueCount="2119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14460" uniqueCount="2179">
   <si>
     <t>ORIS 3 (Barry) Location 5</t>
   </si>
@@ -6416,6 +6417,186 @@
   </si>
   <si>
     <t>A Monitoring Plan associated with this QA certification event has critical errors.  You must correct all active and future Monitoring Plans containing the location in this QA certification event in order to submit this QA certification event to be loaded on EPA's host system.</t>
+  </si>
+  <si>
+    <t>2021 Q3</t>
+  </si>
+  <si>
+    <t>LOWSYTD</t>
+  </si>
+  <si>
+    <t>EXTEXEM-3-A</t>
+  </si>
+  <si>
+    <t>You did not provide MonitorSystemID, which is required for this extension/exemption.</t>
+  </si>
+  <si>
+    <t>TEE "TWCORNEL5-C0E3879920A14159BAA98E03F1980A7A" "CHV-LGIANN-95065B5470DD43E48460B46BA88E4C79"</t>
+  </si>
+  <si>
+    <t>NONQADB</t>
+  </si>
+  <si>
+    <t>AFA (GFFM)</t>
+  </si>
+  <si>
+    <t>EXTEXEM-7-E</t>
+  </si>
+  <si>
+    <t>Based on the HoursUsed, this system does not qualify for this test extension exemption.</t>
+  </si>
+  <si>
+    <t>TEE "TWCORNEL5-C0E3879920A14159BAA98E03F1980A7A" "CHV-LGIANN-3745F7F6D04D4E4BB974C5DBC4898830"</t>
+  </si>
+  <si>
+    <t>AFE (DP)</t>
+  </si>
+  <si>
+    <t>EXTEXEM-4-G</t>
+  </si>
+  <si>
+    <t>The ComponentTypeCode of the component reported for this extension/exemption is not appropriate.  A NONQADB extension exemption only applies to GFFM and OFFM monitors.</t>
+  </si>
+  <si>
+    <t>TEE "TWCORNEL5-C0E3879920A14159BAA98E03F1980A7A" "CHV-LGIANN-7168CF76904D4DF3AE2AFD923111A318"</t>
+  </si>
+  <si>
+    <t>NONQAOS</t>
+  </si>
+  <si>
+    <t>EXTEXEM-2-B</t>
+  </si>
+  <si>
+    <t>You reported this extension/exemption indicating that the unit is an ozone-season-only reporter, but according to your Reporting Frequency records, the unit reports on an annual basis.</t>
+  </si>
+  <si>
+    <t>TEE "TWCORNEL5-C0E3879920A14159BAA98E03F1980A7A" "CHV-LGIANN-345050C31AFB4076B36FDE9AD67D8C87"</t>
+  </si>
+  <si>
+    <t>EXTEXEM-1-C</t>
+  </si>
+  <si>
+    <t>You reported this extension/exemption, but this test extension exemption record is not required for the third quarter.</t>
+  </si>
+  <si>
+    <t>RANGENU</t>
+  </si>
+  <si>
+    <t>EXTEXEM-4-B</t>
+  </si>
+  <si>
+    <t>The ComponentTypeCode of the component reported for this extension/exemption is not appropriate.  A RANGENU extension exemption only applies to dual-range continuous emission monitors.</t>
+  </si>
+  <si>
+    <t>TEE "TWCORNEL5-C0E3879920A14159BAA98E03F1980A7A" "CHV-LGIANN-D08B659DDA374741A262757232611FFB"</t>
+  </si>
+  <si>
+    <t>EXTEXEM-5-A</t>
+  </si>
+  <si>
+    <t>You did not provide SpanScaleCode, which is required for this extension/exemption.</t>
+  </si>
+  <si>
+    <t>ORIS 3 (Barry) Location 2</t>
+  </si>
+  <si>
+    <t>AGA (GFFM)</t>
+  </si>
+  <si>
+    <t>TEE "TWCORNEL5-C0E3879920A14159BAA98E03F1980A7A" "CHV-LGIANN-4195E1701ED146168F1CA465A924FA3B"</t>
+  </si>
+  <si>
+    <t>2017 Q1</t>
+  </si>
+  <si>
+    <t>LOWSQTR</t>
+  </si>
+  <si>
+    <t>TEE "TWCORNEL5-C0E3879920A14159BAA98E03F1980A7A" "TWCORNEL5-74DC6AADAFAE40DEB813898557162D93"</t>
+  </si>
+  <si>
+    <t>2018 Q2</t>
+  </si>
+  <si>
+    <t>TEE "TWCORNEL5-C0E3879920A14159BAA98E03F1980A7A" "TWCORNEL5-0A977EA2A6714E9E9F3574C79675A681"</t>
+  </si>
+  <si>
+    <t>2016 Q3</t>
+  </si>
+  <si>
+    <t>TEE "TWCORNEL5-C0E3879920A14159BAA98E03F1980A7A" "TWCORNEL5-B16100938029449EA4A7D765255FEF66"</t>
+  </si>
+  <si>
+    <t>2017 Q2</t>
+  </si>
+  <si>
+    <t>TEE "TWCORNEL5-C0E3879920A14159BAA98E03F1980A7A" "TWCORNEL5-9B5442878BA54682830B5F76C0AD1845"</t>
+  </si>
+  <si>
+    <t>2017 Q3</t>
+  </si>
+  <si>
+    <t>TEE "TWCORNEL5-C0E3879920A14159BAA98E03F1980A7A" "TWCORNEL5-06084376E2FC4D1DBC7252290B397138"</t>
+  </si>
+  <si>
+    <t>2017 Q4</t>
+  </si>
+  <si>
+    <t>TEE "TWCORNEL5-C0E3879920A14159BAA98E03F1980A7A" "TWCORNEL5-49EF458621B44E308CF4EA3E56821473"</t>
+  </si>
+  <si>
+    <t>2018 Q1</t>
+  </si>
+  <si>
+    <t>TEE "TWCORNEL5-C0E3879920A14159BAA98E03F1980A7A" "TWCORNEL5-FEC3B7CF239F41229DE496C7129CFC40"</t>
+  </si>
+  <si>
+    <t>2018 Q3</t>
+  </si>
+  <si>
+    <t>TEE "TWCORNEL5-C0E3879920A14159BAA98E03F1980A7A" "TWCORNEL5-A8FAA1DAD1064A3E996A483426B41E4D"</t>
+  </si>
+  <si>
+    <t>2018 Q4</t>
+  </si>
+  <si>
+    <t>TEE "TWCORNEL5-C0E3879920A14159BAA98E03F1980A7A" "TWCORNEL5-AFB96436EB1A4A0189BD65EA044BC289"</t>
+  </si>
+  <si>
+    <t>2019 Q1</t>
+  </si>
+  <si>
+    <t>TEE "TWCORNEL5-C0E3879920A14159BAA98E03F1980A7A" "TWCORNEL5-A89DF91F9F4B4B24812501251B94258D"</t>
+  </si>
+  <si>
+    <t>2019 Q2</t>
+  </si>
+  <si>
+    <t>TEE "TWCORNEL5-C0E3879920A14159BAA98E03F1980A7A" "TWCORNEL5-1B1F66D906184D3F8BC66AFFAB0D2F01"</t>
+  </si>
+  <si>
+    <t>2021 Q2</t>
+  </si>
+  <si>
+    <t>TEE "TWCORNEL5-C0E3879920A14159BAA98E03F1980A7A" "CHV-LGIANN-EC93514947EA4EF08FD7D5DD612AF876"</t>
+  </si>
+  <si>
+    <t>EXTEXEM-6-B</t>
+  </si>
+  <si>
+    <t>This test extension exemption should only be reported for a location with a fuelflow system with a FuelCode equal to PNG.  According to the monitoring plan, there are no such systems defined at this location.</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>EXTEXEM-9-A</t>
+  </si>
+  <si>
+    <t>A Monitoring Plan associated with this test extension/exemption has critical errors.  You must correct all active and future Monitoring Plans containing the location in this test extension/exemption in order to submit this test extension/exemption to be loaded on EPA's host system.</t>
   </si>
 </sst>
 </file>
@@ -6570,7 +6751,85 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="235">
+  <dxfs count="249">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -7846,339 +8105,359 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5C910FE5-874B-4017-B841-F60367D6DBDE}" name="Table9" displayName="Table9" ref="A1:K73" totalsRowShown="0" headerRowDxfId="234" dataDxfId="232" headerRowBorderDxfId="233">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5C910FE5-874B-4017-B841-F60367D6DBDE}" name="Table9" displayName="Table9" ref="A1:K73" totalsRowShown="0" headerRowDxfId="248" dataDxfId="246" headerRowBorderDxfId="247">
   <autoFilter ref="A1:K73" xr:uid="{5C910FE5-874B-4017-B841-F60367D6DBDE}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{8279D829-3000-4C82-8018-0E78EB4E52ED}" name="Location" dataDxfId="231"/>
-    <tableColumn id="2" xr3:uid="{8C3F4264-2BDD-4183-9522-C40A313B4494}" name="Test Type" dataDxfId="230"/>
-    <tableColumn id="3" xr3:uid="{B0DE5395-DC16-46BB-BC57-85CF8494EEC8}" name="Test Number" dataDxfId="229"/>
-    <tableColumn id="4" xr3:uid="{AFAA091C-FD51-4F17-B61A-9B63F7F60549}" name="Test Date-Time" dataDxfId="228"/>
-    <tableColumn id="5" xr3:uid="{9510359E-2D55-43AD-8BD2-3BEAD6C916CF}" name="Sys/Comp Info" dataDxfId="227"/>
-    <tableColumn id="6" xr3:uid="{AECAE78C-1669-4150-9D54-CF24FB46FB2C}" name="Severity" dataDxfId="226"/>
-    <tableColumn id="7" xr3:uid="{60F04430-453C-4689-B258-ECBB97164B62}" name="EASEY Result Code" dataDxfId="225"/>
-    <tableColumn id="8" xr3:uid="{48BBCC17-5C80-41DD-9F75-59C2F34B310D}" name="Fired" dataDxfId="224"/>
-    <tableColumn id="9" xr3:uid="{B8B66FF4-909C-4ADC-8A89-2420561A8BC8}" name="EASEY Result" dataDxfId="223"/>
-    <tableColumn id="10" xr3:uid="{502F8369-E6BA-4168-9FB1-BDCCFE48BA95}" name="Notes" dataDxfId="222"/>
-    <tableColumn id="11" xr3:uid="{1BA34216-1816-4C5B-91A2-0F623ECC08A9}" name="Command Line Parameters" dataDxfId="221"/>
+    <tableColumn id="1" xr3:uid="{8279D829-3000-4C82-8018-0E78EB4E52ED}" name="Location" dataDxfId="245"/>
+    <tableColumn id="2" xr3:uid="{8C3F4264-2BDD-4183-9522-C40A313B4494}" name="Test Type" dataDxfId="244"/>
+    <tableColumn id="3" xr3:uid="{B0DE5395-DC16-46BB-BC57-85CF8494EEC8}" name="Test Number" dataDxfId="243"/>
+    <tableColumn id="4" xr3:uid="{AFAA091C-FD51-4F17-B61A-9B63F7F60549}" name="Test Date-Time" dataDxfId="242"/>
+    <tableColumn id="5" xr3:uid="{9510359E-2D55-43AD-8BD2-3BEAD6C916CF}" name="Sys/Comp Info" dataDxfId="241"/>
+    <tableColumn id="6" xr3:uid="{AECAE78C-1669-4150-9D54-CF24FB46FB2C}" name="Severity" dataDxfId="240"/>
+    <tableColumn id="7" xr3:uid="{60F04430-453C-4689-B258-ECBB97164B62}" name="EASEY Result Code" dataDxfId="239"/>
+    <tableColumn id="8" xr3:uid="{48BBCC17-5C80-41DD-9F75-59C2F34B310D}" name="Fired" dataDxfId="238"/>
+    <tableColumn id="9" xr3:uid="{B8B66FF4-909C-4ADC-8A89-2420561A8BC8}" name="EASEY Result" dataDxfId="237"/>
+    <tableColumn id="10" xr3:uid="{502F8369-E6BA-4168-9FB1-BDCCFE48BA95}" name="Notes" dataDxfId="236"/>
+    <tableColumn id="11" xr3:uid="{1BA34216-1816-4C5B-91A2-0F623ECC08A9}" name="Command Line Parameters" dataDxfId="235"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{020EA727-A068-4214-96AF-BBB58B4AD2CD}" name="Table12" displayName="Table12" ref="A1:K25" totalsRowShown="0" headerRowDxfId="109" dataDxfId="107" headerRowBorderDxfId="108">
-  <autoFilter ref="A1:K25" xr:uid="{020EA727-A068-4214-96AF-BBB58B4AD2CD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{387CD9B0-42DD-43F6-B933-FC392A3DA7CC}" name="Table13" displayName="Table13" ref="A1:K26" totalsRowShown="0" headerRowDxfId="137" dataDxfId="135" headerRowBorderDxfId="136">
+  <autoFilter ref="A1:K26" xr:uid="{387CD9B0-42DD-43F6-B933-FC392A3DA7CC}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{17B6DF4E-F31D-42AC-A8A3-2F473C2E30F7}" name="Location" dataDxfId="106"/>
-    <tableColumn id="2" xr3:uid="{1A61DB90-0A47-46E7-8836-10B843CF3280}" name="Test Type" dataDxfId="105"/>
-    <tableColumn id="3" xr3:uid="{C31ACC80-9B40-4B96-9E67-1DC0F8B22187}" name="Test Number" dataDxfId="104"/>
-    <tableColumn id="4" xr3:uid="{80D262AE-185A-4DB8-B5EF-067896A28E0A}" name="Test Date-Time" dataDxfId="103"/>
-    <tableColumn id="5" xr3:uid="{6B683640-6F4D-4D37-B872-927A078A42E7}" name="Sys/Comp Info" dataDxfId="102"/>
-    <tableColumn id="6" xr3:uid="{F2BE968C-9CCB-4176-862E-EA3DBB1F5265}" name="Severity" dataDxfId="101"/>
-    <tableColumn id="7" xr3:uid="{BC1C5663-AD9C-4AF4-8910-56571D431FB2}" name="EASEY Result Code" dataDxfId="100"/>
-    <tableColumn id="8" xr3:uid="{9BDF95D2-C165-45CF-B4F9-D68DB059FCA4}" name="Fired" dataDxfId="99"/>
-    <tableColumn id="9" xr3:uid="{932FF336-A11E-491C-BA6B-0A86BA9E1B8D}" name="EASEY Result" dataDxfId="98"/>
-    <tableColumn id="10" xr3:uid="{DFD2B33B-3898-4612-A48A-7808C887C1CB}" name="Notes" dataDxfId="97"/>
-    <tableColumn id="11" xr3:uid="{62C0C95E-EBA4-4A37-A7D6-D1C8B2FB1DD6}" name="Command Line Parameters" dataDxfId="96"/>
+    <tableColumn id="1" xr3:uid="{58A7C390-8DB8-4C87-940A-55AE4A3592FC}" name="Location" dataDxfId="134"/>
+    <tableColumn id="2" xr3:uid="{A3FC97A4-B761-48C4-BB4C-19DA9785E4DF}" name="Test Type" dataDxfId="133"/>
+    <tableColumn id="3" xr3:uid="{3A3BD58D-EB20-4F67-8215-8A96EE69C978}" name="Test Number" dataDxfId="132"/>
+    <tableColumn id="4" xr3:uid="{DE80CD30-41D0-4B53-8DE7-4F269F701558}" name="Test Date-Time" dataDxfId="131"/>
+    <tableColumn id="5" xr3:uid="{B86A2D2D-C8EB-483C-BF81-EB9D9F4E66F2}" name="Sys/Comp Info" dataDxfId="130"/>
+    <tableColumn id="6" xr3:uid="{36B980F4-27FC-477D-A50F-623E7E0A94DE}" name="Severity" dataDxfId="129"/>
+    <tableColumn id="7" xr3:uid="{A9D38791-49D7-4EB3-896C-646601058179}" name="EASEY Result Code" dataDxfId="128"/>
+    <tableColumn id="8" xr3:uid="{938968FB-CC01-4403-A09B-C4F6161B5D90}" name="Fired" dataDxfId="127"/>
+    <tableColumn id="9" xr3:uid="{25329D8A-5A94-4418-84D8-82518A7923BD}" name="EASEY Result" dataDxfId="126"/>
+    <tableColumn id="10" xr3:uid="{D60A5A6A-A087-4FC2-96A5-060A26AA48C8}" name="Notes" dataDxfId="125"/>
+    <tableColumn id="11" xr3:uid="{5DE715B2-E8F2-48F0-9DE2-694E23DB23E9}" name="Command Line Parameters" dataDxfId="124"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}" name="Table1" displayName="Table1" ref="A1:J68" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
-  <autoFilter ref="A1:J68" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{4711296A-1683-4D59-9390-9C88803AA68A}" name="Location" dataDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{46A8668E-BFD8-4CE9-8D48-A23DE00E437E}" name="Test Type" dataDxfId="92"/>
-    <tableColumn id="3" xr3:uid="{B7C72E78-CAF2-41A0-B7AC-096EC362072F}" name="Test Number" dataDxfId="91"/>
-    <tableColumn id="10" xr3:uid="{91E3C101-E9B0-405F-84B0-E044FE40F81E}" name="Test Date-Time" dataDxfId="90"/>
-    <tableColumn id="9" xr3:uid="{D57E3F37-9AD6-40C2-8ACB-5192B0E03191}" name="Sys/Comp Info" dataDxfId="89"/>
-    <tableColumn id="4" xr3:uid="{9415854F-BF69-421C-939D-DB4180DF22DE}" name="Severity" dataDxfId="88"/>
-    <tableColumn id="5" xr3:uid="{5AD12D48-C5A2-4105-B479-271121D42D3E}" name="EASEY Result Code" dataDxfId="87"/>
-    <tableColumn id="8" xr3:uid="{FBEFE9F9-E17E-4E0B-8743-7AE06BE9B114}" name="Fired" dataDxfId="86"/>
-    <tableColumn id="6" xr3:uid="{FCE78312-8A7D-4561-B4CC-F676E43829AF}" name="EASEY Result" dataDxfId="85"/>
-    <tableColumn id="7" xr3:uid="{AA4E3A53-68A9-4DF8-87BC-70FB236A6CED}" name="Notes" dataDxfId="84"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{020EA727-A068-4214-96AF-BBB58B4AD2CD}" name="Table12" displayName="Table12" ref="A1:K25" totalsRowShown="0" headerRowDxfId="123" dataDxfId="121" headerRowBorderDxfId="122">
+  <autoFilter ref="A1:K25" xr:uid="{020EA727-A068-4214-96AF-BBB58B4AD2CD}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{17B6DF4E-F31D-42AC-A8A3-2F473C2E30F7}" name="Location" dataDxfId="120"/>
+    <tableColumn id="2" xr3:uid="{1A61DB90-0A47-46E7-8836-10B843CF3280}" name="Test Type" dataDxfId="119"/>
+    <tableColumn id="3" xr3:uid="{C31ACC80-9B40-4B96-9E67-1DC0F8B22187}" name="Test Number" dataDxfId="118"/>
+    <tableColumn id="4" xr3:uid="{80D262AE-185A-4DB8-B5EF-067896A28E0A}" name="Test Date-Time" dataDxfId="117"/>
+    <tableColumn id="5" xr3:uid="{6B683640-6F4D-4D37-B872-927A078A42E7}" name="Sys/Comp Info" dataDxfId="116"/>
+    <tableColumn id="6" xr3:uid="{F2BE968C-9CCB-4176-862E-EA3DBB1F5265}" name="Severity" dataDxfId="115"/>
+    <tableColumn id="7" xr3:uid="{BC1C5663-AD9C-4AF4-8910-56571D431FB2}" name="EASEY Result Code" dataDxfId="114"/>
+    <tableColumn id="8" xr3:uid="{9BDF95D2-C165-45CF-B4F9-D68DB059FCA4}" name="Fired" dataDxfId="113"/>
+    <tableColumn id="9" xr3:uid="{932FF336-A11E-491C-BA6B-0A86BA9E1B8D}" name="EASEY Result" dataDxfId="112"/>
+    <tableColumn id="10" xr3:uid="{DFD2B33B-3898-4612-A48A-7808C887C1CB}" name="Notes" dataDxfId="111"/>
+    <tableColumn id="11" xr3:uid="{62C0C95E-EBA4-4A37-A7D6-D1C8B2FB1DD6}" name="Command Line Parameters" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4A33A717-7F36-46E9-B108-57CE91FC9965}" name="Table10" displayName="Table10" ref="A1:K89" totalsRowShown="0" headerRowDxfId="83" dataDxfId="81" headerRowBorderDxfId="82">
-  <autoFilter ref="A1:K89" xr:uid="{4A33A717-7F36-46E9-B108-57CE91FC9965}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{CDEE6302-915F-4B8B-8931-C82E789BFD68}" name="Location" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{82F96464-31C7-41F4-99E4-F836EB4804AE}" name="Test Type" dataDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{9A3AD922-1B43-4401-9D08-A69565CBC240}" name="Test Number" dataDxfId="78"/>
-    <tableColumn id="4" xr3:uid="{153B2B1E-9F8A-40A0-9FC6-F154FA69A06D}" name="Test Date-Time" dataDxfId="77"/>
-    <tableColumn id="5" xr3:uid="{EB537EEB-DEA8-4166-A050-FFBFD68D1416}" name="Sys/Comp Info" dataDxfId="76"/>
-    <tableColumn id="6" xr3:uid="{E0692378-248B-472C-9ADE-6DC4C40CE31D}" name="Severity" dataDxfId="75"/>
-    <tableColumn id="7" xr3:uid="{D0B08289-03B0-4D7E-B475-69D81994C3D6}" name="EASEY Result Code" dataDxfId="74"/>
-    <tableColumn id="8" xr3:uid="{8A5BC497-E14C-4A60-9721-3754AC8FBB86}" name="Fired" dataDxfId="73"/>
-    <tableColumn id="9" xr3:uid="{D4027939-C285-4B69-8FE1-5C89204292B8}" name="EASEY Result" dataDxfId="72"/>
-    <tableColumn id="10" xr3:uid="{CAD9076A-ADA1-4DB7-B052-FB52970BED12}" name="Notes" dataDxfId="71"/>
-    <tableColumn id="11" xr3:uid="{F61AE4C4-8B02-46C3-94D5-1DAA82EE83BE}" name="Command Line Parameters" dataDxfId="70"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}" name="Table1" displayName="Table1" ref="A1:J68" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
+  <autoFilter ref="A1:J68" xr:uid="{FDFA87AE-4F5C-467B-BD03-84C36AD684CE}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{4711296A-1683-4D59-9390-9C88803AA68A}" name="Location" dataDxfId="107"/>
+    <tableColumn id="2" xr3:uid="{46A8668E-BFD8-4CE9-8D48-A23DE00E437E}" name="Test Type" dataDxfId="106"/>
+    <tableColumn id="3" xr3:uid="{B7C72E78-CAF2-41A0-B7AC-096EC362072F}" name="Test Number" dataDxfId="105"/>
+    <tableColumn id="10" xr3:uid="{91E3C101-E9B0-405F-84B0-E044FE40F81E}" name="Test Date-Time" dataDxfId="104"/>
+    <tableColumn id="9" xr3:uid="{D57E3F37-9AD6-40C2-8ACB-5192B0E03191}" name="Sys/Comp Info" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{9415854F-BF69-421C-939D-DB4180DF22DE}" name="Severity" dataDxfId="102"/>
+    <tableColumn id="5" xr3:uid="{5AD12D48-C5A2-4105-B479-271121D42D3E}" name="EASEY Result Code" dataDxfId="101"/>
+    <tableColumn id="8" xr3:uid="{FBEFE9F9-E17E-4E0B-8743-7AE06BE9B114}" name="Fired" dataDxfId="100"/>
+    <tableColumn id="6" xr3:uid="{FCE78312-8A7D-4561-B4CC-F676E43829AF}" name="EASEY Result" dataDxfId="99"/>
+    <tableColumn id="7" xr3:uid="{AA4E3A53-68A9-4DF8-87BC-70FB236A6CED}" name="Notes" dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}" name="Table2" displayName="Table2" ref="A1:K581" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68">
-  <autoFilter ref="A1:K581" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4A33A717-7F36-46E9-B108-57CE91FC9965}" name="Table10" displayName="Table10" ref="A1:K89" totalsRowShown="0" headerRowDxfId="97" dataDxfId="95" headerRowBorderDxfId="96">
+  <autoFilter ref="A1:K89" xr:uid="{4A33A717-7F36-46E9-B108-57CE91FC9965}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{2F62CB62-9049-497E-ADC7-F9F96C31FD57}" name="Location" dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{4B11ACA0-FDC6-44CA-8A6F-3F08C4CFA5F1}" name="Test Type" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{C41F1DAE-8DC9-48E1-917C-258A6C1E96C9}" name="Test Number" dataDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{EC0CA150-1F20-45D9-9C39-AFA9123777F4}" name="Test Date-Time" dataDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{33FF74A1-9DCC-4D3A-B0C5-64E9380F879C}" name="Sys/Comp Info" dataDxfId="62"/>
-    <tableColumn id="6" xr3:uid="{22A99E8A-A5B5-4CBC-B53D-C1D9D2C5AE1B}" name="Severity" dataDxfId="61"/>
-    <tableColumn id="7" xr3:uid="{029739E6-4C78-4E2E-A09D-8C3FA73D2041}" name="EASEY Result Code" dataDxfId="60"/>
-    <tableColumn id="8" xr3:uid="{5D0E993C-1382-48E9-AA45-BE7DC3BA96AF}" name="Fired" dataDxfId="59"/>
-    <tableColumn id="9" xr3:uid="{F1CFA0F6-70F7-4594-B088-F1D73717D454}" name="EASEY Result" dataDxfId="58"/>
-    <tableColumn id="10" xr3:uid="{40B0439D-9986-4626-9FF3-B32AE7B5EA33}" name="Notes" dataDxfId="57"/>
-    <tableColumn id="11" xr3:uid="{FF29FE95-83D5-44D1-A98E-E38DE83D7BC7}" name="Command Line Parameters" dataDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{CDEE6302-915F-4B8B-8931-C82E789BFD68}" name="Location" dataDxfId="94"/>
+    <tableColumn id="2" xr3:uid="{82F96464-31C7-41F4-99E4-F836EB4804AE}" name="Test Type" dataDxfId="93"/>
+    <tableColumn id="3" xr3:uid="{9A3AD922-1B43-4401-9D08-A69565CBC240}" name="Test Number" dataDxfId="92"/>
+    <tableColumn id="4" xr3:uid="{153B2B1E-9F8A-40A0-9FC6-F154FA69A06D}" name="Test Date-Time" dataDxfId="91"/>
+    <tableColumn id="5" xr3:uid="{EB537EEB-DEA8-4166-A050-FFBFD68D1416}" name="Sys/Comp Info" dataDxfId="90"/>
+    <tableColumn id="6" xr3:uid="{E0692378-248B-472C-9ADE-6DC4C40CE31D}" name="Severity" dataDxfId="89"/>
+    <tableColumn id="7" xr3:uid="{D0B08289-03B0-4D7E-B475-69D81994C3D6}" name="EASEY Result Code" dataDxfId="88"/>
+    <tableColumn id="8" xr3:uid="{8A5BC497-E14C-4A60-9721-3754AC8FBB86}" name="Fired" dataDxfId="87"/>
+    <tableColumn id="9" xr3:uid="{D4027939-C285-4B69-8FE1-5C89204292B8}" name="EASEY Result" dataDxfId="86"/>
+    <tableColumn id="10" xr3:uid="{CAD9076A-ADA1-4DB7-B052-FB52970BED12}" name="Notes" dataDxfId="85"/>
+    <tableColumn id="11" xr3:uid="{F61AE4C4-8B02-46C3-94D5-1DAA82EE83BE}" name="Command Line Parameters" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{72A5AA74-4364-4117-8778-356FF8C70282}" name="Table5" displayName="Table5" ref="A1:K91" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54">
-  <autoFilter ref="A1:K91" xr:uid="{72A5AA74-4364-4117-8778-356FF8C70282}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}" name="Table2" displayName="Table2" ref="A1:K581" totalsRowShown="0" headerRowDxfId="83" dataDxfId="81" headerRowBorderDxfId="82">
+  <autoFilter ref="A1:K581" xr:uid="{12CAFD5A-4B98-4439-A928-885566A8A3A6}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{B5B471E1-992B-4560-9AE9-3A0B01F9D400}" name="Location" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{1012AED6-A79C-434D-9EFD-BC07FE87995E}" name="Test Type" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{B5631442-9C30-47B5-9E8F-98D77DB400BF}" name="Test Number" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{960A60B0-A29E-44B1-B36A-03ABF8C9387B}" name="Test Date-Time" dataDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{33F281F6-219B-4E02-9434-6B6D946A98E0}" name="Sys/Comp Info" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{E798D1DA-91F4-4F85-BC08-C953E40455E6}" name="Severity" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{D1264FDF-B29D-4FEE-92C2-AB98523233CD}" name="EASEY Result Code" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{C745552B-9704-4998-BE61-D3A91601E678}" name="Fired" dataDxfId="45"/>
-    <tableColumn id="9" xr3:uid="{C834180C-E3EF-4150-9616-ACEC523C5385}" name="EASEY Result" dataDxfId="44"/>
-    <tableColumn id="10" xr3:uid="{3ABD6028-9668-4A63-AEC5-1740A232405E}" name="Notes" dataDxfId="43"/>
-    <tableColumn id="11" xr3:uid="{9F9E58E8-A77F-4D89-A441-47366556DBC4}" name="Command Line Parameters" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{2F62CB62-9049-497E-ADC7-F9F96C31FD57}" name="Location" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{4B11ACA0-FDC6-44CA-8A6F-3F08C4CFA5F1}" name="Test Type" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{C41F1DAE-8DC9-48E1-917C-258A6C1E96C9}" name="Test Number" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{EC0CA150-1F20-45D9-9C39-AFA9123777F4}" name="Test Date-Time" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{33FF74A1-9DCC-4D3A-B0C5-64E9380F879C}" name="Sys/Comp Info" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{22A99E8A-A5B5-4CBC-B53D-C1D9D2C5AE1B}" name="Severity" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{029739E6-4C78-4E2E-A09D-8C3FA73D2041}" name="EASEY Result Code" dataDxfId="74"/>
+    <tableColumn id="8" xr3:uid="{5D0E993C-1382-48E9-AA45-BE7DC3BA96AF}" name="Fired" dataDxfId="73"/>
+    <tableColumn id="9" xr3:uid="{F1CFA0F6-70F7-4594-B088-F1D73717D454}" name="EASEY Result" dataDxfId="72"/>
+    <tableColumn id="10" xr3:uid="{40B0439D-9986-4626-9FF3-B32AE7B5EA33}" name="Notes" dataDxfId="71"/>
+    <tableColumn id="11" xr3:uid="{FF29FE95-83D5-44D1-A98E-E38DE83D7BC7}" name="Command Line Parameters" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{AF9DD8BE-C048-408A-9F94-5A8BA21F35EE}" name="Table16" displayName="Table16" ref="A1:K32" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40">
-  <autoFilter ref="A1:K32" xr:uid="{AF9DD8BE-C048-408A-9F94-5A8BA21F35EE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{72A5AA74-4364-4117-8778-356FF8C70282}" name="Table5" displayName="Table5" ref="A1:K91" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68">
+  <autoFilter ref="A1:K91" xr:uid="{72A5AA74-4364-4117-8778-356FF8C70282}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{CEF40D72-5DCC-4B34-AFF0-DB646EE7F1D9}" name="Location" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{73E21D38-0138-4A9D-92D7-F5A45463FD70}" name="Test Type" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{F42AD8C2-F06C-4997-B9FA-A329126E0DFF}" name="Test Number" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{854FA5EA-A370-4202-BA3A-9FA3AB721241}" name="Test Date-Time" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{7732B98C-AAD5-4156-A763-0BC4DE759B93}" name="Sys/Comp Info" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{45B5508A-A4AD-4CFF-B677-AD9882050109}" name="Severity" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{C256B736-EB39-4718-8D5D-E6109D13DA65}" name="EASEY Result Code" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{924700DB-01C4-4CC8-9378-33C861B04674}" name="Fired" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{443A7749-F8EE-4346-8DAB-AB037E910CC8}" name="EASEY Result" dataDxfId="30"/>
-    <tableColumn id="10" xr3:uid="{17370406-1790-475D-A379-C70F7A67E837}" name="Notes" dataDxfId="29"/>
-    <tableColumn id="11" xr3:uid="{52FD404F-F0C8-42CF-85B7-842E44A87945}" name="Command Line Parameters" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{B5B471E1-992B-4560-9AE9-3A0B01F9D400}" name="Location" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{1012AED6-A79C-434D-9EFD-BC07FE87995E}" name="Test Type" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{B5631442-9C30-47B5-9E8F-98D77DB400BF}" name="Test Number" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{960A60B0-A29E-44B1-B36A-03ABF8C9387B}" name="Test Date-Time" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{33F281F6-219B-4E02-9434-6B6D946A98E0}" name="Sys/Comp Info" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{E798D1DA-91F4-4F85-BC08-C953E40455E6}" name="Severity" dataDxfId="61"/>
+    <tableColumn id="7" xr3:uid="{D1264FDF-B29D-4FEE-92C2-AB98523233CD}" name="EASEY Result Code" dataDxfId="60"/>
+    <tableColumn id="8" xr3:uid="{C745552B-9704-4998-BE61-D3A91601E678}" name="Fired" dataDxfId="59"/>
+    <tableColumn id="9" xr3:uid="{C834180C-E3EF-4150-9616-ACEC523C5385}" name="EASEY Result" dataDxfId="58"/>
+    <tableColumn id="10" xr3:uid="{3ABD6028-9668-4A63-AEC5-1740A232405E}" name="Notes" dataDxfId="57"/>
+    <tableColumn id="11" xr3:uid="{9F9E58E8-A77F-4D89-A441-47366556DBC4}" name="Command Line Parameters" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{F6500E59-5E05-4CE8-8F9D-9221B55D7FD2}" name="Table15" displayName="Table15" ref="A1:K26" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26">
-  <autoFilter ref="A1:K26" xr:uid="{F6500E59-5E05-4CE8-8F9D-9221B55D7FD2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{AF9DD8BE-C048-408A-9F94-5A8BA21F35EE}" name="Table16" displayName="Table16" ref="A1:K32" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54">
+  <autoFilter ref="A1:K32" xr:uid="{AF9DD8BE-C048-408A-9F94-5A8BA21F35EE}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{141A1F22-04AC-41C4-A9F5-CA2D856537D2}" name="Location" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{682EB442-4EFC-4943-86B4-811065481E58}" name="Test Type" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{A5BCB04C-743D-46FA-B0DB-84CF0B6BBC8E}" name="Test Number" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{337B62FF-2ACC-49AF-ACCD-33722D3A358A}" name="Test Date-Time" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{CA9A9114-48D7-4C09-9D29-E09FD186CBA4}" name="Sys/Comp Info" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{19FB15F6-B8AD-4984-9641-8937F6CFB220}" name="Severity" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{B429ED75-C4D0-4170-8D54-B8270FFB8774}" name="EASEY Result Code" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{B11B957A-B097-47B2-A383-93BC12EF8B7D}" name="Fired" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{C1D59F6D-98B3-4861-AE30-E527BF23B4D6}" name="EASEY Result" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{AF930BC6-6880-489A-BB78-667B6B0662F2}" name="Notes" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{BDA74063-BCCA-4147-84D8-3ACA73246EC1}" name="Command Line Parameters" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{CEF40D72-5DCC-4B34-AFF0-DB646EE7F1D9}" name="Location" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{73E21D38-0138-4A9D-92D7-F5A45463FD70}" name="Test Type" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{F42AD8C2-F06C-4997-B9FA-A329126E0DFF}" name="Test Number" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{854FA5EA-A370-4202-BA3A-9FA3AB721241}" name="Test Date-Time" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{7732B98C-AAD5-4156-A763-0BC4DE759B93}" name="Sys/Comp Info" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{45B5508A-A4AD-4CFF-B677-AD9882050109}" name="Severity" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{C256B736-EB39-4718-8D5D-E6109D13DA65}" name="EASEY Result Code" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{924700DB-01C4-4CC8-9378-33C861B04674}" name="Fired" dataDxfId="45"/>
+    <tableColumn id="9" xr3:uid="{443A7749-F8EE-4346-8DAB-AB037E910CC8}" name="EASEY Result" dataDxfId="44"/>
+    <tableColumn id="10" xr3:uid="{17370406-1790-475D-A379-C70F7A67E837}" name="Notes" dataDxfId="43"/>
+    <tableColumn id="11" xr3:uid="{52FD404F-F0C8-42CF-85B7-842E44A87945}" name="Command Line Parameters" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{4A6B4518-3730-4EDB-8118-7FC685E54D4D}" name="Table14" displayName="Table14" ref="A1:K65" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{F6500E59-5E05-4CE8-8F9D-9221B55D7FD2}" name="Table15" displayName="Table15" ref="A1:K26" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40">
+  <autoFilter ref="A1:K26" xr:uid="{F6500E59-5E05-4CE8-8F9D-9221B55D7FD2}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{141A1F22-04AC-41C4-A9F5-CA2D856537D2}" name="Location" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{682EB442-4EFC-4943-86B4-811065481E58}" name="Test Type" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{A5BCB04C-743D-46FA-B0DB-84CF0B6BBC8E}" name="Test Number" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{337B62FF-2ACC-49AF-ACCD-33722D3A358A}" name="Test Date-Time" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{CA9A9114-48D7-4C09-9D29-E09FD186CBA4}" name="Sys/Comp Info" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{19FB15F6-B8AD-4984-9641-8937F6CFB220}" name="Severity" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{B429ED75-C4D0-4170-8D54-B8270FFB8774}" name="EASEY Result Code" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{B11B957A-B097-47B2-A383-93BC12EF8B7D}" name="Fired" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{C1D59F6D-98B3-4861-AE30-E527BF23B4D6}" name="EASEY Result" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{AF930BC6-6880-489A-BB78-667B6B0662F2}" name="Notes" dataDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{BDA74063-BCCA-4147-84D8-3ACA73246EC1}" name="Command Line Parameters" dataDxfId="28"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{4A6B4518-3730-4EDB-8118-7FC685E54D4D}" name="Table14" displayName="Table14" ref="A1:K65" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26">
   <autoFilter ref="A1:K65" xr:uid="{4A6B4518-3730-4EDB-8118-7FC685E54D4D}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{688BE455-22E7-460C-AEB8-77FED1C57AE3}" name="Location" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{20C8F268-F0DA-4C4B-85CC-9675F4020B20}" name="Test Type" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{54552E71-F736-4EBF-B675-B592F1FEB306}" name="Test Number" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{AE42C9A1-5DFB-4CAB-8EF8-07F76F7C7F72}" name="Test Date-Time" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{59716E11-5EC0-4CF7-9C60-46F006BF4A88}" name="Sys/Comp Info" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{C2858AAF-8CC6-49B5-8987-6A43E1C7AE69}" name="Severity" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{A0BA8D72-C986-43E0-A3BB-DFA920174AFC}" name="EASEY Result Code" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{39E9C69F-1E34-4D36-B7C3-F2D6A86BBD74}" name="Fired" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{ACAE356B-0C07-4041-B1FC-2027B441EF49}" name="EASEY Result" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{356D670A-5642-493A-B84F-2CC68F64CC3B}" name="Notes" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{B4F1D6ED-902F-4D6E-967E-05C2040CB5E8}" name="Command Line Parameters" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{688BE455-22E7-460C-AEB8-77FED1C57AE3}" name="Location" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{20C8F268-F0DA-4C4B-85CC-9675F4020B20}" name="Test Type" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{54552E71-F736-4EBF-B675-B592F1FEB306}" name="Test Number" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{AE42C9A1-5DFB-4CAB-8EF8-07F76F7C7F72}" name="Test Date-Time" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{59716E11-5EC0-4CF7-9C60-46F006BF4A88}" name="Sys/Comp Info" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{C2858AAF-8CC6-49B5-8987-6A43E1C7AE69}" name="Severity" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{A0BA8D72-C986-43E0-A3BB-DFA920174AFC}" name="EASEY Result Code" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{39E9C69F-1E34-4D36-B7C3-F2D6A86BBD74}" name="Fired" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{ACAE356B-0C07-4041-B1FC-2027B441EF49}" name="EASEY Result" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{356D670A-5642-493A-B84F-2CC68F64CC3B}" name="Notes" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{B4F1D6ED-902F-4D6E-967E-05C2040CB5E8}" name="Command Line Parameters" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6E75B64B-AA6D-476A-8302-BF96D5E7E810}" name="Table6" displayName="Table6" ref="A1:K319" totalsRowShown="0" headerRowDxfId="220" dataDxfId="218" headerRowBorderDxfId="219">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6E75B64B-AA6D-476A-8302-BF96D5E7E810}" name="Table6" displayName="Table6" ref="A1:K319" totalsRowShown="0" headerRowDxfId="234" dataDxfId="232" headerRowBorderDxfId="233">
   <autoFilter ref="A1:K319" xr:uid="{6E75B64B-AA6D-476A-8302-BF96D5E7E810}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{DABC54ED-3C28-4B3B-8594-CAA471D265D5}" name="Location" dataDxfId="217"/>
-    <tableColumn id="2" xr3:uid="{F8AEE93E-FDE2-46D7-B1A7-244178C2F820}" name="Test Type" dataDxfId="216"/>
-    <tableColumn id="3" xr3:uid="{8C6E04D8-89F2-453E-9922-8A0AF53CB692}" name="Test Number" dataDxfId="215"/>
-    <tableColumn id="4" xr3:uid="{2B43C86D-8143-4360-87FC-99396C0E304F}" name="Test Date-Time" dataDxfId="214"/>
-    <tableColumn id="5" xr3:uid="{E75FB52D-EC10-43F0-8D77-68CDEA14235D}" name="Sys/Comp Info" dataDxfId="213"/>
-    <tableColumn id="6" xr3:uid="{E6D41DD1-2DAC-4262-AA16-1D46CE14D100}" name="Severity" dataDxfId="212"/>
-    <tableColumn id="7" xr3:uid="{E4B7FCA0-0453-4D46-AF2D-5FCB94154788}" name="EASEY Result Code" dataDxfId="211"/>
-    <tableColumn id="8" xr3:uid="{1C5C127B-0EC6-40C8-9F7F-CDFFB95E2B9C}" name="Fired" dataDxfId="210"/>
-    <tableColumn id="9" xr3:uid="{E4D52144-8081-4E9C-9216-F2B3E7D99696}" name="EASEY Result" dataDxfId="209"/>
-    <tableColumn id="10" xr3:uid="{1B8F57B6-0961-4DCE-A9BB-77E44380F12A}" name="Notes" dataDxfId="208"/>
-    <tableColumn id="11" xr3:uid="{8C749E78-19F9-4D93-A1EC-56160203A547}" name="Command Line Parameters" dataDxfId="207"/>
+    <tableColumn id="1" xr3:uid="{DABC54ED-3C28-4B3B-8594-CAA471D265D5}" name="Location" dataDxfId="231"/>
+    <tableColumn id="2" xr3:uid="{F8AEE93E-FDE2-46D7-B1A7-244178C2F820}" name="Test Type" dataDxfId="230"/>
+    <tableColumn id="3" xr3:uid="{8C6E04D8-89F2-453E-9922-8A0AF53CB692}" name="Test Number" dataDxfId="229"/>
+    <tableColumn id="4" xr3:uid="{2B43C86D-8143-4360-87FC-99396C0E304F}" name="Test Date-Time" dataDxfId="228"/>
+    <tableColumn id="5" xr3:uid="{E75FB52D-EC10-43F0-8D77-68CDEA14235D}" name="Sys/Comp Info" dataDxfId="227"/>
+    <tableColumn id="6" xr3:uid="{E6D41DD1-2DAC-4262-AA16-1D46CE14D100}" name="Severity" dataDxfId="226"/>
+    <tableColumn id="7" xr3:uid="{E4B7FCA0-0453-4D46-AF2D-5FCB94154788}" name="EASEY Result Code" dataDxfId="225"/>
+    <tableColumn id="8" xr3:uid="{1C5C127B-0EC6-40C8-9F7F-CDFFB95E2B9C}" name="Fired" dataDxfId="224"/>
+    <tableColumn id="9" xr3:uid="{E4D52144-8081-4E9C-9216-F2B3E7D99696}" name="EASEY Result" dataDxfId="223"/>
+    <tableColumn id="10" xr3:uid="{1B8F57B6-0961-4DCE-A9BB-77E44380F12A}" name="Notes" dataDxfId="222"/>
+    <tableColumn id="11" xr3:uid="{8C749E78-19F9-4D93-A1EC-56160203A547}" name="Command Line Parameters" dataDxfId="221"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{D2B13800-7296-41BF-B284-AE9E33207A74}" name="Table11" displayName="Table11" ref="A1:K43" totalsRowShown="0" headerRowDxfId="206" dataDxfId="204" headerRowBorderDxfId="205">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{D2B13800-7296-41BF-B284-AE9E33207A74}" name="Table11" displayName="Table11" ref="A1:K43" totalsRowShown="0" headerRowDxfId="220" dataDxfId="218" headerRowBorderDxfId="219">
   <autoFilter ref="A1:K43" xr:uid="{D2B13800-7296-41BF-B284-AE9E33207A74}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{5C4086A6-D708-4595-83D3-C24973FA7493}" name="Location" dataDxfId="203"/>
-    <tableColumn id="2" xr3:uid="{85418BD6-CBE3-465C-ABAB-216BDDDEC4AB}" name="Test Type" dataDxfId="202"/>
-    <tableColumn id="3" xr3:uid="{4A0464F8-B583-4C14-9868-15E3FED2D126}" name="Test Number" dataDxfId="201"/>
-    <tableColumn id="4" xr3:uid="{78C8BC19-497D-4CBB-B37C-A591E348A8F4}" name="Test Date-Time" dataDxfId="200"/>
-    <tableColumn id="5" xr3:uid="{1264561D-36B6-4A3C-959A-9E394716E8C7}" name="Sys/Comp Info" dataDxfId="199"/>
-    <tableColumn id="6" xr3:uid="{DD999D52-F401-4681-95E1-7CD8BFBB9B5E}" name="Severity" dataDxfId="198"/>
-    <tableColumn id="7" xr3:uid="{579ED199-5C6A-417A-ADFB-6972029F68D6}" name="EASEY Result Code" dataDxfId="197"/>
-    <tableColumn id="8" xr3:uid="{702EEAA3-DA01-410C-BE7A-D14CFC877E75}" name="Fired" dataDxfId="196"/>
-    <tableColumn id="9" xr3:uid="{DD383C11-E19A-499D-859A-528E10686FA7}" name="EASEY Result" dataDxfId="195"/>
-    <tableColumn id="10" xr3:uid="{C65DEB63-1D14-4EFD-B04E-24DDAC666CD7}" name="Notes" dataDxfId="194"/>
-    <tableColumn id="11" xr3:uid="{F16CC94C-3B79-491F-8B14-14C31351265C}" name="Command Line Parameters" dataDxfId="193"/>
+    <tableColumn id="1" xr3:uid="{5C4086A6-D708-4595-83D3-C24973FA7493}" name="Location" dataDxfId="217"/>
+    <tableColumn id="2" xr3:uid="{85418BD6-CBE3-465C-ABAB-216BDDDEC4AB}" name="Test Type" dataDxfId="216"/>
+    <tableColumn id="3" xr3:uid="{4A0464F8-B583-4C14-9868-15E3FED2D126}" name="Test Number" dataDxfId="215"/>
+    <tableColumn id="4" xr3:uid="{78C8BC19-497D-4CBB-B37C-A591E348A8F4}" name="Test Date-Time" dataDxfId="214"/>
+    <tableColumn id="5" xr3:uid="{1264561D-36B6-4A3C-959A-9E394716E8C7}" name="Sys/Comp Info" dataDxfId="213"/>
+    <tableColumn id="6" xr3:uid="{DD999D52-F401-4681-95E1-7CD8BFBB9B5E}" name="Severity" dataDxfId="212"/>
+    <tableColumn id="7" xr3:uid="{579ED199-5C6A-417A-ADFB-6972029F68D6}" name="EASEY Result Code" dataDxfId="211"/>
+    <tableColumn id="8" xr3:uid="{702EEAA3-DA01-410C-BE7A-D14CFC877E75}" name="Fired" dataDxfId="210"/>
+    <tableColumn id="9" xr3:uid="{DD383C11-E19A-499D-859A-528E10686FA7}" name="EASEY Result" dataDxfId="209"/>
+    <tableColumn id="10" xr3:uid="{C65DEB63-1D14-4EFD-B04E-24DDAC666CD7}" name="Notes" dataDxfId="208"/>
+    <tableColumn id="11" xr3:uid="{F16CC94C-3B79-491F-8B14-14C31351265C}" name="Command Line Parameters" dataDxfId="207"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{ADD0CDC3-005A-4908-87CE-24A74B49CF61}" name="Table17" displayName="Table17" ref="A1:K29" totalsRowShown="0" headerRowDxfId="192" dataDxfId="190" headerRowBorderDxfId="191">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{ADD0CDC3-005A-4908-87CE-24A74B49CF61}" name="Table17" displayName="Table17" ref="A1:K29" totalsRowShown="0" headerRowDxfId="206" dataDxfId="204" headerRowBorderDxfId="205">
   <autoFilter ref="A1:K29" xr:uid="{ADD0CDC3-005A-4908-87CE-24A74B49CF61}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{B56F8537-694B-43C9-A68E-8609AD201C4E}" name="Location" dataDxfId="189"/>
-    <tableColumn id="2" xr3:uid="{6DBC46BF-D815-49D3-8182-9348CC54B060}" name="Event Code" dataDxfId="188"/>
-    <tableColumn id="3" xr3:uid="{575144C3-7FC0-46B6-BF5F-2AFF455A12F3}" name="Event Hout" dataDxfId="187"/>
-    <tableColumn id="4" xr3:uid="{9C078E68-941B-436F-8B0A-AC7AEA4D2856}" name="System" dataDxfId="186"/>
-    <tableColumn id="5" xr3:uid="{8AA702CF-37F0-461E-82EF-1D8192AE75F5}" name="Component" dataDxfId="185"/>
-    <tableColumn id="6" xr3:uid="{44FDC991-9A31-45EE-8AFE-7B8A2C3DB067}" name="Severity" dataDxfId="184"/>
-    <tableColumn id="7" xr3:uid="{F92E5153-B0F4-49AF-A741-FF7478287E50}" name="EASEY Result Code" dataDxfId="183"/>
-    <tableColumn id="8" xr3:uid="{EE2A550F-1ECC-43BA-8D54-2B5A57C82353}" name="Fired" dataDxfId="182"/>
-    <tableColumn id="9" xr3:uid="{BF863843-8882-43DC-9370-234BCBAE2F1E}" name="EASEY Result" dataDxfId="181"/>
-    <tableColumn id="10" xr3:uid="{53139B45-AF9C-4977-B597-D0A55FC6A1BE}" name="Notes" dataDxfId="180"/>
-    <tableColumn id="11" xr3:uid="{8B1260FF-BE34-423D-A59F-2DA415AA604B}" name="Command Line Parameters" dataDxfId="179"/>
+    <tableColumn id="1" xr3:uid="{B56F8537-694B-43C9-A68E-8609AD201C4E}" name="Location" dataDxfId="203"/>
+    <tableColumn id="2" xr3:uid="{6DBC46BF-D815-49D3-8182-9348CC54B060}" name="Event Code" dataDxfId="202"/>
+    <tableColumn id="3" xr3:uid="{575144C3-7FC0-46B6-BF5F-2AFF455A12F3}" name="Event Hout" dataDxfId="201"/>
+    <tableColumn id="4" xr3:uid="{9C078E68-941B-436F-8B0A-AC7AEA4D2856}" name="System" dataDxfId="200"/>
+    <tableColumn id="5" xr3:uid="{8AA702CF-37F0-461E-82EF-1D8192AE75F5}" name="Component" dataDxfId="199"/>
+    <tableColumn id="6" xr3:uid="{44FDC991-9A31-45EE-8AFE-7B8A2C3DB067}" name="Severity" dataDxfId="198"/>
+    <tableColumn id="7" xr3:uid="{F92E5153-B0F4-49AF-A741-FF7478287E50}" name="EASEY Result Code" dataDxfId="197"/>
+    <tableColumn id="8" xr3:uid="{EE2A550F-1ECC-43BA-8D54-2B5A57C82353}" name="Fired" dataDxfId="196"/>
+    <tableColumn id="9" xr3:uid="{BF863843-8882-43DC-9370-234BCBAE2F1E}" name="EASEY Result" dataDxfId="195"/>
+    <tableColumn id="10" xr3:uid="{53139B45-AF9C-4977-B597-D0A55FC6A1BE}" name="Notes" dataDxfId="194"/>
+    <tableColumn id="11" xr3:uid="{8B1260FF-BE34-423D-A59F-2DA415AA604B}" name="Command Line Parameters" dataDxfId="193"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{643FA4C3-7226-4FC1-A77A-D6CF46B7DE06}" name="Table7" displayName="Table7" ref="A1:K33" totalsRowShown="0" headerRowDxfId="178" dataDxfId="176" headerRowBorderDxfId="177">
-  <autoFilter ref="A1:K33" xr:uid="{643FA4C3-7226-4FC1-A77A-D6CF46B7DE06}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{F5CAA03C-698D-4ED8-AA1C-9EE6C947CFDB}" name="Table18" displayName="Table18" ref="A1:K28" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="13">
+  <autoFilter ref="A1:K28" xr:uid="{F5CAA03C-698D-4ED8-AA1C-9EE6C947CFDB}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{6A1DC097-B550-4298-811F-BB553C8A78B7}" name="Location" dataDxfId="175"/>
-    <tableColumn id="2" xr3:uid="{B0B911C5-C9AF-4D6B-9A8E-E4524ABB1455}" name="Test Type" dataDxfId="174"/>
-    <tableColumn id="3" xr3:uid="{7C46186D-C3D8-4F3A-A359-DBEC33D11A32}" name="Test Number" dataDxfId="173"/>
-    <tableColumn id="4" xr3:uid="{B77DADA4-D1C0-49A5-8941-BF36C2738914}" name="Test Date-Time" dataDxfId="172"/>
-    <tableColumn id="5" xr3:uid="{94D2842C-7497-4826-BFDF-64C1F4930DC7}" name="Sys/Comp Info" dataDxfId="171"/>
-    <tableColumn id="6" xr3:uid="{18E0026A-3AB3-4471-BB8D-F86CD1FCACB2}" name="Severity" dataDxfId="170"/>
-    <tableColumn id="7" xr3:uid="{64F844FE-3B1B-48BD-BFA3-F73DD8F6BAE7}" name="EASEY Result Code" dataDxfId="169"/>
-    <tableColumn id="8" xr3:uid="{0A777F6A-C367-4D68-80DC-BE82994A6C9C}" name="Fired" dataDxfId="168"/>
-    <tableColumn id="9" xr3:uid="{58E8A6A7-2EB9-4636-98D8-915BAA276364}" name="EASEY Result" dataDxfId="167"/>
-    <tableColumn id="10" xr3:uid="{8E16DEBD-9C74-43B0-A1EC-12CF584BC57D}" name="Notes" dataDxfId="166"/>
-    <tableColumn id="11" xr3:uid="{7AE3F542-B6CD-45CB-99F0-47DDE95004F7}" name="Command Line Parameters" dataDxfId="165"/>
+    <tableColumn id="1" xr3:uid="{FB83A516-4FD9-4438-97C5-B4EEE2A6561F}" name="Location" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{D94CAE1F-EF74-4345-A8B7-28F78C3B5454}" name="Quarter" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{249A36DE-BA85-4496-A081-BE792EB18D20}" name="Code" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{C3DD92C3-D787-4C98-95D3-58D8F67A0BBC}" name="System" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{2DEC6210-CC4A-4A6F-9AA1-FC11E2532DAC}" name="Component" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{50635401-892D-4E6C-8B8F-67672D49CD99}" name="Severity" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{BAE2C4C9-CEC3-48C5-A4ED-1C9E7507F14C}" name="EASEY Result Code" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{E88822FF-A298-4679-9DB5-A7B147CB9D50}" name="Fired" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{97354477-624F-4620-B89C-A0E3A2F0A7B4}" name="EASEY Result" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{38A58D31-47E7-436D-9CA6-86334FAC6EAD}" name="Notes" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{FC9A787A-681E-4C03-AD11-7E79270B05B8}" name="Command Line Parameters" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E4484FF7-4E72-42BE-B673-2211F40DBEC5}" name="Table8" displayName="Table8" ref="A1:K28" totalsRowShown="0" headerRowDxfId="164" headerRowBorderDxfId="163">
-  <autoFilter ref="A1:K28" xr:uid="{E4484FF7-4E72-42BE-B673-2211F40DBEC5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{643FA4C3-7226-4FC1-A77A-D6CF46B7DE06}" name="Table7" displayName="Table7" ref="A1:K33" totalsRowShown="0" headerRowDxfId="192" dataDxfId="190" headerRowBorderDxfId="191">
+  <autoFilter ref="A1:K33" xr:uid="{643FA4C3-7226-4FC1-A77A-D6CF46B7DE06}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{BCDEC250-D556-489B-A8C0-F3C0B749EE85}" name="Location" dataDxfId="162"/>
-    <tableColumn id="2" xr3:uid="{27845E29-DF76-4FC1-8B99-E6D05BC504AB}" name="Test Type" dataDxfId="161"/>
-    <tableColumn id="3" xr3:uid="{88E8B5E9-3A4F-487A-A1FD-2F8825130F6C}" name="Test Number" dataDxfId="160"/>
-    <tableColumn id="4" xr3:uid="{96597CE9-7403-4439-ACB1-4DB48A5AE831}" name="Test Date-Time" dataDxfId="159"/>
-    <tableColumn id="5" xr3:uid="{67D38623-BE59-4D0E-966A-D900405266E4}" name="Sys/Comp Info" dataDxfId="158"/>
-    <tableColumn id="6" xr3:uid="{4480DA93-63BE-46D7-9C44-A62CF4C30DB9}" name="Severity" dataDxfId="157"/>
-    <tableColumn id="7" xr3:uid="{4DE029FD-1894-4C16-A49E-7205888520D7}" name="EASEY Result Code" dataDxfId="156"/>
-    <tableColumn id="8" xr3:uid="{38E45A86-E2E8-436C-83B0-1DC52A25A389}" name="Fired" dataDxfId="155"/>
-    <tableColumn id="9" xr3:uid="{D0FCA1F1-B5E4-4F39-8570-3FDAAFD8C655}" name="EASEY Result" dataDxfId="154"/>
-    <tableColumn id="10" xr3:uid="{8FFB2F06-8DA3-4256-9B20-894A86F3CAB1}" name="Notes" dataDxfId="153"/>
-    <tableColumn id="11" xr3:uid="{0A82F04A-4DC9-465C-ACBF-8A9107DE5BF9}" name="Command Line Parameters" dataDxfId="152"/>
+    <tableColumn id="1" xr3:uid="{6A1DC097-B550-4298-811F-BB553C8A78B7}" name="Location" dataDxfId="189"/>
+    <tableColumn id="2" xr3:uid="{B0B911C5-C9AF-4D6B-9A8E-E4524ABB1455}" name="Test Type" dataDxfId="188"/>
+    <tableColumn id="3" xr3:uid="{7C46186D-C3D8-4F3A-A359-DBEC33D11A32}" name="Test Number" dataDxfId="187"/>
+    <tableColumn id="4" xr3:uid="{B77DADA4-D1C0-49A5-8941-BF36C2738914}" name="Test Date-Time" dataDxfId="186"/>
+    <tableColumn id="5" xr3:uid="{94D2842C-7497-4826-BFDF-64C1F4930DC7}" name="Sys/Comp Info" dataDxfId="185"/>
+    <tableColumn id="6" xr3:uid="{18E0026A-3AB3-4471-BB8D-F86CD1FCACB2}" name="Severity" dataDxfId="184"/>
+    <tableColumn id="7" xr3:uid="{64F844FE-3B1B-48BD-BFA3-F73DD8F6BAE7}" name="EASEY Result Code" dataDxfId="183"/>
+    <tableColumn id="8" xr3:uid="{0A777F6A-C367-4D68-80DC-BE82994A6C9C}" name="Fired" dataDxfId="182"/>
+    <tableColumn id="9" xr3:uid="{58E8A6A7-2EB9-4636-98D8-915BAA276364}" name="EASEY Result" dataDxfId="181"/>
+    <tableColumn id="10" xr3:uid="{8E16DEBD-9C74-43B0-A1EC-12CF584BC57D}" name="Notes" dataDxfId="180"/>
+    <tableColumn id="11" xr3:uid="{7AE3F542-B6CD-45CB-99F0-47DDE95004F7}" name="Command Line Parameters" dataDxfId="179"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C4E4C8FF-D2BC-4023-A7E2-4F0FE1340DDB}" name="Table4" displayName="Table4" ref="A1:K44" totalsRowShown="0" headerRowDxfId="151" dataDxfId="149" headerRowBorderDxfId="150">
-  <autoFilter ref="A1:K44" xr:uid="{C4E4C8FF-D2BC-4023-A7E2-4F0FE1340DDB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E4484FF7-4E72-42BE-B673-2211F40DBEC5}" name="Table8" displayName="Table8" ref="A1:K28" totalsRowShown="0" headerRowDxfId="178" headerRowBorderDxfId="177">
+  <autoFilter ref="A1:K28" xr:uid="{E4484FF7-4E72-42BE-B673-2211F40DBEC5}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{25672079-CDA0-4D8B-8CF3-D545B2ACD419}" name="Location" dataDxfId="148"/>
-    <tableColumn id="2" xr3:uid="{5279C203-946F-4765-ABB9-8C81921C2DC3}" name="Test Type" dataDxfId="147"/>
-    <tableColumn id="3" xr3:uid="{11DE1298-C62C-4C4B-9989-25AA10EF10C0}" name="Test Number" dataDxfId="146"/>
-    <tableColumn id="4" xr3:uid="{2A458B2D-9FF3-4418-9FD6-DF0766209CB5}" name="Test Date-Time" dataDxfId="145"/>
-    <tableColumn id="5" xr3:uid="{60E36B10-857E-4482-B035-790F74DBDB33}" name="Sys/Comp Info" dataDxfId="144"/>
-    <tableColumn id="6" xr3:uid="{2E26423A-D6BE-4410-8F61-F74A3CED15B8}" name="Severity" dataDxfId="143"/>
-    <tableColumn id="7" xr3:uid="{20497C37-19CA-4417-AC58-9CBBEB217149}" name="EASEY Result Code" dataDxfId="142"/>
-    <tableColumn id="8" xr3:uid="{B51DBED3-688D-4748-9F71-406904878E83}" name="Fired" dataDxfId="141"/>
-    <tableColumn id="9" xr3:uid="{55BF46DF-A688-44E7-9212-0315C9101E05}" name="EASEY Result" dataDxfId="140"/>
-    <tableColumn id="10" xr3:uid="{A4FC5CC8-E769-426F-AEEE-D8BDE3AAE1AB}" name="Notes" dataDxfId="139"/>
-    <tableColumn id="11" xr3:uid="{E7F09088-0589-40C2-8067-9D1FE0896663}" name="Command Line Parameters" dataDxfId="138"/>
+    <tableColumn id="1" xr3:uid="{BCDEC250-D556-489B-A8C0-F3C0B749EE85}" name="Location" dataDxfId="176"/>
+    <tableColumn id="2" xr3:uid="{27845E29-DF76-4FC1-8B99-E6D05BC504AB}" name="Test Type" dataDxfId="175"/>
+    <tableColumn id="3" xr3:uid="{88E8B5E9-3A4F-487A-A1FD-2F8825130F6C}" name="Test Number" dataDxfId="174"/>
+    <tableColumn id="4" xr3:uid="{96597CE9-7403-4439-ACB1-4DB48A5AE831}" name="Test Date-Time" dataDxfId="173"/>
+    <tableColumn id="5" xr3:uid="{67D38623-BE59-4D0E-966A-D900405266E4}" name="Sys/Comp Info" dataDxfId="172"/>
+    <tableColumn id="6" xr3:uid="{4480DA93-63BE-46D7-9C44-A62CF4C30DB9}" name="Severity" dataDxfId="171"/>
+    <tableColumn id="7" xr3:uid="{4DE029FD-1894-4C16-A49E-7205888520D7}" name="EASEY Result Code" dataDxfId="170"/>
+    <tableColumn id="8" xr3:uid="{38E45A86-E2E8-436C-83B0-1DC52A25A389}" name="Fired" dataDxfId="169"/>
+    <tableColumn id="9" xr3:uid="{D0FCA1F1-B5E4-4F39-8570-3FDAAFD8C655}" name="EASEY Result" dataDxfId="168"/>
+    <tableColumn id="10" xr3:uid="{8FFB2F06-8DA3-4256-9B20-894A86F3CAB1}" name="Notes" dataDxfId="167"/>
+    <tableColumn id="11" xr3:uid="{0A82F04A-4DC9-465C-ACBF-8A9107DE5BF9}" name="Command Line Parameters" dataDxfId="166"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0CC4DB58-871D-4311-83EC-9DB6A2F24D3C}" name="Table3" displayName="Table3" ref="A1:K26" totalsRowShown="0" headerRowDxfId="137" dataDxfId="135" headerRowBorderDxfId="136">
-  <autoFilter ref="A1:K26" xr:uid="{0CC4DB58-871D-4311-83EC-9DB6A2F24D3C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C4E4C8FF-D2BC-4023-A7E2-4F0FE1340DDB}" name="Table4" displayName="Table4" ref="A1:K44" totalsRowShown="0" headerRowDxfId="165" dataDxfId="163" headerRowBorderDxfId="164">
+  <autoFilter ref="A1:K44" xr:uid="{C4E4C8FF-D2BC-4023-A7E2-4F0FE1340DDB}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{FD39BA7F-4A73-45B6-8492-9C47A87EAF80}" name="Location" dataDxfId="134"/>
-    <tableColumn id="2" xr3:uid="{6BD18705-A907-480B-9613-FD6A89008B95}" name="Test Type" dataDxfId="133"/>
-    <tableColumn id="3" xr3:uid="{171EC70D-BD2B-4679-9E2F-B7A72F41A5BC}" name="Test Number" dataDxfId="132"/>
-    <tableColumn id="4" xr3:uid="{54392DF7-D2E8-406A-BF46-C94A6AF058B7}" name="Test Date-Time" dataDxfId="131"/>
-    <tableColumn id="5" xr3:uid="{BEE30332-3FC4-42CC-9E0A-10D6FD8CE7DB}" name="Sys/Comp Info" dataDxfId="130"/>
-    <tableColumn id="6" xr3:uid="{4D56506A-EEFD-4953-B5C2-BFBFB1100C42}" name="Severity" dataDxfId="129"/>
-    <tableColumn id="7" xr3:uid="{F7744816-5978-4331-B8B7-FBAEA071B23C}" name="EASEY Result Code" dataDxfId="128"/>
-    <tableColumn id="8" xr3:uid="{5A8FF3A4-DEAC-4772-A7B5-657662710593}" name="Fired" dataDxfId="127"/>
-    <tableColumn id="9" xr3:uid="{B72C4A8D-A7B2-492D-AAF3-C53B34CC6D68}" name="EASEY Result" dataDxfId="126"/>
-    <tableColumn id="10" xr3:uid="{3BD58939-520E-4EF9-ACA2-F4F2053AAB3E}" name="Notes" dataDxfId="125"/>
-    <tableColumn id="11" xr3:uid="{81440B9B-FEDA-4EF7-8E5F-058F42001F39}" name="Command Line Parameters" dataDxfId="124"/>
+    <tableColumn id="1" xr3:uid="{25672079-CDA0-4D8B-8CF3-D545B2ACD419}" name="Location" dataDxfId="162"/>
+    <tableColumn id="2" xr3:uid="{5279C203-946F-4765-ABB9-8C81921C2DC3}" name="Test Type" dataDxfId="161"/>
+    <tableColumn id="3" xr3:uid="{11DE1298-C62C-4C4B-9989-25AA10EF10C0}" name="Test Number" dataDxfId="160"/>
+    <tableColumn id="4" xr3:uid="{2A458B2D-9FF3-4418-9FD6-DF0766209CB5}" name="Test Date-Time" dataDxfId="159"/>
+    <tableColumn id="5" xr3:uid="{60E36B10-857E-4482-B035-790F74DBDB33}" name="Sys/Comp Info" dataDxfId="158"/>
+    <tableColumn id="6" xr3:uid="{2E26423A-D6BE-4410-8F61-F74A3CED15B8}" name="Severity" dataDxfId="157"/>
+    <tableColumn id="7" xr3:uid="{20497C37-19CA-4417-AC58-9CBBEB217149}" name="EASEY Result Code" dataDxfId="156"/>
+    <tableColumn id="8" xr3:uid="{B51DBED3-688D-4748-9F71-406904878E83}" name="Fired" dataDxfId="155"/>
+    <tableColumn id="9" xr3:uid="{55BF46DF-A688-44E7-9212-0315C9101E05}" name="EASEY Result" dataDxfId="154"/>
+    <tableColumn id="10" xr3:uid="{A4FC5CC8-E769-426F-AEEE-D8BDE3AAE1AB}" name="Notes" dataDxfId="153"/>
+    <tableColumn id="11" xr3:uid="{E7F09088-0589-40C2-8067-9D1FE0896663}" name="Command Line Parameters" dataDxfId="152"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{387CD9B0-42DD-43F6-B933-FC392A3DA7CC}" name="Table13" displayName="Table13" ref="A1:K26" totalsRowShown="0" headerRowDxfId="123" dataDxfId="121" headerRowBorderDxfId="122">
-  <autoFilter ref="A1:K26" xr:uid="{387CD9B0-42DD-43F6-B933-FC392A3DA7CC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0CC4DB58-871D-4311-83EC-9DB6A2F24D3C}" name="Table3" displayName="Table3" ref="A1:K26" totalsRowShown="0" headerRowDxfId="151" dataDxfId="149" headerRowBorderDxfId="150">
+  <autoFilter ref="A1:K26" xr:uid="{0CC4DB58-871D-4311-83EC-9DB6A2F24D3C}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{58A7C390-8DB8-4C87-940A-55AE4A3592FC}" name="Location" dataDxfId="120"/>
-    <tableColumn id="2" xr3:uid="{A3FC97A4-B761-48C4-BB4C-19DA9785E4DF}" name="Test Type" dataDxfId="119"/>
-    <tableColumn id="3" xr3:uid="{3A3BD58D-EB20-4F67-8215-8A96EE69C978}" name="Test Number" dataDxfId="118"/>
-    <tableColumn id="4" xr3:uid="{DE80CD30-41D0-4B53-8DE7-4F269F701558}" name="Test Date-Time" dataDxfId="117"/>
-    <tableColumn id="5" xr3:uid="{B86A2D2D-C8EB-483C-BF81-EB9D9F4E66F2}" name="Sys/Comp Info" dataDxfId="116"/>
-    <tableColumn id="6" xr3:uid="{36B980F4-27FC-477D-A50F-623E7E0A94DE}" name="Severity" dataDxfId="115"/>
-    <tableColumn id="7" xr3:uid="{A9D38791-49D7-4EB3-896C-646601058179}" name="EASEY Result Code" dataDxfId="114"/>
-    <tableColumn id="8" xr3:uid="{938968FB-CC01-4403-A09B-C4F6161B5D90}" name="Fired" dataDxfId="113"/>
-    <tableColumn id="9" xr3:uid="{25329D8A-5A94-4418-84D8-82518A7923BD}" name="EASEY Result" dataDxfId="112"/>
-    <tableColumn id="10" xr3:uid="{D60A5A6A-A087-4FC2-96A5-060A26AA48C8}" name="Notes" dataDxfId="111"/>
-    <tableColumn id="11" xr3:uid="{5DE715B2-E8F2-48F0-9DE2-694E23DB23E9}" name="Command Line Parameters" dataDxfId="110"/>
+    <tableColumn id="1" xr3:uid="{FD39BA7F-4A73-45B6-8492-9C47A87EAF80}" name="Location" dataDxfId="148"/>
+    <tableColumn id="2" xr3:uid="{6BD18705-A907-480B-9613-FD6A89008B95}" name="Test Type" dataDxfId="147"/>
+    <tableColumn id="3" xr3:uid="{171EC70D-BD2B-4679-9E2F-B7A72F41A5BC}" name="Test Number" dataDxfId="146"/>
+    <tableColumn id="4" xr3:uid="{54392DF7-D2E8-406A-BF46-C94A6AF058B7}" name="Test Date-Time" dataDxfId="145"/>
+    <tableColumn id="5" xr3:uid="{BEE30332-3FC4-42CC-9E0A-10D6FD8CE7DB}" name="Sys/Comp Info" dataDxfId="144"/>
+    <tableColumn id="6" xr3:uid="{4D56506A-EEFD-4953-B5C2-BFBFB1100C42}" name="Severity" dataDxfId="143"/>
+    <tableColumn id="7" xr3:uid="{F7744816-5978-4331-B8B7-FBAEA071B23C}" name="EASEY Result Code" dataDxfId="142"/>
+    <tableColumn id="8" xr3:uid="{5A8FF3A4-DEAC-4772-A7B5-657662710593}" name="Fired" dataDxfId="141"/>
+    <tableColumn id="9" xr3:uid="{B72C4A8D-A7B2-492D-AAF3-C53B34CC6D68}" name="EASEY Result" dataDxfId="140"/>
+    <tableColumn id="10" xr3:uid="{3BD58939-520E-4EF9-ACA2-F4F2053AAB3E}" name="Notes" dataDxfId="139"/>
+    <tableColumn id="11" xr3:uid="{81440B9B-FEDA-4EF7-8E5F-058F42001F39}" name="Command Line Parameters" dataDxfId="138"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10853,6 +11132,876 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F251FFA4-DA4E-420C-9FBD-B96432E43209}">
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="119.5703125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="45.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="97.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D2" s="6">
+        <v>42940.416666666664</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1870</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>1871</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D3" s="6">
+        <v>42940.416666666664</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="D4" s="6">
+        <v>43698.541666666664</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1870</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>1871</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="D5" s="6">
+        <v>43698.541666666664</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D6" s="6">
+        <v>42940.416666666664</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>1878</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>1879</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D7" s="6">
+        <v>42940.416666666664</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D8" s="6">
+        <v>43698.583333333336</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>1882</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>1825</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D9" s="6">
+        <v>43698.583333333336</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1884</v>
+      </c>
+      <c r="D10" s="6">
+        <v>36731.458333333336</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1885</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1884</v>
+      </c>
+      <c r="D11" s="6">
+        <v>36731.458333333336</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1885</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1888</v>
+      </c>
+      <c r="D12" s="6">
+        <v>43698.75</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1885</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>1890</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1888</v>
+      </c>
+      <c r="D13" s="6">
+        <v>43698.75</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1885</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>1892</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>1893</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1888</v>
+      </c>
+      <c r="D14" s="6">
+        <v>43698.75</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1885</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D15" s="6">
+        <v>42940.458333333336</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1895</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>1897</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D16" s="6">
+        <v>42940.458333333336</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>1895</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D17" s="6">
+        <v>43698.625</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1895</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>1901</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D18" s="6">
+        <v>43698.625</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>1895</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D19" s="6">
+        <v>42940.458333333336</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>1904</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>1906</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D20" s="6">
+        <v>42940.458333333336</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>1904</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1908</v>
+      </c>
+      <c r="D21" s="6">
+        <v>43698.625</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>1904</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>1909</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>1910</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1908</v>
+      </c>
+      <c r="D22" s="6">
+        <v>43698.625</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>1904</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="D23" s="6">
+        <v>44470.458333333336</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>1912</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>1917</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>1918</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D24" s="6">
+        <v>43698.625</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>1912</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>1915</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>1800</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D25" s="6">
+        <v>43698.625</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>1912</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D26" s="6">
+        <v>44341.375</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A00A2E-CC49-4E83-9E17-09716099F532}">
   <dimension ref="A1:K25"/>
   <sheetViews>
@@ -11690,7 +12839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C84253-C1F3-40A8-BCD6-786B60222E9D}">
   <dimension ref="A1:J68"/>
   <sheetViews>
@@ -13701,7 +14850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC7BF0A-744E-4983-9D44-F2CA7F0BDAB9}">
   <dimension ref="A1:K89"/>
   <sheetViews>
@@ -16323,7 +17472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF247E8-4CEE-4E4C-AA1C-A5F6418303B4}">
   <dimension ref="A1:K581"/>
   <sheetViews>
@@ -34968,7 +36117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB95806-BA08-44E5-BECF-767BC3A79B45}">
   <dimension ref="A1:K91"/>
   <sheetViews>
@@ -37648,7 +38797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85F61AB-9DA3-44EF-9664-ED9383A7DC6E}">
   <dimension ref="A1:K32"/>
   <sheetViews>
@@ -38710,7 +39859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307E8187-44DF-4FB9-8580-48A85C7DC54A}">
   <dimension ref="A1:K26"/>
   <sheetViews>
@@ -39580,7 +40729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D196CC-3DC9-4A6C-BAF4-BA1549D5FF19}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -53357,11 +54506,11 @@
   </sheetPr>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54329,6 +55478,838 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F256B326-496F-40BF-83C4-D7F97D4155C5}">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="K28" sqref="K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="142" style="5" customWidth="1"/>
+    <col min="10" max="10" width="57.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="103" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2175</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2176</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2108</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2109</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2120</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2121</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>2122</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2120</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>1984</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>2178</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2124</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2125</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>2126</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>2127</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2124</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>2125</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>1984</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>2178</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2124</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>2129</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>2130</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>2131</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2124</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>2129</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>1984</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>2178</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2133</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>2134</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>2135</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2133</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>1984</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>2178</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2133</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>2137</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>2138</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>2139</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>2125</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>2140</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>2141</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2139</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>2125</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>2143</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>2144</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>2139</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>2125</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>1984</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>2178</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2124</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>1984</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>2178</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2148</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>2149</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>1984</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>2178</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>2151</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>2149</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>1984</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>2178</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>2120</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>1984</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>2178</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>2120</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>1984</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>2178</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>2120</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>1984</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>2178</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>2120</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>1984</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>2178</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>2120</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>1984</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>2178</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>2120</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>1984</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>2178</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>2165</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>2120</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>1984</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>2178</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>2167</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>2120</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>1984</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>2178</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>2169</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>2120</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>1984</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>2178</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>2171</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>2133</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>2134</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>2135</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>2171</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>2133</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>2173</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>2174</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>2171</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>2133</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>1984</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>2178</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1178DED-FAC2-4896-ADA7-BAB067290A3E}">
   <dimension ref="A1:K33"/>
   <sheetViews>
@@ -55328,7 +57309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284F8D0C-E6B8-46E4-BE14-B585B6CD2EA0}">
   <dimension ref="A1:K28"/>
   <sheetViews>
@@ -56263,7 +58244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7A12ED-21A8-440D-BCEA-B358D4E41F2C}">
   <dimension ref="A1:K44"/>
   <sheetViews>
@@ -57577,7 +59558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF78B613-4599-4AFD-8861-A9AE5B1FBB5E}">
   <dimension ref="A1:K26"/>
   <sheetViews>
@@ -58369,874 +60350,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F251FFA4-DA4E-420C-9FBD-B96432E43209}">
-  <dimension ref="A1:K26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="46.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="119.5703125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="45.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="97.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1868</v>
-      </c>
-      <c r="D2" s="6">
-        <v>42940.416666666664</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1869</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>1870</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>1871</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>1872</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1868</v>
-      </c>
-      <c r="D3" s="6">
-        <v>42940.416666666664</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1869</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>1873</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>1872</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1874</v>
-      </c>
-      <c r="D4" s="6">
-        <v>43698.541666666664</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1869</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>1870</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>1871</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1874</v>
-      </c>
-      <c r="D5" s="6">
-        <v>43698.541666666664</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>1869</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>1873</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1876</v>
-      </c>
-      <c r="D6" s="6">
-        <v>42940.416666666664</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>1877</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>1878</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>1879</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>1880</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1876</v>
-      </c>
-      <c r="D7" s="6">
-        <v>42940.416666666664</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>1877</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>1873</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>1880</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1881</v>
-      </c>
-      <c r="D8" s="6">
-        <v>43698.583333333336</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>1877</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>1882</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>1825</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>1883</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1881</v>
-      </c>
-      <c r="D9" s="6">
-        <v>43698.583333333336</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>1877</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>1873</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>1883</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1884</v>
-      </c>
-      <c r="D10" s="6">
-        <v>36731.458333333336</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>1885</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>1886</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>980</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>1887</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1884</v>
-      </c>
-      <c r="D11" s="6">
-        <v>36731.458333333336</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>1885</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>1873</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>1887</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1888</v>
-      </c>
-      <c r="D12" s="6">
-        <v>43698.75</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>1885</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>1889</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>1890</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>1891</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1888</v>
-      </c>
-      <c r="D13" s="6">
-        <v>43698.75</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>1885</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>1892</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>1893</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>1891</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>1888</v>
-      </c>
-      <c r="D14" s="6">
-        <v>43698.75</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>1885</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>1873</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>1891</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="D15" s="6">
-        <v>42940.458333333336</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>1895</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>1896</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>1897</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="D16" s="6">
-        <v>42940.458333333336</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>1895</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>1873</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>1899</v>
-      </c>
-      <c r="D17" s="6">
-        <v>43698.625</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>1895</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>1900</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>1901</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>1902</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>1899</v>
-      </c>
-      <c r="D18" s="6">
-        <v>43698.625</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>1895</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>1873</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>1902</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>1903</v>
-      </c>
-      <c r="D19" s="6">
-        <v>42940.458333333336</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>1905</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>1906</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>1907</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>1903</v>
-      </c>
-      <c r="D20" s="6">
-        <v>42940.458333333336</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>1873</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>1907</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>1908</v>
-      </c>
-      <c r="D21" s="6">
-        <v>43698.625</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>1909</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>1910</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>1908</v>
-      </c>
-      <c r="D22" s="6">
-        <v>43698.625</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>1873</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>1857</v>
-      </c>
-      <c r="D23" s="6">
-        <v>44470.458333333336</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>1912</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>1917</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>1918</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>1913</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>1914</v>
-      </c>
-      <c r="D24" s="6">
-        <v>43698.625</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>1912</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>1915</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>1800</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>1916</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>1914</v>
-      </c>
-      <c r="D25" s="6">
-        <v>43698.625</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>1912</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>1873</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>1916</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>1813</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>1861</v>
-      </c>
-      <c r="D26" s="6">
-        <v>44341.375</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>1858</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>1819</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>